--- a/src/test/resources/testData/XAlpha.xlsx
+++ b/src/test/resources/testData/XAlpha.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25128"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6C4BA81-B522-4121-A9AC-B8DD81099B3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA6988A7-52C5-430D-B785-D88A909498CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="644" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="644" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="XAlphaLogin" sheetId="9" r:id="rId1"/>
@@ -99,9 +99,6 @@
     <t>PortfolioNumber</t>
   </si>
   <si>
-    <t>QA_TestCase_Auto_X-Alpha_004</t>
-  </si>
-  <si>
     <t>BTC</t>
   </si>
   <si>
@@ -117,19 +114,22 @@
     <t>FX Spot</t>
   </si>
   <si>
-    <t>QA_TestCase_Auto_X-Alpha_005</t>
-  </si>
-  <si>
     <t>buy</t>
   </si>
   <si>
     <t>pending</t>
   </si>
   <si>
-    <t>QA_TestCase_Auto_X-Alpha_006</t>
-  </si>
-  <si>
     <t>processed</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_XAlpha_004</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_XAlpha_005</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_XAlpha_006</t>
   </si>
 </sst>
 </file>
@@ -159,7 +159,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -182,17 +182,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -534,14 +552,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AD5F807-ACA8-48C4-B9BD-3C44953A349F}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="29.54296875" customWidth="1"/>
-    <col min="2" max="2" width="26.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.36328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.1796875" customWidth="1"/>
     <col min="4" max="4" width="21.26953125" customWidth="1"/>
     <col min="5" max="5" width="18.453125" customWidth="1"/>
@@ -588,6 +606,7 @@
       <c r="E2" t="s">
         <v>7</v>
       </c>
+      <c r="F2" s="3"/>
       <c r="G2" s="1" t="b">
         <v>0</v>
       </c>
@@ -608,6 +627,7 @@
       <c r="E3" t="s">
         <v>6</v>
       </c>
+      <c r="F3" s="3"/>
       <c r="G3" s="1" t="b">
         <v>0</v>
       </c>
@@ -628,6 +648,7 @@
       <c r="E4" t="s">
         <v>5</v>
       </c>
+      <c r="F4" s="3"/>
       <c r="G4" s="1" t="b">
         <v>0</v>
       </c>
@@ -647,8 +668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E763A6C0-A0DE-42F1-A4CC-B0EEDE6F7213}">
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -668,7 +689,7 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C1" t="s">
         <v>18</v>
@@ -706,19 +727,19 @@
     </row>
     <row r="2" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s">
         <v>32</v>
-      </c>
-      <c r="C2" t="s">
-        <v>34</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
@@ -730,13 +751,13 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J2">
         <v>8000</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N2" s="1" t="b">
         <v>0</v>
@@ -744,19 +765,19 @@
     </row>
     <row r="3" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" t="s">
         <v>32</v>
-      </c>
-      <c r="C3" t="s">
-        <v>34</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F3" t="s">
         <v>11</v>
@@ -768,13 +789,13 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J3">
         <v>8000</v>
       </c>
       <c r="K3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="N3" s="1" t="b">
         <v>0</v>
@@ -782,19 +803,19 @@
     </row>
     <row r="4" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" t="s">
         <v>32</v>
-      </c>
-      <c r="C4" t="s">
-        <v>34</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F4" t="s">
         <v>11</v>
@@ -806,13 +827,13 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J4">
         <v>8000</v>
       </c>
       <c r="K4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N4" s="1" t="b">
         <v>0</v>

--- a/src/test/resources/testData/XAlpha.xlsx
+++ b/src/test/resources/testData/XAlpha.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25128"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA6988A7-52C5-430D-B785-D88A909498CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{593883B6-1A2A-4080-AE00-41AEBCAF20C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="644" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="40">
   <si>
     <t>URL</t>
   </si>
@@ -130,6 +130,12 @@
   </si>
   <si>
     <t>QA_TestCase_Auto_XAlpha_006</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_XAlpha_007</t>
+  </si>
+  <si>
+    <t>settled</t>
   </si>
 </sst>
 </file>
@@ -666,10 +672,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E763A6C0-A0DE-42F1-A4CC-B0EEDE6F7213}">
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -839,6 +845,44 @@
         <v>0</v>
       </c>
     </row>
+    <row r="5" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5">
+        <v>8000</v>
+      </c>
+      <c r="K5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N5" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/resources/testData/XAlpha.xlsx
+++ b/src/test/resources/testData/XAlpha.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25128"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{593883B6-1A2A-4080-AE00-41AEBCAF20C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7CE7A50-94A4-41D9-9975-CC1A5BA50E5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="644" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="42">
   <si>
     <t>URL</t>
   </si>
@@ -136,6 +136,12 @@
   </si>
   <si>
     <t>settled</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_XAlpha_009</t>
+  </si>
+  <si>
+    <t>sell</t>
   </si>
 </sst>
 </file>
@@ -672,10 +678,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E763A6C0-A0DE-42F1-A4CC-B0EEDE6F7213}">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -883,6 +889,44 @@
         <v>0</v>
       </c>
     </row>
+    <row r="6" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6">
+        <v>8000</v>
+      </c>
+      <c r="K6" t="s">
+        <v>29</v>
+      </c>
+      <c r="N6" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/resources/testData/XAlpha.xlsx
+++ b/src/test/resources/testData/XAlpha.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25128"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7CE7A50-94A4-41D9-9975-CC1A5BA50E5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69C16F62-1C98-4478-9144-09FAA0401113}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="644" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="44">
   <si>
     <t>URL</t>
   </si>
@@ -142,6 +142,12 @@
   </si>
   <si>
     <t>sell</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_XAlpha_014</t>
+  </si>
+  <si>
+    <t>ProcessingStatus_new</t>
   </si>
 </sst>
 </file>
@@ -678,10 +684,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E763A6C0-A0DE-42F1-A4CC-B0EEDE6F7213}">
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -694,6 +700,7 @@
     <col min="9" max="9" width="17" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.90625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -730,6 +737,9 @@
       <c r="K1" t="s">
         <v>24</v>
       </c>
+      <c r="L1" t="s">
+        <v>43</v>
+      </c>
       <c r="M1" t="s">
         <v>13</v>
       </c>
@@ -924,6 +934,47 @@
         <v>29</v>
       </c>
       <c r="N6" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7">
+        <v>8000</v>
+      </c>
+      <c r="K7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L7" t="s">
+        <v>34</v>
+      </c>
+      <c r="N7" s="1" t="b">
         <v>0</v>
       </c>
     </row>

--- a/src/test/resources/testData/XAlpha.xlsx
+++ b/src/test/resources/testData/XAlpha.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25128"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69C16F62-1C98-4478-9144-09FAA0401113}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A5CCD7E-17A2-4B4F-A501-053512AD3681}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="644" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="47">
   <si>
     <t>URL</t>
   </si>
@@ -148,6 +148,15 @@
   </si>
   <si>
     <t>ProcessingStatus_new</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_XAlpha_017</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_XAlpha_015</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_XAlpha_016</t>
   </si>
 </sst>
 </file>
@@ -684,10 +693,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E763A6C0-A0DE-42F1-A4CC-B0EEDE6F7213}">
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -978,6 +987,129 @@
         <v>0</v>
       </c>
     </row>
+    <row r="8" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8" t="s">
+        <v>28</v>
+      </c>
+      <c r="J8">
+        <v>8000</v>
+      </c>
+      <c r="K8" t="s">
+        <v>29</v>
+      </c>
+      <c r="L8" t="s">
+        <v>33</v>
+      </c>
+      <c r="N8" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J9">
+        <v>8000</v>
+      </c>
+      <c r="K9" t="s">
+        <v>29</v>
+      </c>
+      <c r="L9" t="s">
+        <v>33</v>
+      </c>
+      <c r="N9" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10" t="s">
+        <v>28</v>
+      </c>
+      <c r="J10">
+        <v>8000</v>
+      </c>
+      <c r="K10" t="s">
+        <v>29</v>
+      </c>
+      <c r="L10" t="s">
+        <v>39</v>
+      </c>
+      <c r="N10" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/resources/testData/XAlpha.xlsx
+++ b/src/test/resources/testData/XAlpha.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25128"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A5CCD7E-17A2-4B4F-A501-053512AD3681}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61E50626-CD49-4977-A64D-A360D66AC958}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="644" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -696,7 +696,7 @@
   <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/src/test/resources/testData/XAlpha.xlsx
+++ b/src/test/resources/testData/XAlpha.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25128"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61E50626-CD49-4977-A64D-A360D66AC958}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A963E07-C6DA-40ED-B2D4-5B690A870C4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="644" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="644" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="XAlphaLogin" sheetId="9" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="49">
   <si>
     <t>URL</t>
   </si>
@@ -150,13 +150,19 @@
     <t>ProcessingStatus_new</t>
   </si>
   <si>
-    <t>QA_TestCase_Auto_XAlpha_017</t>
-  </si>
-  <si>
     <t>QA_TestCase_Auto_XAlpha_015</t>
   </si>
   <si>
     <t>QA_TestCase_Auto_XAlpha_016</t>
+  </si>
+  <si>
+    <t>alen.key</t>
+  </si>
+  <si>
+    <t>NormalValidUser</t>
+  </si>
+  <si>
+    <t>MO_User</t>
   </si>
 </sst>
 </file>
@@ -577,10 +583,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AD5F807-ACA8-48C4-B9BD-3C44953A349F}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -680,14 +686,48 @@
         <v>0</v>
       </c>
     </row>
+    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" display="http://system.qa/" xr:uid="{901F2C83-F979-49E8-AA52-87DE6C722F75}"/>
     <hyperlink ref="C4" r:id="rId2" display="http://system.qa/" xr:uid="{07FF1E63-0166-4347-A0BC-723A3C38F8A0}"/>
+    <hyperlink ref="C6" r:id="rId3" display="http://system.qa/" xr:uid="{D4003E2E-B563-4DA9-84A9-0EE23BE1353D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -695,8 +735,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E763A6C0-A0DE-42F1-A4CC-B0EEDE6F7213}">
   <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -989,7 +1030,7 @@
     </row>
     <row r="8" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B8" t="s">
         <v>31</v>
@@ -1019,10 +1060,10 @@
         <v>8000</v>
       </c>
       <c r="K8" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N8" s="1" t="b">
         <v>0</v>
@@ -1030,7 +1071,7 @@
     </row>
     <row r="9" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B9" t="s">
         <v>31</v>
@@ -1060,19 +1101,16 @@
         <v>8000</v>
       </c>
       <c r="K9" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="L9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N9" s="1" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
-        <v>44</v>
-      </c>
       <c r="B10" t="s">
         <v>31</v>
       </c>
@@ -1081,30 +1119,6 @@
       </c>
       <c r="D10">
         <v>1</v>
-      </c>
-      <c r="E10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10" t="s">
-        <v>28</v>
-      </c>
-      <c r="J10">
-        <v>8000</v>
-      </c>
-      <c r="K10" t="s">
-        <v>29</v>
-      </c>
-      <c r="L10" t="s">
-        <v>39</v>
       </c>
       <c r="N10" s="1" t="b">
         <v>0</v>

--- a/src/test/resources/testData/XAlpha.xlsx
+++ b/src/test/resources/testData/XAlpha.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25128"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A963E07-C6DA-40ED-B2D4-5B690A870C4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED68CD51-3E27-4861-A93E-99992BC97F7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="644" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="644" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="XAlphaLogin" sheetId="9" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="51">
   <si>
     <t>URL</t>
   </si>
@@ -159,10 +159,16 @@
     <t>alen.key</t>
   </si>
   <si>
-    <t>NormalValidUser</t>
-  </si>
-  <si>
-    <t>MO_User</t>
+    <t>QA_TestCase_Auto_XAlpha_017</t>
+  </si>
+  <si>
+    <t>MO_Account</t>
+  </si>
+  <si>
+    <t>MO_CheckerAccount</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_XAlpha_018</t>
   </si>
 </sst>
 </file>
@@ -585,8 +591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AD5F807-ACA8-48C4-B9BD-3C44953A349F}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -691,10 +697,13 @@
         <v>48</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>46</v>
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="1" t="b">
@@ -703,16 +712,13 @@
     </row>
     <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="1" t="b">
@@ -724,7 +730,7 @@
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" display="http://system.qa/" xr:uid="{901F2C83-F979-49E8-AA52-87DE6C722F75}"/>
     <hyperlink ref="C4" r:id="rId2" display="http://system.qa/" xr:uid="{07FF1E63-0166-4347-A0BC-723A3C38F8A0}"/>
-    <hyperlink ref="C6" r:id="rId3" display="http://system.qa/" xr:uid="{D4003E2E-B563-4DA9-84A9-0EE23BE1353D}"/>
+    <hyperlink ref="C5" r:id="rId3" display="http://system.qa/" xr:uid="{D4003E2E-B563-4DA9-84A9-0EE23BE1353D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
@@ -733,11 +739,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E763A6C0-A0DE-42F1-A4CC-B0EEDE6F7213}">
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G12" sqref="G12"/>
+      <selection pane="topRight" activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1111,6 +1117,9 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>47</v>
+      </c>
       <c r="B10" t="s">
         <v>31</v>
       </c>
@@ -1120,7 +1129,72 @@
       <c r="D10">
         <v>1</v>
       </c>
+      <c r="E10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10" t="s">
+        <v>28</v>
+      </c>
+      <c r="J10">
+        <v>8000</v>
+      </c>
+      <c r="K10" t="s">
+        <v>34</v>
+      </c>
+      <c r="L10" t="s">
+        <v>29</v>
+      </c>
       <c r="N10" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J11">
+        <v>8000</v>
+      </c>
+      <c r="K11" t="s">
+        <v>39</v>
+      </c>
+      <c r="L11" t="s">
+        <v>29</v>
+      </c>
+      <c r="N11" s="1" t="b">
         <v>0</v>
       </c>
     </row>

--- a/src/test/resources/testData/XAlpha.xlsx
+++ b/src/test/resources/testData/XAlpha.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25128"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED68CD51-3E27-4861-A93E-99992BC97F7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{240BF73C-82C7-4AD8-9B50-6C0A6DAFCA78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="644" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1680" yWindow="2720" windowWidth="14400" windowHeight="7360" tabRatio="644" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="XAlphaLogin" sheetId="9" r:id="rId1"/>
@@ -741,9 +741,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E763A6C0-A0DE-42F1-A4CC-B0EEDE6F7213}">
   <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L18" sqref="L18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/src/test/resources/testData/XAlpha.xlsx
+++ b/src/test/resources/testData/XAlpha.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25128"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{240BF73C-82C7-4AD8-9B50-6C0A6DAFCA78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{967B427E-1E8B-43B0-B65A-9310C8CB9CC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1680" yWindow="2720" windowWidth="14400" windowHeight="7360" tabRatio="644" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="644" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="XAlphaLogin" sheetId="9" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="52">
   <si>
     <t>URL</t>
   </si>
@@ -169,6 +169,9 @@
   </si>
   <si>
     <t>QA_TestCase_Auto_XAlpha_018</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_XAlpha_019</t>
   </si>
 </sst>
 </file>
@@ -739,11 +742,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E763A6C0-A0DE-42F1-A4CC-B0EEDE6F7213}">
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H5" sqref="H5"/>
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1198,6 +1201,47 @@
         <v>0</v>
       </c>
     </row>
+    <row r="12" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12" t="s">
+        <v>28</v>
+      </c>
+      <c r="J12">
+        <v>8000</v>
+      </c>
+      <c r="K12" t="s">
+        <v>33</v>
+      </c>
+      <c r="L12" t="s">
+        <v>29</v>
+      </c>
+      <c r="N12" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/resources/testData/XAlpha.xlsx
+++ b/src/test/resources/testData/XAlpha.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25128"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{967B427E-1E8B-43B0-B65A-9310C8CB9CC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08CC0D27-6FB6-4882-8ADA-605C37A1A127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="644" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="58">
   <si>
     <t>URL</t>
   </si>
@@ -172,6 +172,24 @@
   </si>
   <si>
     <t>QA_TestCase_Auto_XAlpha_019</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_XAlpha_020</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_XAlpha_021</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_XAlpha_022</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_XAlpha_023</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_XAlpha_024</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_XAlpha_025</t>
   </si>
 </sst>
 </file>
@@ -742,11 +760,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E763A6C0-A0DE-42F1-A4CC-B0EEDE6F7213}">
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E17" sqref="E17"/>
+      <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1242,7 +1260,254 @@
         <v>0</v>
       </c>
     </row>
+    <row r="13" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13" t="s">
+        <v>28</v>
+      </c>
+      <c r="J13">
+        <v>8000</v>
+      </c>
+      <c r="K13" t="s">
+        <v>29</v>
+      </c>
+      <c r="L13" t="s">
+        <v>33</v>
+      </c>
+      <c r="N13" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14" t="s">
+        <v>28</v>
+      </c>
+      <c r="J14">
+        <v>8000</v>
+      </c>
+      <c r="K14" t="s">
+        <v>34</v>
+      </c>
+      <c r="L14" t="s">
+        <v>33</v>
+      </c>
+      <c r="N14" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15" t="s">
+        <v>28</v>
+      </c>
+      <c r="J15">
+        <v>8000</v>
+      </c>
+      <c r="K15" t="s">
+        <v>39</v>
+      </c>
+      <c r="L15" t="s">
+        <v>33</v>
+      </c>
+      <c r="N15" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16" t="s">
+        <v>28</v>
+      </c>
+      <c r="J16">
+        <v>8000</v>
+      </c>
+      <c r="K16" t="s">
+        <v>33</v>
+      </c>
+      <c r="L16" t="s">
+        <v>39</v>
+      </c>
+      <c r="N16" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17" t="s">
+        <v>28</v>
+      </c>
+      <c r="J17">
+        <v>8000</v>
+      </c>
+      <c r="K17" t="s">
+        <v>29</v>
+      </c>
+      <c r="L17" t="s">
+        <v>39</v>
+      </c>
+      <c r="N17" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18" t="s">
+        <v>28</v>
+      </c>
+      <c r="J18">
+        <v>8000</v>
+      </c>
+      <c r="K18" t="s">
+        <v>34</v>
+      </c>
+      <c r="L18" t="s">
+        <v>39</v>
+      </c>
+      <c r="N18" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/test/resources/testData/XAlpha.xlsx
+++ b/src/test/resources/testData/XAlpha.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25128"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08CC0D27-6FB6-4882-8ADA-605C37A1A127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51549212-F65A-42F3-9B45-7E52BCF887DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="644" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -764,7 +764,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L19" sqref="L19"/>
+      <selection pane="topRight" activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -778,6 +778,7 @@
     <col min="10" max="10" width="14.90625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.7265625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="22.453125" customWidth="1"/>
+    <col min="13" max="13" width="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -858,6 +859,9 @@
       <c r="K2" t="s">
         <v>29</v>
       </c>
+      <c r="M2">
+        <v>4</v>
+      </c>
       <c r="N2" s="1" t="b">
         <v>0</v>
       </c>

--- a/src/test/resources/testData/XAlpha.xlsx
+++ b/src/test/resources/testData/XAlpha.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51549212-F65A-42F3-9B45-7E52BCF887DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B134E260-4A55-42BA-BE6D-AE23F635819B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="644" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="61">
   <si>
     <t>URL</t>
   </si>
@@ -190,6 +190,15 @@
   </si>
   <si>
     <t>QA_TestCase_Auto_XAlpha_025</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_XAlpha_026</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_XAlpha_027</t>
+  </si>
+  <si>
+    <t>cancelled</t>
   </si>
 </sst>
 </file>
@@ -760,11 +769,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E763A6C0-A0DE-42F1-A4CC-B0EEDE6F7213}">
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Q14" sqref="Q14"/>
+      <selection pane="topRight" activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1510,6 +1519,88 @@
         <v>0</v>
       </c>
     </row>
+    <row r="19" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19" t="s">
+        <v>28</v>
+      </c>
+      <c r="J19">
+        <v>8000</v>
+      </c>
+      <c r="K19" t="s">
+        <v>29</v>
+      </c>
+      <c r="L19" t="s">
+        <v>60</v>
+      </c>
+      <c r="N19" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20" t="s">
+        <v>28</v>
+      </c>
+      <c r="J20">
+        <v>8000</v>
+      </c>
+      <c r="K20" t="s">
+        <v>33</v>
+      </c>
+      <c r="L20" t="s">
+        <v>60</v>
+      </c>
+      <c r="N20" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/test/resources/testData/XAlpha.xlsx
+++ b/src/test/resources/testData/XAlpha.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B134E260-4A55-42BA-BE6D-AE23F635819B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{055A980F-BE78-446E-A2C9-88130CF54719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="644" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="71">
   <si>
     <t>URL</t>
   </si>
@@ -199,13 +199,43 @@
   </si>
   <si>
     <t>cancelled</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_XAlpha_034</t>
+  </si>
+  <si>
+    <t>BaseAssetAmount_updated</t>
+  </si>
+  <si>
+    <t>Direction_updated</t>
+  </si>
+  <si>
+    <t>BaseAsset_updated</t>
+  </si>
+  <si>
+    <t>QuoteAsset_updated</t>
+  </si>
+  <si>
+    <t>UnitPrice_updated</t>
+  </si>
+  <si>
+    <t>FeeAsset_updated</t>
+  </si>
+  <si>
+    <t>FeeAmount_updated</t>
+  </si>
+  <si>
+    <t>CounterpartyName_updated</t>
+  </si>
+  <si>
+    <t>PortfolioNumber_updated</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -219,16 +249,42 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -266,11 +322,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -281,6 +355,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -769,840 +856,2160 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E763A6C0-A0DE-42F1-A4CC-B0EEDE6F7213}">
-  <dimension ref="A1:N20"/>
+  <dimension ref="A1:X1048565"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="P17" sqref="P17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.90625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.453125" customWidth="1"/>
-    <col min="13" max="13" width="17" customWidth="1"/>
+    <col min="1" max="1" width="28.54296875" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7265625" style="10"/>
+    <col min="3" max="3" width="8.453125" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.81640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.1796875" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.81640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.26953125" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.81640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.6328125" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="18.81640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.26953125" style="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.81640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.453125" style="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.81640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17" style="11" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="25.453125" style="11" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.90625" style="11" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="23.36328125" style="11" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7265625" style="11" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="23.36328125" style="11" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17" style="11" customWidth="1"/>
+    <col min="23" max="23" width="8.7265625" style="11"/>
+    <col min="24" max="16384" width="8.7265625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
+    <row r="1" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="L1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="M1" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="N1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="O1" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="P1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J1" t="s">
+      <c r="Q1" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="R1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="K1" t="s">
+      <c r="S1" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="T1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="L1" t="s">
+      <c r="U1" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="M1" t="s">
+      <c r="V1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="W1" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
+    <row r="2" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="D2" s="9"/>
+      <c r="E2" s="7">
+        <v>1</v>
+      </c>
+      <c r="F2" s="9"/>
+      <c r="G2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="H2" s="9"/>
+      <c r="I2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="9"/>
+      <c r="N2" s="7">
+        <v>1</v>
+      </c>
+      <c r="O2" s="9"/>
+      <c r="P2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="J2">
+      <c r="Q2" s="9"/>
+      <c r="R2" s="7">
         <v>8000</v>
       </c>
-      <c r="K2" t="s">
+      <c r="S2" s="9"/>
+      <c r="T2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="M2">
-        <v>4</v>
-      </c>
-      <c r="N2" s="1" t="b">
+      <c r="U2" s="9"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
+    <row r="3" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="D3" s="9"/>
+      <c r="E3" s="7">
+        <v>1</v>
+      </c>
+      <c r="F3" s="9"/>
+      <c r="G3" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="H3" s="9"/>
+      <c r="I3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M3" s="9"/>
+      <c r="N3" s="7">
+        <v>1</v>
+      </c>
+      <c r="O3" s="9"/>
+      <c r="P3" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="J3">
+      <c r="Q3" s="9"/>
+      <c r="R3" s="7">
         <v>8000</v>
       </c>
-      <c r="K3" t="s">
+      <c r="S3" s="9"/>
+      <c r="T3" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="N3" s="1" t="b">
+      <c r="U3" s="9"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
+    <row r="4" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="D4" s="9"/>
+      <c r="E4" s="7">
+        <v>1</v>
+      </c>
+      <c r="F4" s="9"/>
+      <c r="G4" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="H4" s="9"/>
+      <c r="I4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M4" s="9"/>
+      <c r="N4" s="7">
+        <v>1</v>
+      </c>
+      <c r="O4" s="9"/>
+      <c r="P4" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="J4">
+      <c r="Q4" s="9"/>
+      <c r="R4" s="7">
         <v>8000</v>
       </c>
-      <c r="K4" t="s">
+      <c r="S4" s="9"/>
+      <c r="T4" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="N4" s="1" t="b">
+      <c r="U4" s="9"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
+    <row r="5" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="D5" s="9"/>
+      <c r="E5" s="7">
+        <v>1</v>
+      </c>
+      <c r="F5" s="9"/>
+      <c r="G5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="H5" s="9"/>
+      <c r="I5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M5" s="9"/>
+      <c r="N5" s="7">
+        <v>1</v>
+      </c>
+      <c r="O5" s="9"/>
+      <c r="P5" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="J5">
+      <c r="Q5" s="9"/>
+      <c r="R5" s="7">
         <v>8000</v>
       </c>
-      <c r="K5" t="s">
+      <c r="S5" s="9"/>
+      <c r="T5" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="N5" s="1" t="b">
+      <c r="U5" s="9"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
+    <row r="6" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="D6" s="9"/>
+      <c r="E6" s="7">
+        <v>1</v>
+      </c>
+      <c r="F6" s="9"/>
+      <c r="G6" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="H6" s="9"/>
+      <c r="I6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M6" s="9"/>
+      <c r="N6" s="7">
+        <v>1</v>
+      </c>
+      <c r="O6" s="9"/>
+      <c r="P6" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="J6">
+      <c r="Q6" s="9"/>
+      <c r="R6" s="7">
         <v>8000</v>
       </c>
-      <c r="K6" t="s">
+      <c r="S6" s="9"/>
+      <c r="T6" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="N6" s="1" t="b">
+      <c r="U6" s="9"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
+    <row r="7" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="D7" s="9"/>
+      <c r="E7" s="7">
+        <v>1</v>
+      </c>
+      <c r="F7" s="9"/>
+      <c r="G7" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="H7" s="9"/>
+      <c r="I7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M7" s="9"/>
+      <c r="N7" s="7">
+        <v>1</v>
+      </c>
+      <c r="O7" s="9"/>
+      <c r="P7" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="J7">
+      <c r="Q7" s="9"/>
+      <c r="R7" s="7">
         <v>8000</v>
       </c>
-      <c r="K7" t="s">
+      <c r="S7" s="9"/>
+      <c r="T7" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="L7" t="s">
+      <c r="U7" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="N7" s="1" t="b">
+      <c r="V7" s="7"/>
+      <c r="W7" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
+    <row r="8" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="D8" s="9"/>
+      <c r="E8" s="7">
+        <v>1</v>
+      </c>
+      <c r="F8" s="9"/>
+      <c r="G8" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="H8" s="9"/>
+      <c r="I8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M8" s="9"/>
+      <c r="N8" s="7">
+        <v>1</v>
+      </c>
+      <c r="O8" s="9"/>
+      <c r="P8" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="J8">
+      <c r="Q8" s="9"/>
+      <c r="R8" s="7">
         <v>8000</v>
       </c>
-      <c r="K8" t="s">
+      <c r="S8" s="9"/>
+      <c r="T8" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="L8" t="s">
+      <c r="U8" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="N8" s="1" t="b">
+      <c r="V8" s="7"/>
+      <c r="W8" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
+    <row r="9" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="D9" s="9"/>
+      <c r="E9" s="7">
+        <v>1</v>
+      </c>
+      <c r="F9" s="9"/>
+      <c r="G9" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="H9" s="9"/>
+      <c r="I9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M9" s="9"/>
+      <c r="N9" s="7">
+        <v>1</v>
+      </c>
+      <c r="O9" s="9"/>
+      <c r="P9" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="J9">
+      <c r="Q9" s="9"/>
+      <c r="R9" s="7">
         <v>8000</v>
       </c>
-      <c r="K9" t="s">
+      <c r="S9" s="9"/>
+      <c r="T9" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="L9" t="s">
+      <c r="U9" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="N9" s="1" t="b">
+      <c r="V9" s="7"/>
+      <c r="W9" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
+    <row r="10" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="D10" s="9"/>
+      <c r="E10" s="7">
+        <v>1</v>
+      </c>
+      <c r="F10" s="9"/>
+      <c r="G10" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="H10" s="9"/>
+      <c r="I10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M10" s="9"/>
+      <c r="N10" s="7">
+        <v>1</v>
+      </c>
+      <c r="O10" s="9"/>
+      <c r="P10" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="J10">
+      <c r="Q10" s="9"/>
+      <c r="R10" s="7">
         <v>8000</v>
       </c>
-      <c r="K10" t="s">
+      <c r="S10" s="9"/>
+      <c r="T10" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="L10" t="s">
+      <c r="U10" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="N10" s="1" t="b">
+      <c r="V10" s="7"/>
+      <c r="W10" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
+    <row r="11" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="D11" s="9"/>
+      <c r="E11" s="7">
+        <v>1</v>
+      </c>
+      <c r="F11" s="9"/>
+      <c r="G11" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="H11" s="9"/>
+      <c r="I11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M11" s="9"/>
+      <c r="N11" s="7">
+        <v>1</v>
+      </c>
+      <c r="O11" s="9"/>
+      <c r="P11" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="J11">
+      <c r="Q11" s="9"/>
+      <c r="R11" s="7">
         <v>8000</v>
       </c>
-      <c r="K11" t="s">
+      <c r="S11" s="9"/>
+      <c r="T11" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="L11" t="s">
+      <c r="U11" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="N11" s="1" t="b">
+      <c r="V11" s="7"/>
+      <c r="W11" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
+    <row r="12" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="D12" s="9"/>
+      <c r="E12" s="7">
+        <v>1</v>
+      </c>
+      <c r="F12" s="9"/>
+      <c r="G12" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s">
-        <v>11</v>
-      </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="H12" s="9"/>
+      <c r="I12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M12" s="9"/>
+      <c r="N12" s="7">
+        <v>1</v>
+      </c>
+      <c r="O12" s="9"/>
+      <c r="P12" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="J12">
+      <c r="Q12" s="9"/>
+      <c r="R12" s="7">
         <v>8000</v>
       </c>
-      <c r="K12" t="s">
+      <c r="S12" s="9"/>
+      <c r="T12" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="L12" t="s">
+      <c r="U12" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="N12" s="1" t="b">
+      <c r="V12" s="7"/>
+      <c r="W12" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
+    <row r="13" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="D13" s="9"/>
+      <c r="E13" s="7">
+        <v>1</v>
+      </c>
+      <c r="F13" s="9"/>
+      <c r="G13" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-      <c r="I13" t="s">
+      <c r="H13" s="9"/>
+      <c r="I13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M13" s="9"/>
+      <c r="N13" s="7">
+        <v>1</v>
+      </c>
+      <c r="O13" s="9"/>
+      <c r="P13" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="J13">
+      <c r="Q13" s="9"/>
+      <c r="R13" s="7">
         <v>8000</v>
       </c>
-      <c r="K13" t="s">
+      <c r="S13" s="9"/>
+      <c r="T13" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="L13" t="s">
+      <c r="U13" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="N13" s="1" t="b">
+      <c r="V13" s="7"/>
+      <c r="W13" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" t="s">
+    <row r="14" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="D14" s="9"/>
+      <c r="E14" s="7">
+        <v>1</v>
+      </c>
+      <c r="F14" s="9"/>
+      <c r="G14" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s">
-        <v>11</v>
-      </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
-      <c r="I14" t="s">
+      <c r="H14" s="9"/>
+      <c r="I14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M14" s="9"/>
+      <c r="N14" s="7">
+        <v>1</v>
+      </c>
+      <c r="O14" s="9"/>
+      <c r="P14" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="J14">
+      <c r="Q14" s="9"/>
+      <c r="R14" s="7">
         <v>8000</v>
       </c>
-      <c r="K14" t="s">
+      <c r="S14" s="9"/>
+      <c r="T14" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="L14" t="s">
+      <c r="U14" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="N14" s="1" t="b">
+      <c r="V14" s="7"/>
+      <c r="W14" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" t="s">
+    <row r="15" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="D15" s="9"/>
+      <c r="E15" s="7">
+        <v>1</v>
+      </c>
+      <c r="F15" s="9"/>
+      <c r="G15" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" t="s">
-        <v>11</v>
-      </c>
-      <c r="H15">
-        <v>1</v>
-      </c>
-      <c r="I15" t="s">
+      <c r="H15" s="9"/>
+      <c r="I15" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M15" s="9"/>
+      <c r="N15" s="7">
+        <v>1</v>
+      </c>
+      <c r="O15" s="9"/>
+      <c r="P15" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="J15">
+      <c r="Q15" s="9"/>
+      <c r="R15" s="7">
         <v>8000</v>
       </c>
-      <c r="K15" t="s">
+      <c r="S15" s="9"/>
+      <c r="T15" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="L15" t="s">
+      <c r="U15" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="N15" s="1" t="b">
+      <c r="V15" s="7"/>
+      <c r="W15" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" t="s">
+    <row r="16" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="D16" s="9"/>
+      <c r="E16" s="7">
+        <v>1</v>
+      </c>
+      <c r="F16" s="9"/>
+      <c r="G16" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" t="s">
-        <v>11</v>
-      </c>
-      <c r="H16">
-        <v>1</v>
-      </c>
-      <c r="I16" t="s">
+      <c r="H16" s="9"/>
+      <c r="I16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M16" s="9"/>
+      <c r="N16" s="7">
+        <v>1</v>
+      </c>
+      <c r="O16" s="9"/>
+      <c r="P16" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="J16">
+      <c r="Q16" s="9"/>
+      <c r="R16" s="7">
         <v>8000</v>
       </c>
-      <c r="K16" t="s">
+      <c r="S16" s="9"/>
+      <c r="T16" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="L16" t="s">
+      <c r="U16" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="N16" s="1" t="b">
+      <c r="V16" s="7"/>
+      <c r="W16" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" t="s">
+    <row r="17" spans="1:24" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="D17" s="9"/>
+      <c r="E17" s="7">
+        <v>1</v>
+      </c>
+      <c r="F17" s="9"/>
+      <c r="G17" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" t="s">
-        <v>11</v>
-      </c>
-      <c r="H17">
-        <v>1</v>
-      </c>
-      <c r="I17" t="s">
+      <c r="H17" s="9"/>
+      <c r="I17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M17" s="9"/>
+      <c r="N17" s="7">
+        <v>1</v>
+      </c>
+      <c r="O17" s="9"/>
+      <c r="P17" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="J17">
+      <c r="Q17" s="9"/>
+      <c r="R17" s="7">
         <v>8000</v>
       </c>
-      <c r="K17" t="s">
+      <c r="S17" s="9"/>
+      <c r="T17" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="L17" t="s">
+      <c r="U17" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="N17" s="1" t="b">
+      <c r="V17" s="7"/>
+      <c r="W17" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" t="s">
+    <row r="18" spans="1:24" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="D18" s="9"/>
+      <c r="E18" s="7">
+        <v>1</v>
+      </c>
+      <c r="F18" s="9"/>
+      <c r="G18" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" t="s">
-        <v>11</v>
-      </c>
-      <c r="H18">
-        <v>1</v>
-      </c>
-      <c r="I18" t="s">
+      <c r="H18" s="9"/>
+      <c r="I18" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M18" s="9"/>
+      <c r="N18" s="7">
+        <v>1</v>
+      </c>
+      <c r="O18" s="9"/>
+      <c r="P18" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="J18">
+      <c r="Q18" s="9"/>
+      <c r="R18" s="7">
         <v>8000</v>
       </c>
-      <c r="K18" t="s">
+      <c r="S18" s="9"/>
+      <c r="T18" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="L18" t="s">
+      <c r="U18" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="N18" s="1" t="b">
+      <c r="V18" s="7"/>
+      <c r="W18" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" t="s">
+    <row r="19" spans="1:24" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="D19" s="9"/>
+      <c r="E19" s="7">
+        <v>1</v>
+      </c>
+      <c r="F19" s="9"/>
+      <c r="G19" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" t="s">
-        <v>11</v>
-      </c>
-      <c r="H19">
-        <v>1</v>
-      </c>
-      <c r="I19" t="s">
+      <c r="H19" s="9"/>
+      <c r="I19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M19" s="9"/>
+      <c r="N19" s="7">
+        <v>1</v>
+      </c>
+      <c r="O19" s="9"/>
+      <c r="P19" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="J19">
+      <c r="Q19" s="9"/>
+      <c r="R19" s="7">
         <v>8000</v>
       </c>
-      <c r="K19" t="s">
+      <c r="S19" s="9"/>
+      <c r="T19" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="L19" t="s">
+      <c r="U19" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="N19" s="1" t="b">
+      <c r="V19" s="7"/>
+      <c r="W19" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" t="s">
+    <row r="20" spans="1:24" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="D20" s="9"/>
+      <c r="E20" s="7">
+        <v>1</v>
+      </c>
+      <c r="F20" s="9"/>
+      <c r="G20" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" t="s">
-        <v>11</v>
-      </c>
-      <c r="H20">
-        <v>1</v>
-      </c>
-      <c r="I20" t="s">
+      <c r="H20" s="9"/>
+      <c r="I20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M20" s="9"/>
+      <c r="N20" s="7">
+        <v>1</v>
+      </c>
+      <c r="O20" s="9"/>
+      <c r="P20" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="J20">
+      <c r="Q20" s="9"/>
+      <c r="R20" s="7">
         <v>8000</v>
       </c>
-      <c r="K20" t="s">
+      <c r="S20" s="9"/>
+      <c r="T20" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="L20" t="s">
+      <c r="U20" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="N20" s="1" t="b">
+      <c r="V20" s="7"/>
+      <c r="W20" s="3" t="b">
         <v>0</v>
       </c>
+    </row>
+    <row r="21" spans="1:24" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" s="7">
+        <v>1</v>
+      </c>
+      <c r="F21" s="9"/>
+      <c r="G21" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H21" s="9"/>
+      <c r="I21" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M21" s="9"/>
+      <c r="N21" s="7">
+        <v>1</v>
+      </c>
+      <c r="O21" s="9"/>
+      <c r="P21" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q21" s="9"/>
+      <c r="R21" s="7">
+        <v>8000</v>
+      </c>
+      <c r="S21" s="9"/>
+      <c r="T21" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="U21" s="9"/>
+      <c r="V21" s="7"/>
+      <c r="W21" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="10"/>
+      <c r="T22" s="10"/>
+      <c r="U22" s="10"/>
+      <c r="V22" s="10"/>
+      <c r="W22" s="10"/>
+      <c r="X22" s="10"/>
+    </row>
+    <row r="23" spans="1:24" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="10"/>
+      <c r="T23" s="10"/>
+      <c r="U23" s="10"/>
+      <c r="V23" s="10"/>
+      <c r="W23" s="10"/>
+      <c r="X23" s="10"/>
+    </row>
+    <row r="24" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="10"/>
+      <c r="T24" s="10"/>
+      <c r="U24" s="10"/>
+      <c r="V24" s="10"/>
+      <c r="W24" s="10"/>
+      <c r="X24" s="10"/>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="10"/>
+      <c r="R25" s="10"/>
+      <c r="S25" s="10"/>
+      <c r="T25" s="10"/>
+      <c r="U25" s="10"/>
+      <c r="V25" s="10"/>
+      <c r="W25" s="10"/>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="10"/>
+      <c r="R26" s="10"/>
+      <c r="S26" s="10"/>
+      <c r="T26" s="10"/>
+      <c r="U26" s="10"/>
+      <c r="V26" s="10"/>
+      <c r="W26" s="10"/>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="10"/>
+      <c r="R27" s="10"/>
+      <c r="S27" s="10"/>
+      <c r="T27" s="10"/>
+      <c r="U27" s="10"/>
+      <c r="V27" s="10"/>
+      <c r="W27" s="10"/>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="10"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="10"/>
+      <c r="R28" s="10"/>
+      <c r="S28" s="10"/>
+      <c r="T28" s="10"/>
+      <c r="U28" s="10"/>
+      <c r="V28" s="10"/>
+      <c r="W28" s="10"/>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="10"/>
+      <c r="R29" s="10"/>
+      <c r="S29" s="10"/>
+      <c r="T29" s="10"/>
+      <c r="U29" s="10"/>
+      <c r="V29" s="10"/>
+      <c r="W29" s="10"/>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="10"/>
+      <c r="P30" s="10"/>
+      <c r="Q30" s="10"/>
+      <c r="R30" s="10"/>
+      <c r="S30" s="10"/>
+      <c r="T30" s="10"/>
+      <c r="U30" s="10"/>
+      <c r="V30" s="10"/>
+      <c r="W30" s="10"/>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="10"/>
+      <c r="O31" s="10"/>
+      <c r="P31" s="10"/>
+      <c r="Q31" s="10"/>
+      <c r="R31" s="10"/>
+      <c r="S31" s="10"/>
+      <c r="T31" s="10"/>
+      <c r="U31" s="10"/>
+      <c r="V31" s="10"/>
+      <c r="W31" s="10"/>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="10"/>
+      <c r="O32" s="10"/>
+      <c r="P32" s="10"/>
+      <c r="Q32" s="10"/>
+      <c r="R32" s="10"/>
+      <c r="S32" s="10"/>
+      <c r="T32" s="10"/>
+      <c r="U32" s="10"/>
+      <c r="V32" s="10"/>
+      <c r="W32" s="10"/>
+    </row>
+    <row r="33" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="34" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="35" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="36" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="37" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="38" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="39" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="40" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="41" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="42" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="43" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="44" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="45" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="46" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="47" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="48" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="49" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="50" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="51" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="52" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="53" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="54" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="55" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="56" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="57" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="58" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="59" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="60" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="61" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="62" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="63" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="64" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="65" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="66" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="67" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="68" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="69" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="70" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="71" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="72" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="73" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="74" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="75" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="76" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="77" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="78" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="79" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="80" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="81" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="82" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="83" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="84" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="85" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="86" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="87" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="88" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="89" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="90" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="91" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="92" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="93" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="94" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="95" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="96" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="97" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="98" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="99" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="100" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="101" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="102" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="103" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="104" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="105" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="106" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="107" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="108" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="109" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="110" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="111" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="112" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="113" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="114" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="115" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="116" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="117" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="118" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="119" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="120" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="121" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="122" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="123" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="124" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="125" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="126" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="127" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="128" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="129" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="130" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="131" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="132" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="133" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="134" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="135" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="136" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="137" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="138" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="139" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="140" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="141" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="142" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="143" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="144" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="145" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="146" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="147" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="148" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="149" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="150" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="151" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="152" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="153" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="154" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="155" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="156" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="157" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="158" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="159" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="160" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="161" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="162" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="163" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="164" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="165" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="166" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="167" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="168" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="169" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="170" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="171" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="172" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="173" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="174" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="175" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="176" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="177" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="178" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="179" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="180" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="181" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="182" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="183" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="184" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="185" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="186" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="187" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="188" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="189" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="190" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="191" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="192" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="193" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="194" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="195" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="196" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="197" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="198" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="199" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="200" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="201" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="202" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="203" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="204" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="205" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="206" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="207" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="208" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="209" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="210" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="211" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="212" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="213" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="214" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="215" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="216" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="217" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="218" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="219" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="220" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="221" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="222" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="223" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="224" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="225" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="226" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="227" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="228" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="229" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="230" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="231" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="232" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="233" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="234" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="235" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="236" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="237" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="238" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="239" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="240" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="241" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="242" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="243" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="244" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="245" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="246" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="247" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="248" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="249" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="250" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="251" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="252" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="253" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="254" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="255" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="256" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="257" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="258" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="259" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="260" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="261" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="262" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="263" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="264" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="265" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="266" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="267" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="268" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="269" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="270" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="271" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="272" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="273" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="274" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="275" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="276" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="277" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="278" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="279" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="280" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="281" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="282" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="283" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="284" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="285" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="286" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="287" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="288" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="289" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="290" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="291" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="292" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="293" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="294" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="295" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="296" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="297" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="298" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="299" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="300" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="301" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="302" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="303" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="304" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="305" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="306" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="307" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="308" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="309" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="310" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="311" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="312" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="313" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="314" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="315" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="316" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="317" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="318" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="319" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="320" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="321" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="322" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="323" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="324" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="325" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="326" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="327" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="328" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="329" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="330" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="331" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="332" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="333" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="334" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="335" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="336" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="337" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="338" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="339" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="340" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="341" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="342" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="343" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="344" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="345" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="346" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="347" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="348" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="349" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="350" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="351" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="352" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="353" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="354" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="355" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="356" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="357" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="358" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="359" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="360" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="361" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="362" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="363" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="364" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="365" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="366" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="367" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="368" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="369" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="370" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="371" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="372" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="373" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="374" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="375" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="376" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="377" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="378" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="379" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="380" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="381" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="382" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="383" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="384" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="385" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="386" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="387" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="388" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="389" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="390" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="391" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="392" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="393" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="394" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="395" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="396" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="397" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="398" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="399" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="400" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="401" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="402" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="403" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="404" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="405" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="406" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="407" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="408" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="409" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="410" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="411" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="412" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="413" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="414" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="415" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="416" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="417" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="418" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="419" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="420" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="421" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="422" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="423" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="424" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="425" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="426" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="427" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="428" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="429" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="430" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="431" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="432" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="433" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="434" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="435" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="436" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="437" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="438" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="439" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="440" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="441" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="442" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="443" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="444" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="445" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="446" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="447" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="448" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="449" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="450" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="451" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="452" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="453" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="454" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="455" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="456" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="457" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="458" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="459" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="460" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="461" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="462" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="463" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="464" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="465" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="466" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="467" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="468" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="469" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="470" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="471" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="472" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="473" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="474" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="475" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="476" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="477" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="478" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="479" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="480" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="481" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="482" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="483" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="484" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="485" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="486" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="487" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="488" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="489" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="490" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="491" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="492" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="493" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="494" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="495" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="496" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="497" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="498" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="499" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="500" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="501" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="502" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="503" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="504" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="505" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="506" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="507" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="508" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="509" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="510" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="511" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="512" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="513" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="514" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="515" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="516" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="517" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="518" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="519" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="520" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="521" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="522" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="523" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="524" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="525" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="526" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="527" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="528" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="529" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="530" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="531" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="532" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="533" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="534" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="535" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="536" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="537" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="538" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="539" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="540" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="541" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="542" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="543" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="544" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="545" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="546" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="547" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="548" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="549" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="550" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="551" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="552" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="553" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="554" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="555" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="556" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="557" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="558" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="559" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="560" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="561" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="562" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="563" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="564" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="565" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="566" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="567" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="568" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="569" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="570" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="571" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="572" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="573" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="574" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="575" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="576" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="577" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="578" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="579" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="580" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="581" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="582" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="583" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="584" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="585" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="586" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="587" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="588" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="589" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="590" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="591" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="592" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="593" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="594" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="595" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="596" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="597" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="598" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="599" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="600" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="601" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="602" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="603" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="604" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="605" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="606" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="607" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="608" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="609" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="610" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="611" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="612" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="613" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="614" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="615" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="616" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="617" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="618" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="619" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="620" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="621" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="622" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="623" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="624" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="625" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="626" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="627" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="628" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="629" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="630" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="631" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="632" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="633" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="634" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="635" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="636" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="637" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="638" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="639" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="640" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="641" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="642" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="643" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="644" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="645" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="646" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="647" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="648" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="649" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="650" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="651" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="652" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="653" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="654" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="655" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="656" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="657" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="658" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="659" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="660" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="661" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="662" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="663" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="664" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="665" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="666" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="667" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="668" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="669" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="670" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="671" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="672" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="673" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="674" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="675" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="676" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="677" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="678" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="679" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="680" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="681" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="682" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="683" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="684" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="685" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="686" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="687" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="688" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="689" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="690" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="691" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="692" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="693" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="694" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="695" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="696" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="697" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="698" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="699" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="700" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="701" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="702" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="703" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="704" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="705" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="706" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="707" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="708" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="709" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="710" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="711" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="712" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="713" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="714" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="715" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="716" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="717" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="718" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="719" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="720" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="721" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="722" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="723" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="724" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="725" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="726" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="727" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="728" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="729" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="730" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="731" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="732" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="733" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="734" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="735" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="736" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="737" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="738" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="739" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="740" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="741" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="742" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="743" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="744" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="745" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="746" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="747" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="748" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="749" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="750" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="751" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="752" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="753" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="754" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="755" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="756" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="757" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="758" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="759" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="760" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="761" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="762" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="763" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="764" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="765" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="766" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="767" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="768" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="769" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="770" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="771" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="772" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="773" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="774" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="775" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="776" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="777" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="778" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="779" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="780" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="781" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="782" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="783" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="784" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="785" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="786" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="787" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="788" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="789" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="790" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="791" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="792" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="793" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="794" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="795" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="796" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="797" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="798" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="799" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="800" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="1048562" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1048562" s="14"/>
+    </row>
+    <row r="1048565" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1048565" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/test/resources/testData/XAlpha.xlsx
+++ b/src/test/resources/testData/XAlpha.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{055A980F-BE78-446E-A2C9-88130CF54719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D40876B6-F72D-45B4-A04E-4B8F3C676978}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="644" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-15" yWindow="180" windowWidth="22740" windowHeight="11775" tabRatio="644" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="XAlphaLogin" sheetId="9" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="77">
   <si>
     <t>URL</t>
   </si>
@@ -51,9 +51,6 @@
     <t>invaliduser</t>
   </si>
   <si>
-    <t>USDT</t>
-  </si>
-  <si>
     <t>SIT</t>
   </si>
   <si>
@@ -99,9 +96,6 @@
     <t>PortfolioNumber</t>
   </si>
   <si>
-    <t>BTC</t>
-  </si>
-  <si>
     <t>Joejoe Pen</t>
   </si>
   <si>
@@ -229,6 +223,30 @@
   </si>
   <si>
     <t>PortfolioNumber_updated</t>
+  </si>
+  <si>
+    <t>ETH | Ethereum</t>
+  </si>
+  <si>
+    <t>BTC | Bitcoin</t>
+  </si>
+  <si>
+    <t>USDT | Tether</t>
+  </si>
+  <si>
+    <t>XRP | Ripple</t>
+  </si>
+  <si>
+    <t>Joejoe Pen | CID102710</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_XAlpha_028</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_XAlpha_029</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_XAlpha_035</t>
   </si>
 </sst>
 </file>
@@ -712,18 +730,18 @@
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.54296875" customWidth="1"/>
-    <col min="2" max="2" width="27.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.1796875" customWidth="1"/>
-    <col min="4" max="4" width="21.26953125" customWidth="1"/>
-    <col min="5" max="5" width="18.453125" customWidth="1"/>
-    <col min="6" max="6" width="16.1796875" customWidth="1"/>
-    <col min="7" max="7" width="15.453125" customWidth="1"/>
+    <col min="1" max="1" width="29.5703125" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -740,18 +758,18 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -767,12 +785,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -788,12 +806,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
         <v>16</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -809,9 +827,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
@@ -827,15 +845,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="1" t="b">
@@ -856,120 +874,120 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E763A6C0-A0DE-42F1-A4CC-B0EEDE6F7213}">
-  <dimension ref="A1:X1048565"/>
+  <dimension ref="A1:X1048567"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.54296875" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7265625" style="10"/>
-    <col min="3" max="3" width="8.453125" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.81640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.1796875" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.81640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.26953125" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.81640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.6328125" style="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="18.81640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.26953125" style="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.81640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.453125" style="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.81640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17" style="11" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="25.453125" style="11" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.90625" style="11" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="23.36328125" style="11" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7265625" style="11" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="23.36328125" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="10"/>
+    <col min="3" max="3" width="9.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17" style="11" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" style="11" customWidth="1"/>
+    <col min="10" max="11" width="18.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.42578125" style="11" customWidth="1"/>
+    <col min="13" max="13" width="18.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.28515625" style="11" customWidth="1"/>
+    <col min="17" max="17" width="27" style="11" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="25" style="11" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="23.42578125" style="11" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="17" style="11" customWidth="1"/>
-    <col min="23" max="23" width="8.7265625" style="11"/>
-    <col min="24" max="16384" width="8.7265625" style="10"/>
+    <col min="23" max="23" width="8.7109375" style="11"/>
+    <col min="24" max="16384" width="8.7109375" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="S1" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="U1" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="O1" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q1" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="S1" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="U1" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="W1" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="7">
@@ -977,16 +995,16 @@
       </c>
       <c r="F2" s="9"/>
       <c r="G2" s="7" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="H2" s="9"/>
       <c r="I2" s="7" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="J2" s="9"/>
       <c r="K2" s="9"/>
       <c r="L2" s="7" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="M2" s="9"/>
       <c r="N2" s="7">
@@ -994,7 +1012,7 @@
       </c>
       <c r="O2" s="9"/>
       <c r="P2" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q2" s="9"/>
       <c r="R2" s="7">
@@ -1002,7 +1020,7 @@
       </c>
       <c r="S2" s="9"/>
       <c r="T2" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="U2" s="9"/>
       <c r="V2" s="7"/>
@@ -1010,15 +1028,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="7">
@@ -1026,16 +1044,16 @@
       </c>
       <c r="F3" s="9"/>
       <c r="G3" s="7" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="H3" s="9"/>
       <c r="I3" s="7" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="J3" s="9"/>
       <c r="K3" s="9"/>
       <c r="L3" s="7" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="M3" s="9"/>
       <c r="N3" s="7">
@@ -1043,7 +1061,7 @@
       </c>
       <c r="O3" s="9"/>
       <c r="P3" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q3" s="9"/>
       <c r="R3" s="7">
@@ -1051,7 +1069,7 @@
       </c>
       <c r="S3" s="9"/>
       <c r="T3" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="U3" s="9"/>
       <c r="V3" s="7"/>
@@ -1059,15 +1077,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="7">
@@ -1075,16 +1093,16 @@
       </c>
       <c r="F4" s="9"/>
       <c r="G4" s="7" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="H4" s="9"/>
       <c r="I4" s="7" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="J4" s="9"/>
       <c r="K4" s="9"/>
       <c r="L4" s="7" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="M4" s="9"/>
       <c r="N4" s="7">
@@ -1092,7 +1110,7 @@
       </c>
       <c r="O4" s="9"/>
       <c r="P4" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q4" s="9"/>
       <c r="R4" s="7">
@@ -1100,7 +1118,7 @@
       </c>
       <c r="S4" s="9"/>
       <c r="T4" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="U4" s="9"/>
       <c r="V4" s="7"/>
@@ -1108,15 +1126,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="7">
@@ -1124,16 +1142,16 @@
       </c>
       <c r="F5" s="9"/>
       <c r="G5" s="7" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="H5" s="9"/>
       <c r="I5" s="7" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
       <c r="L5" s="7" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="M5" s="9"/>
       <c r="N5" s="7">
@@ -1141,7 +1159,7 @@
       </c>
       <c r="O5" s="9"/>
       <c r="P5" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q5" s="9"/>
       <c r="R5" s="7">
@@ -1149,7 +1167,7 @@
       </c>
       <c r="S5" s="9"/>
       <c r="T5" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="U5" s="9"/>
       <c r="V5" s="7"/>
@@ -1157,15 +1175,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="7">
@@ -1173,16 +1191,16 @@
       </c>
       <c r="F6" s="9"/>
       <c r="G6" s="7" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="H6" s="9"/>
       <c r="I6" s="7" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
       <c r="L6" s="7" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="M6" s="9"/>
       <c r="N6" s="7">
@@ -1190,7 +1208,7 @@
       </c>
       <c r="O6" s="9"/>
       <c r="P6" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q6" s="9"/>
       <c r="R6" s="7">
@@ -1198,7 +1216,7 @@
       </c>
       <c r="S6" s="9"/>
       <c r="T6" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="U6" s="9"/>
       <c r="V6" s="7"/>
@@ -1206,15 +1224,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="7">
@@ -1222,16 +1240,16 @@
       </c>
       <c r="F7" s="9"/>
       <c r="G7" s="7" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="H7" s="9"/>
       <c r="I7" s="7" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
       <c r="L7" s="7" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="M7" s="9"/>
       <c r="N7" s="7">
@@ -1239,7 +1257,7 @@
       </c>
       <c r="O7" s="9"/>
       <c r="P7" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q7" s="9"/>
       <c r="R7" s="7">
@@ -1247,25 +1265,25 @@
       </c>
       <c r="S7" s="9"/>
       <c r="T7" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="U7" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="V7" s="7"/>
       <c r="W7" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="7">
@@ -1273,16 +1291,16 @@
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="7" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="H8" s="9"/>
       <c r="I8" s="7" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c r="L8" s="7" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="M8" s="9"/>
       <c r="N8" s="7">
@@ -1290,7 +1308,7 @@
       </c>
       <c r="O8" s="9"/>
       <c r="P8" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q8" s="9"/>
       <c r="R8" s="7">
@@ -1298,25 +1316,25 @@
       </c>
       <c r="S8" s="9"/>
       <c r="T8" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="U8" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="V8" s="7"/>
       <c r="W8" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="7">
@@ -1324,16 +1342,16 @@
       </c>
       <c r="F9" s="9"/>
       <c r="G9" s="7" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="H9" s="9"/>
       <c r="I9" s="7" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c r="L9" s="7" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="M9" s="9"/>
       <c r="N9" s="7">
@@ -1341,7 +1359,7 @@
       </c>
       <c r="O9" s="9"/>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q9" s="9"/>
       <c r="R9" s="7">
@@ -1349,25 +1367,25 @@
       </c>
       <c r="S9" s="9"/>
       <c r="T9" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="U9" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="V9" s="7"/>
       <c r="W9" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="7">
@@ -1375,16 +1393,16 @@
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="7" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="H10" s="9"/>
       <c r="I10" s="7" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c r="L10" s="7" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="M10" s="9"/>
       <c r="N10" s="7">
@@ -1392,7 +1410,7 @@
       </c>
       <c r="O10" s="9"/>
       <c r="P10" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q10" s="9"/>
       <c r="R10" s="7">
@@ -1400,25 +1418,25 @@
       </c>
       <c r="S10" s="9"/>
       <c r="T10" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="U10" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="V10" s="7"/>
       <c r="W10" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="7">
@@ -1426,16 +1444,16 @@
       </c>
       <c r="F11" s="9"/>
       <c r="G11" s="7" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="H11" s="9"/>
       <c r="I11" s="7" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c r="L11" s="7" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="M11" s="9"/>
       <c r="N11" s="7">
@@ -1443,7 +1461,7 @@
       </c>
       <c r="O11" s="9"/>
       <c r="P11" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="R11" s="7">
@@ -1451,25 +1469,25 @@
       </c>
       <c r="S11" s="9"/>
       <c r="T11" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="U11" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="V11" s="7"/>
       <c r="W11" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="7">
@@ -1477,16 +1495,16 @@
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="7" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="H12" s="9"/>
       <c r="I12" s="7" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c r="L12" s="7" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="M12" s="9"/>
       <c r="N12" s="7">
@@ -1494,7 +1512,7 @@
       </c>
       <c r="O12" s="9"/>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q12" s="9"/>
       <c r="R12" s="7">
@@ -1502,25 +1520,25 @@
       </c>
       <c r="S12" s="9"/>
       <c r="T12" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="U12" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="V12" s="7"/>
       <c r="W12" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="7">
@@ -1528,16 +1546,16 @@
       </c>
       <c r="F13" s="9"/>
       <c r="G13" s="7" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="H13" s="9"/>
       <c r="I13" s="7" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c r="L13" s="7" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="M13" s="9"/>
       <c r="N13" s="7">
@@ -1545,7 +1563,7 @@
       </c>
       <c r="O13" s="9"/>
       <c r="P13" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q13" s="9"/>
       <c r="R13" s="7">
@@ -1553,25 +1571,25 @@
       </c>
       <c r="S13" s="9"/>
       <c r="T13" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="U13" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="V13" s="7"/>
       <c r="W13" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="7">
@@ -1579,16 +1597,16 @@
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="7" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="H14" s="9"/>
       <c r="I14" s="7" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c r="L14" s="7" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="M14" s="9"/>
       <c r="N14" s="7">
@@ -1596,7 +1614,7 @@
       </c>
       <c r="O14" s="9"/>
       <c r="P14" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q14" s="9"/>
       <c r="R14" s="7">
@@ -1604,25 +1622,25 @@
       </c>
       <c r="S14" s="9"/>
       <c r="T14" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="U14" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="V14" s="7"/>
       <c r="W14" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="7">
@@ -1630,16 +1648,16 @@
       </c>
       <c r="F15" s="9"/>
       <c r="G15" s="7" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="H15" s="9"/>
       <c r="I15" s="7" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c r="L15" s="7" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="M15" s="9"/>
       <c r="N15" s="7">
@@ -1647,7 +1665,7 @@
       </c>
       <c r="O15" s="9"/>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q15" s="9"/>
       <c r="R15" s="7">
@@ -1655,25 +1673,25 @@
       </c>
       <c r="S15" s="9"/>
       <c r="T15" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="U15" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="V15" s="7"/>
       <c r="W15" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="7">
@@ -1681,16 +1699,16 @@
       </c>
       <c r="F16" s="9"/>
       <c r="G16" s="7" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="H16" s="9"/>
       <c r="I16" s="7" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c r="L16" s="7" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="M16" s="9"/>
       <c r="N16" s="7">
@@ -1698,7 +1716,7 @@
       </c>
       <c r="O16" s="9"/>
       <c r="P16" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q16" s="9"/>
       <c r="R16" s="7">
@@ -1706,25 +1724,25 @@
       </c>
       <c r="S16" s="9"/>
       <c r="T16" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="U16" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="V16" s="7"/>
       <c r="W16" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:24" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="7">
@@ -1732,16 +1750,16 @@
       </c>
       <c r="F17" s="9"/>
       <c r="G17" s="7" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="H17" s="9"/>
       <c r="I17" s="7" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c r="L17" s="7" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="M17" s="9"/>
       <c r="N17" s="7">
@@ -1749,7 +1767,7 @@
       </c>
       <c r="O17" s="9"/>
       <c r="P17" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q17" s="9"/>
       <c r="R17" s="7">
@@ -1757,25 +1775,25 @@
       </c>
       <c r="S17" s="9"/>
       <c r="T17" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="U17" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="V17" s="7"/>
       <c r="W17" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:24" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="7">
@@ -1783,16 +1801,16 @@
       </c>
       <c r="F18" s="9"/>
       <c r="G18" s="7" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="H18" s="9"/>
       <c r="I18" s="7" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c r="L18" s="7" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="M18" s="9"/>
       <c r="N18" s="7">
@@ -1800,7 +1818,7 @@
       </c>
       <c r="O18" s="9"/>
       <c r="P18" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q18" s="9"/>
       <c r="R18" s="7">
@@ -1808,25 +1826,25 @@
       </c>
       <c r="S18" s="9"/>
       <c r="T18" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="U18" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="V18" s="7"/>
       <c r="W18" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:24" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="7">
@@ -1834,16 +1852,16 @@
       </c>
       <c r="F19" s="9"/>
       <c r="G19" s="7" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="H19" s="9"/>
       <c r="I19" s="7" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c r="L19" s="7" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="M19" s="9"/>
       <c r="N19" s="7">
@@ -1851,7 +1869,7 @@
       </c>
       <c r="O19" s="9"/>
       <c r="P19" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q19" s="9"/>
       <c r="R19" s="7">
@@ -1859,25 +1877,25 @@
       </c>
       <c r="S19" s="9"/>
       <c r="T19" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="U19" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="V19" s="7"/>
       <c r="W19" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:24" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="7">
@@ -1885,16 +1903,16 @@
       </c>
       <c r="F20" s="9"/>
       <c r="G20" s="7" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="H20" s="9"/>
       <c r="I20" s="7" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c r="L20" s="7" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="M20" s="9"/>
       <c r="N20" s="7">
@@ -1902,7 +1920,7 @@
       </c>
       <c r="O20" s="9"/>
       <c r="P20" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q20" s="9"/>
       <c r="R20" s="7">
@@ -1910,44 +1928,42 @@
       </c>
       <c r="S20" s="9"/>
       <c r="T20" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="U20" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="V20" s="7"/>
       <c r="W20" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:24" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>41</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="D21" s="9"/>
       <c r="E21" s="7">
         <v>1</v>
       </c>
       <c r="F21" s="9"/>
       <c r="G21" s="7" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="H21" s="9"/>
       <c r="I21" s="7" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c r="L21" s="7" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="M21" s="9"/>
       <c r="N21" s="7">
@@ -1955,7 +1971,7 @@
       </c>
       <c r="O21" s="9"/>
       <c r="P21" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q21" s="9"/>
       <c r="R21" s="7">
@@ -1963,94 +1979,205 @@
       </c>
       <c r="S21" s="9"/>
       <c r="T21" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="U21" s="9"/>
+        <v>32</v>
+      </c>
+      <c r="U21" s="9" t="s">
+        <v>58</v>
+      </c>
       <c r="V21" s="7"/>
       <c r="W21" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:24" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="10"/>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="10"/>
-      <c r="R22" s="10"/>
-      <c r="S22" s="10"/>
-      <c r="T22" s="10"/>
-      <c r="U22" s="10"/>
-      <c r="V22" s="10"/>
-      <c r="W22" s="10"/>
-      <c r="X22" s="10"/>
-    </row>
-    <row r="23" spans="1:24" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="10"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="10"/>
-      <c r="R23" s="10"/>
-      <c r="S23" s="10"/>
-      <c r="T23" s="10"/>
-      <c r="U23" s="10"/>
-      <c r="V23" s="10"/>
-      <c r="W23" s="10"/>
-      <c r="X23" s="10"/>
-    </row>
-    <row r="24" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="10"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="10"/>
-      <c r="P24" s="10"/>
-      <c r="Q24" s="10"/>
-      <c r="R24" s="10"/>
-      <c r="S24" s="10"/>
-      <c r="T24" s="10"/>
-      <c r="U24" s="10"/>
-      <c r="V24" s="10"/>
-      <c r="W24" s="10"/>
-      <c r="X24" s="10"/>
-    </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="7">
+        <v>1</v>
+      </c>
+      <c r="F22" s="9"/>
+      <c r="G22" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H22" s="9"/>
+      <c r="I22" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="M22" s="9"/>
+      <c r="N22" s="7">
+        <v>1</v>
+      </c>
+      <c r="O22" s="9"/>
+      <c r="P22" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q22" s="9"/>
+      <c r="R22" s="7">
+        <v>8000</v>
+      </c>
+      <c r="S22" s="9"/>
+      <c r="T22" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="U22" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="V22" s="7"/>
+      <c r="W22" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23" s="7">
+        <v>1</v>
+      </c>
+      <c r="F23" s="9">
+        <v>2</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="J23" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="K23" s="9">
+        <v>31638.25</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="M23" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="N23" s="7">
+        <v>1</v>
+      </c>
+      <c r="O23" s="9">
+        <v>2</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q23" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="R23" s="7">
+        <v>8000</v>
+      </c>
+      <c r="S23" s="9">
+        <v>8002</v>
+      </c>
+      <c r="T23" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="U23" s="9"/>
+      <c r="V23" s="7"/>
+      <c r="W23" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" s="7">
+        <v>1</v>
+      </c>
+      <c r="F24" s="9">
+        <v>3</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="J24" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="K24" s="9">
+        <v>31700.25</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="M24" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="N24" s="7">
+        <v>1</v>
+      </c>
+      <c r="O24" s="9">
+        <v>3</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q24" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="R24" s="7">
+        <v>8000</v>
+      </c>
+      <c r="S24" s="9">
+        <v>8002</v>
+      </c>
+      <c r="T24" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="U24" s="9"/>
+      <c r="V24" s="7"/>
+      <c r="W24" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
       <c r="D25" s="10"/>
       <c r="E25" s="10"/>
       <c r="F25" s="10"/>
@@ -2071,9 +2198,12 @@
       <c r="U25" s="10"/>
       <c r="V25" s="10"/>
       <c r="W25" s="10"/>
-    </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="X25" s="10"/>
+    </row>
+    <row r="26" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="10"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
       <c r="D26" s="10"/>
       <c r="E26" s="10"/>
       <c r="F26" s="10"/>
@@ -2094,8 +2224,9 @@
       <c r="U26" s="10"/>
       <c r="V26" s="10"/>
       <c r="W26" s="10"/>
-    </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="X26" s="10"/>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" s="10"/>
       <c r="D27" s="10"/>
       <c r="E27" s="10"/>
@@ -2118,7 +2249,7 @@
       <c r="V27" s="10"/>
       <c r="W27" s="10"/>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" s="10"/>
       <c r="D28" s="10"/>
       <c r="E28" s="10"/>
@@ -2141,7 +2272,7 @@
       <c r="V28" s="10"/>
       <c r="W28" s="10"/>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" s="10"/>
       <c r="D29" s="10"/>
       <c r="E29" s="10"/>
@@ -2164,7 +2295,7 @@
       <c r="V29" s="10"/>
       <c r="W29" s="10"/>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" s="10"/>
       <c r="D30" s="10"/>
       <c r="E30" s="10"/>
@@ -2187,7 +2318,7 @@
       <c r="V30" s="10"/>
       <c r="W30" s="10"/>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31" s="10"/>
       <c r="D31" s="10"/>
       <c r="E31" s="10"/>
@@ -2210,7 +2341,7 @@
       <c r="V31" s="10"/>
       <c r="W31" s="10"/>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32" s="10"/>
       <c r="D32" s="10"/>
       <c r="E32" s="10"/>
@@ -2233,779 +2364,781 @@
       <c r="V32" s="10"/>
       <c r="W32" s="10"/>
     </row>
-    <row r="33" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="34" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="35" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="36" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="37" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="38" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="39" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="40" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="41" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="42" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="43" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="44" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="45" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="46" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="47" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="48" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="49" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="50" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="51" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="52" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="53" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="54" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="55" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="56" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="57" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="58" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="59" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="60" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="61" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="62" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="63" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="64" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="65" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="66" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="67" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="68" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="69" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="70" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="71" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="72" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="73" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="74" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="75" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="76" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="77" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="78" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="79" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="80" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="81" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="82" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="83" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="84" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="85" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="86" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="87" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="88" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="89" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="90" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="91" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="92" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="93" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="94" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="95" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="96" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="97" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="98" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="99" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="100" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="101" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="102" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="103" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="104" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="105" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="106" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="107" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="108" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="109" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="110" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="111" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="112" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="113" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="114" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="115" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="116" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="117" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="118" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="119" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="120" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="121" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="122" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="123" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="124" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="125" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="126" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="127" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="128" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="129" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="130" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="131" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="132" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="133" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="134" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="135" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="136" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="137" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="138" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="139" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="140" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="141" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="142" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="143" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="144" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="145" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="146" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="147" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="148" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="149" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="150" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="151" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="152" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="153" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="154" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="155" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="156" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="157" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="158" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="159" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="160" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="161" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="162" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="163" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="164" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="165" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="166" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="167" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="168" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="169" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="170" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="171" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="172" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="173" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="174" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="175" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="176" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="177" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="178" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="179" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="180" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="181" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="182" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="183" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="184" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="185" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="186" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="187" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="188" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="189" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="190" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="191" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="192" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="193" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="194" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="195" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="196" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="197" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="198" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="199" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="200" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="201" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="202" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="203" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="204" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="205" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="206" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="207" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="208" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="209" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="210" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="211" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="212" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="213" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="214" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="215" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="216" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="217" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="218" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="219" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="220" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="221" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="222" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="223" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="224" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="225" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="226" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="227" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="228" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="229" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="230" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="231" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="232" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="233" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="234" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="235" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="236" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="237" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="238" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="239" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="240" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="241" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="242" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="243" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="244" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="245" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="246" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="247" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="248" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="249" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="250" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="251" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="252" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="253" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="254" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="255" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="256" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="257" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="258" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="259" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="260" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="261" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="262" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="263" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="264" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="265" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="266" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="267" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="268" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="269" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="270" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="271" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="272" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="273" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="274" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="275" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="276" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="277" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="278" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="279" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="280" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="281" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="282" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="283" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="284" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="285" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="286" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="287" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="288" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="289" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="290" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="291" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="292" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="293" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="294" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="295" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="296" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="297" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="298" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="299" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="300" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="301" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="302" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="303" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="304" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="305" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="306" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="307" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="308" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="309" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="310" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="311" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="312" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="313" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="314" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="315" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="316" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="317" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="318" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="319" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="320" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="321" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="322" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="323" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="324" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="325" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="326" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="327" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="328" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="329" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="330" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="331" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="332" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="333" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="334" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="335" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="336" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="337" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="338" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="339" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="340" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="341" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="342" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="343" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="344" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="345" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="346" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="347" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="348" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="349" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="350" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="351" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="352" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="353" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="354" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="355" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="356" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="357" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="358" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="359" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="360" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="361" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="362" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="363" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="364" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="365" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="366" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="367" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="368" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="369" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="370" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="371" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="372" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="373" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="374" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="375" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="376" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="377" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="378" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="379" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="380" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="381" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="382" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="383" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="384" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="385" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="386" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="387" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="388" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="389" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="390" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="391" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="392" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="393" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="394" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="395" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="396" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="397" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="398" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="399" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="400" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="401" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="402" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="403" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="404" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="405" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="406" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="407" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="408" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="409" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="410" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="411" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="412" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="413" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="414" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="415" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="416" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="417" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="418" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="419" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="420" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="421" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="422" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="423" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="424" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="425" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="426" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="427" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="428" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="429" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="430" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="431" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="432" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="433" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="434" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="435" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="436" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="437" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="438" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="439" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="440" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="441" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="442" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="443" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="444" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="445" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="446" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="447" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="448" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="449" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="450" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="451" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="452" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="453" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="454" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="455" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="456" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="457" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="458" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="459" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="460" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="461" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="462" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="463" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="464" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="465" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="466" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="467" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="468" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="469" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="470" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="471" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="472" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="473" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="474" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="475" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="476" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="477" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="478" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="479" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="480" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="481" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="482" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="483" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="484" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="485" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="486" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="487" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="488" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="489" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="490" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="491" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="492" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="493" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="494" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="495" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="496" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="497" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="498" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="499" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="500" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="501" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="502" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="503" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="504" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="505" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="506" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="507" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="508" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="509" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="510" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="511" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="512" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="513" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="514" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="515" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="516" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="517" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="518" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="519" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="520" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="521" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="522" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="523" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="524" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="525" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="526" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="527" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="528" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="529" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="530" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="531" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="532" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="533" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="534" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="535" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="536" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="537" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="538" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="539" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="540" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="541" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="542" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="543" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="544" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="545" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="546" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="547" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="548" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="549" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="550" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="551" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="552" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="553" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="554" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="555" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="556" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="557" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="558" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="559" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="560" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="561" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="562" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="563" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="564" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="565" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="566" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="567" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="568" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="569" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="570" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="571" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="572" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="573" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="574" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="575" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="576" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="577" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="578" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="579" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="580" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="581" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="582" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="583" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="584" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="585" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="586" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="587" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="588" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="589" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="590" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="591" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="592" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="593" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="594" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="595" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="596" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="597" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="598" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="599" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="600" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="601" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="602" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="603" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="604" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="605" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="606" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="607" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="608" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="609" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="610" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="611" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="612" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="613" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="614" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="615" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="616" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="617" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="618" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="619" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="620" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="621" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="622" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="623" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="624" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="625" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="626" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="627" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="628" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="629" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="630" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="631" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="632" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="633" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="634" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="635" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="636" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="637" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="638" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="639" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="640" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="641" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="642" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="643" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="644" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="645" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="646" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="647" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="648" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="649" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="650" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="651" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="652" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="653" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="654" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="655" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="656" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="657" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="658" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="659" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="660" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="661" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="662" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="663" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="664" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="665" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="666" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="667" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="668" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="669" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="670" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="671" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="672" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="673" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="674" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="675" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="676" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="677" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="678" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="679" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="680" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="681" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="682" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="683" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="684" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="685" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="686" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="687" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="688" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="689" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="690" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="691" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="692" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="693" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="694" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="695" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="696" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="697" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="698" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="699" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="700" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="701" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="702" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="703" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="704" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="705" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="706" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="707" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="708" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="709" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="710" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="711" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="712" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="713" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="714" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="715" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="716" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="717" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="718" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="719" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="720" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="721" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="722" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="723" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="724" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="725" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="726" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="727" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="728" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="729" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="730" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="731" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="732" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="733" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="734" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="735" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="736" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="737" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="738" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="739" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="740" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="741" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="742" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="743" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="744" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="745" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="746" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="747" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="748" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="749" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="750" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="751" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="752" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="753" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="754" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="755" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="756" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="757" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="758" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="759" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="760" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="761" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="762" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="763" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="764" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="765" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="766" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="767" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="768" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="769" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="770" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="771" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="772" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="773" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="774" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="775" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="776" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="777" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="778" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="779" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="780" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="781" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="782" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="783" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="784" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="785" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="786" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="787" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="788" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="789" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="790" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="791" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="792" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="793" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="794" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="795" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="796" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="797" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="798" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="799" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="800" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="1048562" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D1048562" s="14"/>
-    </row>
-    <row r="1048565" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D1048565" s="14"/>
+    <row r="33" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="36" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="37" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="38" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="39" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="40" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="41" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="42" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="43" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="44" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="45" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="46" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="47" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="48" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="49" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="50" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="51" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="53" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="56" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="57" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="58" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="60" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="61" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="63" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="64" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="65" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="66" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="67" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="68" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="69" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="70" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="71" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="72" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="73" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="74" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="75" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="76" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="77" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="78" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="79" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="80" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="81" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="82" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="83" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="84" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="85" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="86" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="87" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="88" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="89" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="90" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="91" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="92" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="93" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="94" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="95" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="96" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="97" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="98" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="99" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="100" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="101" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="102" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="103" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="104" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="105" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="106" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="107" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="108" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="109" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="110" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="111" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="112" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="113" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="114" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="115" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="116" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="117" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="118" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="119" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="120" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="121" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="122" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="123" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="124" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="125" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="126" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="127" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="128" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="129" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="130" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="131" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="132" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="133" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="134" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="135" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="136" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="137" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="138" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="139" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="140" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="141" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="142" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="143" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="144" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="145" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="146" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="147" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="148" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="149" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="150" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="151" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="152" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="153" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="154" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="155" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="156" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="157" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="158" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="159" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="160" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="161" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="162" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="163" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="164" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="165" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="166" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="167" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="168" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="169" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="170" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="171" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="172" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="173" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="174" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="175" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="176" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="177" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="178" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="179" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="180" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="181" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="182" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="183" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="184" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="185" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="186" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="187" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="188" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="189" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="190" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="191" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="192" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="193" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="194" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="195" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="196" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="197" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="198" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="199" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="200" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="201" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="202" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="203" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="204" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="205" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="206" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="207" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="208" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="209" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="210" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="211" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="212" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="213" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="214" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="215" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="216" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="217" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="218" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="219" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="220" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="221" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="222" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="223" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="224" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="225" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="226" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="227" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="228" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="229" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="230" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="231" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="232" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="233" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="234" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="235" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="236" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="237" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="238" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="239" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="240" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="241" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="242" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="243" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="244" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="245" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="246" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="247" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="248" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="249" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="250" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="251" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="252" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="253" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="254" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="255" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="256" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="257" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="258" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="259" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="260" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="261" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="262" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="263" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="264" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="265" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="266" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="267" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="268" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="269" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="270" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="271" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="272" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="273" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="274" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="275" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="276" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="277" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="278" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="279" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="280" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="281" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="282" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="283" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="284" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="285" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="286" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="287" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="288" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="289" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="290" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="291" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="292" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="293" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="294" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="295" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="296" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="297" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="298" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="299" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="300" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="301" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="302" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="303" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="304" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="305" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="306" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="307" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="308" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="309" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="310" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="311" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="312" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="313" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="314" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="315" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="316" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="317" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="318" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="319" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="320" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="321" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="322" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="323" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="324" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="325" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="326" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="327" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="328" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="329" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="330" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="331" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="332" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="333" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="334" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="335" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="336" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="337" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="338" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="339" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="340" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="341" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="342" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="343" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="344" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="345" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="346" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="347" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="348" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="349" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="350" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="351" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="352" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="353" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="354" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="355" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="356" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="357" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="358" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="359" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="360" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="361" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="362" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="363" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="364" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="365" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="366" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="367" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="368" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="369" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="370" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="371" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="372" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="373" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="374" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="375" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="376" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="377" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="378" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="379" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="380" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="381" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="382" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="383" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="384" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="385" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="386" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="387" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="388" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="389" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="390" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="391" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="392" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="393" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="394" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="395" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="396" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="397" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="398" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="399" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="400" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="401" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="402" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="403" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="404" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="405" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="406" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="407" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="408" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="409" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="410" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="411" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="412" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="413" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="414" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="415" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="416" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="417" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="418" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="419" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="420" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="421" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="422" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="423" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="424" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="425" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="426" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="427" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="428" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="429" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="430" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="431" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="432" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="433" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="434" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="435" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="436" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="437" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="438" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="439" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="440" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="441" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="442" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="443" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="444" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="445" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="446" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="447" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="448" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="449" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="450" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="451" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="452" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="453" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="454" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="455" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="456" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="457" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="458" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="459" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="460" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="461" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="462" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="463" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="464" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="465" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="466" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="467" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="468" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="469" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="470" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="471" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="472" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="473" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="474" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="475" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="476" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="477" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="478" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="479" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="480" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="481" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="482" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="483" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="484" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="485" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="486" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="487" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="488" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="489" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="490" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="491" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="492" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="493" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="494" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="495" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="496" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="497" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="498" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="499" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="500" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="501" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="502" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="503" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="504" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="505" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="506" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="507" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="508" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="509" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="510" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="511" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="512" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="513" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="514" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="515" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="516" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="517" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="518" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="519" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="520" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="521" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="522" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="523" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="524" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="525" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="526" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="527" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="528" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="529" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="530" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="531" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="532" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="533" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="534" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="535" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="536" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="537" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="538" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="539" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="540" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="541" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="542" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="543" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="544" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="545" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="546" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="547" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="548" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="549" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="550" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="551" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="552" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="553" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="554" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="555" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="556" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="557" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="558" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="559" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="560" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="561" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="562" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="563" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="564" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="565" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="566" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="567" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="568" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="569" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="570" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="571" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="572" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="573" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="574" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="575" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="576" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="577" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="578" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="579" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="580" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="581" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="582" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="583" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="584" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="585" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="586" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="587" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="588" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="589" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="590" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="591" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="592" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="593" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="594" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="595" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="596" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="597" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="598" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="599" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="600" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="601" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="602" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="603" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="604" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="605" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="606" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="607" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="608" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="609" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="610" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="611" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="612" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="613" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="614" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="615" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="616" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="617" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="618" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="619" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="620" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="621" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="622" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="623" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="624" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="625" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="626" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="627" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="628" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="629" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="630" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="631" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="632" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="633" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="634" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="635" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="636" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="637" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="638" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="639" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="640" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="641" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="642" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="643" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="644" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="645" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="646" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="647" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="648" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="649" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="650" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="651" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="652" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="653" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="654" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="655" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="656" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="657" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="658" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="659" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="660" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="661" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="662" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="663" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="664" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="665" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="666" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="667" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="668" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="669" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="670" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="671" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="672" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="673" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="674" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="675" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="676" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="677" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="678" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="679" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="680" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="681" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="682" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="683" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="684" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="685" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="686" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="687" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="688" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="689" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="690" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="691" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="692" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="693" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="694" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="695" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="696" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="697" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="698" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="699" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="700" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="701" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="702" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="703" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="704" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="705" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="706" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="707" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="708" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="709" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="710" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="711" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="712" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="713" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="714" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="715" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="716" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="717" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="718" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="719" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="720" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="721" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="722" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="723" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="724" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="725" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="726" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="727" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="728" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="729" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="730" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="731" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="732" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="733" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="734" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="735" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="736" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="737" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="738" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="739" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="740" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="741" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="742" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="743" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="744" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="745" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="746" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="747" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="748" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="749" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="750" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="751" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="752" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="753" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="754" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="755" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="756" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="757" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="758" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="759" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="760" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="761" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="762" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="763" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="764" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="765" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="766" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="767" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="768" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="769" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="770" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="771" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="772" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="773" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="774" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="775" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="776" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="777" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="778" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="779" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="780" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="781" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="782" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="783" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="784" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="785" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="786" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="787" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="788" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="789" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="790" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="791" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="792" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="793" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="794" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="795" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="796" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="797" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="798" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="799" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="800" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="801" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="802" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1048564" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1048564" s="14"/>
+    </row>
+    <row r="1048567" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1048567" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/src/test/resources/testData/XAlpha.xlsx
+++ b/src/test/resources/testData/XAlpha.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D40876B6-F72D-45B4-A04E-4B8F3C676978}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B796F67-1CEF-41B3-BC24-6604ADB8A802}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="180" windowWidth="22740" windowHeight="11775" tabRatio="644" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10" yWindow="10" windowWidth="19180" windowHeight="10060" tabRatio="644" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="XAlphaLogin" sheetId="9" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="79">
   <si>
     <t>URL</t>
   </si>
@@ -247,6 +247,12 @@
   </si>
   <si>
     <t>QA_TestCase_Auto_XAlpha_035</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_XAlpha_036</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_XAlpha_037</t>
   </si>
 </sst>
 </file>
@@ -302,7 +308,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -341,15 +347,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -362,7 +359,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -384,7 +381,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -730,18 +726,18 @@
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.5703125" customWidth="1"/>
-    <col min="2" max="2" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" customWidth="1"/>
-    <col min="4" max="4" width="21.28515625" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" customWidth="1"/>
+    <col min="1" max="1" width="29.54296875" customWidth="1"/>
+    <col min="2" max="2" width="27.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.1796875" customWidth="1"/>
+    <col min="4" max="4" width="21.26953125" customWidth="1"/>
+    <col min="5" max="5" width="18.453125" customWidth="1"/>
+    <col min="6" max="6" width="16.1796875" customWidth="1"/>
+    <col min="7" max="7" width="15.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -764,7 +760,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -785,7 +781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -806,7 +802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -827,7 +823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>46</v>
       </c>
@@ -845,7 +841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>47</v>
       </c>
@@ -874,41 +870,41 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E763A6C0-A0DE-42F1-A4CC-B0EEDE6F7213}">
-  <dimension ref="A1:X1048567"/>
+  <dimension ref="A1:W1048567"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="R1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="V26" sqref="V26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.85546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" style="10"/>
-    <col min="3" max="3" width="9.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.81640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7265625" style="10"/>
+    <col min="3" max="3" width="9.1796875" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.81640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.453125" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.1796875" style="11" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17" style="11" customWidth="1"/>
-    <col min="8" max="8" width="18.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="11" customWidth="1"/>
-    <col min="10" max="11" width="18.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.42578125" style="11" customWidth="1"/>
-    <col min="13" max="13" width="18.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="22.28515625" style="11" customWidth="1"/>
+    <col min="8" max="8" width="18.81640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.7265625" style="11" customWidth="1"/>
+    <col min="10" max="11" width="18.81640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.453125" style="11" customWidth="1"/>
+    <col min="13" max="13" width="18.81640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.453125" style="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.1796875" style="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.26953125" style="11" customWidth="1"/>
     <col min="17" max="17" width="27" style="11" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.81640625" style="11" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="25" style="11" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="23.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7265625" style="11" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="23.453125" style="11" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="17" style="11" customWidth="1"/>
-    <col min="23" max="23" width="8.7109375" style="11"/>
-    <col min="24" max="16384" width="8.7109375" style="10"/>
+    <col min="23" max="23" width="8.7265625" style="11"/>
+    <col min="24" max="16384" width="8.7265625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
@@ -979,7 +975,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>33</v>
       </c>
@@ -1028,7 +1024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>34</v>
       </c>
@@ -1077,7 +1073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>35</v>
       </c>
@@ -1126,7 +1122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>36</v>
       </c>
@@ -1175,7 +1171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>38</v>
       </c>
@@ -1224,7 +1220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>40</v>
       </c>
@@ -1275,7 +1271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>42</v>
       </c>
@@ -1326,7 +1322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>43</v>
       </c>
@@ -1377,7 +1373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>45</v>
       </c>
@@ -1428,7 +1424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>48</v>
       </c>
@@ -1479,7 +1475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>49</v>
       </c>
@@ -1530,7 +1526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>50</v>
       </c>
@@ -1581,7 +1577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>51</v>
       </c>
@@ -1632,7 +1628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>52</v>
       </c>
@@ -1683,7 +1679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>53</v>
       </c>
@@ -1734,7 +1730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>54</v>
       </c>
@@ -1785,7 +1781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>55</v>
       </c>
@@ -1836,7 +1832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>56</v>
       </c>
@@ -1887,7 +1883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>57</v>
       </c>
@@ -1938,7 +1934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
         <v>74</v>
       </c>
@@ -1989,7 +1985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
         <v>75</v>
       </c>
@@ -2040,7 +2036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
         <v>59</v>
       </c>
@@ -2107,7 +2103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
         <v>76</v>
       </c>
@@ -2174,59 +2170,141 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="10"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="10"/>
-      <c r="O25" s="10"/>
-      <c r="P25" s="10"/>
-      <c r="Q25" s="10"/>
-      <c r="R25" s="10"/>
-      <c r="S25" s="10"/>
-      <c r="T25" s="10"/>
-      <c r="U25" s="10"/>
-      <c r="V25" s="10"/>
-      <c r="W25" s="10"/>
-      <c r="X25" s="10"/>
-    </row>
-    <row r="26" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="10"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="10"/>
-      <c r="O26" s="10"/>
-      <c r="P26" s="10"/>
-      <c r="Q26" s="10"/>
-      <c r="R26" s="10"/>
-      <c r="S26" s="10"/>
-      <c r="T26" s="10"/>
-      <c r="U26" s="10"/>
-      <c r="V26" s="10"/>
-      <c r="W26" s="10"/>
-      <c r="X26" s="10"/>
-    </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E25" s="7">
+        <v>1</v>
+      </c>
+      <c r="F25" s="9">
+        <v>3</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="J25" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="K25" s="9">
+        <v>31700.25</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="M25" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="N25" s="7">
+        <v>1</v>
+      </c>
+      <c r="O25" s="9">
+        <v>3</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q25" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="R25" s="7">
+        <v>8000</v>
+      </c>
+      <c r="S25" s="9">
+        <v>8002</v>
+      </c>
+      <c r="T25" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U25" s="9"/>
+      <c r="V25" s="7"/>
+      <c r="W25" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E26" s="7">
+        <v>1</v>
+      </c>
+      <c r="F26" s="9">
+        <v>3</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="J26" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="K26" s="9">
+        <v>31700.25</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="M26" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="N26" s="7">
+        <v>1</v>
+      </c>
+      <c r="O26" s="9">
+        <v>3</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q26" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="R26" s="7">
+        <v>8000</v>
+      </c>
+      <c r="S26" s="9">
+        <v>8002</v>
+      </c>
+      <c r="T26" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="U26" s="9"/>
+      <c r="V26" s="7"/>
+      <c r="W26" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A27" s="10"/>
       <c r="D27" s="10"/>
       <c r="E27" s="10"/>
@@ -2249,7 +2327,7 @@
       <c r="V27" s="10"/>
       <c r="W27" s="10"/>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A28" s="10"/>
       <c r="D28" s="10"/>
       <c r="E28" s="10"/>
@@ -2272,7 +2350,7 @@
       <c r="V28" s="10"/>
       <c r="W28" s="10"/>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A29" s="10"/>
       <c r="D29" s="10"/>
       <c r="E29" s="10"/>
@@ -2295,7 +2373,7 @@
       <c r="V29" s="10"/>
       <c r="W29" s="10"/>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A30" s="10"/>
       <c r="D30" s="10"/>
       <c r="E30" s="10"/>
@@ -2318,7 +2396,7 @@
       <c r="V30" s="10"/>
       <c r="W30" s="10"/>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A31" s="10"/>
       <c r="D31" s="10"/>
       <c r="E31" s="10"/>
@@ -2341,7 +2419,7 @@
       <c r="V31" s="10"/>
       <c r="W31" s="10"/>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A32" s="10"/>
       <c r="D32" s="10"/>
       <c r="E32" s="10"/>
@@ -2364,781 +2442,781 @@
       <c r="V32" s="10"/>
       <c r="W32" s="10"/>
     </row>
-    <row r="33" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="34" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="35" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="36" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="37" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="38" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="39" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="40" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="41" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="42" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="43" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="44" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="45" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="46" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="47" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="48" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="49" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="50" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="51" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="52" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="53" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="54" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="55" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="56" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="57" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="58" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="59" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="60" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="61" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="62" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="63" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="64" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="65" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="66" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="67" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="68" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="69" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="70" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="71" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="72" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="73" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="74" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="75" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="76" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="77" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="78" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="79" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="80" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="81" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="82" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="83" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="84" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="85" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="86" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="87" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="88" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="89" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="90" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="91" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="92" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="93" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="94" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="95" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="96" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="97" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="98" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="99" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="100" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="101" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="102" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="103" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="104" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="105" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="106" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="107" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="108" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="109" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="110" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="111" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="112" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="113" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="114" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="115" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="116" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="117" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="118" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="119" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="120" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="121" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="122" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="123" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="124" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="125" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="126" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="127" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="128" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="129" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="130" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="131" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="132" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="133" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="134" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="135" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="136" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="137" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="138" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="139" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="140" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="141" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="142" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="143" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="144" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="145" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="146" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="147" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="148" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="149" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="150" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="151" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="152" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="153" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="154" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="155" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="156" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="157" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="158" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="159" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="160" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="161" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="162" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="163" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="164" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="165" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="166" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="167" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="168" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="169" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="170" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="171" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="172" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="173" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="174" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="175" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="176" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="177" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="178" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="179" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="180" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="181" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="182" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="183" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="184" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="185" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="186" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="187" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="188" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="189" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="190" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="191" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="192" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="193" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="194" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="195" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="196" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="197" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="198" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="199" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="200" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="201" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="202" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="203" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="204" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="205" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="206" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="207" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="208" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="209" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="210" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="211" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="212" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="213" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="214" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="215" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="216" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="217" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="218" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="219" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="220" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="221" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="222" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="223" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="224" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="225" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="226" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="227" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="228" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="229" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="230" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="231" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="232" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="233" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="234" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="235" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="236" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="237" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="238" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="239" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="240" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="241" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="242" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="243" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="244" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="245" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="246" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="247" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="248" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="249" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="250" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="251" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="252" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="253" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="254" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="255" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="256" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="257" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="258" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="259" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="260" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="261" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="262" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="263" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="264" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="265" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="266" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="267" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="268" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="269" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="270" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="271" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="272" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="273" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="274" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="275" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="276" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="277" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="278" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="279" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="280" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="281" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="282" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="283" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="284" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="285" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="286" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="287" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="288" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="289" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="290" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="291" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="292" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="293" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="294" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="295" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="296" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="297" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="298" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="299" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="300" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="301" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="302" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="303" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="304" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="305" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="306" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="307" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="308" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="309" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="310" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="311" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="312" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="313" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="314" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="315" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="316" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="317" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="318" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="319" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="320" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="321" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="322" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="323" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="324" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="325" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="326" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="327" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="328" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="329" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="330" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="331" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="332" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="333" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="334" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="335" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="336" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="337" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="338" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="339" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="340" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="341" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="342" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="343" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="344" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="345" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="346" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="347" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="348" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="349" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="350" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="351" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="352" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="353" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="354" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="355" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="356" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="357" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="358" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="359" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="360" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="361" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="362" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="363" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="364" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="365" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="366" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="367" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="368" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="369" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="370" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="371" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="372" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="373" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="374" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="375" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="376" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="377" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="378" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="379" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="380" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="381" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="382" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="383" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="384" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="385" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="386" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="387" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="388" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="389" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="390" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="391" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="392" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="393" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="394" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="395" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="396" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="397" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="398" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="399" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="400" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="401" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="402" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="403" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="404" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="405" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="406" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="407" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="408" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="409" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="410" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="411" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="412" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="413" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="414" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="415" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="416" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="417" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="418" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="419" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="420" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="421" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="422" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="423" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="424" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="425" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="426" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="427" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="428" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="429" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="430" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="431" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="432" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="433" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="434" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="435" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="436" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="437" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="438" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="439" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="440" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="441" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="442" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="443" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="444" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="445" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="446" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="447" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="448" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="449" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="450" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="451" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="452" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="453" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="454" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="455" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="456" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="457" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="458" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="459" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="460" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="461" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="462" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="463" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="464" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="465" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="466" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="467" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="468" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="469" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="470" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="471" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="472" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="473" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="474" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="475" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="476" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="477" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="478" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="479" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="480" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="481" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="482" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="483" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="484" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="485" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="486" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="487" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="488" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="489" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="490" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="491" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="492" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="493" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="494" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="495" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="496" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="497" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="498" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="499" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="500" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="501" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="502" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="503" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="504" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="505" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="506" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="507" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="508" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="509" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="510" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="511" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="512" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="513" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="514" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="515" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="516" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="517" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="518" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="519" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="520" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="521" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="522" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="523" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="524" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="525" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="526" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="527" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="528" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="529" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="530" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="531" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="532" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="533" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="534" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="535" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="536" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="537" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="538" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="539" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="540" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="541" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="542" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="543" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="544" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="545" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="546" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="547" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="548" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="549" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="550" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="551" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="552" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="553" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="554" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="555" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="556" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="557" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="558" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="559" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="560" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="561" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="562" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="563" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="564" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="565" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="566" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="567" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="568" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="569" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="570" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="571" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="572" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="573" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="574" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="575" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="576" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="577" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="578" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="579" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="580" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="581" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="582" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="583" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="584" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="585" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="586" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="587" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="588" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="589" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="590" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="591" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="592" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="593" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="594" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="595" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="596" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="597" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="598" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="599" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="600" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="601" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="602" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="603" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="604" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="605" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="606" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="607" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="608" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="609" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="610" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="611" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="612" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="613" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="614" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="615" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="616" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="617" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="618" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="619" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="620" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="621" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="622" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="623" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="624" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="625" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="626" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="627" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="628" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="629" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="630" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="631" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="632" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="633" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="634" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="635" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="636" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="637" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="638" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="639" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="640" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="641" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="642" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="643" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="644" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="645" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="646" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="647" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="648" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="649" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="650" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="651" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="652" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="653" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="654" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="655" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="656" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="657" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="658" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="659" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="660" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="661" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="662" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="663" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="664" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="665" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="666" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="667" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="668" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="669" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="670" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="671" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="672" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="673" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="674" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="675" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="676" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="677" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="678" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="679" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="680" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="681" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="682" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="683" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="684" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="685" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="686" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="687" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="688" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="689" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="690" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="691" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="692" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="693" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="694" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="695" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="696" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="697" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="698" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="699" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="700" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="701" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="702" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="703" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="704" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="705" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="706" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="707" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="708" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="709" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="710" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="711" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="712" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="713" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="714" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="715" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="716" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="717" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="718" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="719" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="720" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="721" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="722" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="723" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="724" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="725" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="726" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="727" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="728" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="729" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="730" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="731" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="732" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="733" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="734" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="735" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="736" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="737" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="738" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="739" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="740" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="741" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="742" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="743" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="744" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="745" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="746" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="747" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="748" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="749" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="750" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="751" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="752" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="753" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="754" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="755" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="756" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="757" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="758" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="759" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="760" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="761" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="762" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="763" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="764" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="765" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="766" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="767" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="768" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="769" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="770" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="771" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="772" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="773" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="774" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="775" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="776" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="777" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="778" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="779" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="780" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="781" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="782" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="783" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="784" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="785" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="786" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="787" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="788" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="789" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="790" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="791" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="792" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="793" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="794" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="795" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="796" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="797" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="798" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="799" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="800" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="801" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="802" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="1048564" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D1048564" s="14"/>
-    </row>
-    <row r="1048567" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D1048567" s="14"/>
+    <row r="33" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="34" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="35" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="36" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="37" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="38" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="39" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="40" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="41" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="42" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="43" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="44" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="45" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="46" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="47" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="48" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="49" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="50" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="51" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="52" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="53" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="54" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="55" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="56" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="57" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="58" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="59" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="60" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="61" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="62" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="63" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="64" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="65" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="66" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="67" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="68" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="69" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="70" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="71" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="72" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="73" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="74" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="75" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="76" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="77" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="78" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="79" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="80" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="81" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="82" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="83" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="84" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="85" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="86" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="87" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="88" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="89" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="90" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="91" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="92" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="93" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="94" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="95" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="96" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="97" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="98" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="99" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="100" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="101" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="102" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="103" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="104" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="105" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="106" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="107" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="108" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="109" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="110" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="111" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="112" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="113" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="114" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="115" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="116" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="117" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="118" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="119" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="120" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="121" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="122" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="123" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="124" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="125" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="126" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="127" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="128" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="129" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="130" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="131" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="132" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="133" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="134" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="135" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="136" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="137" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="138" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="139" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="140" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="141" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="142" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="143" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="144" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="145" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="146" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="147" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="148" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="149" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="150" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="151" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="152" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="153" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="154" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="155" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="156" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="157" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="158" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="159" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="160" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="161" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="162" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="163" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="164" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="165" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="166" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="167" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="168" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="169" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="170" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="171" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="172" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="173" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="174" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="175" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="176" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="177" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="178" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="179" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="180" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="181" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="182" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="183" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="184" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="185" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="186" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="187" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="188" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="189" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="190" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="191" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="192" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="193" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="194" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="195" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="196" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="197" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="198" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="199" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="200" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="201" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="202" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="203" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="204" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="205" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="206" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="207" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="208" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="209" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="210" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="211" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="212" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="213" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="214" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="215" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="216" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="217" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="218" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="219" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="220" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="221" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="222" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="223" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="224" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="225" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="226" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="227" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="228" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="229" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="230" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="231" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="232" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="233" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="234" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="235" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="236" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="237" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="238" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="239" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="240" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="241" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="242" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="243" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="244" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="245" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="246" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="247" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="248" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="249" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="250" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="251" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="252" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="253" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="254" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="255" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="256" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="257" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="258" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="259" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="260" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="261" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="262" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="263" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="264" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="265" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="266" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="267" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="268" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="269" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="270" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="271" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="272" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="273" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="274" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="275" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="276" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="277" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="278" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="279" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="280" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="281" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="282" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="283" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="284" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="285" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="286" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="287" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="288" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="289" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="290" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="291" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="292" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="293" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="294" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="295" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="296" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="297" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="298" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="299" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="300" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="301" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="302" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="303" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="304" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="305" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="306" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="307" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="308" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="309" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="310" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="311" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="312" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="313" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="314" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="315" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="316" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="317" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="318" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="319" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="320" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="321" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="322" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="323" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="324" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="325" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="326" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="327" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="328" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="329" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="330" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="331" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="332" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="333" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="334" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="335" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="336" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="337" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="338" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="339" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="340" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="341" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="342" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="343" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="344" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="345" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="346" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="347" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="348" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="349" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="350" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="351" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="352" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="353" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="354" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="355" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="356" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="357" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="358" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="359" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="360" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="361" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="362" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="363" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="364" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="365" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="366" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="367" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="368" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="369" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="370" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="371" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="372" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="373" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="374" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="375" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="376" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="377" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="378" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="379" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="380" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="381" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="382" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="383" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="384" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="385" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="386" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="387" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="388" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="389" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="390" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="391" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="392" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="393" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="394" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="395" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="396" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="397" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="398" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="399" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="400" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="401" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="402" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="403" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="404" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="405" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="406" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="407" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="408" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="409" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="410" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="411" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="412" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="413" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="414" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="415" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="416" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="417" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="418" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="419" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="420" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="421" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="422" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="423" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="424" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="425" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="426" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="427" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="428" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="429" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="430" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="431" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="432" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="433" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="434" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="435" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="436" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="437" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="438" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="439" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="440" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="441" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="442" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="443" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="444" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="445" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="446" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="447" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="448" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="449" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="450" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="451" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="452" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="453" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="454" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="455" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="456" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="457" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="458" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="459" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="460" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="461" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="462" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="463" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="464" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="465" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="466" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="467" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="468" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="469" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="470" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="471" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="472" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="473" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="474" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="475" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="476" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="477" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="478" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="479" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="480" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="481" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="482" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="483" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="484" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="485" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="486" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="487" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="488" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="489" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="490" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="491" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="492" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="493" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="494" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="495" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="496" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="497" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="498" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="499" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="500" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="501" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="502" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="503" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="504" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="505" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="506" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="507" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="508" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="509" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="510" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="511" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="512" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="513" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="514" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="515" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="516" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="517" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="518" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="519" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="520" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="521" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="522" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="523" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="524" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="525" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="526" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="527" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="528" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="529" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="530" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="531" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="532" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="533" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="534" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="535" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="536" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="537" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="538" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="539" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="540" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="541" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="542" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="543" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="544" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="545" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="546" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="547" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="548" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="549" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="550" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="551" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="552" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="553" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="554" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="555" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="556" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="557" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="558" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="559" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="560" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="561" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="562" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="563" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="564" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="565" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="566" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="567" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="568" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="569" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="570" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="571" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="572" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="573" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="574" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="575" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="576" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="577" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="578" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="579" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="580" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="581" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="582" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="583" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="584" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="585" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="586" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="587" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="588" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="589" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="590" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="591" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="592" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="593" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="594" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="595" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="596" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="597" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="598" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="599" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="600" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="601" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="602" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="603" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="604" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="605" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="606" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="607" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="608" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="609" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="610" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="611" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="612" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="613" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="614" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="615" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="616" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="617" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="618" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="619" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="620" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="621" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="622" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="623" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="624" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="625" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="626" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="627" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="628" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="629" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="630" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="631" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="632" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="633" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="634" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="635" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="636" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="637" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="638" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="639" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="640" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="641" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="642" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="643" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="644" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="645" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="646" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="647" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="648" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="649" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="650" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="651" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="652" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="653" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="654" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="655" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="656" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="657" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="658" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="659" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="660" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="661" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="662" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="663" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="664" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="665" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="666" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="667" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="668" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="669" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="670" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="671" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="672" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="673" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="674" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="675" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="676" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="677" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="678" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="679" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="680" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="681" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="682" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="683" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="684" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="685" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="686" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="687" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="688" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="689" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="690" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="691" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="692" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="693" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="694" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="695" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="696" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="697" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="698" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="699" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="700" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="701" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="702" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="703" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="704" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="705" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="706" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="707" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="708" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="709" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="710" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="711" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="712" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="713" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="714" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="715" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="716" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="717" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="718" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="719" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="720" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="721" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="722" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="723" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="724" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="725" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="726" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="727" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="728" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="729" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="730" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="731" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="732" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="733" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="734" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="735" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="736" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="737" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="738" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="739" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="740" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="741" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="742" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="743" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="744" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="745" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="746" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="747" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="748" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="749" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="750" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="751" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="752" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="753" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="754" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="755" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="756" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="757" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="758" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="759" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="760" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="761" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="762" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="763" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="764" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="765" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="766" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="767" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="768" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="769" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="770" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="771" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="772" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="773" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="774" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="775" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="776" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="777" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="778" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="779" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="780" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="781" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="782" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="783" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="784" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="785" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="786" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="787" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="788" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="789" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="790" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="791" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="792" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="793" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="794" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="795" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="796" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="797" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="798" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="799" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="800" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="801" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="802" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="1048564" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1048564" s="13"/>
+    </row>
+    <row r="1048567" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1048567" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/src/test/resources/testData/XAlpha.xlsx
+++ b/src/test/resources/testData/XAlpha.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B796F67-1CEF-41B3-BC24-6604ADB8A802}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEF42410-700C-40FA-9F7C-80044CA9BFCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10" yWindow="10" windowWidth="19180" windowHeight="10060" tabRatio="644" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="644" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="XAlphaLogin" sheetId="9" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="78">
   <si>
     <t>URL</t>
   </si>
@@ -94,9 +94,6 @@
   </si>
   <si>
     <t>PortfolioNumber</t>
-  </si>
-  <si>
-    <t>Joejoe Pen</t>
   </si>
   <si>
     <t>confirmed</t>
@@ -825,7 +822,7 @@
     </row>
     <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
@@ -843,13 +840,13 @@
     </row>
     <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="1" t="b">
@@ -872,9 +869,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E763A6C0-A0DE-42F1-A4CC-B0EEDE6F7213}">
   <dimension ref="A1:W1048567"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="R1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="V26" sqref="V26"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="P1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -909,64 +906,64 @@
         <v>3</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>19</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I1" s="5" t="s">
         <v>20</v>
       </c>
       <c r="J1" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" s="8" t="s">
         <v>63</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>64</v>
       </c>
       <c r="L1" s="5" t="s">
         <v>21</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N1" s="5" t="s">
         <v>22</v>
       </c>
       <c r="O1" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P1" s="5" t="s">
         <v>24</v>
       </c>
       <c r="Q1" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="R1" s="5" t="s">
         <v>25</v>
       </c>
       <c r="S1" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="T1" s="5" t="s">
         <v>23</v>
       </c>
       <c r="U1" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V1" s="5" t="s">
         <v>12</v>
@@ -977,13 +974,13 @@
     </row>
     <row r="2" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="7">
@@ -991,16 +988,16 @@
       </c>
       <c r="F2" s="9"/>
       <c r="G2" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H2" s="9"/>
       <c r="I2" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J2" s="9"/>
       <c r="K2" s="9"/>
       <c r="L2" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M2" s="9"/>
       <c r="N2" s="7">
@@ -1008,7 +1005,7 @@
       </c>
       <c r="O2" s="9"/>
       <c r="P2" s="7" t="s">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="Q2" s="9"/>
       <c r="R2" s="7">
@@ -1016,7 +1013,7 @@
       </c>
       <c r="S2" s="9"/>
       <c r="T2" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="U2" s="9"/>
       <c r="V2" s="7"/>
@@ -1026,13 +1023,13 @@
     </row>
     <row r="3" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="7">
@@ -1040,16 +1037,16 @@
       </c>
       <c r="F3" s="9"/>
       <c r="G3" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H3" s="9"/>
       <c r="I3" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J3" s="9"/>
       <c r="K3" s="9"/>
       <c r="L3" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M3" s="9"/>
       <c r="N3" s="7">
@@ -1057,7 +1054,7 @@
       </c>
       <c r="O3" s="9"/>
       <c r="P3" s="7" t="s">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="Q3" s="9"/>
       <c r="R3" s="7">
@@ -1065,7 +1062,7 @@
       </c>
       <c r="S3" s="9"/>
       <c r="T3" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="U3" s="9"/>
       <c r="V3" s="7"/>
@@ -1075,13 +1072,13 @@
     </row>
     <row r="4" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="7">
@@ -1089,16 +1086,16 @@
       </c>
       <c r="F4" s="9"/>
       <c r="G4" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H4" s="9"/>
       <c r="I4" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J4" s="9"/>
       <c r="K4" s="9"/>
       <c r="L4" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M4" s="9"/>
       <c r="N4" s="7">
@@ -1106,7 +1103,7 @@
       </c>
       <c r="O4" s="9"/>
       <c r="P4" s="7" t="s">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="Q4" s="9"/>
       <c r="R4" s="7">
@@ -1114,7 +1111,7 @@
       </c>
       <c r="S4" s="9"/>
       <c r="T4" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U4" s="9"/>
       <c r="V4" s="7"/>
@@ -1124,13 +1121,13 @@
     </row>
     <row r="5" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="7">
@@ -1138,16 +1135,16 @@
       </c>
       <c r="F5" s="9"/>
       <c r="G5" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H5" s="9"/>
       <c r="I5" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
       <c r="L5" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M5" s="9"/>
       <c r="N5" s="7">
@@ -1155,7 +1152,7 @@
       </c>
       <c r="O5" s="9"/>
       <c r="P5" s="7" t="s">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="Q5" s="9"/>
       <c r="R5" s="7">
@@ -1163,7 +1160,7 @@
       </c>
       <c r="S5" s="9"/>
       <c r="T5" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="U5" s="9"/>
       <c r="V5" s="7"/>
@@ -1173,13 +1170,13 @@
     </row>
     <row r="6" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="7">
@@ -1187,16 +1184,16 @@
       </c>
       <c r="F6" s="9"/>
       <c r="G6" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H6" s="9"/>
       <c r="I6" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
       <c r="L6" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M6" s="9"/>
       <c r="N6" s="7">
@@ -1204,7 +1201,7 @@
       </c>
       <c r="O6" s="9"/>
       <c r="P6" s="7" t="s">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="Q6" s="9"/>
       <c r="R6" s="7">
@@ -1212,7 +1209,7 @@
       </c>
       <c r="S6" s="9"/>
       <c r="T6" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="U6" s="9"/>
       <c r="V6" s="7"/>
@@ -1222,13 +1219,13 @@
     </row>
     <row r="7" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="7">
@@ -1236,16 +1233,16 @@
       </c>
       <c r="F7" s="9"/>
       <c r="G7" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H7" s="9"/>
       <c r="I7" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
       <c r="L7" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M7" s="9"/>
       <c r="N7" s="7">
@@ -1253,7 +1250,7 @@
       </c>
       <c r="O7" s="9"/>
       <c r="P7" s="7" t="s">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="Q7" s="9"/>
       <c r="R7" s="7">
@@ -1261,10 +1258,10 @@
       </c>
       <c r="S7" s="9"/>
       <c r="T7" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="U7" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="V7" s="7"/>
       <c r="W7" s="3" t="b">
@@ -1273,13 +1270,13 @@
     </row>
     <row r="8" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="7">
@@ -1287,16 +1284,16 @@
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H8" s="9"/>
       <c r="I8" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c r="L8" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M8" s="9"/>
       <c r="N8" s="7">
@@ -1304,7 +1301,7 @@
       </c>
       <c r="O8" s="9"/>
       <c r="P8" s="7" t="s">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="Q8" s="9"/>
       <c r="R8" s="7">
@@ -1312,10 +1309,10 @@
       </c>
       <c r="S8" s="9"/>
       <c r="T8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="U8" s="9" t="s">
         <v>31</v>
-      </c>
-      <c r="U8" s="9" t="s">
-        <v>32</v>
       </c>
       <c r="V8" s="7"/>
       <c r="W8" s="3" t="b">
@@ -1324,13 +1321,13 @@
     </row>
     <row r="9" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="7">
@@ -1338,16 +1335,16 @@
       </c>
       <c r="F9" s="9"/>
       <c r="G9" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H9" s="9"/>
       <c r="I9" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c r="L9" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M9" s="9"/>
       <c r="N9" s="7">
@@ -1355,7 +1352,7 @@
       </c>
       <c r="O9" s="9"/>
       <c r="P9" s="7" t="s">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="Q9" s="9"/>
       <c r="R9" s="7">
@@ -1363,10 +1360,10 @@
       </c>
       <c r="S9" s="9"/>
       <c r="T9" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="U9" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="V9" s="7"/>
       <c r="W9" s="3" t="b">
@@ -1375,13 +1372,13 @@
     </row>
     <row r="10" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="7">
@@ -1389,16 +1386,16 @@
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H10" s="9"/>
       <c r="I10" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c r="L10" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M10" s="9"/>
       <c r="N10" s="7">
@@ -1406,7 +1403,7 @@
       </c>
       <c r="O10" s="9"/>
       <c r="P10" s="7" t="s">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="Q10" s="9"/>
       <c r="R10" s="7">
@@ -1414,10 +1411,10 @@
       </c>
       <c r="S10" s="9"/>
       <c r="T10" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U10" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="V10" s="7"/>
       <c r="W10" s="3" t="b">
@@ -1426,13 +1423,13 @@
     </row>
     <row r="11" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="7">
@@ -1440,16 +1437,16 @@
       </c>
       <c r="F11" s="9"/>
       <c r="G11" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H11" s="9"/>
       <c r="I11" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c r="L11" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M11" s="9"/>
       <c r="N11" s="7">
@@ -1457,7 +1454,7 @@
       </c>
       <c r="O11" s="9"/>
       <c r="P11" s="7" t="s">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="R11" s="7">
@@ -1465,10 +1462,10 @@
       </c>
       <c r="S11" s="9"/>
       <c r="T11" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="U11" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="V11" s="7"/>
       <c r="W11" s="3" t="b">
@@ -1477,13 +1474,13 @@
     </row>
     <row r="12" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="7">
@@ -1491,16 +1488,16 @@
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H12" s="9"/>
       <c r="I12" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c r="L12" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M12" s="9"/>
       <c r="N12" s="7">
@@ -1508,7 +1505,7 @@
       </c>
       <c r="O12" s="9"/>
       <c r="P12" s="7" t="s">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="Q12" s="9"/>
       <c r="R12" s="7">
@@ -1516,10 +1513,10 @@
       </c>
       <c r="S12" s="9"/>
       <c r="T12" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="U12" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="V12" s="7"/>
       <c r="W12" s="3" t="b">
@@ -1528,13 +1525,13 @@
     </row>
     <row r="13" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="7">
@@ -1542,16 +1539,16 @@
       </c>
       <c r="F13" s="9"/>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H13" s="9"/>
       <c r="I13" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c r="L13" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M13" s="9"/>
       <c r="N13" s="7">
@@ -1559,7 +1556,7 @@
       </c>
       <c r="O13" s="9"/>
       <c r="P13" s="7" t="s">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="Q13" s="9"/>
       <c r="R13" s="7">
@@ -1567,10 +1564,10 @@
       </c>
       <c r="S13" s="9"/>
       <c r="T13" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="U13" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="V13" s="7"/>
       <c r="W13" s="3" t="b">
@@ -1579,13 +1576,13 @@
     </row>
     <row r="14" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="7">
@@ -1593,16 +1590,16 @@
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H14" s="9"/>
       <c r="I14" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c r="L14" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M14" s="9"/>
       <c r="N14" s="7">
@@ -1610,7 +1607,7 @@
       </c>
       <c r="O14" s="9"/>
       <c r="P14" s="7" t="s">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="Q14" s="9"/>
       <c r="R14" s="7">
@@ -1618,10 +1615,10 @@
       </c>
       <c r="S14" s="9"/>
       <c r="T14" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U14" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="V14" s="7"/>
       <c r="W14" s="3" t="b">
@@ -1630,13 +1627,13 @@
     </row>
     <row r="15" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="7">
@@ -1644,16 +1641,16 @@
       </c>
       <c r="F15" s="9"/>
       <c r="G15" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H15" s="9"/>
       <c r="I15" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c r="L15" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M15" s="9"/>
       <c r="N15" s="7">
@@ -1661,7 +1658,7 @@
       </c>
       <c r="O15" s="9"/>
       <c r="P15" s="7" t="s">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="Q15" s="9"/>
       <c r="R15" s="7">
@@ -1669,10 +1666,10 @@
       </c>
       <c r="S15" s="9"/>
       <c r="T15" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="U15" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="V15" s="7"/>
       <c r="W15" s="3" t="b">
@@ -1681,13 +1678,13 @@
     </row>
     <row r="16" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="7">
@@ -1695,16 +1692,16 @@
       </c>
       <c r="F16" s="9"/>
       <c r="G16" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H16" s="9"/>
       <c r="I16" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c r="L16" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M16" s="9"/>
       <c r="N16" s="7">
@@ -1712,7 +1709,7 @@
       </c>
       <c r="O16" s="9"/>
       <c r="P16" s="7" t="s">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="Q16" s="9"/>
       <c r="R16" s="7">
@@ -1720,10 +1717,10 @@
       </c>
       <c r="S16" s="9"/>
       <c r="T16" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="U16" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V16" s="7"/>
       <c r="W16" s="3" t="b">
@@ -1732,13 +1729,13 @@
     </row>
     <row r="17" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="7">
@@ -1746,16 +1743,16 @@
       </c>
       <c r="F17" s="9"/>
       <c r="G17" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H17" s="9"/>
       <c r="I17" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c r="L17" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M17" s="9"/>
       <c r="N17" s="7">
@@ -1763,7 +1760,7 @@
       </c>
       <c r="O17" s="9"/>
       <c r="P17" s="7" t="s">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="Q17" s="9"/>
       <c r="R17" s="7">
@@ -1771,10 +1768,10 @@
       </c>
       <c r="S17" s="9"/>
       <c r="T17" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="U17" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V17" s="7"/>
       <c r="W17" s="3" t="b">
@@ -1783,13 +1780,13 @@
     </row>
     <row r="18" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="7">
@@ -1797,16 +1794,16 @@
       </c>
       <c r="F18" s="9"/>
       <c r="G18" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H18" s="9"/>
       <c r="I18" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c r="L18" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M18" s="9"/>
       <c r="N18" s="7">
@@ -1814,7 +1811,7 @@
       </c>
       <c r="O18" s="9"/>
       <c r="P18" s="7" t="s">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="Q18" s="9"/>
       <c r="R18" s="7">
@@ -1822,10 +1819,10 @@
       </c>
       <c r="S18" s="9"/>
       <c r="T18" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U18" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V18" s="7"/>
       <c r="W18" s="3" t="b">
@@ -1834,13 +1831,13 @@
     </row>
     <row r="19" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="7">
@@ -1848,16 +1845,16 @@
       </c>
       <c r="F19" s="9"/>
       <c r="G19" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H19" s="9"/>
       <c r="I19" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c r="L19" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M19" s="9"/>
       <c r="N19" s="7">
@@ -1865,7 +1862,7 @@
       </c>
       <c r="O19" s="9"/>
       <c r="P19" s="7" t="s">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="Q19" s="9"/>
       <c r="R19" s="7">
@@ -1873,10 +1870,10 @@
       </c>
       <c r="S19" s="9"/>
       <c r="T19" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="U19" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="V19" s="7"/>
       <c r="W19" s="3" t="b">
@@ -1885,13 +1882,13 @@
     </row>
     <row r="20" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="7">
@@ -1899,16 +1896,16 @@
       </c>
       <c r="F20" s="9"/>
       <c r="G20" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H20" s="9"/>
       <c r="I20" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c r="L20" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M20" s="9"/>
       <c r="N20" s="7">
@@ -1916,7 +1913,7 @@
       </c>
       <c r="O20" s="9"/>
       <c r="P20" s="7" t="s">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="Q20" s="9"/>
       <c r="R20" s="7">
@@ -1924,10 +1921,10 @@
       </c>
       <c r="S20" s="9"/>
       <c r="T20" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="U20" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="V20" s="7"/>
       <c r="W20" s="3" t="b">
@@ -1936,13 +1933,13 @@
     </row>
     <row r="21" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="7">
@@ -1950,16 +1947,16 @@
       </c>
       <c r="F21" s="9"/>
       <c r="G21" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H21" s="9"/>
       <c r="I21" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c r="L21" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M21" s="9"/>
       <c r="N21" s="7">
@@ -1967,7 +1964,7 @@
       </c>
       <c r="O21" s="9"/>
       <c r="P21" s="7" t="s">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="Q21" s="9"/>
       <c r="R21" s="7">
@@ -1975,10 +1972,10 @@
       </c>
       <c r="S21" s="9"/>
       <c r="T21" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U21" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="V21" s="7"/>
       <c r="W21" s="3" t="b">
@@ -1987,13 +1984,13 @@
     </row>
     <row r="22" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D22" s="9"/>
       <c r="E22" s="7">
@@ -2001,16 +1998,16 @@
       </c>
       <c r="F22" s="9"/>
       <c r="G22" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H22" s="9"/>
       <c r="I22" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c r="L22" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M22" s="9"/>
       <c r="N22" s="7">
@@ -2018,7 +2015,7 @@
       </c>
       <c r="O22" s="9"/>
       <c r="P22" s="7" t="s">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="Q22" s="9"/>
       <c r="R22" s="7">
@@ -2026,10 +2023,10 @@
       </c>
       <c r="S22" s="9"/>
       <c r="T22" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="U22" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="V22" s="7"/>
       <c r="W22" s="3" t="b">
@@ -2038,16 +2035,16 @@
     </row>
     <row r="23" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B23" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="7" t="s">
-        <v>30</v>
-      </c>
       <c r="D23" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E23" s="7">
         <v>1</v>
@@ -2056,25 +2053,25 @@
         <v>2</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H23" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="J23" s="9" t="s">
         <v>69</v>
-      </c>
-      <c r="I23" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="J23" s="9" t="s">
-        <v>70</v>
       </c>
       <c r="K23" s="9">
         <v>31638.25</v>
       </c>
       <c r="L23" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="M23" s="9" t="s">
         <v>71</v>
-      </c>
-      <c r="M23" s="9" t="s">
-        <v>72</v>
       </c>
       <c r="N23" s="7">
         <v>1</v>
@@ -2083,10 +2080,10 @@
         <v>2</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q23" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="R23" s="7">
         <v>8000</v>
@@ -2095,7 +2092,7 @@
         <v>8002</v>
       </c>
       <c r="T23" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="U23" s="9"/>
       <c r="V23" s="7"/>
@@ -2105,16 +2102,16 @@
     </row>
     <row r="24" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C24" s="7" t="s">
-        <v>30</v>
-      </c>
       <c r="D24" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E24" s="7">
         <v>1</v>
@@ -2123,25 +2120,25 @@
         <v>3</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H24" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="J24" s="9" t="s">
         <v>69</v>
-      </c>
-      <c r="I24" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="J24" s="9" t="s">
-        <v>70</v>
       </c>
       <c r="K24" s="9">
         <v>31700.25</v>
       </c>
       <c r="L24" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="M24" s="9" t="s">
         <v>71</v>
-      </c>
-      <c r="M24" s="9" t="s">
-        <v>72</v>
       </c>
       <c r="N24" s="7">
         <v>1</v>
@@ -2150,10 +2147,10 @@
         <v>3</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q24" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="R24" s="7">
         <v>8000</v>
@@ -2162,7 +2159,7 @@
         <v>8002</v>
       </c>
       <c r="T24" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="U24" s="9"/>
       <c r="V24" s="7"/>
@@ -2172,16 +2169,16 @@
     </row>
     <row r="25" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B25" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="7" t="s">
-        <v>30</v>
-      </c>
       <c r="D25" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E25" s="7">
         <v>1</v>
@@ -2190,25 +2187,25 @@
         <v>3</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H25" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="J25" s="9" t="s">
         <v>69</v>
-      </c>
-      <c r="I25" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="J25" s="9" t="s">
-        <v>70</v>
       </c>
       <c r="K25" s="9">
         <v>31700.25</v>
       </c>
       <c r="L25" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="M25" s="9" t="s">
         <v>71</v>
-      </c>
-      <c r="M25" s="9" t="s">
-        <v>72</v>
       </c>
       <c r="N25" s="7">
         <v>1</v>
@@ -2217,10 +2214,10 @@
         <v>3</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q25" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="R25" s="7">
         <v>8000</v>
@@ -2229,7 +2226,7 @@
         <v>8002</v>
       </c>
       <c r="T25" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U25" s="9"/>
       <c r="V25" s="7"/>
@@ -2239,16 +2236,16 @@
     </row>
     <row r="26" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B26" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="7" t="s">
-        <v>30</v>
-      </c>
       <c r="D26" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E26" s="7">
         <v>1</v>
@@ -2257,25 +2254,25 @@
         <v>3</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H26" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="J26" s="9" t="s">
         <v>69</v>
-      </c>
-      <c r="I26" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="J26" s="9" t="s">
-        <v>70</v>
       </c>
       <c r="K26" s="9">
         <v>31700.25</v>
       </c>
       <c r="L26" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="M26" s="9" t="s">
         <v>71</v>
-      </c>
-      <c r="M26" s="9" t="s">
-        <v>72</v>
       </c>
       <c r="N26" s="7">
         <v>1</v>
@@ -2284,10 +2281,10 @@
         <v>3</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q26" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="R26" s="7">
         <v>8000</v>
@@ -2296,7 +2293,7 @@
         <v>8002</v>
       </c>
       <c r="T26" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="U26" s="9"/>
       <c r="V26" s="7"/>

--- a/src/test/resources/testData/XAlpha.xlsx
+++ b/src/test/resources/testData/XAlpha.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEF42410-700C-40FA-9F7C-80044CA9BFCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80897D63-A426-4E7F-9204-7C8E5BE0C935}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="644" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="644" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="XAlphaLogin" sheetId="9" r:id="rId1"/>
@@ -16,10 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="78">
-  <si>
-    <t>URL</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="76">
   <si>
     <t>Username</t>
   </si>
@@ -64,9 +61,6 @@
   </si>
   <si>
     <t>QA_TestCase_Auto_XAlpha_003</t>
-  </si>
-  <si>
-    <t>https://test-xalpha.altono.app/</t>
   </si>
   <si>
     <t>Direction</t>
@@ -717,26 +711,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AD5F807-ACA8-48C4-B9BD-3C44953A349F}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="29.54296875" customWidth="1"/>
-    <col min="2" max="2" width="27.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.1796875" customWidth="1"/>
-    <col min="4" max="4" width="21.26953125" customWidth="1"/>
-    <col min="5" max="5" width="18.453125" customWidth="1"/>
-    <col min="6" max="6" width="16.1796875" customWidth="1"/>
-    <col min="7" max="7" width="15.453125" customWidth="1"/>
+    <col min="2" max="2" width="14.1796875" customWidth="1"/>
+    <col min="3" max="3" width="21.26953125" customWidth="1"/>
+    <col min="4" max="4" width="18.453125" customWidth="1"/>
+    <col min="5" max="5" width="16.1796875" customWidth="1"/>
+    <col min="6" max="6" width="15.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -745,120 +738,108 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
       </c>
       <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="1" t="b">
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
+    <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" t="s">
         <v>7</v>
-      </c>
-      <c r="E4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>45</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="1" t="b">
+        <v>6</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>44</v>
+      </c>
+      <c r="B6" t="s">
+        <v>41</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D6" t="s">
-        <v>43</v>
-      </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="1" t="b">
+        <v>41</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="1" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="http://system.qa/" xr:uid="{901F2C83-F979-49E8-AA52-87DE6C722F75}"/>
-    <hyperlink ref="C4" r:id="rId2" display="http://system.qa/" xr:uid="{07FF1E63-0166-4347-A0BC-723A3C38F8A0}"/>
-    <hyperlink ref="C5" r:id="rId3" display="http://system.qa/" xr:uid="{D4003E2E-B563-4DA9-84A9-0EE23BE1353D}"/>
+    <hyperlink ref="B2" r:id="rId1" display="http://system.qa/" xr:uid="{901F2C83-F979-49E8-AA52-87DE6C722F75}"/>
+    <hyperlink ref="B4" r:id="rId2" display="http://system.qa/" xr:uid="{07FF1E63-0166-4347-A0BC-723A3C38F8A0}"/>
+    <hyperlink ref="B5" r:id="rId3" display="http://system.qa/" xr:uid="{D4003E2E-B563-4DA9-84A9-0EE23BE1353D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
@@ -869,7 +850,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E763A6C0-A0DE-42F1-A4CC-B0EEDE6F7213}">
   <dimension ref="A1:W1048567"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <pane xSplit="1" topLeftCell="P1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="Q8" sqref="Q8"/>
     </sheetView>
@@ -903,84 +884,84 @@
   <sheetData>
     <row r="1" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="H1" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="G1" s="5" t="s">
+      <c r="K1" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="L1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="I1" s="5" t="s">
+      <c r="M1" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="K1" s="8" t="s">
+      <c r="O1" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="P1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="T1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="M1" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="O1" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q1" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="S1" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>23</v>
-      </c>
       <c r="U1" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="V1" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="W1" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="7">
@@ -988,16 +969,16 @@
       </c>
       <c r="F2" s="9"/>
       <c r="G2" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H2" s="9"/>
       <c r="I2" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J2" s="9"/>
       <c r="K2" s="9"/>
       <c r="L2" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="M2" s="9"/>
       <c r="N2" s="7">
@@ -1005,7 +986,7 @@
       </c>
       <c r="O2" s="9"/>
       <c r="P2" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="Q2" s="9"/>
       <c r="R2" s="7">
@@ -1013,7 +994,7 @@
       </c>
       <c r="S2" s="9"/>
       <c r="T2" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="U2" s="9"/>
       <c r="V2" s="7"/>
@@ -1023,13 +1004,13 @@
     </row>
     <row r="3" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="7">
@@ -1037,16 +1018,16 @@
       </c>
       <c r="F3" s="9"/>
       <c r="G3" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H3" s="9"/>
       <c r="I3" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J3" s="9"/>
       <c r="K3" s="9"/>
       <c r="L3" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="M3" s="9"/>
       <c r="N3" s="7">
@@ -1054,7 +1035,7 @@
       </c>
       <c r="O3" s="9"/>
       <c r="P3" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="Q3" s="9"/>
       <c r="R3" s="7">
@@ -1062,7 +1043,7 @@
       </c>
       <c r="S3" s="9"/>
       <c r="T3" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="U3" s="9"/>
       <c r="V3" s="7"/>
@@ -1072,13 +1053,13 @@
     </row>
     <row r="4" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="7">
@@ -1086,16 +1067,16 @@
       </c>
       <c r="F4" s="9"/>
       <c r="G4" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H4" s="9"/>
       <c r="I4" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J4" s="9"/>
       <c r="K4" s="9"/>
       <c r="L4" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="M4" s="9"/>
       <c r="N4" s="7">
@@ -1103,7 +1084,7 @@
       </c>
       <c r="O4" s="9"/>
       <c r="P4" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="Q4" s="9"/>
       <c r="R4" s="7">
@@ -1111,7 +1092,7 @@
       </c>
       <c r="S4" s="9"/>
       <c r="T4" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="U4" s="9"/>
       <c r="V4" s="7"/>
@@ -1121,13 +1102,13 @@
     </row>
     <row r="5" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="7">
@@ -1135,16 +1116,16 @@
       </c>
       <c r="F5" s="9"/>
       <c r="G5" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H5" s="9"/>
       <c r="I5" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
       <c r="L5" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="M5" s="9"/>
       <c r="N5" s="7">
@@ -1152,7 +1133,7 @@
       </c>
       <c r="O5" s="9"/>
       <c r="P5" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="Q5" s="9"/>
       <c r="R5" s="7">
@@ -1160,7 +1141,7 @@
       </c>
       <c r="S5" s="9"/>
       <c r="T5" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="U5" s="9"/>
       <c r="V5" s="7"/>
@@ -1170,13 +1151,13 @@
     </row>
     <row r="6" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="7">
@@ -1184,16 +1165,16 @@
       </c>
       <c r="F6" s="9"/>
       <c r="G6" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H6" s="9"/>
       <c r="I6" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
       <c r="L6" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="M6" s="9"/>
       <c r="N6" s="7">
@@ -1201,7 +1182,7 @@
       </c>
       <c r="O6" s="9"/>
       <c r="P6" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="Q6" s="9"/>
       <c r="R6" s="7">
@@ -1209,7 +1190,7 @@
       </c>
       <c r="S6" s="9"/>
       <c r="T6" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="U6" s="9"/>
       <c r="V6" s="7"/>
@@ -1219,13 +1200,13 @@
     </row>
     <row r="7" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="7">
@@ -1233,16 +1214,16 @@
       </c>
       <c r="F7" s="9"/>
       <c r="G7" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H7" s="9"/>
       <c r="I7" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
       <c r="L7" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="M7" s="9"/>
       <c r="N7" s="7">
@@ -1250,7 +1231,7 @@
       </c>
       <c r="O7" s="9"/>
       <c r="P7" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="Q7" s="9"/>
       <c r="R7" s="7">
@@ -1258,10 +1239,10 @@
       </c>
       <c r="S7" s="9"/>
       <c r="T7" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="U7" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="V7" s="7"/>
       <c r="W7" s="3" t="b">
@@ -1270,13 +1251,13 @@
     </row>
     <row r="8" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="7">
@@ -1284,16 +1265,16 @@
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H8" s="9"/>
       <c r="I8" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c r="L8" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="M8" s="9"/>
       <c r="N8" s="7">
@@ -1301,7 +1282,7 @@
       </c>
       <c r="O8" s="9"/>
       <c r="P8" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="Q8" s="9"/>
       <c r="R8" s="7">
@@ -1309,10 +1290,10 @@
       </c>
       <c r="S8" s="9"/>
       <c r="T8" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="U8" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="V8" s="7"/>
       <c r="W8" s="3" t="b">
@@ -1321,13 +1302,13 @@
     </row>
     <row r="9" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="7">
@@ -1335,16 +1316,16 @@
       </c>
       <c r="F9" s="9"/>
       <c r="G9" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H9" s="9"/>
       <c r="I9" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c r="L9" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="M9" s="9"/>
       <c r="N9" s="7">
@@ -1352,7 +1333,7 @@
       </c>
       <c r="O9" s="9"/>
       <c r="P9" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="Q9" s="9"/>
       <c r="R9" s="7">
@@ -1360,10 +1341,10 @@
       </c>
       <c r="S9" s="9"/>
       <c r="T9" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="U9" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="V9" s="7"/>
       <c r="W9" s="3" t="b">
@@ -1372,13 +1353,13 @@
     </row>
     <row r="10" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="7">
@@ -1386,16 +1367,16 @@
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H10" s="9"/>
       <c r="I10" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c r="L10" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="M10" s="9"/>
       <c r="N10" s="7">
@@ -1403,7 +1384,7 @@
       </c>
       <c r="O10" s="9"/>
       <c r="P10" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="Q10" s="9"/>
       <c r="R10" s="7">
@@ -1411,10 +1392,10 @@
       </c>
       <c r="S10" s="9"/>
       <c r="T10" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="U10" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="V10" s="7"/>
       <c r="W10" s="3" t="b">
@@ -1423,13 +1404,13 @@
     </row>
     <row r="11" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="7">
@@ -1437,16 +1418,16 @@
       </c>
       <c r="F11" s="9"/>
       <c r="G11" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H11" s="9"/>
       <c r="I11" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c r="L11" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="M11" s="9"/>
       <c r="N11" s="7">
@@ -1454,7 +1435,7 @@
       </c>
       <c r="O11" s="9"/>
       <c r="P11" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="R11" s="7">
@@ -1462,10 +1443,10 @@
       </c>
       <c r="S11" s="9"/>
       <c r="T11" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="U11" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="V11" s="7"/>
       <c r="W11" s="3" t="b">
@@ -1474,13 +1455,13 @@
     </row>
     <row r="12" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="7">
@@ -1488,16 +1469,16 @@
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H12" s="9"/>
       <c r="I12" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c r="L12" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="M12" s="9"/>
       <c r="N12" s="7">
@@ -1505,7 +1486,7 @@
       </c>
       <c r="O12" s="9"/>
       <c r="P12" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="Q12" s="9"/>
       <c r="R12" s="7">
@@ -1513,10 +1494,10 @@
       </c>
       <c r="S12" s="9"/>
       <c r="T12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="U12" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="V12" s="7"/>
       <c r="W12" s="3" t="b">
@@ -1525,13 +1506,13 @@
     </row>
     <row r="13" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="7">
@@ -1539,16 +1520,16 @@
       </c>
       <c r="F13" s="9"/>
       <c r="G13" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H13" s="9"/>
       <c r="I13" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c r="L13" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="M13" s="9"/>
       <c r="N13" s="7">
@@ -1556,7 +1537,7 @@
       </c>
       <c r="O13" s="9"/>
       <c r="P13" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="Q13" s="9"/>
       <c r="R13" s="7">
@@ -1564,10 +1545,10 @@
       </c>
       <c r="S13" s="9"/>
       <c r="T13" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="U13" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="V13" s="7"/>
       <c r="W13" s="3" t="b">
@@ -1576,13 +1557,13 @@
     </row>
     <row r="14" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="7">
@@ -1590,16 +1571,16 @@
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H14" s="9"/>
       <c r="I14" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c r="L14" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="M14" s="9"/>
       <c r="N14" s="7">
@@ -1607,7 +1588,7 @@
       </c>
       <c r="O14" s="9"/>
       <c r="P14" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="Q14" s="9"/>
       <c r="R14" s="7">
@@ -1615,10 +1596,10 @@
       </c>
       <c r="S14" s="9"/>
       <c r="T14" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="U14" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="V14" s="7"/>
       <c r="W14" s="3" t="b">
@@ -1627,13 +1608,13 @@
     </row>
     <row r="15" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="7">
@@ -1641,16 +1622,16 @@
       </c>
       <c r="F15" s="9"/>
       <c r="G15" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H15" s="9"/>
       <c r="I15" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c r="L15" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="M15" s="9"/>
       <c r="N15" s="7">
@@ -1658,7 +1639,7 @@
       </c>
       <c r="O15" s="9"/>
       <c r="P15" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="Q15" s="9"/>
       <c r="R15" s="7">
@@ -1666,10 +1647,10 @@
       </c>
       <c r="S15" s="9"/>
       <c r="T15" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="U15" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="V15" s="7"/>
       <c r="W15" s="3" t="b">
@@ -1678,13 +1659,13 @@
     </row>
     <row r="16" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="7">
@@ -1692,16 +1673,16 @@
       </c>
       <c r="F16" s="9"/>
       <c r="G16" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H16" s="9"/>
       <c r="I16" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c r="L16" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="M16" s="9"/>
       <c r="N16" s="7">
@@ -1709,7 +1690,7 @@
       </c>
       <c r="O16" s="9"/>
       <c r="P16" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="Q16" s="9"/>
       <c r="R16" s="7">
@@ -1717,10 +1698,10 @@
       </c>
       <c r="S16" s="9"/>
       <c r="T16" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="U16" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="V16" s="7"/>
       <c r="W16" s="3" t="b">
@@ -1729,13 +1710,13 @@
     </row>
     <row r="17" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="7">
@@ -1743,16 +1724,16 @@
       </c>
       <c r="F17" s="9"/>
       <c r="G17" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H17" s="9"/>
       <c r="I17" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c r="L17" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="M17" s="9"/>
       <c r="N17" s="7">
@@ -1760,7 +1741,7 @@
       </c>
       <c r="O17" s="9"/>
       <c r="P17" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="Q17" s="9"/>
       <c r="R17" s="7">
@@ -1768,10 +1749,10 @@
       </c>
       <c r="S17" s="9"/>
       <c r="T17" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="U17" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="V17" s="7"/>
       <c r="W17" s="3" t="b">
@@ -1780,13 +1761,13 @@
     </row>
     <row r="18" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="7">
@@ -1794,16 +1775,16 @@
       </c>
       <c r="F18" s="9"/>
       <c r="G18" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H18" s="9"/>
       <c r="I18" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c r="L18" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="M18" s="9"/>
       <c r="N18" s="7">
@@ -1811,7 +1792,7 @@
       </c>
       <c r="O18" s="9"/>
       <c r="P18" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="Q18" s="9"/>
       <c r="R18" s="7">
@@ -1819,10 +1800,10 @@
       </c>
       <c r="S18" s="9"/>
       <c r="T18" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="U18" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="V18" s="7"/>
       <c r="W18" s="3" t="b">
@@ -1831,13 +1812,13 @@
     </row>
     <row r="19" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="7">
@@ -1845,16 +1826,16 @@
       </c>
       <c r="F19" s="9"/>
       <c r="G19" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H19" s="9"/>
       <c r="I19" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c r="L19" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="M19" s="9"/>
       <c r="N19" s="7">
@@ -1862,7 +1843,7 @@
       </c>
       <c r="O19" s="9"/>
       <c r="P19" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="Q19" s="9"/>
       <c r="R19" s="7">
@@ -1870,10 +1851,10 @@
       </c>
       <c r="S19" s="9"/>
       <c r="T19" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="U19" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V19" s="7"/>
       <c r="W19" s="3" t="b">
@@ -1882,13 +1863,13 @@
     </row>
     <row r="20" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="7">
@@ -1896,16 +1877,16 @@
       </c>
       <c r="F20" s="9"/>
       <c r="G20" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H20" s="9"/>
       <c r="I20" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c r="L20" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="M20" s="9"/>
       <c r="N20" s="7">
@@ -1913,7 +1894,7 @@
       </c>
       <c r="O20" s="9"/>
       <c r="P20" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="Q20" s="9"/>
       <c r="R20" s="7">
@@ -1921,10 +1902,10 @@
       </c>
       <c r="S20" s="9"/>
       <c r="T20" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="U20" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V20" s="7"/>
       <c r="W20" s="3" t="b">
@@ -1933,13 +1914,13 @@
     </row>
     <row r="21" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="7">
@@ -1947,16 +1928,16 @@
       </c>
       <c r="F21" s="9"/>
       <c r="G21" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H21" s="9"/>
       <c r="I21" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c r="L21" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="M21" s="9"/>
       <c r="N21" s="7">
@@ -1964,7 +1945,7 @@
       </c>
       <c r="O21" s="9"/>
       <c r="P21" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="Q21" s="9"/>
       <c r="R21" s="7">
@@ -1972,10 +1953,10 @@
       </c>
       <c r="S21" s="9"/>
       <c r="T21" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="U21" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V21" s="7"/>
       <c r="W21" s="3" t="b">
@@ -1984,13 +1965,13 @@
     </row>
     <row r="22" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D22" s="9"/>
       <c r="E22" s="7">
@@ -1998,16 +1979,16 @@
       </c>
       <c r="F22" s="9"/>
       <c r="G22" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H22" s="9"/>
       <c r="I22" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c r="L22" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="M22" s="9"/>
       <c r="N22" s="7">
@@ -2015,7 +1996,7 @@
       </c>
       <c r="O22" s="9"/>
       <c r="P22" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="Q22" s="9"/>
       <c r="R22" s="7">
@@ -2023,10 +2004,10 @@
       </c>
       <c r="S22" s="9"/>
       <c r="T22" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="U22" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V22" s="7"/>
       <c r="W22" s="3" t="b">
@@ -2035,16 +2016,16 @@
     </row>
     <row r="23" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E23" s="7">
         <v>1</v>
@@ -2053,25 +2034,25 @@
         <v>2</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H23" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J23" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K23" s="9">
         <v>31638.25</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="M23" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="N23" s="7">
         <v>1</v>
@@ -2080,10 +2061,10 @@
         <v>2</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="Q23" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="R23" s="7">
         <v>8000</v>
@@ -2092,7 +2073,7 @@
         <v>8002</v>
       </c>
       <c r="T23" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="U23" s="9"/>
       <c r="V23" s="7"/>
@@ -2102,16 +2083,16 @@
     </row>
     <row r="24" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E24" s="7">
         <v>1</v>
@@ -2120,25 +2101,25 @@
         <v>3</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K24" s="9">
         <v>31700.25</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="M24" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="N24" s="7">
         <v>1</v>
@@ -2147,10 +2128,10 @@
         <v>3</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="Q24" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="R24" s="7">
         <v>8000</v>
@@ -2159,7 +2140,7 @@
         <v>8002</v>
       </c>
       <c r="T24" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="U24" s="9"/>
       <c r="V24" s="7"/>
@@ -2169,16 +2150,16 @@
     </row>
     <row r="25" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E25" s="7">
         <v>1</v>
@@ -2187,25 +2168,25 @@
         <v>3</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H25" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J25" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K25" s="9">
         <v>31700.25</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="M25" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="N25" s="7">
         <v>1</v>
@@ -2214,10 +2195,10 @@
         <v>3</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="Q25" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="R25" s="7">
         <v>8000</v>
@@ -2226,7 +2207,7 @@
         <v>8002</v>
       </c>
       <c r="T25" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="U25" s="9"/>
       <c r="V25" s="7"/>
@@ -2236,16 +2217,16 @@
     </row>
     <row r="26" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E26" s="7">
         <v>1</v>
@@ -2254,25 +2235,25 @@
         <v>3</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J26" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K26" s="9">
         <v>31700.25</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="M26" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="N26" s="7">
         <v>1</v>
@@ -2281,10 +2262,10 @@
         <v>3</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="Q26" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="R26" s="7">
         <v>8000</v>
@@ -2293,7 +2274,7 @@
         <v>8002</v>
       </c>
       <c r="T26" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="U26" s="9"/>
       <c r="V26" s="7"/>

--- a/src/test/resources/testData/XAlpha.xlsx
+++ b/src/test/resources/testData/XAlpha.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80897D63-A426-4E7F-9204-7C8E5BE0C935}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BE83760-160A-4F97-BE37-35C075D924B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="644" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="644" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="XAlphaLogin" sheetId="9" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="77">
   <si>
     <t>Username</t>
   </si>
@@ -244,6 +244,9 @@
   </si>
   <si>
     <t>QA_TestCase_Auto_XAlpha_037</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_XAlpha_010</t>
   </si>
 </sst>
 </file>
@@ -713,7 +716,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AD5F807-ACA8-48C4-B9BD-3C44953A349F}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -848,11 +851,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E763A6C0-A0DE-42F1-A4CC-B0EEDE6F7213}">
-  <dimension ref="A1:W1048567"/>
+  <dimension ref="A1:W1048568"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="P1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Q8" sqref="Q8"/>
+      <selection pane="topRight" activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1200,7 +1203,7 @@
     </row>
     <row r="7" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>26</v>
@@ -1239,11 +1242,9 @@
       </c>
       <c r="S7" s="9"/>
       <c r="T7" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="U7" s="9" t="s">
-        <v>29</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="U7" s="9"/>
       <c r="V7" s="7"/>
       <c r="W7" s="3" t="b">
         <v>0</v>
@@ -1251,7 +1252,7 @@
     </row>
     <row r="8" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>26</v>
@@ -1290,7 +1291,7 @@
       </c>
       <c r="S8" s="9"/>
       <c r="T8" s="7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="U8" s="9" t="s">
         <v>29</v>
@@ -1302,7 +1303,7 @@
     </row>
     <row r="9" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>26</v>
@@ -1341,7 +1342,7 @@
       </c>
       <c r="S9" s="9"/>
       <c r="T9" s="7" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="U9" s="9" t="s">
         <v>29</v>
@@ -1353,7 +1354,7 @@
     </row>
     <row r="10" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>26</v>
@@ -1392,10 +1393,10 @@
       </c>
       <c r="S10" s="9"/>
       <c r="T10" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="U10" s="9" t="s">
         <v>29</v>
-      </c>
-      <c r="U10" s="9" t="s">
-        <v>24</v>
       </c>
       <c r="V10" s="7"/>
       <c r="W10" s="3" t="b">
@@ -1404,7 +1405,7 @@
     </row>
     <row r="11" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>26</v>
@@ -1443,7 +1444,7 @@
       </c>
       <c r="S11" s="9"/>
       <c r="T11" s="7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="U11" s="9" t="s">
         <v>24</v>
@@ -1455,7 +1456,7 @@
     </row>
     <row r="12" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>26</v>
@@ -1494,7 +1495,7 @@
       </c>
       <c r="S12" s="9"/>
       <c r="T12" s="7" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="U12" s="9" t="s">
         <v>24</v>
@@ -1506,7 +1507,7 @@
     </row>
     <row r="13" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>26</v>
@@ -1545,10 +1546,10 @@
       </c>
       <c r="S13" s="9"/>
       <c r="T13" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="U13" s="9" t="s">
         <v>24</v>
-      </c>
-      <c r="U13" s="9" t="s">
-        <v>28</v>
       </c>
       <c r="V13" s="7"/>
       <c r="W13" s="3" t="b">
@@ -1557,7 +1558,7 @@
     </row>
     <row r="14" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>26</v>
@@ -1596,7 +1597,7 @@
       </c>
       <c r="S14" s="9"/>
       <c r="T14" s="7" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="U14" s="9" t="s">
         <v>28</v>
@@ -1608,7 +1609,7 @@
     </row>
     <row r="15" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>26</v>
@@ -1647,7 +1648,7 @@
       </c>
       <c r="S15" s="9"/>
       <c r="T15" s="7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="U15" s="9" t="s">
         <v>28</v>
@@ -1659,7 +1660,7 @@
     </row>
     <row r="16" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>26</v>
@@ -1698,10 +1699,10 @@
       </c>
       <c r="S16" s="9"/>
       <c r="T16" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="U16" s="9" t="s">
         <v>28</v>
-      </c>
-      <c r="U16" s="9" t="s">
-        <v>34</v>
       </c>
       <c r="V16" s="7"/>
       <c r="W16" s="3" t="b">
@@ -1710,7 +1711,7 @@
     </row>
     <row r="17" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>26</v>
@@ -1749,7 +1750,7 @@
       </c>
       <c r="S17" s="9"/>
       <c r="T17" s="7" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="U17" s="9" t="s">
         <v>34</v>
@@ -1761,7 +1762,7 @@
     </row>
     <row r="18" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>26</v>
@@ -1800,7 +1801,7 @@
       </c>
       <c r="S18" s="9"/>
       <c r="T18" s="7" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="U18" s="9" t="s">
         <v>34</v>
@@ -1812,7 +1813,7 @@
     </row>
     <row r="19" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>26</v>
@@ -1851,10 +1852,10 @@
       </c>
       <c r="S19" s="9"/>
       <c r="T19" s="7" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="U19" s="9" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="V19" s="7"/>
       <c r="W19" s="3" t="b">
@@ -1863,7 +1864,7 @@
     </row>
     <row r="20" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>26</v>
@@ -1902,7 +1903,7 @@
       </c>
       <c r="S20" s="9"/>
       <c r="T20" s="7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="U20" s="9" t="s">
         <v>55</v>
@@ -1914,7 +1915,7 @@
     </row>
     <row r="21" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>26</v>
@@ -1953,7 +1954,7 @@
       </c>
       <c r="S21" s="9"/>
       <c r="T21" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="U21" s="9" t="s">
         <v>55</v>
@@ -1965,7 +1966,7 @@
     </row>
     <row r="22" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>26</v>
@@ -2004,7 +2005,7 @@
       </c>
       <c r="S22" s="9"/>
       <c r="T22" s="7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="U22" s="9" t="s">
         <v>55</v>
@@ -2016,66 +2017,50 @@
     </row>
     <row r="23" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>26</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" s="9" t="s">
         <v>36</v>
       </c>
+      <c r="D23" s="9"/>
       <c r="E23" s="7">
         <v>1</v>
       </c>
-      <c r="F23" s="9">
-        <v>2</v>
-      </c>
+      <c r="F23" s="9"/>
       <c r="G23" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="H23" s="9" t="s">
-        <v>66</v>
-      </c>
+      <c r="H23" s="9"/>
       <c r="I23" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="J23" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="K23" s="9">
-        <v>31638.25</v>
-      </c>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
       <c r="L23" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="M23" s="9" t="s">
-        <v>69</v>
-      </c>
+      <c r="M23" s="9"/>
       <c r="N23" s="7">
         <v>1</v>
       </c>
-      <c r="O23" s="9">
-        <v>2</v>
-      </c>
+      <c r="O23" s="9"/>
       <c r="P23" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="Q23" s="9" t="s">
-        <v>70</v>
-      </c>
+      <c r="Q23" s="9"/>
       <c r="R23" s="7">
         <v>8000</v>
       </c>
-      <c r="S23" s="9">
-        <v>8002</v>
-      </c>
+      <c r="S23" s="9"/>
       <c r="T23" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="U23" s="9"/>
+        <v>34</v>
+      </c>
+      <c r="U23" s="9" t="s">
+        <v>55</v>
+      </c>
       <c r="V23" s="7"/>
       <c r="W23" s="3" t="b">
         <v>0</v>
@@ -2083,7 +2068,7 @@
     </row>
     <row r="24" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>26</v>
@@ -2092,13 +2077,13 @@
         <v>27</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="E24" s="7">
         <v>1</v>
       </c>
       <c r="F24" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>67</v>
@@ -2113,7 +2098,7 @@
         <v>67</v>
       </c>
       <c r="K24" s="9">
-        <v>31700.25</v>
+        <v>31638.25</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>68</v>
@@ -2125,7 +2110,7 @@
         <v>1</v>
       </c>
       <c r="O24" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>70</v>
@@ -2140,7 +2125,7 @@
         <v>8002</v>
       </c>
       <c r="T24" s="7" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="U24" s="9"/>
       <c r="V24" s="7"/>
@@ -2150,7 +2135,7 @@
     </row>
     <row r="25" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>26</v>
@@ -2207,7 +2192,7 @@
         <v>8002</v>
       </c>
       <c r="T25" s="7" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="U25" s="9"/>
       <c r="V25" s="7"/>
@@ -2217,7 +2202,7 @@
     </row>
     <row r="26" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>26</v>
@@ -2274,7 +2259,7 @@
         <v>8002</v>
       </c>
       <c r="T26" s="7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="U26" s="9"/>
       <c r="V26" s="7"/>
@@ -2282,28 +2267,72 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="10"/>
-      <c r="O27" s="10"/>
-      <c r="P27" s="10"/>
-      <c r="Q27" s="10"/>
-      <c r="R27" s="10"/>
-      <c r="S27" s="10"/>
-      <c r="T27" s="10"/>
-      <c r="U27" s="10"/>
-      <c r="V27" s="10"/>
-      <c r="W27" s="10"/>
+    <row r="27" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" s="7">
+        <v>1</v>
+      </c>
+      <c r="F27" s="9">
+        <v>3</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="J27" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="K27" s="9">
+        <v>31700.25</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="M27" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="N27" s="7">
+        <v>1</v>
+      </c>
+      <c r="O27" s="9">
+        <v>3</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q27" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="R27" s="7">
+        <v>8000</v>
+      </c>
+      <c r="S27" s="9">
+        <v>8002</v>
+      </c>
+      <c r="T27" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="U27" s="9"/>
+      <c r="V27" s="7"/>
+      <c r="W27" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A28" s="10"/>
@@ -3190,11 +3219,12 @@
     <row r="800" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="801" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="802" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="1048564" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D1048564" s="13"/>
-    </row>
-    <row r="1048567" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D1048567" s="13"/>
+    <row r="803" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="1048565" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1048565" s="13"/>
+    </row>
+    <row r="1048568" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1048568" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/src/test/resources/testData/XAlpha.xlsx
+++ b/src/test/resources/testData/XAlpha.xlsx
@@ -3,20 +3,21 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BE83760-160A-4F97-BE37-35C075D924B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22468EF9-EF0C-494A-9D73-43EF97F6F109}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="644" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="644" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="XAlphaLogin" sheetId="9" r:id="rId1"/>
     <sheet name="XAlphaDeals" sheetId="11" r:id="rId2"/>
+    <sheet name="ExecutionDeal" sheetId="13" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="85">
   <si>
     <t>Username</t>
   </si>
@@ -247,6 +248,30 @@
   </si>
   <si>
     <t>QA_TestCase_Auto_XAlpha_010</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_XAlpha_038</t>
+  </si>
+  <si>
+    <t>Execution</t>
+  </si>
+  <si>
+    <t>StartAsset</t>
+  </si>
+  <si>
+    <t>StartAssetAmount</t>
+  </si>
+  <si>
+    <t>EndAsset</t>
+  </si>
+  <si>
+    <t>EndAssetAmount</t>
+  </si>
+  <si>
+    <t>FeeProportion</t>
+  </si>
+  <si>
+    <t>FeeAdjustment</t>
   </si>
 </sst>
 </file>
@@ -353,7 +378,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -376,6 +401,24 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -717,7 +760,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -851,11 +894,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E763A6C0-A0DE-42F1-A4CC-B0EEDE6F7213}">
-  <dimension ref="A1:W1048568"/>
+  <dimension ref="A1:W1048567"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="P1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="T8" sqref="T8"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3219,16 +3262,1120 @@
     <row r="800" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="801" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="802" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="803" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="1048565" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D1048565" s="13"/>
-    </row>
-    <row r="1048568" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D1048568" s="13"/>
+    <row r="1048564" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1048564" s="13"/>
+    </row>
+    <row r="1048567" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1048567" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45AAE02B-1ED2-44CD-BC76-39A59421CF46}">
+  <dimension ref="A1:O773"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L14" sqref="L14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="29.81640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.90625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.453125" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17" style="11" customWidth="1"/>
+    <col min="5" max="5" width="13.7265625" style="11" customWidth="1"/>
+    <col min="6" max="6" width="15.453125" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="16.453125" style="11" customWidth="1"/>
+    <col min="9" max="9" width="11.453125" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.453125" style="11" customWidth="1"/>
+    <col min="11" max="11" width="22.26953125" style="11" customWidth="1"/>
+    <col min="12" max="12" width="14.81640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7265625" style="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17" style="11" customWidth="1"/>
+    <col min="15" max="15" width="8.7265625" style="11"/>
+    <col min="16" max="16384" width="8.7265625" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="17">
+        <v>1</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" s="17">
+        <v>2000</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="H2" s="17">
+        <v>1</v>
+      </c>
+      <c r="I2" s="17">
+        <v>20</v>
+      </c>
+      <c r="J2" s="17">
+        <v>1</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="L2" s="7">
+        <v>8000</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" s="17"/>
+      <c r="O2" s="18"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+    </row>
+    <row r="17" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="18" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="19" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="20" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="21" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="22" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="23" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="24" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="25" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="26" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="27" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="28" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="29" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="30" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="31" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="32" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="33" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="34" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="35" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="36" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="37" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="38" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="39" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="40" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="41" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="42" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="43" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="44" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="45" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="46" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="47" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="48" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="49" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="50" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="51" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="52" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="53" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="54" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="55" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="56" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="57" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="58" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="59" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="60" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="61" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="62" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="63" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="64" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="65" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="66" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="67" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="68" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="69" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="70" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="71" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="72" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="73" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="74" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="75" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="76" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="77" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="78" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="79" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="80" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="81" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="82" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="83" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="84" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="85" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="86" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="87" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="88" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="89" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="90" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="91" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="92" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="93" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="94" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="95" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="96" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="97" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="98" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="99" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="100" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="101" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="102" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="103" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="104" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="105" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="106" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="107" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="108" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="109" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="110" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="111" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="112" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="113" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="114" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="115" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="116" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="117" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="118" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="119" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="120" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="121" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="122" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="123" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="124" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="125" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="126" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="127" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="128" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="129" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="130" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="131" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="132" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="133" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="134" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="135" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="136" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="137" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="138" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="139" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="140" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="141" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="142" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="143" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="144" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="145" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="146" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="147" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="148" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="149" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="150" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="151" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="152" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="153" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="154" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="155" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="156" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="157" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="158" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="159" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="160" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="161" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="162" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="163" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="164" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="165" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="166" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="167" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="168" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="169" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="170" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="171" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="172" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="173" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="174" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="175" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="176" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="177" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="178" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="179" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="180" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="181" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="182" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="183" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="184" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="185" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="186" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="187" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="188" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="189" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="190" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="191" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="192" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="193" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="194" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="195" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="196" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="197" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="198" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="199" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="200" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="201" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="202" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="203" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="204" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="205" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="206" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="207" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="208" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="209" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="210" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="211" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="212" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="213" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="214" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="215" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="216" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="217" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="218" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="219" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="220" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="221" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="222" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="223" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="224" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="225" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="226" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="227" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="228" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="229" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="230" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="231" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="232" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="233" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="234" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="235" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="236" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="237" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="238" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="239" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="240" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="241" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="242" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="243" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="244" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="245" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="246" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="247" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="248" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="249" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="250" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="251" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="252" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="253" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="254" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="255" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="256" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="257" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="258" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="259" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="260" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="261" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="262" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="263" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="264" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="265" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="266" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="267" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="268" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="269" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="270" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="271" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="272" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="273" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="274" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="275" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="276" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="277" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="278" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="279" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="280" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="281" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="282" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="283" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="284" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="285" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="286" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="287" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="288" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="289" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="290" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="291" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="292" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="293" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="294" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="295" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="296" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="297" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="298" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="299" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="300" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="301" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="302" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="303" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="304" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="305" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="306" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="307" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="308" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="309" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="310" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="311" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="312" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="313" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="314" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="315" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="316" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="317" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="318" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="319" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="320" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="321" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="322" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="323" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="324" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="325" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="326" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="327" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="328" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="329" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="330" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="331" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="332" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="333" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="334" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="335" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="336" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="337" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="338" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="339" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="340" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="341" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="342" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="343" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="344" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="345" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="346" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="347" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="348" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="349" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="350" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="351" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="352" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="353" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="354" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="355" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="356" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="357" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="358" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="359" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="360" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="361" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="362" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="363" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="364" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="365" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="366" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="367" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="368" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="369" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="370" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="371" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="372" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="373" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="374" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="375" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="376" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="377" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="378" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="379" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="380" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="381" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="382" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="383" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="384" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="385" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="386" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="387" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="388" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="389" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="390" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="391" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="392" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="393" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="394" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="395" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="396" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="397" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="398" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="399" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="400" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="401" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="402" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="403" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="404" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="405" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="406" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="407" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="408" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="409" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="410" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="411" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="412" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="413" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="414" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="415" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="416" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="417" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="418" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="419" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="420" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="421" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="422" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="423" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="424" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="425" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="426" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="427" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="428" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="429" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="430" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="431" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="432" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="433" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="434" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="435" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="436" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="437" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="438" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="439" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="440" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="441" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="442" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="443" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="444" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="445" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="446" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="447" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="448" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="449" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="450" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="451" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="452" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="453" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="454" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="455" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="456" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="457" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="458" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="459" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="460" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="461" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="462" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="463" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="464" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="465" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="466" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="467" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="468" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="469" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="470" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="471" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="472" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="473" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="474" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="475" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="476" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="477" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="478" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="479" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="480" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="481" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="482" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="483" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="484" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="485" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="486" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="487" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="488" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="489" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="490" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="491" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="492" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="493" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="494" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="495" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="496" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="497" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="498" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="499" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="500" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="501" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="502" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="503" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="504" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="505" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="506" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="507" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="508" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="509" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="510" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="511" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="512" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="513" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="514" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="515" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="516" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="517" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="518" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="519" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="520" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="521" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="522" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="523" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="524" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="525" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="526" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="527" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="528" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="529" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="530" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="531" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="532" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="533" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="534" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="535" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="536" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="537" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="538" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="539" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="540" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="541" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="542" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="543" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="544" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="545" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="546" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="547" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="548" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="549" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="550" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="551" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="552" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="553" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="554" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="555" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="556" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="557" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="558" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="559" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="560" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="561" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="562" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="563" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="564" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="565" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="566" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="567" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="568" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="569" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="570" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="571" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="572" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="573" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="574" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="575" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="576" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="577" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="578" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="579" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="580" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="581" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="582" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="583" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="584" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="585" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="586" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="587" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="588" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="589" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="590" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="591" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="592" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="593" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="594" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="595" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="596" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="597" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="598" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="599" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="600" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="601" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="602" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="603" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="604" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="605" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="606" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="607" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="608" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="609" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="610" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="611" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="612" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="613" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="614" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="615" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="616" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="617" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="618" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="619" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="620" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="621" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="622" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="623" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="624" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="625" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="626" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="627" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="628" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="629" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="630" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="631" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="632" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="633" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="634" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="635" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="636" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="637" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="638" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="639" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="640" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="641" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="642" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="643" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="644" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="645" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="646" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="647" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="648" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="649" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="650" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="651" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="652" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="653" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="654" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="655" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="656" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="657" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="658" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="659" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="660" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="661" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="662" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="663" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="664" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="665" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="666" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="667" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="668" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="669" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="670" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="671" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="672" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="673" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="674" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="675" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="676" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="677" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="678" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="679" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="680" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="681" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="682" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="683" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="684" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="685" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="686" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="687" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="688" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="689" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="690" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="691" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="692" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="693" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="694" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="695" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="696" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="697" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="698" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="699" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="700" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="701" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="702" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="703" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="704" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="705" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="706" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="707" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="708" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="709" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="710" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="711" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="712" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="713" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="714" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="715" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="716" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="717" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="718" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="719" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="720" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="721" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="722" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="723" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="724" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="725" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="726" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="727" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="728" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="729" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="730" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="731" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="732" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="733" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="734" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="735" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="736" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="737" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="738" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="739" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="740" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="741" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="742" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="743" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="744" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="745" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="746" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="747" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="748" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="749" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="750" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="751" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="752" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="753" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="754" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="755" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="756" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="757" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="758" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="759" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="760" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="761" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="762" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="763" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="764" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="765" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="766" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="767" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="768" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="769" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="770" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="771" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="772" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="773" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/src/test/resources/testData/XAlpha.xlsx
+++ b/src/test/resources/testData/XAlpha.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22468EF9-EF0C-494A-9D73-43EF97F6F109}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC2D4731-6DC4-4850-B4E4-DA6E8086C8FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="644" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="86">
   <si>
     <t>Username</t>
   </si>
@@ -272,6 +272,9 @@
   </si>
   <si>
     <t>FeeAdjustment</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_XAlpha_039</t>
   </si>
 </sst>
 </file>
@@ -3279,9 +3282,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45AAE02B-1ED2-44CD-BC76-39A59421CF46}">
   <dimension ref="A1:O773"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L14" sqref="L14"/>
+      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3393,21 +3396,48 @@
       <c r="N2" s="17"/>
       <c r="O2" s="18"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
+    <row r="3" spans="1:15" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="17">
+        <v>1</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="F3" s="17">
+        <v>2000</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="H3" s="17">
+        <v>1</v>
+      </c>
+      <c r="I3" s="17">
+        <v>20</v>
+      </c>
+      <c r="J3" s="17">
+        <v>1</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="L3" s="7">
+        <v>8000</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3" s="17"/>
+      <c r="O3" s="18"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="10"/>

--- a/src/test/resources/testData/XAlpha.xlsx
+++ b/src/test/resources/testData/XAlpha.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC2D4731-6DC4-4850-B4E4-DA6E8086C8FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A29058F-70F7-4941-AFA8-F8395785E051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="644" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="90">
   <si>
     <t>Username</t>
   </si>
@@ -275,6 +275,18 @@
   </si>
   <si>
     <t>QA_TestCase_Auto_XAlpha_039</t>
+  </si>
+  <si>
+    <t>ValueDate</t>
+  </si>
+  <si>
+    <t>2022-06-08 17:06:30</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_XAlpha_043</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_XAlpha_044</t>
   </si>
 </sst>
 </file>
@@ -304,7 +316,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -326,6 +338,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -381,7 +399,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -416,12 +434,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -899,9 +920,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E763A6C0-A0DE-42F1-A4CC-B0EEDE6F7213}">
   <dimension ref="A1:W1048567"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="P1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
+      <selection pane="bottomLeft" activeCell="V2" sqref="V2:W2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3280,11 +3301,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45AAE02B-1ED2-44CD-BC76-39A59421CF46}">
-  <dimension ref="A1:O773"/>
+  <dimension ref="A1:Q773"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3297,16 +3318,17 @@
     <col min="6" max="6" width="15.453125" style="11" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="16.453125" style="11" customWidth="1"/>
     <col min="9" max="9" width="11.453125" style="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.453125" style="11" customWidth="1"/>
-    <col min="11" max="11" width="22.26953125" style="11" customWidth="1"/>
-    <col min="12" max="12" width="14.81640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7265625" style="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17" style="11" customWidth="1"/>
-    <col min="15" max="15" width="8.7265625" style="11"/>
-    <col min="16" max="16384" width="8.7265625" style="10"/>
+    <col min="10" max="11" width="24.453125" style="11" customWidth="1"/>
+    <col min="12" max="12" width="22.26953125" style="11" customWidth="1"/>
+    <col min="13" max="13" width="14.81640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7265625" style="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.6328125" style="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17" style="11" customWidth="1"/>
+    <col min="17" max="17" width="8.7265625" style="11"/>
+    <col min="18" max="16384" width="8.7265625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
         <v>2</v>
       </c>
@@ -3338,22 +3360,28 @@
         <v>84</v>
       </c>
       <c r="K1" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="L1" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="M1" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="N1" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="O1" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="P1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="15" t="s">
+      <c r="Q1" s="15" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
         <v>77</v>
       </c>
@@ -3384,19 +3412,23 @@
       <c r="J2" s="17">
         <v>1</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="22"/>
+      <c r="L2" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="L2" s="7">
+      <c r="M2" s="7">
         <v>8000</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="N2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="N2" s="17"/>
-      <c r="O2" s="18"/>
-    </row>
-    <row r="3" spans="1:15" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="O2" s="20"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="14" t="s">
         <v>85</v>
       </c>
@@ -3427,51 +3459,85 @@
       <c r="J3" s="17">
         <v>1</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="22"/>
+      <c r="L3" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="L3" s="7">
+      <c r="M3" s="7">
         <v>8000</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="N3" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="N3" s="17"/>
-      <c r="O3" s="18"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="O3" s="20"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="O4" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="O5" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="10"/>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
@@ -3486,8 +3552,10 @@
       <c r="M6" s="10"/>
       <c r="N6" s="10"/>
       <c r="O6" s="10"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" s="10"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
@@ -3502,8 +3570,10 @@
       <c r="M7" s="10"/>
       <c r="N7" s="10"/>
       <c r="O7" s="10"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" s="10"/>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
@@ -3518,8 +3588,10 @@
       <c r="M8" s="10"/>
       <c r="N8" s="10"/>
       <c r="O8" s="10"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" s="10"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
@@ -3534,8 +3606,10 @@
       <c r="M9" s="10"/>
       <c r="N9" s="10"/>
       <c r="O9" s="10"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" s="10"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
@@ -3550,8 +3624,10 @@
       <c r="M10" s="10"/>
       <c r="N10" s="10"/>
       <c r="O10" s="10"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" s="10"/>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
@@ -3566,8 +3642,10 @@
       <c r="M11" s="10"/>
       <c r="N11" s="10"/>
       <c r="O11" s="10"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" s="10"/>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
@@ -3577,13 +3655,15 @@
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
+      <c r="K12" s="21"/>
       <c r="L12" s="10"/>
       <c r="M12" s="10"/>
       <c r="N12" s="10"/>
       <c r="O12" s="10"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" s="10"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
@@ -3598,8 +3678,10 @@
       <c r="M13" s="10"/>
       <c r="N13" s="10"/>
       <c r="O13" s="10"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" s="10"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
@@ -3614,8 +3696,10 @@
       <c r="M14" s="10"/>
       <c r="N14" s="10"/>
       <c r="O14" s="10"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" s="10"/>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
@@ -3630,8 +3714,10 @@
       <c r="M15" s="10"/>
       <c r="N15" s="10"/>
       <c r="O15" s="10"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
@@ -3646,6 +3732,8 @@
       <c r="M16" s="10"/>
       <c r="N16" s="10"/>
       <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
     </row>
     <row r="17" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="18" s="10" customFormat="1" x14ac:dyDescent="0.35"/>

--- a/src/test/resources/testData/XAlpha.xlsx
+++ b/src/test/resources/testData/XAlpha.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A29058F-70F7-4941-AFA8-F8395785E051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FA30F77-901B-4E27-9E66-62E0A07F35D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="644" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="92">
   <si>
     <t>Username</t>
   </si>
@@ -142,9 +142,6 @@
     <t>QA_TestCase_Auto_XAlpha_016</t>
   </si>
   <si>
-    <t>alen.key</t>
-  </si>
-  <si>
     <t>QA_TestCase_Auto_XAlpha_017</t>
   </si>
   <si>
@@ -287,6 +284,15 @@
   </si>
   <si>
     <t>QA_TestCase_Auto_XAlpha_044</t>
+  </si>
+  <si>
+    <t>system.qa.checker</t>
+  </si>
+  <si>
+    <t>J6cxU20ke24l</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_XAlpha_045</t>
   </si>
 </sst>
 </file>
@@ -784,7 +790,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -873,7 +879,7 @@
     </row>
     <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
@@ -891,13 +897,13 @@
     </row>
     <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="1" t="b">
@@ -963,52 +969,52 @@
         <v>15</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>17</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I1" s="5" t="s">
         <v>18</v>
       </c>
       <c r="J1" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="K1" s="8" t="s">
         <v>60</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>61</v>
       </c>
       <c r="L1" s="5" t="s">
         <v>19</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N1" s="5" t="s">
         <v>20</v>
       </c>
       <c r="O1" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P1" s="5" t="s">
         <v>22</v>
       </c>
       <c r="Q1" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="R1" s="5" t="s">
         <v>23</v>
       </c>
       <c r="S1" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="T1" s="5" t="s">
         <v>21</v>
@@ -1039,16 +1045,16 @@
       </c>
       <c r="F2" s="9"/>
       <c r="G2" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H2" s="9"/>
       <c r="I2" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J2" s="9"/>
       <c r="K2" s="9"/>
       <c r="L2" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M2" s="9"/>
       <c r="N2" s="7">
@@ -1056,7 +1062,7 @@
       </c>
       <c r="O2" s="9"/>
       <c r="P2" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q2" s="9"/>
       <c r="R2" s="7">
@@ -1088,16 +1094,16 @@
       </c>
       <c r="F3" s="9"/>
       <c r="G3" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H3" s="9"/>
       <c r="I3" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J3" s="9"/>
       <c r="K3" s="9"/>
       <c r="L3" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M3" s="9"/>
       <c r="N3" s="7">
@@ -1105,7 +1111,7 @@
       </c>
       <c r="O3" s="9"/>
       <c r="P3" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q3" s="9"/>
       <c r="R3" s="7">
@@ -1137,16 +1143,16 @@
       </c>
       <c r="F4" s="9"/>
       <c r="G4" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H4" s="9"/>
       <c r="I4" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J4" s="9"/>
       <c r="K4" s="9"/>
       <c r="L4" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M4" s="9"/>
       <c r="N4" s="7">
@@ -1154,7 +1160,7 @@
       </c>
       <c r="O4" s="9"/>
       <c r="P4" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q4" s="9"/>
       <c r="R4" s="7">
@@ -1186,16 +1192,16 @@
       </c>
       <c r="F5" s="9"/>
       <c r="G5" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H5" s="9"/>
       <c r="I5" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
       <c r="L5" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M5" s="9"/>
       <c r="N5" s="7">
@@ -1203,7 +1209,7 @@
       </c>
       <c r="O5" s="9"/>
       <c r="P5" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q5" s="9"/>
       <c r="R5" s="7">
@@ -1235,16 +1241,16 @@
       </c>
       <c r="F6" s="9"/>
       <c r="G6" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H6" s="9"/>
       <c r="I6" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
       <c r="L6" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M6" s="9"/>
       <c r="N6" s="7">
@@ -1252,7 +1258,7 @@
       </c>
       <c r="O6" s="9"/>
       <c r="P6" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q6" s="9"/>
       <c r="R6" s="7">
@@ -1270,7 +1276,7 @@
     </row>
     <row r="7" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>26</v>
@@ -1284,16 +1290,16 @@
       </c>
       <c r="F7" s="9"/>
       <c r="G7" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H7" s="9"/>
       <c r="I7" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
       <c r="L7" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M7" s="9"/>
       <c r="N7" s="7">
@@ -1301,7 +1307,7 @@
       </c>
       <c r="O7" s="9"/>
       <c r="P7" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q7" s="9"/>
       <c r="R7" s="7">
@@ -1333,16 +1339,16 @@
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H8" s="9"/>
       <c r="I8" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c r="L8" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M8" s="9"/>
       <c r="N8" s="7">
@@ -1350,7 +1356,7 @@
       </c>
       <c r="O8" s="9"/>
       <c r="P8" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q8" s="9"/>
       <c r="R8" s="7">
@@ -1384,16 +1390,16 @@
       </c>
       <c r="F9" s="9"/>
       <c r="G9" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H9" s="9"/>
       <c r="I9" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c r="L9" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M9" s="9"/>
       <c r="N9" s="7">
@@ -1401,7 +1407,7 @@
       </c>
       <c r="O9" s="9"/>
       <c r="P9" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q9" s="9"/>
       <c r="R9" s="7">
@@ -1435,16 +1441,16 @@
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H10" s="9"/>
       <c r="I10" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c r="L10" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M10" s="9"/>
       <c r="N10" s="7">
@@ -1452,7 +1458,7 @@
       </c>
       <c r="O10" s="9"/>
       <c r="P10" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q10" s="9"/>
       <c r="R10" s="7">
@@ -1472,7 +1478,7 @@
     </row>
     <row r="11" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>26</v>
@@ -1486,16 +1492,16 @@
       </c>
       <c r="F11" s="9"/>
       <c r="G11" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H11" s="9"/>
       <c r="I11" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c r="L11" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M11" s="9"/>
       <c r="N11" s="7">
@@ -1503,7 +1509,7 @@
       </c>
       <c r="O11" s="9"/>
       <c r="P11" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="R11" s="7">
@@ -1523,7 +1529,7 @@
     </row>
     <row r="12" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>26</v>
@@ -1537,16 +1543,16 @@
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H12" s="9"/>
       <c r="I12" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c r="L12" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M12" s="9"/>
       <c r="N12" s="7">
@@ -1554,7 +1560,7 @@
       </c>
       <c r="O12" s="9"/>
       <c r="P12" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q12" s="9"/>
       <c r="R12" s="7">
@@ -1574,7 +1580,7 @@
     </row>
     <row r="13" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>26</v>
@@ -1588,16 +1594,16 @@
       </c>
       <c r="F13" s="9"/>
       <c r="G13" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H13" s="9"/>
       <c r="I13" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c r="L13" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M13" s="9"/>
       <c r="N13" s="7">
@@ -1605,7 +1611,7 @@
       </c>
       <c r="O13" s="9"/>
       <c r="P13" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q13" s="9"/>
       <c r="R13" s="7">
@@ -1625,7 +1631,7 @@
     </row>
     <row r="14" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>26</v>
@@ -1639,16 +1645,16 @@
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H14" s="9"/>
       <c r="I14" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c r="L14" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M14" s="9"/>
       <c r="N14" s="7">
@@ -1656,7 +1662,7 @@
       </c>
       <c r="O14" s="9"/>
       <c r="P14" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q14" s="9"/>
       <c r="R14" s="7">
@@ -1676,7 +1682,7 @@
     </row>
     <row r="15" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>26</v>
@@ -1690,16 +1696,16 @@
       </c>
       <c r="F15" s="9"/>
       <c r="G15" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H15" s="9"/>
       <c r="I15" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c r="L15" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M15" s="9"/>
       <c r="N15" s="7">
@@ -1707,7 +1713,7 @@
       </c>
       <c r="O15" s="9"/>
       <c r="P15" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q15" s="9"/>
       <c r="R15" s="7">
@@ -1727,7 +1733,7 @@
     </row>
     <row r="16" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>26</v>
@@ -1741,16 +1747,16 @@
       </c>
       <c r="F16" s="9"/>
       <c r="G16" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H16" s="9"/>
       <c r="I16" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c r="L16" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M16" s="9"/>
       <c r="N16" s="7">
@@ -1758,7 +1764,7 @@
       </c>
       <c r="O16" s="9"/>
       <c r="P16" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q16" s="9"/>
       <c r="R16" s="7">
@@ -1778,7 +1784,7 @@
     </row>
     <row r="17" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>26</v>
@@ -1792,16 +1798,16 @@
       </c>
       <c r="F17" s="9"/>
       <c r="G17" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H17" s="9"/>
       <c r="I17" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c r="L17" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M17" s="9"/>
       <c r="N17" s="7">
@@ -1809,7 +1815,7 @@
       </c>
       <c r="O17" s="9"/>
       <c r="P17" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q17" s="9"/>
       <c r="R17" s="7">
@@ -1829,7 +1835,7 @@
     </row>
     <row r="18" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>26</v>
@@ -1843,16 +1849,16 @@
       </c>
       <c r="F18" s="9"/>
       <c r="G18" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H18" s="9"/>
       <c r="I18" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c r="L18" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M18" s="9"/>
       <c r="N18" s="7">
@@ -1860,7 +1866,7 @@
       </c>
       <c r="O18" s="9"/>
       <c r="P18" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q18" s="9"/>
       <c r="R18" s="7">
@@ -1880,7 +1886,7 @@
     </row>
     <row r="19" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>26</v>
@@ -1894,16 +1900,16 @@
       </c>
       <c r="F19" s="9"/>
       <c r="G19" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H19" s="9"/>
       <c r="I19" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c r="L19" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M19" s="9"/>
       <c r="N19" s="7">
@@ -1911,7 +1917,7 @@
       </c>
       <c r="O19" s="9"/>
       <c r="P19" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q19" s="9"/>
       <c r="R19" s="7">
@@ -1931,7 +1937,7 @@
     </row>
     <row r="20" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>26</v>
@@ -1945,16 +1951,16 @@
       </c>
       <c r="F20" s="9"/>
       <c r="G20" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H20" s="9"/>
       <c r="I20" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c r="L20" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M20" s="9"/>
       <c r="N20" s="7">
@@ -1962,7 +1968,7 @@
       </c>
       <c r="O20" s="9"/>
       <c r="P20" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q20" s="9"/>
       <c r="R20" s="7">
@@ -1973,7 +1979,7 @@
         <v>24</v>
       </c>
       <c r="U20" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V20" s="7"/>
       <c r="W20" s="3" t="b">
@@ -1982,7 +1988,7 @@
     </row>
     <row r="21" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>26</v>
@@ -1996,16 +2002,16 @@
       </c>
       <c r="F21" s="9"/>
       <c r="G21" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H21" s="9"/>
       <c r="I21" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c r="L21" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M21" s="9"/>
       <c r="N21" s="7">
@@ -2013,7 +2019,7 @@
       </c>
       <c r="O21" s="9"/>
       <c r="P21" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q21" s="9"/>
       <c r="R21" s="7">
@@ -2024,7 +2030,7 @@
         <v>28</v>
       </c>
       <c r="U21" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V21" s="7"/>
       <c r="W21" s="3" t="b">
@@ -2033,7 +2039,7 @@
     </row>
     <row r="22" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>26</v>
@@ -2047,16 +2053,16 @@
       </c>
       <c r="F22" s="9"/>
       <c r="G22" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H22" s="9"/>
       <c r="I22" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c r="L22" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M22" s="9"/>
       <c r="N22" s="7">
@@ -2064,7 +2070,7 @@
       </c>
       <c r="O22" s="9"/>
       <c r="P22" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q22" s="9"/>
       <c r="R22" s="7">
@@ -2075,7 +2081,7 @@
         <v>29</v>
       </c>
       <c r="U22" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V22" s="7"/>
       <c r="W22" s="3" t="b">
@@ -2084,7 +2090,7 @@
     </row>
     <row r="23" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>26</v>
@@ -2098,16 +2104,16 @@
       </c>
       <c r="F23" s="9"/>
       <c r="G23" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H23" s="9"/>
       <c r="I23" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c r="L23" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M23" s="9"/>
       <c r="N23" s="7">
@@ -2115,7 +2121,7 @@
       </c>
       <c r="O23" s="9"/>
       <c r="P23" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q23" s="9"/>
       <c r="R23" s="7">
@@ -2126,7 +2132,7 @@
         <v>34</v>
       </c>
       <c r="U23" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V23" s="7"/>
       <c r="W23" s="3" t="b">
@@ -2135,7 +2141,7 @@
     </row>
     <row r="24" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>26</v>
@@ -2153,25 +2159,25 @@
         <v>2</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H24" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="J24" s="9" t="s">
         <v>66</v>
-      </c>
-      <c r="I24" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="J24" s="9" t="s">
-        <v>67</v>
       </c>
       <c r="K24" s="9">
         <v>31638.25</v>
       </c>
       <c r="L24" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="M24" s="9" t="s">
         <v>68</v>
-      </c>
-      <c r="M24" s="9" t="s">
-        <v>69</v>
       </c>
       <c r="N24" s="7">
         <v>1</v>
@@ -2180,10 +2186,10 @@
         <v>2</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q24" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="R24" s="7">
         <v>8000</v>
@@ -2202,7 +2208,7 @@
     </row>
     <row r="25" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>26</v>
@@ -2220,25 +2226,25 @@
         <v>3</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H25" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="J25" s="9" t="s">
         <v>66</v>
-      </c>
-      <c r="I25" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="J25" s="9" t="s">
-        <v>67</v>
       </c>
       <c r="K25" s="9">
         <v>31700.25</v>
       </c>
       <c r="L25" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="M25" s="9" t="s">
         <v>68</v>
-      </c>
-      <c r="M25" s="9" t="s">
-        <v>69</v>
       </c>
       <c r="N25" s="7">
         <v>1</v>
@@ -2247,10 +2253,10 @@
         <v>3</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q25" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="R25" s="7">
         <v>8000</v>
@@ -2269,7 +2275,7 @@
     </row>
     <row r="26" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>26</v>
@@ -2287,25 +2293,25 @@
         <v>3</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H26" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="J26" s="9" t="s">
         <v>66</v>
-      </c>
-      <c r="I26" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="J26" s="9" t="s">
-        <v>67</v>
       </c>
       <c r="K26" s="9">
         <v>31700.25</v>
       </c>
       <c r="L26" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="M26" s="9" t="s">
         <v>68</v>
-      </c>
-      <c r="M26" s="9" t="s">
-        <v>69</v>
       </c>
       <c r="N26" s="7">
         <v>1</v>
@@ -2314,10 +2320,10 @@
         <v>3</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q26" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="R26" s="7">
         <v>8000</v>
@@ -2336,7 +2342,7 @@
     </row>
     <row r="27" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>26</v>
@@ -2354,25 +2360,25 @@
         <v>3</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H27" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="J27" s="9" t="s">
         <v>66</v>
-      </c>
-      <c r="I27" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="J27" s="9" t="s">
-        <v>67</v>
       </c>
       <c r="K27" s="9">
         <v>31700.25</v>
       </c>
       <c r="L27" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="M27" s="9" t="s">
         <v>68</v>
-      </c>
-      <c r="M27" s="9" t="s">
-        <v>69</v>
       </c>
       <c r="N27" s="7">
         <v>1</v>
@@ -2381,10 +2387,10 @@
         <v>3</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q27" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="R27" s="7">
         <v>8000</v>
@@ -3303,9 +3309,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45AAE02B-1ED2-44CD-BC76-39A59421CF46}">
   <dimension ref="A1:Q773"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomLeft" activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3336,31 +3342,31 @@
         <v>25</v>
       </c>
       <c r="C1" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="E1" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="F1" s="14" t="s">
         <v>81</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>82</v>
       </c>
       <c r="G1" s="14" t="s">
         <v>19</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I1" s="14" t="s">
         <v>20</v>
       </c>
       <c r="J1" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K1" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L1" s="14" t="s">
         <v>22</v>
@@ -3383,25 +3389,25 @@
     </row>
     <row r="2" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="B2" s="17" t="s">
-        <v>78</v>
-      </c>
       <c r="C2" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D2" s="17">
         <v>1</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F2" s="17">
         <v>2000</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H2" s="17">
         <v>1</v>
@@ -3414,7 +3420,7 @@
       </c>
       <c r="K2" s="22"/>
       <c r="L2" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M2" s="7">
         <v>8000</v>
@@ -3430,25 +3436,25 @@
     </row>
     <row r="3" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D3" s="17">
         <v>1</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F3" s="17">
         <v>2000</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H3" s="17">
         <v>1</v>
@@ -3461,7 +3467,7 @@
       </c>
       <c r="K3" s="22"/>
       <c r="L3" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M3" s="7">
         <v>8000</v>
@@ -3477,10 +3483,10 @@
     </row>
     <row r="4" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C4" s="17"/>
       <c r="D4" s="17"/>
@@ -3491,7 +3497,7 @@
       <c r="I4" s="17"/>
       <c r="J4" s="17"/>
       <c r="K4" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
@@ -3508,10 +3514,10 @@
     </row>
     <row r="5" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C5" s="17"/>
       <c r="D5" s="17"/>
@@ -3522,7 +3528,7 @@
       <c r="I5" s="17"/>
       <c r="J5" s="17"/>
       <c r="K5" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
@@ -3537,23 +3543,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
+    <row r="6" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="O6" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" s="10"/>

--- a/src/test/resources/testData/XAlpha.xlsx
+++ b/src/test/resources/testData/XAlpha.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FA30F77-901B-4E27-9E66-62E0A07F35D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9077075A-122F-4665-B841-3E75921CBA14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="644" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="93">
   <si>
     <t>Username</t>
   </si>
@@ -293,6 +293,9 @@
   </si>
   <si>
     <t>QA_TestCase_Auto_XAlpha_045</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_XAlpha_046</t>
   </si>
 </sst>
 </file>
@@ -3311,7 +3314,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J8" sqref="J8"/>
+      <selection pane="bottomLeft" activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3574,23 +3577,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
+    <row r="7" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="O7" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" s="10"/>

--- a/src/test/resources/testData/XAlpha.xlsx
+++ b/src/test/resources/testData/XAlpha.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9077075A-122F-4665-B841-3E75921CBA14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F42533C0-65B2-4C34-A61B-05DA5BEABF12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="644" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="96">
   <si>
     <t>Username</t>
   </si>
@@ -296,6 +296,15 @@
   </si>
   <si>
     <t>QA_TestCase_Auto_XAlpha_046</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_XAlpha_051</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_XAlpha_052</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_XAlpha_053</t>
   </si>
 </sst>
 </file>
@@ -3312,9 +3321,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45AAE02B-1ED2-44CD-BC76-39A59421CF46}">
   <dimension ref="A1:Q773"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O8" sqref="O8"/>
+      <selection pane="bottomLeft" activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3608,59 +3617,98 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="10"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="10"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="10"/>
+    <row r="8" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="O8" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="O9" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="O10" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" s="10"/>

--- a/src/test/resources/testData/XAlpha.xlsx
+++ b/src/test/resources/testData/XAlpha.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F42533C0-65B2-4C34-A61B-05DA5BEABF12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3CC59A0-0759-4E78-B2C2-BD41226701EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="644" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="100">
   <si>
     <t>Username</t>
   </si>
@@ -305,6 +305,18 @@
   </si>
   <si>
     <t>QA_TestCase_Auto_XAlpha_053</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_XAlpha_054</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_XAlpha_057</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_XAlpha_055</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_XAlpha_056</t>
   </si>
 </sst>
 </file>
@@ -417,7 +429,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -459,7 +471,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -3322,8 +3333,8 @@
   <dimension ref="A1:Q773"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O11" sqref="O11"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3430,7 +3441,7 @@
       <c r="J2" s="17">
         <v>1</v>
       </c>
-      <c r="K2" s="22"/>
+      <c r="K2" s="21"/>
       <c r="L2" s="7" t="s">
         <v>69</v>
       </c>
@@ -3477,7 +3488,7 @@
       <c r="J3" s="17">
         <v>1</v>
       </c>
-      <c r="K3" s="22"/>
+      <c r="K3" s="21"/>
       <c r="L3" s="7" t="s">
         <v>69</v>
       </c>
@@ -3508,7 +3519,7 @@
       <c r="H4" s="17"/>
       <c r="I4" s="17"/>
       <c r="J4" s="17"/>
-      <c r="K4" s="22" t="s">
+      <c r="K4" s="21" t="s">
         <v>86</v>
       </c>
       <c r="L4" s="7"/>
@@ -3539,7 +3550,7 @@
       <c r="H5" s="17"/>
       <c r="I5" s="17"/>
       <c r="J5" s="17"/>
-      <c r="K5" s="22" t="s">
+      <c r="K5" s="21" t="s">
         <v>86</v>
       </c>
       <c r="L5" s="7"/>
@@ -3570,7 +3581,7 @@
       <c r="H6" s="17"/>
       <c r="I6" s="17"/>
       <c r="J6" s="17"/>
-      <c r="K6" s="22" t="s">
+      <c r="K6" s="21" t="s">
         <v>86</v>
       </c>
       <c r="L6" s="7"/>
@@ -3601,7 +3612,7 @@
       <c r="H7" s="17"/>
       <c r="I7" s="17"/>
       <c r="J7" s="17"/>
-      <c r="K7" s="22" t="s">
+      <c r="K7" s="21" t="s">
         <v>86</v>
       </c>
       <c r="L7" s="7"/>
@@ -3632,7 +3643,7 @@
       <c r="H8" s="17"/>
       <c r="I8" s="17"/>
       <c r="J8" s="17"/>
-      <c r="K8" s="22" t="s">
+      <c r="K8" s="21" t="s">
         <v>86</v>
       </c>
       <c r="L8" s="7"/>
@@ -3663,7 +3674,7 @@
       <c r="H9" s="17"/>
       <c r="I9" s="17"/>
       <c r="J9" s="17"/>
-      <c r="K9" s="22" t="s">
+      <c r="K9" s="21" t="s">
         <v>86</v>
       </c>
       <c r="L9" s="7"/>
@@ -3694,7 +3705,7 @@
       <c r="H10" s="17"/>
       <c r="I10" s="17"/>
       <c r="J10" s="17"/>
-      <c r="K10" s="22" t="s">
+      <c r="K10" s="21" t="s">
         <v>86</v>
       </c>
       <c r="L10" s="7"/>
@@ -3703,84 +3714,136 @@
         <v>34</v>
       </c>
       <c r="O10" s="20" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="P10" s="7"/>
       <c r="Q10" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="10"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="10"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="10"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="10"/>
+    <row r="11" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="O11" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="O12" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="O13" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="O14" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" s="10"/>

--- a/src/test/resources/testData/XAlpha.xlsx
+++ b/src/test/resources/testData/XAlpha.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3CC59A0-0759-4E78-B2C2-BD41226701EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D6D8146-8408-43A2-A2BF-91AAC30C249E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="644" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="644" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="XAlphaLogin" sheetId="9" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="105">
   <si>
     <t>Username</t>
   </si>
@@ -317,6 +317,21 @@
   </si>
   <si>
     <t>QA_TestCase_Auto_XAlpha_056</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_XAlpha_058</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_XAlpha_059</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_XAlpha_060</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_XAlpha_061</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_XAlpha_062</t>
   </si>
 </sst>
 </file>
@@ -816,17 +831,17 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.54296875" customWidth="1"/>
-    <col min="2" max="2" width="14.1796875" customWidth="1"/>
-    <col min="3" max="3" width="21.26953125" customWidth="1"/>
-    <col min="4" max="4" width="18.453125" customWidth="1"/>
-    <col min="5" max="5" width="16.1796875" customWidth="1"/>
-    <col min="6" max="6" width="15.453125" customWidth="1"/>
+    <col min="1" max="1" width="29.5703125" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -846,7 +861,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -864,7 +879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -882,7 +897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -900,7 +915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>42</v>
       </c>
@@ -918,7 +933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>43</v>
       </c>
@@ -954,34 +969,34 @@
       <selection pane="bottomLeft" activeCell="V2" sqref="V2:W2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.81640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7265625" style="10"/>
-    <col min="3" max="3" width="9.1796875" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.81640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.453125" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.1796875" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="10"/>
+    <col min="3" max="3" width="9.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.140625" style="11" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17" style="11" customWidth="1"/>
-    <col min="8" max="8" width="18.81640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7265625" style="11" customWidth="1"/>
-    <col min="10" max="11" width="18.81640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.453125" style="11" customWidth="1"/>
-    <col min="13" max="13" width="18.81640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.453125" style="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.1796875" style="11" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="22.26953125" style="11" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" style="11" customWidth="1"/>
+    <col min="10" max="11" width="18.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.42578125" style="11" customWidth="1"/>
+    <col min="13" max="13" width="18.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.28515625" style="11" customWidth="1"/>
     <col min="17" max="17" width="27" style="11" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.81640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="11" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="25" style="11" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7265625" style="11" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="23.453125" style="11" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="23.42578125" style="11" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="17" style="11" customWidth="1"/>
-    <col min="23" max="23" width="8.7265625" style="11"/>
-    <col min="24" max="16384" width="8.7265625" style="10"/>
+    <col min="23" max="23" width="8.7109375" style="11"/>
+    <col min="24" max="16384" width="8.7109375" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
@@ -1052,7 +1067,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>30</v>
       </c>
@@ -1101,7 +1116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>31</v>
       </c>
@@ -1150,7 +1165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>32</v>
       </c>
@@ -1199,7 +1214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>33</v>
       </c>
@@ -1248,7 +1263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>35</v>
       </c>
@@ -1297,7 +1312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>75</v>
       </c>
@@ -1346,7 +1361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>37</v>
       </c>
@@ -1397,7 +1412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>39</v>
       </c>
@@ -1448,7 +1463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>40</v>
       </c>
@@ -1499,7 +1514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>41</v>
       </c>
@@ -1550,7 +1565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>44</v>
       </c>
@@ -1601,7 +1616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>45</v>
       </c>
@@ -1652,7 +1667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>46</v>
       </c>
@@ -1703,7 +1718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>47</v>
       </c>
@@ -1754,7 +1769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>48</v>
       </c>
@@ -1805,7 +1820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>49</v>
       </c>
@@ -1856,7 +1871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>50</v>
       </c>
@@ -1907,7 +1922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>51</v>
       </c>
@@ -1958,7 +1973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>52</v>
       </c>
@@ -2009,7 +2024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>53</v>
       </c>
@@ -2060,7 +2075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>70</v>
       </c>
@@ -2111,7 +2126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>71</v>
       </c>
@@ -2162,7 +2177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>55</v>
       </c>
@@ -2229,7 +2244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>72</v>
       </c>
@@ -2296,7 +2311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>73</v>
       </c>
@@ -2363,7 +2378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>74</v>
       </c>
@@ -2430,7 +2445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" s="10"/>
       <c r="D28" s="10"/>
       <c r="E28" s="10"/>
@@ -2453,7 +2468,7 @@
       <c r="V28" s="10"/>
       <c r="W28" s="10"/>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" s="10"/>
       <c r="D29" s="10"/>
       <c r="E29" s="10"/>
@@ -2476,7 +2491,7 @@
       <c r="V29" s="10"/>
       <c r="W29" s="10"/>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" s="10"/>
       <c r="D30" s="10"/>
       <c r="E30" s="10"/>
@@ -2499,7 +2514,7 @@
       <c r="V30" s="10"/>
       <c r="W30" s="10"/>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" s="10"/>
       <c r="D31" s="10"/>
       <c r="E31" s="10"/>
@@ -2522,7 +2537,7 @@
       <c r="V31" s="10"/>
       <c r="W31" s="10"/>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" s="10"/>
       <c r="D32" s="10"/>
       <c r="E32" s="10"/>
@@ -2545,780 +2560,780 @@
       <c r="V32" s="10"/>
       <c r="W32" s="10"/>
     </row>
-    <row r="33" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="34" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="35" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="36" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="37" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="38" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="39" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="40" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="41" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="42" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="43" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="44" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="45" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="46" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="47" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="48" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="49" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="50" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="51" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="52" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="53" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="54" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="55" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="56" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="57" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="58" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="59" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="60" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="61" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="62" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="63" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="64" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="65" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="66" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="67" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="68" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="69" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="70" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="71" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="72" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="73" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="74" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="75" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="76" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="77" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="78" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="79" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="80" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="81" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="82" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="83" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="84" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="85" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="86" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="87" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="88" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="89" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="90" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="91" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="92" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="93" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="94" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="95" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="96" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="97" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="98" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="99" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="100" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="101" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="102" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="103" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="104" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="105" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="106" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="107" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="108" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="109" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="110" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="111" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="112" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="113" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="114" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="115" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="116" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="117" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="118" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="119" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="120" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="121" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="122" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="123" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="124" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="125" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="126" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="127" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="128" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="129" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="130" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="131" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="132" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="133" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="134" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="135" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="136" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="137" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="138" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="139" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="140" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="141" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="142" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="143" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="144" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="145" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="146" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="147" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="148" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="149" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="150" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="151" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="152" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="153" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="154" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="155" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="156" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="157" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="158" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="159" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="160" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="161" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="162" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="163" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="164" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="165" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="166" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="167" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="168" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="169" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="170" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="171" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="172" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="173" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="174" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="175" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="176" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="177" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="178" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="179" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="180" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="181" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="182" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="183" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="184" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="185" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="186" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="187" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="188" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="189" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="190" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="191" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="192" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="193" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="194" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="195" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="196" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="197" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="198" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="199" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="200" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="201" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="202" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="203" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="204" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="205" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="206" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="207" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="208" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="209" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="210" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="211" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="212" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="213" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="214" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="215" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="216" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="217" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="218" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="219" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="220" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="221" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="222" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="223" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="224" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="225" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="226" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="227" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="228" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="229" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="230" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="231" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="232" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="233" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="234" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="235" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="236" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="237" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="238" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="239" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="240" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="241" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="242" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="243" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="244" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="245" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="246" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="247" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="248" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="249" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="250" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="251" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="252" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="253" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="254" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="255" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="256" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="257" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="258" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="259" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="260" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="261" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="262" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="263" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="264" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="265" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="266" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="267" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="268" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="269" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="270" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="271" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="272" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="273" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="274" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="275" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="276" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="277" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="278" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="279" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="280" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="281" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="282" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="283" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="284" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="285" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="286" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="287" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="288" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="289" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="290" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="291" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="292" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="293" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="294" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="295" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="296" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="297" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="298" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="299" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="300" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="301" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="302" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="303" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="304" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="305" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="306" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="307" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="308" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="309" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="310" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="311" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="312" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="313" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="314" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="315" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="316" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="317" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="318" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="319" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="320" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="321" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="322" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="323" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="324" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="325" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="326" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="327" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="328" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="329" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="330" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="331" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="332" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="333" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="334" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="335" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="336" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="337" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="338" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="339" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="340" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="341" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="342" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="343" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="344" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="345" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="346" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="347" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="348" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="349" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="350" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="351" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="352" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="353" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="354" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="355" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="356" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="357" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="358" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="359" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="360" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="361" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="362" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="363" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="364" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="365" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="366" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="367" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="368" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="369" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="370" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="371" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="372" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="373" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="374" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="375" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="376" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="377" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="378" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="379" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="380" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="381" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="382" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="383" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="384" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="385" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="386" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="387" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="388" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="389" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="390" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="391" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="392" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="393" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="394" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="395" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="396" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="397" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="398" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="399" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="400" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="401" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="402" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="403" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="404" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="405" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="406" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="407" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="408" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="409" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="410" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="411" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="412" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="413" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="414" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="415" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="416" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="417" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="418" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="419" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="420" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="421" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="422" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="423" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="424" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="425" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="426" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="427" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="428" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="429" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="430" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="431" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="432" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="433" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="434" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="435" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="436" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="437" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="438" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="439" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="440" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="441" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="442" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="443" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="444" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="445" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="446" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="447" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="448" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="449" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="450" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="451" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="452" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="453" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="454" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="455" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="456" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="457" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="458" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="459" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="460" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="461" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="462" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="463" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="464" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="465" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="466" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="467" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="468" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="469" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="470" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="471" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="472" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="473" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="474" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="475" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="476" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="477" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="478" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="479" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="480" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="481" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="482" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="483" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="484" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="485" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="486" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="487" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="488" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="489" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="490" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="491" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="492" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="493" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="494" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="495" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="496" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="497" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="498" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="499" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="500" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="501" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="502" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="503" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="504" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="505" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="506" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="507" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="508" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="509" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="510" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="511" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="512" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="513" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="514" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="515" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="516" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="517" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="518" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="519" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="520" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="521" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="522" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="523" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="524" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="525" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="526" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="527" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="528" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="529" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="530" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="531" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="532" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="533" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="534" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="535" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="536" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="537" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="538" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="539" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="540" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="541" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="542" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="543" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="544" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="545" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="546" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="547" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="548" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="549" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="550" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="551" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="552" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="553" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="554" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="555" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="556" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="557" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="558" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="559" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="560" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="561" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="562" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="563" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="564" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="565" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="566" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="567" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="568" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="569" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="570" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="571" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="572" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="573" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="574" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="575" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="576" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="577" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="578" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="579" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="580" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="581" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="582" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="583" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="584" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="585" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="586" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="587" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="588" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="589" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="590" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="591" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="592" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="593" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="594" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="595" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="596" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="597" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="598" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="599" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="600" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="601" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="602" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="603" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="604" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="605" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="606" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="607" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="608" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="609" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="610" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="611" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="612" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="613" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="614" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="615" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="616" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="617" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="618" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="619" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="620" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="621" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="622" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="623" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="624" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="625" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="626" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="627" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="628" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="629" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="630" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="631" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="632" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="633" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="634" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="635" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="636" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="637" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="638" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="639" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="640" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="641" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="642" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="643" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="644" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="645" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="646" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="647" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="648" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="649" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="650" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="651" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="652" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="653" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="654" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="655" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="656" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="657" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="658" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="659" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="660" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="661" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="662" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="663" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="664" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="665" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="666" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="667" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="668" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="669" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="670" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="671" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="672" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="673" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="674" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="675" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="676" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="677" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="678" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="679" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="680" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="681" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="682" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="683" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="684" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="685" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="686" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="687" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="688" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="689" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="690" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="691" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="692" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="693" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="694" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="695" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="696" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="697" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="698" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="699" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="700" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="701" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="702" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="703" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="704" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="705" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="706" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="707" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="708" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="709" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="710" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="711" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="712" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="713" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="714" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="715" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="716" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="717" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="718" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="719" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="720" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="721" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="722" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="723" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="724" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="725" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="726" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="727" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="728" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="729" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="730" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="731" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="732" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="733" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="734" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="735" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="736" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="737" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="738" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="739" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="740" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="741" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="742" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="743" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="744" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="745" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="746" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="747" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="748" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="749" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="750" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="751" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="752" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="753" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="754" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="755" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="756" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="757" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="758" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="759" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="760" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="761" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="762" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="763" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="764" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="765" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="766" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="767" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="768" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="769" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="770" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="771" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="772" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="773" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="774" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="775" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="776" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="777" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="778" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="779" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="780" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="781" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="782" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="783" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="784" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="785" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="786" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="787" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="788" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="789" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="790" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="791" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="792" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="793" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="794" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="795" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="796" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="797" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="798" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="799" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="800" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="801" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="802" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="1048564" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="33" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="36" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="37" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="38" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="39" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="40" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="41" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="42" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="43" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="44" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="45" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="46" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="47" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="48" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="49" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="50" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="51" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="53" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="56" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="57" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="58" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="60" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="61" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="63" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="64" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="65" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="66" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="67" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="68" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="69" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="70" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="71" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="72" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="73" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="74" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="75" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="76" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="77" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="78" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="79" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="80" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="81" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="82" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="83" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="84" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="85" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="86" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="87" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="88" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="89" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="90" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="91" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="92" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="93" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="94" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="95" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="96" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="97" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="98" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="99" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="100" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="101" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="102" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="103" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="104" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="105" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="106" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="107" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="108" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="109" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="110" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="111" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="112" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="113" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="114" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="115" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="116" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="117" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="118" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="119" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="120" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="121" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="122" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="123" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="124" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="125" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="126" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="127" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="128" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="129" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="130" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="131" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="132" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="133" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="134" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="135" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="136" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="137" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="138" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="139" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="140" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="141" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="142" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="143" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="144" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="145" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="146" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="147" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="148" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="149" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="150" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="151" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="152" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="153" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="154" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="155" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="156" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="157" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="158" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="159" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="160" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="161" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="162" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="163" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="164" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="165" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="166" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="167" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="168" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="169" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="170" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="171" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="172" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="173" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="174" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="175" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="176" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="177" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="178" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="179" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="180" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="181" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="182" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="183" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="184" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="185" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="186" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="187" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="188" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="189" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="190" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="191" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="192" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="193" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="194" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="195" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="196" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="197" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="198" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="199" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="200" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="201" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="202" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="203" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="204" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="205" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="206" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="207" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="208" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="209" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="210" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="211" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="212" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="213" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="214" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="215" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="216" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="217" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="218" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="219" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="220" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="221" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="222" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="223" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="224" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="225" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="226" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="227" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="228" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="229" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="230" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="231" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="232" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="233" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="234" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="235" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="236" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="237" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="238" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="239" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="240" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="241" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="242" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="243" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="244" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="245" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="246" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="247" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="248" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="249" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="250" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="251" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="252" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="253" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="254" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="255" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="256" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="257" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="258" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="259" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="260" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="261" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="262" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="263" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="264" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="265" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="266" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="267" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="268" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="269" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="270" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="271" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="272" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="273" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="274" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="275" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="276" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="277" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="278" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="279" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="280" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="281" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="282" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="283" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="284" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="285" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="286" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="287" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="288" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="289" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="290" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="291" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="292" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="293" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="294" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="295" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="296" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="297" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="298" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="299" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="300" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="301" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="302" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="303" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="304" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="305" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="306" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="307" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="308" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="309" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="310" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="311" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="312" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="313" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="314" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="315" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="316" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="317" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="318" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="319" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="320" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="321" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="322" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="323" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="324" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="325" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="326" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="327" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="328" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="329" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="330" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="331" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="332" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="333" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="334" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="335" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="336" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="337" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="338" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="339" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="340" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="341" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="342" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="343" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="344" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="345" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="346" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="347" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="348" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="349" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="350" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="351" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="352" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="353" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="354" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="355" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="356" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="357" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="358" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="359" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="360" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="361" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="362" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="363" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="364" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="365" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="366" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="367" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="368" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="369" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="370" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="371" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="372" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="373" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="374" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="375" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="376" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="377" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="378" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="379" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="380" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="381" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="382" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="383" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="384" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="385" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="386" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="387" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="388" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="389" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="390" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="391" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="392" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="393" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="394" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="395" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="396" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="397" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="398" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="399" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="400" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="401" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="402" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="403" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="404" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="405" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="406" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="407" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="408" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="409" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="410" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="411" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="412" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="413" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="414" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="415" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="416" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="417" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="418" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="419" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="420" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="421" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="422" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="423" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="424" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="425" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="426" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="427" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="428" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="429" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="430" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="431" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="432" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="433" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="434" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="435" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="436" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="437" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="438" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="439" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="440" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="441" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="442" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="443" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="444" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="445" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="446" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="447" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="448" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="449" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="450" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="451" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="452" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="453" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="454" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="455" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="456" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="457" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="458" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="459" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="460" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="461" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="462" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="463" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="464" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="465" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="466" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="467" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="468" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="469" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="470" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="471" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="472" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="473" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="474" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="475" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="476" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="477" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="478" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="479" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="480" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="481" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="482" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="483" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="484" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="485" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="486" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="487" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="488" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="489" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="490" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="491" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="492" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="493" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="494" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="495" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="496" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="497" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="498" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="499" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="500" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="501" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="502" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="503" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="504" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="505" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="506" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="507" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="508" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="509" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="510" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="511" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="512" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="513" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="514" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="515" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="516" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="517" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="518" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="519" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="520" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="521" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="522" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="523" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="524" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="525" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="526" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="527" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="528" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="529" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="530" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="531" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="532" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="533" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="534" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="535" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="536" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="537" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="538" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="539" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="540" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="541" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="542" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="543" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="544" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="545" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="546" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="547" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="548" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="549" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="550" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="551" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="552" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="553" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="554" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="555" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="556" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="557" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="558" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="559" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="560" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="561" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="562" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="563" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="564" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="565" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="566" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="567" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="568" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="569" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="570" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="571" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="572" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="573" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="574" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="575" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="576" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="577" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="578" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="579" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="580" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="581" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="582" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="583" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="584" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="585" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="586" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="587" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="588" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="589" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="590" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="591" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="592" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="593" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="594" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="595" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="596" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="597" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="598" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="599" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="600" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="601" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="602" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="603" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="604" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="605" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="606" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="607" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="608" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="609" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="610" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="611" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="612" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="613" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="614" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="615" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="616" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="617" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="618" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="619" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="620" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="621" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="622" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="623" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="624" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="625" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="626" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="627" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="628" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="629" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="630" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="631" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="632" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="633" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="634" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="635" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="636" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="637" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="638" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="639" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="640" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="641" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="642" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="643" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="644" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="645" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="646" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="647" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="648" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="649" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="650" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="651" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="652" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="653" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="654" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="655" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="656" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="657" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="658" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="659" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="660" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="661" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="662" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="663" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="664" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="665" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="666" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="667" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="668" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="669" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="670" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="671" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="672" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="673" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="674" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="675" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="676" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="677" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="678" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="679" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="680" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="681" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="682" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="683" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="684" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="685" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="686" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="687" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="688" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="689" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="690" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="691" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="692" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="693" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="694" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="695" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="696" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="697" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="698" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="699" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="700" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="701" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="702" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="703" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="704" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="705" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="706" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="707" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="708" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="709" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="710" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="711" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="712" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="713" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="714" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="715" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="716" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="717" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="718" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="719" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="720" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="721" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="722" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="723" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="724" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="725" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="726" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="727" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="728" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="729" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="730" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="731" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="732" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="733" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="734" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="735" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="736" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="737" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="738" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="739" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="740" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="741" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="742" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="743" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="744" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="745" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="746" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="747" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="748" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="749" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="750" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="751" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="752" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="753" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="754" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="755" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="756" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="757" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="758" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="759" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="760" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="761" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="762" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="763" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="764" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="765" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="766" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="767" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="768" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="769" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="770" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="771" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="772" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="773" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="774" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="775" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="776" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="777" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="778" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="779" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="780" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="781" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="782" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="783" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="784" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="785" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="786" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="787" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="788" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="789" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="790" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="791" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="792" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="793" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="794" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="795" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="796" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="797" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="798" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="799" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="800" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="801" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="802" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1048564" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D1048564" s="13"/>
     </row>
-    <row r="1048567" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="1048567" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D1048567" s="13"/>
     </row>
   </sheetData>
@@ -3332,32 +3347,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45AAE02B-1ED2-44CD-BC76-39A59421CF46}">
   <dimension ref="A1:Q773"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O14" sqref="O14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.81640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.90625" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.453125" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" style="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" style="11" customWidth="1"/>
-    <col min="5" max="5" width="13.7265625" style="11" customWidth="1"/>
-    <col min="6" max="6" width="15.453125" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="16.453125" style="11" customWidth="1"/>
-    <col min="9" max="9" width="11.453125" style="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="24.453125" style="11" customWidth="1"/>
-    <col min="12" max="12" width="22.26953125" style="11" customWidth="1"/>
-    <col min="13" max="13" width="14.81640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7265625" style="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.6328125" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" style="11" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="16.42578125" style="11" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="24.42578125" style="11" customWidth="1"/>
+    <col min="12" max="12" width="22.28515625" style="11" customWidth="1"/>
+    <col min="13" max="13" width="16.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16" style="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21" style="11" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="17" style="11" customWidth="1"/>
-    <col min="17" max="17" width="8.7265625" style="11"/>
-    <col min="18" max="16384" width="8.7265625" style="10"/>
+    <col min="17" max="17" width="8.7109375" style="11"/>
+    <col min="18" max="16384" width="8.7109375" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>2</v>
       </c>
@@ -3410,7 +3425,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>76</v>
       </c>
@@ -3457,7 +3472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>84</v>
       </c>
@@ -3504,7 +3519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>87</v>
       </c>
@@ -3535,7 +3550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>88</v>
       </c>
@@ -3566,7 +3581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>91</v>
       </c>
@@ -3597,7 +3612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>92</v>
       </c>
@@ -3628,7 +3643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>93</v>
       </c>
@@ -3659,7 +3674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>94</v>
       </c>
@@ -3690,7 +3705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>95</v>
       </c>
@@ -3721,7 +3736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>96</v>
       </c>
@@ -3752,7 +3767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>98</v>
       </c>
@@ -3783,7 +3798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>99</v>
       </c>
@@ -3814,7 +3829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>97</v>
       </c>
@@ -3845,800 +3860,1138 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="10"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="10"/>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="10"/>
-    </row>
-    <row r="17" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="18" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="19" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="20" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="21" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="22" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="23" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="24" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="25" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="26" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="27" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="28" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="29" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="30" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="31" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="32" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="33" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="34" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="35" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="36" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="37" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="38" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="39" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="40" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="41" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="42" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="43" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="44" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="45" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="46" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="47" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="48" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="49" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="50" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="51" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="52" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="53" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="54" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="55" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="56" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="57" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="58" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="59" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="60" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="61" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="62" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="63" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="64" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="65" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="66" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="67" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="68" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="69" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="70" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="71" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="72" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="73" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="74" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="75" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="76" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="77" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="78" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="79" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="80" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="81" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="82" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="83" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="84" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="85" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="86" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="87" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="88" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="89" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="90" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="91" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="92" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="93" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="94" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="95" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="96" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="97" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="98" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="99" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="100" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="101" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="102" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="103" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="104" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="105" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="106" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="107" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="108" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="109" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="110" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="111" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="112" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="113" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="114" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="115" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="116" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="117" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="118" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="119" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="120" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="121" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="122" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="123" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="124" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="125" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="126" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="127" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="128" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="129" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="130" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="131" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="132" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="133" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="134" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="135" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="136" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="137" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="138" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="139" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="140" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="141" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="142" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="143" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="144" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="145" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="146" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="147" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="148" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="149" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="150" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="151" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="152" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="153" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="154" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="155" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="156" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="157" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="158" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="159" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="160" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="161" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="162" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="163" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="164" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="165" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="166" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="167" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="168" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="169" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="170" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="171" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="172" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="173" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="174" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="175" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="176" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="177" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="178" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="179" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="180" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="181" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="182" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="183" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="184" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="185" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="186" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="187" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="188" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="189" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="190" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="191" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="192" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="193" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="194" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="195" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="196" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="197" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="198" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="199" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="200" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="201" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="202" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="203" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="204" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="205" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="206" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="207" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="208" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="209" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="210" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="211" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="212" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="213" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="214" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="215" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="216" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="217" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="218" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="219" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="220" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="221" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="222" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="223" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="224" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="225" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="226" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="227" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="228" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="229" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="230" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="231" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="232" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="233" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="234" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="235" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="236" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="237" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="238" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="239" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="240" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="241" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="242" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="243" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="244" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="245" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="246" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="247" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="248" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="249" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="250" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="251" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="252" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="253" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="254" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="255" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="256" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="257" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="258" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="259" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="260" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="261" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="262" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="263" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="264" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="265" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="266" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="267" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="268" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="269" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="270" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="271" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="272" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="273" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="274" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="275" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="276" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="277" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="278" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="279" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="280" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="281" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="282" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="283" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="284" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="285" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="286" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="287" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="288" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="289" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="290" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="291" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="292" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="293" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="294" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="295" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="296" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="297" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="298" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="299" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="300" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="301" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="302" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="303" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="304" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="305" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="306" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="307" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="308" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="309" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="310" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="311" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="312" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="313" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="314" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="315" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="316" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="317" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="318" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="319" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="320" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="321" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="322" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="323" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="324" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="325" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="326" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="327" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="328" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="329" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="330" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="331" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="332" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="333" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="334" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="335" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="336" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="337" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="338" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="339" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="340" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="341" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="342" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="343" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="344" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="345" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="346" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="347" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="348" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="349" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="350" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="351" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="352" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="353" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="354" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="355" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="356" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="357" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="358" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="359" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="360" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="361" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="362" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="363" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="364" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="365" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="366" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="367" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="368" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="369" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="370" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="371" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="372" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="373" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="374" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="375" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="376" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="377" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="378" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="379" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="380" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="381" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="382" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="383" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="384" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="385" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="386" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="387" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="388" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="389" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="390" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="391" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="392" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="393" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="394" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="395" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="396" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="397" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="398" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="399" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="400" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="401" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="402" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="403" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="404" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="405" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="406" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="407" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="408" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="409" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="410" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="411" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="412" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="413" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="414" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="415" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="416" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="417" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="418" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="419" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="420" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="421" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="422" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="423" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="424" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="425" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="426" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="427" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="428" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="429" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="430" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="431" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="432" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="433" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="434" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="435" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="436" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="437" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="438" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="439" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="440" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="441" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="442" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="443" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="444" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="445" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="446" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="447" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="448" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="449" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="450" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="451" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="452" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="453" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="454" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="455" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="456" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="457" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="458" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="459" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="460" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="461" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="462" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="463" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="464" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="465" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="466" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="467" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="468" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="469" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="470" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="471" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="472" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="473" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="474" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="475" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="476" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="477" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="478" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="479" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="480" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="481" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="482" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="483" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="484" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="485" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="486" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="487" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="488" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="489" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="490" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="491" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="492" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="493" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="494" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="495" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="496" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="497" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="498" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="499" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="500" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="501" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="502" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="503" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="504" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="505" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="506" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="507" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="508" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="509" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="510" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="511" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="512" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="513" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="514" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="515" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="516" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="517" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="518" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="519" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="520" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="521" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="522" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="523" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="524" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="525" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="526" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="527" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="528" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="529" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="530" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="531" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="532" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="533" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="534" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="535" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="536" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="537" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="538" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="539" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="540" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="541" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="542" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="543" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="544" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="545" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="546" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="547" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="548" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="549" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="550" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="551" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="552" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="553" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="554" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="555" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="556" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="557" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="558" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="559" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="560" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="561" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="562" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="563" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="564" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="565" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="566" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="567" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="568" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="569" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="570" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="571" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="572" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="573" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="574" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="575" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="576" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="577" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="578" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="579" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="580" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="581" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="582" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="583" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="584" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="585" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="586" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="587" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="588" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="589" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="590" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="591" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="592" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="593" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="594" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="595" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="596" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="597" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="598" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="599" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="600" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="601" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="602" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="603" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="604" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="605" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="606" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="607" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="608" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="609" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="610" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="611" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="612" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="613" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="614" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="615" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="616" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="617" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="618" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="619" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="620" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="621" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="622" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="623" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="624" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="625" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="626" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="627" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="628" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="629" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="630" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="631" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="632" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="633" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="634" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="635" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="636" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="637" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="638" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="639" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="640" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="641" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="642" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="643" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="644" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="645" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="646" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="647" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="648" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="649" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="650" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="651" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="652" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="653" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="654" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="655" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="656" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="657" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="658" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="659" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="660" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="661" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="662" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="663" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="664" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="665" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="666" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="667" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="668" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="669" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="670" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="671" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="672" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="673" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="674" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="675" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="676" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="677" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="678" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="679" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="680" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="681" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="682" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="683" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="684" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="685" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="686" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="687" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="688" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="689" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="690" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="691" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="692" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="693" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="694" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="695" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="696" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="697" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="698" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="699" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="700" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="701" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="702" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="703" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="704" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="705" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="706" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="707" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="708" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="709" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="710" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="711" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="712" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="713" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="714" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="715" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="716" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="717" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="718" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="719" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="720" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="721" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="722" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="723" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="724" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="725" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="726" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="727" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="728" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="729" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="730" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="731" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="732" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="733" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="734" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="735" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="736" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="737" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="738" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="739" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="740" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="741" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="742" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="743" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="744" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="745" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="746" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="747" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="748" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="749" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="750" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="751" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="752" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="753" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="754" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="755" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="756" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="757" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="758" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="759" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="760" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="761" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="762" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="763" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="764" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="765" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="766" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="767" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="768" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="769" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="770" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="771" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="772" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="773" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="O15" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="O16" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="O17" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="O18" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="O19" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="10"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="10"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="10"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="10"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="10"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="10"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="10"/>
+      <c r="P30" s="10"/>
+      <c r="Q30" s="10"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="10"/>
+      <c r="O31" s="10"/>
+      <c r="P31" s="10"/>
+      <c r="Q31" s="10"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="10"/>
+      <c r="O32" s="10"/>
+      <c r="P32" s="10"/>
+      <c r="Q32" s="10"/>
+    </row>
+    <row r="33" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="36" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="37" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="38" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="39" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="40" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="41" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="42" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="43" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="44" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="45" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="46" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="47" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="48" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="49" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="50" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="51" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="53" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="56" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="57" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="58" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="60" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="61" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="63" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="64" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="65" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="66" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="67" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="68" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="69" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="70" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="71" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="72" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="73" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="74" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="75" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="76" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="77" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="78" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="79" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="80" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="81" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="82" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="83" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="84" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="85" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="86" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="87" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="88" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="89" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="90" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="91" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="92" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="93" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="94" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="95" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="96" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="97" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="98" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="99" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="100" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="101" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="102" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="103" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="104" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="105" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="106" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="107" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="108" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="109" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="110" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="111" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="112" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="113" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="114" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="115" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="116" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="117" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="118" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="119" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="120" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="121" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="122" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="123" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="124" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="125" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="126" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="127" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="128" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="129" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="130" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="131" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="132" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="133" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="134" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="135" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="136" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="137" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="138" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="139" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="140" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="141" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="142" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="143" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="144" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="145" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="146" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="147" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="148" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="149" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="150" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="151" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="152" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="153" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="154" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="155" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="156" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="157" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="158" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="159" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="160" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="161" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="162" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="163" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="164" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="165" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="166" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="167" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="168" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="169" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="170" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="171" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="172" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="173" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="174" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="175" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="176" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="177" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="178" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="179" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="180" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="181" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="182" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="183" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="184" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="185" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="186" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="187" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="188" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="189" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="190" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="191" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="192" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="193" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="194" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="195" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="196" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="197" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="198" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="199" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="200" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="201" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="202" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="203" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="204" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="205" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="206" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="207" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="208" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="209" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="210" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="211" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="212" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="213" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="214" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="215" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="216" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="217" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="218" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="219" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="220" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="221" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="222" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="223" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="224" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="225" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="226" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="227" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="228" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="229" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="230" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="231" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="232" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="233" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="234" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="235" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="236" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="237" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="238" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="239" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="240" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="241" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="242" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="243" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="244" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="245" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="246" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="247" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="248" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="249" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="250" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="251" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="252" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="253" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="254" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="255" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="256" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="257" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="258" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="259" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="260" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="261" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="262" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="263" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="264" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="265" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="266" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="267" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="268" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="269" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="270" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="271" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="272" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="273" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="274" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="275" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="276" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="277" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="278" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="279" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="280" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="281" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="282" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="283" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="284" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="285" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="286" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="287" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="288" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="289" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="290" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="291" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="292" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="293" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="294" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="295" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="296" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="297" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="298" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="299" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="300" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="301" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="302" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="303" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="304" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="305" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="306" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="307" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="308" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="309" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="310" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="311" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="312" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="313" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="314" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="315" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="316" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="317" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="318" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="319" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="320" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="321" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="322" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="323" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="324" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="325" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="326" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="327" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="328" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="329" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="330" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="331" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="332" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="333" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="334" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="335" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="336" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="337" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="338" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="339" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="340" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="341" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="342" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="343" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="344" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="345" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="346" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="347" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="348" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="349" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="350" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="351" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="352" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="353" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="354" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="355" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="356" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="357" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="358" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="359" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="360" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="361" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="362" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="363" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="364" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="365" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="366" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="367" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="368" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="369" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="370" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="371" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="372" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="373" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="374" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="375" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="376" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="377" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="378" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="379" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="380" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="381" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="382" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="383" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="384" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="385" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="386" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="387" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="388" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="389" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="390" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="391" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="392" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="393" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="394" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="395" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="396" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="397" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="398" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="399" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="400" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="401" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="402" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="403" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="404" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="405" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="406" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="407" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="408" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="409" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="410" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="411" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="412" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="413" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="414" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="415" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="416" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="417" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="418" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="419" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="420" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="421" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="422" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="423" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="424" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="425" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="426" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="427" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="428" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="429" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="430" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="431" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="432" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="433" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="434" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="435" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="436" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="437" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="438" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="439" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="440" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="441" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="442" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="443" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="444" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="445" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="446" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="447" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="448" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="449" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="450" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="451" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="452" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="453" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="454" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="455" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="456" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="457" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="458" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="459" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="460" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="461" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="462" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="463" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="464" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="465" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="466" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="467" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="468" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="469" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="470" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="471" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="472" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="473" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="474" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="475" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="476" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="477" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="478" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="479" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="480" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="481" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="482" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="483" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="484" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="485" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="486" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="487" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="488" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="489" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="490" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="491" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="492" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="493" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="494" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="495" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="496" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="497" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="498" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="499" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="500" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="501" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="502" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="503" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="504" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="505" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="506" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="507" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="508" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="509" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="510" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="511" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="512" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="513" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="514" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="515" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="516" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="517" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="518" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="519" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="520" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="521" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="522" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="523" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="524" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="525" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="526" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="527" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="528" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="529" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="530" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="531" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="532" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="533" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="534" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="535" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="536" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="537" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="538" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="539" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="540" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="541" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="542" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="543" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="544" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="545" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="546" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="547" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="548" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="549" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="550" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="551" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="552" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="553" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="554" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="555" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="556" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="557" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="558" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="559" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="560" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="561" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="562" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="563" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="564" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="565" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="566" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="567" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="568" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="569" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="570" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="571" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="572" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="573" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="574" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="575" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="576" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="577" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="578" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="579" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="580" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="581" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="582" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="583" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="584" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="585" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="586" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="587" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="588" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="589" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="590" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="591" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="592" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="593" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="594" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="595" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="596" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="597" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="598" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="599" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="600" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="601" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="602" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="603" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="604" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="605" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="606" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="607" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="608" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="609" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="610" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="611" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="612" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="613" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="614" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="615" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="616" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="617" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="618" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="619" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="620" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="621" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="622" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="623" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="624" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="625" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="626" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="627" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="628" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="629" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="630" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="631" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="632" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="633" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="634" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="635" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="636" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="637" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="638" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="639" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="640" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="641" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="642" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="643" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="644" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="645" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="646" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="647" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="648" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="649" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="650" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="651" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="652" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="653" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="654" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="655" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="656" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="657" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="658" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="659" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="660" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="661" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="662" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="663" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="664" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="665" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="666" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="667" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="668" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="669" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="670" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="671" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="672" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="673" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="674" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="675" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="676" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="677" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="678" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="679" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="680" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="681" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="682" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="683" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="684" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="685" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="686" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="687" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="688" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="689" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="690" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="691" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="692" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="693" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="694" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="695" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="696" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="697" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="698" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="699" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="700" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="701" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="702" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="703" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="704" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="705" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="706" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="707" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="708" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="709" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="710" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="711" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="712" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="713" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="714" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="715" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="716" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="717" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="718" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="719" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="720" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="721" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="722" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="723" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="724" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="725" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="726" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="727" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="728" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="729" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="730" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="731" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="732" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="733" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="734" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="735" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="736" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="737" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="738" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="739" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="740" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="741" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="742" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="743" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="744" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="745" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="746" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="747" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="748" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="749" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="750" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="751" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="752" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="753" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="754" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="755" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="756" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="757" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="758" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="759" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="760" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="761" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="762" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="763" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="764" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="765" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="766" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="767" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="768" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="769" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="770" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="771" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="772" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="773" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/src/test/resources/testData/XAlpha.xlsx
+++ b/src/test/resources/testData/XAlpha.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D6D8146-8408-43A2-A2BF-91AAC30C249E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC580A98-3E40-4A8C-A299-2695365A7B7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="644" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="644" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="XAlphaLogin" sheetId="9" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="112">
   <si>
     <t>Username</t>
   </si>
@@ -332,6 +332,27 @@
   </si>
   <si>
     <t>QA_TestCase_Auto_XAlpha_062</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_XAlpha_008</t>
+  </si>
+  <si>
+    <t>ValidationMsg</t>
+  </si>
+  <si>
+    <t>FX Spot deal is settled, but base is not settled</t>
+  </si>
+  <si>
+    <t>processing status should be 'pending' or 'confirmed'</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_XAlpha_011</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_XAlpha_012</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_XAlpha_013</t>
   </si>
 </sst>
 </file>
@@ -831,17 +852,17 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.5703125" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" customWidth="1"/>
-    <col min="3" max="3" width="21.28515625" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" customWidth="1"/>
+    <col min="1" max="1" width="29.54296875" customWidth="1"/>
+    <col min="2" max="2" width="14.1796875" customWidth="1"/>
+    <col min="3" max="3" width="21.26953125" customWidth="1"/>
+    <col min="4" max="4" width="18.453125" customWidth="1"/>
+    <col min="5" max="5" width="16.1796875" customWidth="1"/>
+    <col min="6" max="6" width="15.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -861,7 +882,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -879,7 +900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -897,7 +918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -915,7 +936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>42</v>
       </c>
@@ -933,7 +954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>43</v>
       </c>
@@ -962,41 +983,42 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E763A6C0-A0DE-42F1-A4CC-B0EEDE6F7213}">
-  <dimension ref="A1:W1048567"/>
+  <dimension ref="A1:X1048571"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V2" sqref="V2:W2"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="T1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="U16" sqref="U16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.85546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" style="10"/>
-    <col min="3" max="3" width="9.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.81640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7265625" style="10"/>
+    <col min="3" max="3" width="9.1796875" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.81640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.453125" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.1796875" style="11" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17" style="11" customWidth="1"/>
-    <col min="8" max="8" width="18.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="11" customWidth="1"/>
-    <col min="10" max="11" width="18.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.42578125" style="11" customWidth="1"/>
-    <col min="13" max="13" width="18.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="22.28515625" style="11" customWidth="1"/>
+    <col min="8" max="8" width="18.81640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.7265625" style="11" customWidth="1"/>
+    <col min="10" max="11" width="18.81640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.453125" style="11" customWidth="1"/>
+    <col min="13" max="13" width="18.81640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.453125" style="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.1796875" style="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.26953125" style="11" customWidth="1"/>
     <col min="17" max="17" width="27" style="11" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.81640625" style="11" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="25" style="11" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="23.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="17" style="11" customWidth="1"/>
-    <col min="23" max="23" width="8.7109375" style="11"/>
-    <col min="24" max="16384" width="8.7109375" style="10"/>
+    <col min="20" max="20" width="14.7265625" style="11" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="23.453125" style="11" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="44.7265625" style="11" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="17" style="11" customWidth="1"/>
+    <col min="24" max="24" width="8.7265625" style="11"/>
+    <col min="25" max="16384" width="8.7265625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
@@ -1061,13 +1083,16 @@
         <v>38</v>
       </c>
       <c r="V1" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="W1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="W1" s="6" t="s">
+      <c r="X1" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>30</v>
       </c>
@@ -1112,11 +1137,12 @@
       </c>
       <c r="U2" s="9"/>
       <c r="V2" s="7"/>
-      <c r="W2" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W2" s="7"/>
+      <c r="X2" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>31</v>
       </c>
@@ -1161,11 +1187,12 @@
       </c>
       <c r="U3" s="9"/>
       <c r="V3" s="7"/>
-      <c r="W3" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W3" s="7"/>
+      <c r="X3" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>32</v>
       </c>
@@ -1209,12 +1236,15 @@
         <v>29</v>
       </c>
       <c r="U4" s="9"/>
-      <c r="V4" s="7"/>
-      <c r="W4" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V4" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="W4" s="7"/>
+      <c r="X4" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>33</v>
       </c>
@@ -1258,20 +1288,23 @@
         <v>34</v>
       </c>
       <c r="U5" s="9"/>
-      <c r="V5" s="7"/>
-      <c r="W5" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V5" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="W5" s="7"/>
+      <c r="X5" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
-        <v>35</v>
+        <v>105</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>26</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="7">
@@ -1304,17 +1337,20 @@
       </c>
       <c r="S6" s="9"/>
       <c r="T6" s="7" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="U6" s="9"/>
-      <c r="V6" s="7"/>
-      <c r="W6" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V6" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="W6" s="7"/>
+      <c r="X6" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>26</v>
@@ -1353,17 +1389,18 @@
       </c>
       <c r="S7" s="9"/>
       <c r="T7" s="7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="U7" s="9"/>
       <c r="V7" s="7"/>
-      <c r="W7" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W7" s="7"/>
+      <c r="X7" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>26</v>
@@ -1402,19 +1439,18 @@
       </c>
       <c r="S8" s="9"/>
       <c r="T8" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="U8" s="9" t="s">
-        <v>29</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="U8" s="9"/>
       <c r="V8" s="7"/>
-      <c r="W8" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W8" s="7"/>
+      <c r="X8" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
-        <v>39</v>
+        <v>109</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>26</v>
@@ -1453,19 +1489,20 @@
       </c>
       <c r="S9" s="9"/>
       <c r="T9" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="U9" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="V9" s="7"/>
-      <c r="W9" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U9" s="9"/>
+      <c r="V9" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="W9" s="7"/>
+      <c r="X9" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>26</v>
@@ -1504,19 +1541,20 @@
       </c>
       <c r="S10" s="9"/>
       <c r="T10" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="U10" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="V10" s="7"/>
-      <c r="W10" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="U10" s="9"/>
+      <c r="V10" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="W10" s="7"/>
+      <c r="X10" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
-        <v>41</v>
+        <v>111</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>26</v>
@@ -1555,19 +1593,20 @@
       </c>
       <c r="S11" s="9"/>
       <c r="T11" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="U11" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="V11" s="7"/>
-      <c r="W11" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="U11" s="9"/>
+      <c r="V11" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="W11" s="7"/>
+      <c r="X11" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>26</v>
@@ -1606,19 +1645,20 @@
       </c>
       <c r="S12" s="9"/>
       <c r="T12" s="7" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="U12" s="9" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="V12" s="7"/>
-      <c r="W12" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W12" s="7"/>
+      <c r="X12" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>26</v>
@@ -1660,16 +1700,17 @@
         <v>28</v>
       </c>
       <c r="U13" s="9" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="V13" s="7"/>
-      <c r="W13" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W13" s="7"/>
+      <c r="X13" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>26</v>
@@ -1708,19 +1749,20 @@
       </c>
       <c r="S14" s="9"/>
       <c r="T14" s="7" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="U14" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="V14" s="7"/>
-      <c r="W14" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W14" s="7"/>
+      <c r="X14" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>26</v>
@@ -1762,16 +1804,17 @@
         <v>29</v>
       </c>
       <c r="U15" s="9" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="V15" s="7"/>
-      <c r="W15" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W15" s="7"/>
+      <c r="X15" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>26</v>
@@ -1813,16 +1856,17 @@
         <v>34</v>
       </c>
       <c r="U16" s="9" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="V16" s="7"/>
-      <c r="W16" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W16" s="7"/>
+      <c r="X16" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>26</v>
@@ -1864,16 +1908,17 @@
         <v>28</v>
       </c>
       <c r="U17" s="9" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="V17" s="7"/>
-      <c r="W17" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W17" s="7"/>
+      <c r="X17" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>26</v>
@@ -1915,16 +1960,17 @@
         <v>24</v>
       </c>
       <c r="U18" s="9" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="V18" s="7"/>
-      <c r="W18" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W18" s="7"/>
+      <c r="X18" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>26</v>
@@ -1966,16 +2012,17 @@
         <v>29</v>
       </c>
       <c r="U19" s="9" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="V19" s="7"/>
-      <c r="W19" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W19" s="7"/>
+      <c r="X19" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>26</v>
@@ -2014,19 +2061,20 @@
       </c>
       <c r="S20" s="9"/>
       <c r="T20" s="7" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="U20" s="9" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="V20" s="7"/>
-      <c r="W20" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W20" s="7"/>
+      <c r="X20" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>26</v>
@@ -2068,16 +2116,17 @@
         <v>28</v>
       </c>
       <c r="U21" s="9" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="V21" s="7"/>
-      <c r="W21" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W21" s="7"/>
+      <c r="X21" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>26</v>
@@ -2116,19 +2165,20 @@
       </c>
       <c r="S22" s="9"/>
       <c r="T22" s="7" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="U22" s="9" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="V22" s="7"/>
-      <c r="W22" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W22" s="7"/>
+      <c r="X22" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>26</v>
@@ -2167,377 +2217,498 @@
       </c>
       <c r="S23" s="9"/>
       <c r="T23" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="U23" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="U23" s="9" t="s">
-        <v>54</v>
-      </c>
       <c r="V23" s="7"/>
-      <c r="W23" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W23" s="7"/>
+      <c r="X23" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>26</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" s="9" t="s">
         <v>36</v>
       </c>
+      <c r="D24" s="9"/>
       <c r="E24" s="7">
         <v>1</v>
       </c>
-      <c r="F24" s="9">
-        <v>2</v>
-      </c>
+      <c r="F24" s="9"/>
       <c r="G24" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="H24" s="9" t="s">
-        <v>65</v>
-      </c>
+      <c r="H24" s="9"/>
       <c r="I24" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="J24" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="K24" s="9">
-        <v>31638.25</v>
-      </c>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
       <c r="L24" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="M24" s="9" t="s">
-        <v>68</v>
-      </c>
+      <c r="M24" s="9"/>
       <c r="N24" s="7">
         <v>1</v>
       </c>
-      <c r="O24" s="9">
-        <v>2</v>
-      </c>
+      <c r="O24" s="9"/>
       <c r="P24" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="Q24" s="9" t="s">
-        <v>69</v>
-      </c>
+      <c r="Q24" s="9"/>
       <c r="R24" s="7">
         <v>8000</v>
       </c>
-      <c r="S24" s="9">
-        <v>8002</v>
-      </c>
+      <c r="S24" s="9"/>
       <c r="T24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="U24" s="9"/>
+        <v>24</v>
+      </c>
+      <c r="U24" s="9" t="s">
+        <v>54</v>
+      </c>
       <c r="V24" s="7"/>
-      <c r="W24" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W24" s="7"/>
+      <c r="X24" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>26</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>27</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="D25" s="9"/>
       <c r="E25" s="7">
         <v>1</v>
       </c>
-      <c r="F25" s="9">
-        <v>3</v>
-      </c>
+      <c r="F25" s="9"/>
       <c r="G25" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="H25" s="9" t="s">
-        <v>65</v>
-      </c>
+      <c r="H25" s="9"/>
       <c r="I25" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="J25" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="K25" s="9">
-        <v>31700.25</v>
-      </c>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
       <c r="L25" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="M25" s="9" t="s">
-        <v>68</v>
-      </c>
+      <c r="M25" s="9"/>
       <c r="N25" s="7">
         <v>1</v>
       </c>
-      <c r="O25" s="9">
-        <v>3</v>
-      </c>
+      <c r="O25" s="9"/>
       <c r="P25" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="Q25" s="9" t="s">
-        <v>69</v>
-      </c>
+      <c r="Q25" s="9"/>
       <c r="R25" s="7">
         <v>8000</v>
       </c>
-      <c r="S25" s="9">
-        <v>8002</v>
-      </c>
+      <c r="S25" s="9"/>
       <c r="T25" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="U25" s="9"/>
+        <v>28</v>
+      </c>
+      <c r="U25" s="9" t="s">
+        <v>54</v>
+      </c>
       <c r="V25" s="7"/>
-      <c r="W25" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W25" s="7"/>
+      <c r="X25" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>26</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>27</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="D26" s="9"/>
       <c r="E26" s="7">
         <v>1</v>
       </c>
-      <c r="F26" s="9">
-        <v>3</v>
-      </c>
+      <c r="F26" s="9"/>
       <c r="G26" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="H26" s="9" t="s">
-        <v>65</v>
-      </c>
+      <c r="H26" s="9"/>
       <c r="I26" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="J26" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="K26" s="9">
-        <v>31700.25</v>
-      </c>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
       <c r="L26" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="M26" s="9" t="s">
-        <v>68</v>
-      </c>
+      <c r="M26" s="9"/>
       <c r="N26" s="7">
         <v>1</v>
       </c>
-      <c r="O26" s="9">
-        <v>3</v>
-      </c>
+      <c r="O26" s="9"/>
       <c r="P26" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="Q26" s="9" t="s">
-        <v>69</v>
-      </c>
+      <c r="Q26" s="9"/>
       <c r="R26" s="7">
         <v>8000</v>
       </c>
-      <c r="S26" s="9">
-        <v>8002</v>
-      </c>
+      <c r="S26" s="9"/>
       <c r="T26" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="U26" s="9"/>
+      <c r="U26" s="9" t="s">
+        <v>54</v>
+      </c>
       <c r="V26" s="7"/>
-      <c r="W26" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W26" s="7"/>
+      <c r="X26" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>26</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>27</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="D27" s="9"/>
       <c r="E27" s="7">
         <v>1</v>
       </c>
-      <c r="F27" s="9">
-        <v>3</v>
-      </c>
+      <c r="F27" s="9"/>
       <c r="G27" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="H27" s="9" t="s">
-        <v>65</v>
-      </c>
+      <c r="H27" s="9"/>
       <c r="I27" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="J27" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="K27" s="9">
-        <v>31700.25</v>
-      </c>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
       <c r="L27" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="M27" s="9" t="s">
-        <v>68</v>
-      </c>
+      <c r="M27" s="9"/>
       <c r="N27" s="7">
         <v>1</v>
       </c>
-      <c r="O27" s="9">
-        <v>3</v>
-      </c>
+      <c r="O27" s="9"/>
       <c r="P27" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="Q27" s="9" t="s">
-        <v>69</v>
-      </c>
+      <c r="Q27" s="9"/>
       <c r="R27" s="7">
         <v>8000</v>
       </c>
-      <c r="S27" s="9">
-        <v>8002</v>
-      </c>
+      <c r="S27" s="9"/>
       <c r="T27" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="U27" s="9"/>
+      <c r="U27" s="9" t="s">
+        <v>54</v>
+      </c>
       <c r="V27" s="7"/>
-      <c r="W27" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="10"/>
-      <c r="O28" s="10"/>
-      <c r="P28" s="10"/>
-      <c r="Q28" s="10"/>
-      <c r="R28" s="10"/>
-      <c r="S28" s="10"/>
-      <c r="T28" s="10"/>
-      <c r="U28" s="10"/>
-      <c r="V28" s="10"/>
-      <c r="W28" s="10"/>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="10"/>
-      <c r="M29" s="10"/>
-      <c r="N29" s="10"/>
-      <c r="O29" s="10"/>
-      <c r="P29" s="10"/>
-      <c r="Q29" s="10"/>
-      <c r="R29" s="10"/>
-      <c r="S29" s="10"/>
-      <c r="T29" s="10"/>
-      <c r="U29" s="10"/>
-      <c r="V29" s="10"/>
-      <c r="W29" s="10"/>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="10"/>
-      <c r="L30" s="10"/>
-      <c r="M30" s="10"/>
-      <c r="N30" s="10"/>
-      <c r="O30" s="10"/>
-      <c r="P30" s="10"/>
-      <c r="Q30" s="10"/>
-      <c r="R30" s="10"/>
-      <c r="S30" s="10"/>
-      <c r="T30" s="10"/>
-      <c r="U30" s="10"/>
-      <c r="V30" s="10"/>
-      <c r="W30" s="10"/>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="10"/>
-      <c r="K31" s="10"/>
-      <c r="L31" s="10"/>
-      <c r="M31" s="10"/>
-      <c r="N31" s="10"/>
-      <c r="O31" s="10"/>
-      <c r="P31" s="10"/>
-      <c r="Q31" s="10"/>
-      <c r="R31" s="10"/>
-      <c r="S31" s="10"/>
-      <c r="T31" s="10"/>
-      <c r="U31" s="10"/>
-      <c r="V31" s="10"/>
-      <c r="W31" s="10"/>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W27" s="7"/>
+      <c r="X27" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E28" s="7">
+        <v>1</v>
+      </c>
+      <c r="F28" s="9">
+        <v>2</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="J28" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="K28" s="9">
+        <v>31638.25</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="M28" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="N28" s="7">
+        <v>1</v>
+      </c>
+      <c r="O28" s="9">
+        <v>2</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q28" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="R28" s="7">
+        <v>8000</v>
+      </c>
+      <c r="S28" s="9">
+        <v>8002</v>
+      </c>
+      <c r="T28" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="U28" s="9"/>
+      <c r="V28" s="7"/>
+      <c r="W28" s="7"/>
+      <c r="X28" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29" s="7">
+        <v>1</v>
+      </c>
+      <c r="F29" s="9">
+        <v>3</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="J29" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="K29" s="9">
+        <v>31700.25</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="M29" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="N29" s="7">
+        <v>1</v>
+      </c>
+      <c r="O29" s="9">
+        <v>3</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q29" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="R29" s="7">
+        <v>8000</v>
+      </c>
+      <c r="S29" s="9">
+        <v>8002</v>
+      </c>
+      <c r="T29" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="U29" s="9"/>
+      <c r="V29" s="7"/>
+      <c r="W29" s="7"/>
+      <c r="X29" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" s="7">
+        <v>1</v>
+      </c>
+      <c r="F30" s="9">
+        <v>3</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="J30" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="K30" s="9">
+        <v>31700.25</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="M30" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="N30" s="7">
+        <v>1</v>
+      </c>
+      <c r="O30" s="9">
+        <v>3</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q30" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="R30" s="7">
+        <v>8000</v>
+      </c>
+      <c r="S30" s="9">
+        <v>8002</v>
+      </c>
+      <c r="T30" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="U30" s="9"/>
+      <c r="V30" s="7"/>
+      <c r="W30" s="7"/>
+      <c r="X30" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31" s="7">
+        <v>1</v>
+      </c>
+      <c r="F31" s="9">
+        <v>3</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="J31" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="K31" s="9">
+        <v>31700.25</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="M31" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="N31" s="7">
+        <v>1</v>
+      </c>
+      <c r="O31" s="9">
+        <v>3</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q31" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="R31" s="7">
+        <v>8000</v>
+      </c>
+      <c r="S31" s="9">
+        <v>8002</v>
+      </c>
+      <c r="T31" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="U31" s="9"/>
+      <c r="V31" s="7"/>
+      <c r="W31" s="7"/>
+      <c r="X31" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A32" s="10"/>
       <c r="D32" s="10"/>
       <c r="E32" s="10"/>
@@ -2559,782 +2730,787 @@
       <c r="U32" s="10"/>
       <c r="V32" s="10"/>
       <c r="W32" s="10"/>
-    </row>
-    <row r="33" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="34" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="35" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="36" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="37" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="38" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="39" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="40" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="41" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="42" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="43" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="44" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="45" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="46" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="47" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="48" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="49" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="50" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="51" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="52" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="53" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="54" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="55" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="56" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="57" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="58" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="59" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="60" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="61" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="62" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="63" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="64" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="65" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="66" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="67" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="68" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="69" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="70" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="71" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="72" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="73" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="74" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="75" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="76" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="77" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="78" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="79" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="80" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="81" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="82" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="83" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="84" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="85" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="86" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="87" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="88" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="89" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="90" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="91" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="92" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="93" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="94" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="95" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="96" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="97" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="98" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="99" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="100" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="101" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="102" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="103" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="104" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="105" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="106" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="107" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="108" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="109" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="110" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="111" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="112" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="113" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="114" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="115" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="116" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="117" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="118" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="119" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="120" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="121" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="122" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="123" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="124" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="125" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="126" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="127" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="128" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="129" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="130" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="131" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="132" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="133" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="134" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="135" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="136" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="137" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="138" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="139" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="140" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="141" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="142" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="143" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="144" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="145" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="146" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="147" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="148" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="149" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="150" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="151" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="152" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="153" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="154" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="155" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="156" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="157" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="158" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="159" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="160" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="161" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="162" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="163" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="164" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="165" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="166" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="167" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="168" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="169" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="170" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="171" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="172" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="173" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="174" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="175" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="176" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="177" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="178" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="179" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="180" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="181" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="182" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="183" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="184" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="185" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="186" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="187" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="188" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="189" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="190" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="191" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="192" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="193" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="194" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="195" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="196" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="197" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="198" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="199" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="200" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="201" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="202" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="203" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="204" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="205" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="206" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="207" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="208" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="209" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="210" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="211" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="212" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="213" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="214" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="215" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="216" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="217" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="218" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="219" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="220" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="221" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="222" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="223" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="224" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="225" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="226" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="227" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="228" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="229" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="230" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="231" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="232" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="233" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="234" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="235" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="236" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="237" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="238" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="239" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="240" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="241" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="242" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="243" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="244" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="245" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="246" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="247" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="248" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="249" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="250" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="251" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="252" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="253" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="254" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="255" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="256" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="257" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="258" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="259" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="260" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="261" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="262" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="263" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="264" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="265" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="266" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="267" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="268" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="269" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="270" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="271" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="272" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="273" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="274" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="275" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="276" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="277" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="278" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="279" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="280" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="281" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="282" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="283" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="284" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="285" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="286" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="287" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="288" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="289" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="290" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="291" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="292" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="293" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="294" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="295" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="296" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="297" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="298" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="299" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="300" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="301" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="302" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="303" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="304" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="305" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="306" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="307" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="308" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="309" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="310" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="311" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="312" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="313" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="314" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="315" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="316" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="317" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="318" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="319" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="320" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="321" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="322" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="323" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="324" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="325" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="326" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="327" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="328" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="329" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="330" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="331" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="332" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="333" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="334" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="335" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="336" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="337" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="338" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="339" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="340" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="341" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="342" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="343" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="344" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="345" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="346" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="347" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="348" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="349" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="350" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="351" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="352" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="353" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="354" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="355" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="356" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="357" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="358" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="359" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="360" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="361" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="362" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="363" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="364" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="365" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="366" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="367" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="368" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="369" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="370" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="371" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="372" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="373" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="374" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="375" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="376" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="377" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="378" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="379" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="380" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="381" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="382" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="383" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="384" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="385" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="386" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="387" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="388" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="389" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="390" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="391" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="392" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="393" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="394" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="395" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="396" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="397" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="398" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="399" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="400" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="401" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="402" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="403" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="404" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="405" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="406" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="407" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="408" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="409" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="410" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="411" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="412" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="413" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="414" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="415" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="416" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="417" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="418" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="419" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="420" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="421" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="422" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="423" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="424" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="425" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="426" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="427" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="428" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="429" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="430" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="431" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="432" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="433" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="434" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="435" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="436" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="437" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="438" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="439" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="440" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="441" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="442" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="443" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="444" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="445" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="446" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="447" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="448" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="449" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="450" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="451" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="452" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="453" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="454" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="455" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="456" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="457" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="458" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="459" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="460" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="461" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="462" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="463" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="464" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="465" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="466" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="467" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="468" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="469" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="470" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="471" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="472" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="473" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="474" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="475" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="476" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="477" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="478" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="479" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="480" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="481" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="482" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="483" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="484" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="485" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="486" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="487" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="488" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="489" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="490" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="491" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="492" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="493" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="494" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="495" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="496" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="497" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="498" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="499" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="500" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="501" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="502" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="503" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="504" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="505" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="506" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="507" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="508" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="509" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="510" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="511" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="512" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="513" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="514" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="515" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="516" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="517" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="518" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="519" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="520" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="521" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="522" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="523" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="524" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="525" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="526" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="527" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="528" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="529" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="530" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="531" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="532" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="533" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="534" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="535" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="536" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="537" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="538" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="539" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="540" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="541" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="542" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="543" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="544" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="545" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="546" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="547" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="548" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="549" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="550" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="551" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="552" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="553" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="554" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="555" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="556" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="557" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="558" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="559" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="560" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="561" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="562" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="563" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="564" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="565" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="566" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="567" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="568" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="569" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="570" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="571" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="572" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="573" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="574" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="575" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="576" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="577" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="578" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="579" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="580" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="581" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="582" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="583" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="584" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="585" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="586" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="587" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="588" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="589" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="590" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="591" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="592" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="593" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="594" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="595" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="596" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="597" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="598" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="599" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="600" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="601" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="602" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="603" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="604" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="605" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="606" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="607" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="608" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="609" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="610" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="611" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="612" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="613" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="614" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="615" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="616" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="617" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="618" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="619" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="620" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="621" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="622" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="623" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="624" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="625" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="626" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="627" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="628" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="629" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="630" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="631" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="632" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="633" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="634" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="635" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="636" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="637" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="638" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="639" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="640" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="641" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="642" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="643" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="644" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="645" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="646" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="647" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="648" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="649" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="650" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="651" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="652" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="653" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="654" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="655" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="656" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="657" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="658" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="659" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="660" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="661" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="662" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="663" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="664" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="665" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="666" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="667" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="668" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="669" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="670" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="671" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="672" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="673" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="674" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="675" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="676" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="677" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="678" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="679" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="680" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="681" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="682" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="683" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="684" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="685" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="686" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="687" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="688" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="689" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="690" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="691" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="692" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="693" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="694" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="695" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="696" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="697" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="698" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="699" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="700" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="701" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="702" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="703" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="704" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="705" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="706" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="707" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="708" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="709" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="710" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="711" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="712" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="713" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="714" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="715" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="716" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="717" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="718" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="719" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="720" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="721" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="722" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="723" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="724" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="725" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="726" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="727" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="728" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="729" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="730" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="731" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="732" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="733" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="734" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="735" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="736" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="737" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="738" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="739" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="740" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="741" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="742" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="743" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="744" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="745" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="746" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="747" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="748" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="749" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="750" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="751" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="752" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="753" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="754" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="755" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="756" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="757" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="758" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="759" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="760" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="761" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="762" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="763" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="764" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="765" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="766" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="767" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="768" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="769" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="770" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="771" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="772" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="773" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="774" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="775" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="776" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="777" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="778" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="779" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="780" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="781" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="782" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="783" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="784" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="785" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="786" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="787" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="788" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="789" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="790" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="791" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="792" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="793" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="794" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="795" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="796" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="797" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="798" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="799" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="800" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="801" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="802" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="1048564" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D1048564" s="13"/>
-    </row>
-    <row r="1048567" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D1048567" s="13"/>
+      <c r="X32" s="10"/>
+    </row>
+    <row r="33" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="34" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="35" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="36" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="37" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="38" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="39" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="40" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="41" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="42" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="43" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="44" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="45" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="46" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="47" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="48" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="49" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="50" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="51" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="52" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="53" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="54" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="55" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="56" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="57" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="58" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="59" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="60" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="61" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="62" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="63" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="64" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="65" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="66" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="67" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="68" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="69" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="70" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="71" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="72" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="73" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="74" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="75" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="76" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="77" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="78" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="79" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="80" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="81" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="82" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="83" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="84" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="85" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="86" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="87" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="88" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="89" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="90" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="91" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="92" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="93" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="94" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="95" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="96" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="97" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="98" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="99" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="100" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="101" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="102" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="103" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="104" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="105" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="106" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="107" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="108" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="109" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="110" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="111" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="112" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="113" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="114" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="115" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="116" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="117" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="118" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="119" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="120" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="121" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="122" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="123" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="124" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="125" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="126" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="127" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="128" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="129" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="130" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="131" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="132" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="133" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="134" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="135" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="136" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="137" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="138" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="139" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="140" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="141" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="142" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="143" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="144" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="145" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="146" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="147" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="148" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="149" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="150" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="151" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="152" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="153" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="154" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="155" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="156" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="157" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="158" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="159" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="160" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="161" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="162" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="163" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="164" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="165" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="166" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="167" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="168" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="169" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="170" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="171" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="172" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="173" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="174" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="175" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="176" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="177" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="178" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="179" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="180" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="181" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="182" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="183" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="184" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="185" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="186" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="187" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="188" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="189" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="190" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="191" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="192" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="193" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="194" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="195" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="196" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="197" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="198" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="199" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="200" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="201" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="202" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="203" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="204" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="205" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="206" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="207" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="208" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="209" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="210" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="211" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="212" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="213" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="214" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="215" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="216" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="217" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="218" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="219" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="220" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="221" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="222" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="223" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="224" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="225" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="226" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="227" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="228" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="229" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="230" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="231" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="232" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="233" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="234" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="235" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="236" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="237" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="238" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="239" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="240" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="241" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="242" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="243" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="244" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="245" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="246" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="247" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="248" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="249" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="250" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="251" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="252" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="253" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="254" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="255" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="256" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="257" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="258" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="259" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="260" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="261" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="262" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="263" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="264" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="265" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="266" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="267" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="268" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="269" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="270" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="271" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="272" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="273" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="274" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="275" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="276" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="277" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="278" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="279" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="280" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="281" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="282" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="283" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="284" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="285" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="286" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="287" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="288" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="289" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="290" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="291" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="292" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="293" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="294" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="295" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="296" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="297" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="298" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="299" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="300" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="301" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="302" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="303" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="304" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="305" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="306" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="307" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="308" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="309" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="310" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="311" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="312" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="313" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="314" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="315" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="316" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="317" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="318" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="319" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="320" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="321" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="322" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="323" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="324" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="325" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="326" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="327" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="328" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="329" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="330" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="331" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="332" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="333" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="334" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="335" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="336" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="337" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="338" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="339" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="340" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="341" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="342" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="343" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="344" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="345" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="346" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="347" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="348" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="349" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="350" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="351" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="352" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="353" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="354" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="355" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="356" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="357" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="358" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="359" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="360" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="361" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="362" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="363" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="364" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="365" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="366" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="367" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="368" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="369" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="370" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="371" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="372" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="373" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="374" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="375" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="376" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="377" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="378" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="379" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="380" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="381" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="382" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="383" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="384" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="385" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="386" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="387" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="388" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="389" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="390" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="391" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="392" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="393" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="394" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="395" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="396" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="397" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="398" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="399" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="400" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="401" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="402" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="403" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="404" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="405" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="406" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="407" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="408" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="409" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="410" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="411" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="412" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="413" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="414" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="415" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="416" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="417" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="418" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="419" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="420" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="421" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="422" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="423" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="424" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="425" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="426" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="427" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="428" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="429" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="430" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="431" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="432" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="433" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="434" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="435" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="436" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="437" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="438" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="439" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="440" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="441" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="442" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="443" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="444" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="445" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="446" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="447" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="448" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="449" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="450" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="451" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="452" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="453" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="454" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="455" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="456" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="457" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="458" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="459" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="460" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="461" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="462" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="463" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="464" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="465" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="466" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="467" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="468" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="469" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="470" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="471" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="472" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="473" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="474" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="475" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="476" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="477" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="478" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="479" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="480" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="481" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="482" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="483" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="484" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="485" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="486" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="487" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="488" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="489" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="490" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="491" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="492" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="493" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="494" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="495" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="496" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="497" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="498" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="499" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="500" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="501" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="502" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="503" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="504" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="505" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="506" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="507" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="508" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="509" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="510" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="511" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="512" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="513" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="514" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="515" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="516" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="517" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="518" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="519" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="520" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="521" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="522" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="523" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="524" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="525" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="526" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="527" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="528" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="529" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="530" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="531" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="532" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="533" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="534" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="535" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="536" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="537" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="538" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="539" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="540" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="541" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="542" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="543" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="544" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="545" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="546" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="547" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="548" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="549" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="550" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="551" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="552" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="553" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="554" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="555" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="556" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="557" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="558" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="559" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="560" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="561" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="562" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="563" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="564" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="565" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="566" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="567" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="568" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="569" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="570" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="571" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="572" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="573" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="574" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="575" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="576" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="577" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="578" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="579" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="580" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="581" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="582" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="583" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="584" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="585" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="586" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="587" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="588" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="589" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="590" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="591" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="592" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="593" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="594" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="595" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="596" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="597" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="598" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="599" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="600" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="601" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="602" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="603" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="604" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="605" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="606" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="607" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="608" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="609" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="610" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="611" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="612" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="613" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="614" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="615" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="616" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="617" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="618" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="619" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="620" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="621" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="622" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="623" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="624" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="625" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="626" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="627" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="628" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="629" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="630" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="631" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="632" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="633" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="634" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="635" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="636" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="637" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="638" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="639" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="640" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="641" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="642" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="643" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="644" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="645" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="646" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="647" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="648" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="649" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="650" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="651" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="652" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="653" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="654" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="655" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="656" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="657" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="658" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="659" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="660" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="661" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="662" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="663" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="664" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="665" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="666" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="667" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="668" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="669" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="670" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="671" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="672" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="673" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="674" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="675" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="676" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="677" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="678" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="679" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="680" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="681" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="682" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="683" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="684" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="685" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="686" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="687" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="688" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="689" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="690" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="691" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="692" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="693" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="694" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="695" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="696" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="697" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="698" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="699" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="700" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="701" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="702" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="703" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="704" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="705" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="706" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="707" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="708" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="709" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="710" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="711" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="712" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="713" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="714" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="715" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="716" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="717" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="718" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="719" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="720" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="721" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="722" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="723" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="724" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="725" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="726" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="727" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="728" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="729" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="730" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="731" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="732" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="733" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="734" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="735" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="736" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="737" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="738" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="739" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="740" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="741" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="742" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="743" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="744" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="745" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="746" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="747" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="748" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="749" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="750" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="751" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="752" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="753" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="754" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="755" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="756" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="757" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="758" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="759" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="760" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="761" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="762" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="763" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="764" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="765" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="766" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="767" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="768" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="769" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="770" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="771" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="772" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="773" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="774" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="775" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="776" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="777" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="778" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="779" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="780" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="781" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="782" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="783" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="784" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="785" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="786" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="787" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="788" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="789" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="790" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="791" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="792" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="793" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="794" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="795" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="796" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="797" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="798" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="799" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="800" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="801" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="802" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="803" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="804" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="805" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="806" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="1048568" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1048568" s="13"/>
+    </row>
+    <row r="1048571" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1048571" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3347,32 +3523,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45AAE02B-1ED2-44CD-BC76-39A59421CF46}">
   <dimension ref="A1:Q773"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.85546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.81640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7265625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.453125" style="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" style="11" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" style="11" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="16.42578125" style="11" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="24.42578125" style="11" customWidth="1"/>
-    <col min="12" max="12" width="22.28515625" style="11" customWidth="1"/>
-    <col min="13" max="13" width="16.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7265625" style="11" customWidth="1"/>
+    <col min="6" max="6" width="15.453125" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="16.453125" style="11" customWidth="1"/>
+    <col min="9" max="9" width="11.453125" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="24.453125" style="11" customWidth="1"/>
+    <col min="12" max="12" width="22.26953125" style="11" customWidth="1"/>
+    <col min="13" max="13" width="16.26953125" style="11" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="16" style="11" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="21" style="11" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="17" style="11" customWidth="1"/>
-    <col min="17" max="17" width="8.7109375" style="11"/>
-    <col min="18" max="16384" width="8.7109375" style="10"/>
+    <col min="17" max="17" width="8.7265625" style="11"/>
+    <col min="18" max="16384" width="8.7265625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
         <v>2</v>
       </c>
@@ -3425,7 +3601,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
         <v>76</v>
       </c>
@@ -3472,7 +3648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="14" t="s">
         <v>84</v>
       </c>
@@ -3519,7 +3695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="14" t="s">
         <v>87</v>
       </c>
@@ -3550,7 +3726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="14" t="s">
         <v>88</v>
       </c>
@@ -3581,7 +3757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="14" t="s">
         <v>91</v>
       </c>
@@ -3612,7 +3788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="14" t="s">
         <v>92</v>
       </c>
@@ -3643,7 +3819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="14" t="s">
         <v>93</v>
       </c>
@@ -3674,7 +3850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="14" t="s">
         <v>94</v>
       </c>
@@ -3705,7 +3881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="14" t="s">
         <v>95</v>
       </c>
@@ -3736,7 +3912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="14" t="s">
         <v>96</v>
       </c>
@@ -3767,7 +3943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="14" t="s">
         <v>98</v>
       </c>
@@ -3798,7 +3974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="14" t="s">
         <v>99</v>
       </c>
@@ -3829,7 +4005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="14" t="s">
         <v>97</v>
       </c>
@@ -3860,7 +4036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="14" t="s">
         <v>100</v>
       </c>
@@ -3891,7 +4067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="14" t="s">
         <v>101</v>
       </c>
@@ -3922,7 +4098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="14" t="s">
         <v>102</v>
       </c>
@@ -3953,7 +4129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="14" t="s">
         <v>103</v>
       </c>
@@ -3984,7 +4160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="14" t="s">
         <v>104</v>
       </c>
@@ -4015,7 +4191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A20" s="10"/>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
@@ -4033,7 +4209,7 @@
       <c r="P20" s="10"/>
       <c r="Q20" s="10"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A21" s="10"/>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
@@ -4051,7 +4227,7 @@
       <c r="P21" s="10"/>
       <c r="Q21" s="10"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A22" s="10"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
@@ -4069,7 +4245,7 @@
       <c r="P22" s="10"/>
       <c r="Q22" s="10"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A23" s="10"/>
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
@@ -4087,7 +4263,7 @@
       <c r="P23" s="10"/>
       <c r="Q23" s="10"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A24" s="10"/>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
@@ -4105,7 +4281,7 @@
       <c r="P24" s="10"/>
       <c r="Q24" s="10"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A25" s="10"/>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
@@ -4123,7 +4299,7 @@
       <c r="P25" s="10"/>
       <c r="Q25" s="10"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A26" s="10"/>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
@@ -4141,7 +4317,7 @@
       <c r="P26" s="10"/>
       <c r="Q26" s="10"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A27" s="10"/>
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
@@ -4159,7 +4335,7 @@
       <c r="P27" s="10"/>
       <c r="Q27" s="10"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A28" s="10"/>
       <c r="C28" s="10"/>
       <c r="D28" s="10"/>
@@ -4177,7 +4353,7 @@
       <c r="P28" s="10"/>
       <c r="Q28" s="10"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A29" s="10"/>
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
@@ -4195,7 +4371,7 @@
       <c r="P29" s="10"/>
       <c r="Q29" s="10"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A30" s="10"/>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
@@ -4213,7 +4389,7 @@
       <c r="P30" s="10"/>
       <c r="Q30" s="10"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A31" s="10"/>
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
@@ -4231,7 +4407,7 @@
       <c r="P31" s="10"/>
       <c r="Q31" s="10"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A32" s="10"/>
       <c r="C32" s="10"/>
       <c r="D32" s="10"/>
@@ -4249,747 +4425,747 @@
       <c r="P32" s="10"/>
       <c r="Q32" s="10"/>
     </row>
-    <row r="33" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="34" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="35" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="36" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="37" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="38" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="39" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="40" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="41" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="42" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="43" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="44" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="45" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="46" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="47" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="48" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="49" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="50" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="51" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="52" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="53" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="54" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="55" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="56" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="57" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="58" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="59" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="60" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="61" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="62" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="63" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="64" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="65" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="66" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="67" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="68" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="69" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="70" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="71" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="72" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="73" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="74" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="75" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="76" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="77" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="78" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="79" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="80" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="81" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="82" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="83" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="84" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="85" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="86" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="87" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="88" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="89" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="90" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="91" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="92" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="93" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="94" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="95" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="96" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="97" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="98" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="99" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="100" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="101" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="102" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="103" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="104" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="105" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="106" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="107" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="108" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="109" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="110" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="111" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="112" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="113" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="114" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="115" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="116" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="117" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="118" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="119" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="120" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="121" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="122" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="123" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="124" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="125" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="126" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="127" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="128" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="129" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="130" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="131" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="132" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="133" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="134" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="135" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="136" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="137" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="138" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="139" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="140" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="141" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="142" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="143" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="144" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="145" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="146" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="147" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="148" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="149" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="150" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="151" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="152" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="153" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="154" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="155" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="156" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="157" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="158" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="159" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="160" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="161" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="162" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="163" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="164" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="165" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="166" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="167" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="168" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="169" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="170" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="171" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="172" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="173" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="174" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="175" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="176" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="177" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="178" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="179" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="180" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="181" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="182" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="183" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="184" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="185" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="186" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="187" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="188" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="189" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="190" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="191" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="192" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="193" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="194" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="195" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="196" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="197" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="198" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="199" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="200" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="201" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="202" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="203" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="204" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="205" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="206" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="207" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="208" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="209" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="210" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="211" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="212" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="213" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="214" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="215" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="216" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="217" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="218" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="219" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="220" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="221" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="222" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="223" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="224" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="225" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="226" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="227" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="228" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="229" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="230" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="231" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="232" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="233" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="234" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="235" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="236" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="237" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="238" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="239" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="240" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="241" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="242" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="243" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="244" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="245" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="246" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="247" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="248" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="249" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="250" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="251" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="252" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="253" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="254" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="255" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="256" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="257" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="258" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="259" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="260" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="261" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="262" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="263" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="264" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="265" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="266" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="267" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="268" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="269" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="270" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="271" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="272" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="273" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="274" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="275" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="276" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="277" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="278" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="279" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="280" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="281" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="282" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="283" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="284" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="285" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="286" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="287" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="288" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="289" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="290" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="291" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="292" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="293" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="294" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="295" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="296" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="297" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="298" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="299" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="300" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="301" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="302" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="303" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="304" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="305" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="306" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="307" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="308" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="309" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="310" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="311" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="312" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="313" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="314" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="315" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="316" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="317" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="318" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="319" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="320" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="321" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="322" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="323" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="324" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="325" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="326" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="327" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="328" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="329" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="330" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="331" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="332" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="333" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="334" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="335" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="336" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="337" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="338" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="339" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="340" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="341" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="342" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="343" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="344" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="345" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="346" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="347" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="348" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="349" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="350" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="351" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="352" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="353" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="354" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="355" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="356" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="357" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="358" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="359" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="360" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="361" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="362" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="363" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="364" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="365" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="366" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="367" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="368" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="369" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="370" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="371" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="372" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="373" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="374" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="375" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="376" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="377" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="378" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="379" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="380" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="381" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="382" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="383" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="384" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="385" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="386" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="387" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="388" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="389" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="390" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="391" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="392" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="393" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="394" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="395" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="396" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="397" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="398" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="399" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="400" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="401" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="402" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="403" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="404" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="405" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="406" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="407" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="408" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="409" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="410" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="411" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="412" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="413" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="414" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="415" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="416" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="417" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="418" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="419" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="420" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="421" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="422" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="423" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="424" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="425" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="426" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="427" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="428" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="429" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="430" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="431" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="432" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="433" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="434" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="435" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="436" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="437" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="438" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="439" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="440" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="441" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="442" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="443" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="444" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="445" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="446" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="447" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="448" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="449" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="450" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="451" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="452" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="453" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="454" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="455" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="456" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="457" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="458" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="459" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="460" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="461" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="462" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="463" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="464" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="465" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="466" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="467" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="468" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="469" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="470" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="471" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="472" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="473" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="474" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="475" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="476" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="477" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="478" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="479" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="480" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="481" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="482" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="483" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="484" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="485" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="486" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="487" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="488" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="489" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="490" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="491" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="492" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="493" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="494" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="495" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="496" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="497" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="498" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="499" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="500" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="501" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="502" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="503" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="504" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="505" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="506" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="507" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="508" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="509" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="510" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="511" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="512" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="513" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="514" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="515" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="516" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="517" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="518" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="519" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="520" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="521" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="522" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="523" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="524" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="525" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="526" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="527" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="528" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="529" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="530" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="531" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="532" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="533" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="534" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="535" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="536" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="537" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="538" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="539" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="540" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="541" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="542" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="543" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="544" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="545" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="546" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="547" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="548" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="549" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="550" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="551" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="552" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="553" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="554" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="555" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="556" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="557" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="558" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="559" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="560" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="561" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="562" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="563" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="564" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="565" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="566" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="567" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="568" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="569" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="570" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="571" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="572" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="573" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="574" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="575" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="576" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="577" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="578" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="579" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="580" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="581" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="582" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="583" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="584" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="585" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="586" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="587" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="588" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="589" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="590" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="591" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="592" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="593" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="594" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="595" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="596" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="597" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="598" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="599" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="600" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="601" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="602" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="603" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="604" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="605" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="606" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="607" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="608" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="609" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="610" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="611" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="612" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="613" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="614" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="615" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="616" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="617" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="618" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="619" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="620" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="621" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="622" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="623" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="624" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="625" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="626" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="627" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="628" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="629" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="630" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="631" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="632" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="633" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="634" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="635" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="636" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="637" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="638" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="639" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="640" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="641" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="642" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="643" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="644" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="645" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="646" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="647" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="648" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="649" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="650" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="651" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="652" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="653" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="654" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="655" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="656" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="657" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="658" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="659" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="660" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="661" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="662" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="663" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="664" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="665" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="666" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="667" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="668" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="669" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="670" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="671" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="672" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="673" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="674" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="675" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="676" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="677" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="678" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="679" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="680" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="681" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="682" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="683" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="684" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="685" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="686" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="687" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="688" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="689" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="690" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="691" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="692" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="693" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="694" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="695" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="696" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="697" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="698" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="699" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="700" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="701" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="702" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="703" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="704" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="705" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="706" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="707" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="708" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="709" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="710" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="711" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="712" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="713" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="714" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="715" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="716" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="717" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="718" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="719" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="720" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="721" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="722" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="723" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="724" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="725" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="726" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="727" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="728" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="729" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="730" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="731" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="732" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="733" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="734" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="735" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="736" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="737" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="738" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="739" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="740" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="741" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="742" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="743" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="744" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="745" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="746" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="747" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="748" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="749" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="750" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="751" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="752" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="753" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="754" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="755" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="756" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="757" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="758" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="759" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="760" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="761" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="762" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="763" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="764" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="765" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="766" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="767" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="768" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="769" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="770" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="771" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="772" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="773" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="33" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="34" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="35" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="36" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="37" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="38" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="39" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="40" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="41" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="42" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="43" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="44" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="45" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="46" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="47" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="48" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="49" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="50" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="51" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="52" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="53" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="54" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="55" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="56" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="57" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="58" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="59" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="60" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="61" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="62" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="63" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="64" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="65" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="66" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="67" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="68" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="69" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="70" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="71" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="72" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="73" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="74" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="75" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="76" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="77" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="78" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="79" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="80" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="81" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="82" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="83" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="84" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="85" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="86" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="87" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="88" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="89" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="90" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="91" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="92" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="93" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="94" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="95" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="96" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="97" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="98" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="99" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="100" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="101" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="102" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="103" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="104" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="105" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="106" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="107" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="108" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="109" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="110" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="111" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="112" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="113" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="114" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="115" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="116" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="117" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="118" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="119" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="120" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="121" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="122" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="123" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="124" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="125" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="126" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="127" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="128" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="129" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="130" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="131" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="132" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="133" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="134" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="135" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="136" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="137" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="138" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="139" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="140" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="141" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="142" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="143" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="144" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="145" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="146" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="147" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="148" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="149" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="150" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="151" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="152" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="153" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="154" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="155" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="156" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="157" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="158" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="159" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="160" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="161" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="162" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="163" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="164" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="165" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="166" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="167" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="168" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="169" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="170" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="171" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="172" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="173" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="174" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="175" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="176" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="177" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="178" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="179" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="180" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="181" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="182" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="183" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="184" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="185" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="186" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="187" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="188" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="189" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="190" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="191" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="192" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="193" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="194" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="195" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="196" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="197" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="198" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="199" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="200" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="201" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="202" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="203" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="204" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="205" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="206" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="207" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="208" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="209" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="210" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="211" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="212" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="213" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="214" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="215" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="216" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="217" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="218" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="219" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="220" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="221" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="222" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="223" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="224" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="225" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="226" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="227" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="228" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="229" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="230" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="231" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="232" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="233" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="234" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="235" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="236" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="237" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="238" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="239" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="240" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="241" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="242" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="243" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="244" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="245" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="246" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="247" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="248" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="249" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="250" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="251" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="252" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="253" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="254" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="255" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="256" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="257" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="258" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="259" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="260" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="261" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="262" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="263" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="264" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="265" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="266" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="267" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="268" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="269" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="270" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="271" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="272" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="273" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="274" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="275" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="276" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="277" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="278" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="279" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="280" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="281" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="282" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="283" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="284" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="285" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="286" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="287" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="288" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="289" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="290" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="291" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="292" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="293" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="294" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="295" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="296" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="297" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="298" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="299" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="300" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="301" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="302" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="303" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="304" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="305" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="306" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="307" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="308" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="309" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="310" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="311" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="312" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="313" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="314" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="315" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="316" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="317" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="318" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="319" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="320" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="321" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="322" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="323" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="324" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="325" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="326" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="327" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="328" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="329" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="330" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="331" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="332" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="333" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="334" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="335" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="336" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="337" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="338" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="339" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="340" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="341" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="342" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="343" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="344" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="345" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="346" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="347" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="348" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="349" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="350" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="351" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="352" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="353" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="354" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="355" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="356" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="357" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="358" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="359" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="360" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="361" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="362" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="363" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="364" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="365" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="366" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="367" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="368" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="369" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="370" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="371" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="372" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="373" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="374" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="375" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="376" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="377" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="378" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="379" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="380" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="381" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="382" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="383" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="384" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="385" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="386" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="387" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="388" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="389" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="390" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="391" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="392" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="393" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="394" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="395" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="396" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="397" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="398" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="399" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="400" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="401" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="402" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="403" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="404" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="405" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="406" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="407" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="408" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="409" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="410" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="411" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="412" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="413" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="414" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="415" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="416" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="417" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="418" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="419" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="420" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="421" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="422" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="423" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="424" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="425" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="426" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="427" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="428" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="429" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="430" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="431" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="432" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="433" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="434" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="435" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="436" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="437" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="438" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="439" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="440" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="441" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="442" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="443" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="444" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="445" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="446" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="447" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="448" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="449" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="450" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="451" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="452" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="453" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="454" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="455" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="456" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="457" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="458" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="459" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="460" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="461" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="462" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="463" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="464" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="465" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="466" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="467" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="468" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="469" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="470" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="471" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="472" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="473" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="474" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="475" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="476" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="477" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="478" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="479" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="480" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="481" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="482" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="483" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="484" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="485" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="486" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="487" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="488" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="489" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="490" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="491" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="492" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="493" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="494" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="495" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="496" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="497" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="498" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="499" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="500" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="501" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="502" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="503" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="504" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="505" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="506" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="507" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="508" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="509" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="510" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="511" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="512" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="513" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="514" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="515" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="516" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="517" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="518" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="519" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="520" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="521" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="522" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="523" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="524" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="525" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="526" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="527" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="528" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="529" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="530" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="531" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="532" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="533" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="534" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="535" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="536" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="537" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="538" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="539" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="540" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="541" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="542" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="543" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="544" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="545" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="546" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="547" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="548" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="549" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="550" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="551" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="552" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="553" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="554" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="555" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="556" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="557" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="558" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="559" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="560" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="561" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="562" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="563" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="564" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="565" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="566" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="567" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="568" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="569" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="570" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="571" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="572" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="573" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="574" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="575" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="576" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="577" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="578" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="579" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="580" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="581" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="582" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="583" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="584" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="585" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="586" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="587" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="588" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="589" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="590" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="591" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="592" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="593" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="594" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="595" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="596" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="597" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="598" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="599" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="600" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="601" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="602" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="603" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="604" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="605" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="606" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="607" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="608" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="609" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="610" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="611" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="612" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="613" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="614" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="615" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="616" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="617" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="618" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="619" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="620" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="621" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="622" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="623" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="624" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="625" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="626" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="627" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="628" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="629" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="630" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="631" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="632" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="633" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="634" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="635" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="636" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="637" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="638" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="639" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="640" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="641" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="642" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="643" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="644" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="645" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="646" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="647" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="648" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="649" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="650" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="651" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="652" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="653" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="654" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="655" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="656" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="657" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="658" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="659" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="660" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="661" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="662" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="663" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="664" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="665" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="666" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="667" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="668" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="669" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="670" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="671" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="672" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="673" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="674" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="675" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="676" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="677" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="678" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="679" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="680" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="681" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="682" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="683" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="684" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="685" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="686" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="687" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="688" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="689" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="690" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="691" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="692" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="693" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="694" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="695" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="696" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="697" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="698" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="699" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="700" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="701" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="702" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="703" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="704" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="705" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="706" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="707" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="708" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="709" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="710" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="711" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="712" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="713" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="714" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="715" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="716" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="717" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="718" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="719" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="720" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="721" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="722" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="723" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="724" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="725" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="726" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="727" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="728" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="729" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="730" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="731" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="732" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="733" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="734" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="735" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="736" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="737" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="738" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="739" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="740" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="741" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="742" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="743" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="744" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="745" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="746" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="747" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="748" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="749" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="750" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="751" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="752" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="753" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="754" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="755" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="756" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="757" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="758" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="759" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="760" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="761" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="762" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="763" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="764" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="765" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="766" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="767" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="768" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="769" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="770" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="771" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="772" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="773" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/test/resources/testData/XAlpha.xlsx
+++ b/src/test/resources/testData/XAlpha.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC580A98-3E40-4A8C-A299-2695365A7B7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB5B419C-6C79-4129-9C4A-229564717B4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="644" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -985,9 +985,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E763A6C0-A0DE-42F1-A4CC-B0EEDE6F7213}">
   <dimension ref="A1:X1048571"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="T1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="U16" sqref="U16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1541,11 +1541,11 @@
       </c>
       <c r="S10" s="9"/>
       <c r="T10" s="7" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="U10" s="9"/>
       <c r="V10" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="W10" s="7"/>
       <c r="X10" s="3" t="b">

--- a/src/test/resources/testData/XAlpha.xlsx
+++ b/src/test/resources/testData/XAlpha.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB5B419C-6C79-4129-9C4A-229564717B4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07AB2B00-DD8E-4889-89BE-BF602993DCCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="644" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="113">
   <si>
     <t>Username</t>
   </si>
@@ -353,6 +353,9 @@
   </si>
   <si>
     <t>QA_TestCase_Auto_XAlpha_013</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_XAlpha_030</t>
   </si>
 </sst>
 </file>
@@ -983,11 +986,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E763A6C0-A0DE-42F1-A4CC-B0EEDE6F7213}">
-  <dimension ref="A1:X1048571"/>
+  <dimension ref="A1:X1048572"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F12" sqref="F12"/>
+      <selection pane="topRight" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2438,66 +2441,34 @@
     </row>
     <row r="28" spans="1:24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
-        <v>55</v>
+        <v>112</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E28" s="7">
-        <v>1</v>
-      </c>
-      <c r="F28" s="9">
-        <v>2</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="H28" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="I28" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J28" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="K28" s="9">
-        <v>31638.25</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="M28" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="N28" s="7">
-        <v>1</v>
-      </c>
-      <c r="O28" s="9">
-        <v>2</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q28" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="R28" s="7">
-        <v>8000</v>
-      </c>
-      <c r="S28" s="9">
-        <v>8002</v>
-      </c>
+      <c r="C28" s="7"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="9"/>
+      <c r="P28" s="7"/>
+      <c r="Q28" s="9"/>
+      <c r="R28" s="7"/>
+      <c r="S28" s="9"/>
       <c r="T28" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="U28" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="U28" s="9"/>
       <c r="V28" s="7"/>
       <c r="W28" s="7"/>
       <c r="X28" s="3" t="b">
@@ -2506,7 +2477,7 @@
     </row>
     <row r="29" spans="1:24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="B29" s="7" t="s">
         <v>26</v>
@@ -2515,13 +2486,13 @@
         <v>27</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="E29" s="7">
         <v>1</v>
       </c>
       <c r="F29" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>66</v>
@@ -2536,7 +2507,7 @@
         <v>66</v>
       </c>
       <c r="K29" s="9">
-        <v>31700.25</v>
+        <v>31638.25</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>67</v>
@@ -2548,7 +2519,7 @@
         <v>1</v>
       </c>
       <c r="O29" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>69</v>
@@ -2563,7 +2534,7 @@
         <v>8002</v>
       </c>
       <c r="T29" s="7" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="U29" s="9"/>
       <c r="V29" s="7"/>
@@ -2574,7 +2545,7 @@
     </row>
     <row r="30" spans="1:24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>26</v>
@@ -2631,7 +2602,7 @@
         <v>8002</v>
       </c>
       <c r="T30" s="7" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="U30" s="9"/>
       <c r="V30" s="7"/>
@@ -2642,7 +2613,7 @@
     </row>
     <row r="31" spans="1:24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A31" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B31" s="7" t="s">
         <v>26</v>
@@ -2699,7 +2670,7 @@
         <v>8002</v>
       </c>
       <c r="T31" s="7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="U31" s="9"/>
       <c r="V31" s="7"/>
@@ -2708,29 +2679,73 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="10"/>
-      <c r="L32" s="10"/>
-      <c r="M32" s="10"/>
-      <c r="N32" s="10"/>
-      <c r="O32" s="10"/>
-      <c r="P32" s="10"/>
-      <c r="Q32" s="10"/>
-      <c r="R32" s="10"/>
-      <c r="S32" s="10"/>
-      <c r="T32" s="10"/>
-      <c r="U32" s="10"/>
-      <c r="V32" s="10"/>
-      <c r="W32" s="10"/>
-      <c r="X32" s="10"/>
+    <row r="32" spans="1:24" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E32" s="7">
+        <v>1</v>
+      </c>
+      <c r="F32" s="9">
+        <v>3</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H32" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="J32" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="K32" s="9">
+        <v>31700.25</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="M32" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="N32" s="7">
+        <v>1</v>
+      </c>
+      <c r="O32" s="9">
+        <v>3</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q32" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="R32" s="7">
+        <v>8000</v>
+      </c>
+      <c r="S32" s="9">
+        <v>8002</v>
+      </c>
+      <c r="T32" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="U32" s="9"/>
+      <c r="V32" s="7"/>
+      <c r="W32" s="7"/>
+      <c r="X32" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="33" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="34" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
@@ -3506,11 +3521,12 @@
     <row r="804" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="805" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="806" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="1048568" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D1048568" s="13"/>
-    </row>
-    <row r="1048571" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D1048571" s="13"/>
+    <row r="807" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="1048569" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1048569" s="13"/>
+    </row>
+    <row r="1048572" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1048572" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/src/test/resources/testData/XAlpha.xlsx
+++ b/src/test/resources/testData/XAlpha.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07AB2B00-DD8E-4889-89BE-BF602993DCCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9CF1A9A-129B-40D4-BEDD-27244BF6BB10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="644" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="116">
   <si>
     <t>Username</t>
   </si>
@@ -356,6 +356,15 @@
   </si>
   <si>
     <t>QA_TestCase_Auto_XAlpha_030</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_XAlpha_031</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_XAlpha_032</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_XAlpha_033</t>
   </si>
 </sst>
 </file>
@@ -986,11 +995,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E763A6C0-A0DE-42F1-A4CC-B0EEDE6F7213}">
-  <dimension ref="A1:X1048572"/>
+  <dimension ref="A1:X1048575"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="S1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="U31" sqref="U31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2477,66 +2486,34 @@
     </row>
     <row r="29" spans="1:24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
-        <v>55</v>
+        <v>113</v>
       </c>
       <c r="B29" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E29" s="7">
-        <v>1</v>
-      </c>
-      <c r="F29" s="9">
-        <v>2</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="H29" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="I29" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J29" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="K29" s="9">
-        <v>31638.25</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="M29" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="N29" s="7">
-        <v>1</v>
-      </c>
-      <c r="O29" s="9">
-        <v>2</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q29" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="R29" s="7">
-        <v>8000</v>
-      </c>
-      <c r="S29" s="9">
-        <v>8002</v>
-      </c>
+      <c r="C29" s="7"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="9"/>
+      <c r="P29" s="7"/>
+      <c r="Q29" s="9"/>
+      <c r="R29" s="7"/>
+      <c r="S29" s="9"/>
       <c r="T29" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="U29" s="9"/>
+        <v>54</v>
+      </c>
+      <c r="U29" s="9" t="s">
+        <v>24</v>
+      </c>
       <c r="V29" s="7"/>
       <c r="W29" s="7"/>
       <c r="X29" s="3" t="b">
@@ -2545,66 +2522,34 @@
     </row>
     <row r="30" spans="1:24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
-        <v>72</v>
+        <v>114</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C30" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E30" s="7">
-        <v>1</v>
-      </c>
-      <c r="F30" s="9">
-        <v>3</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="H30" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="I30" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J30" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="K30" s="9">
-        <v>31700.25</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="M30" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="N30" s="7">
-        <v>1</v>
-      </c>
-      <c r="O30" s="9">
-        <v>3</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q30" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="R30" s="7">
-        <v>8000</v>
-      </c>
-      <c r="S30" s="9">
-        <v>8002</v>
-      </c>
+      <c r="C30" s="7"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="7"/>
+      <c r="O30" s="9"/>
+      <c r="P30" s="7"/>
+      <c r="Q30" s="9"/>
+      <c r="R30" s="7"/>
+      <c r="S30" s="9"/>
       <c r="T30" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="U30" s="9"/>
+        <v>54</v>
+      </c>
+      <c r="U30" s="9" t="s">
+        <v>29</v>
+      </c>
       <c r="V30" s="7"/>
       <c r="W30" s="7"/>
       <c r="X30" s="3" t="b">
@@ -2613,66 +2558,34 @@
     </row>
     <row r="31" spans="1:24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A31" s="5" t="s">
-        <v>73</v>
+        <v>115</v>
       </c>
       <c r="B31" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C31" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E31" s="7">
-        <v>1</v>
-      </c>
-      <c r="F31" s="9">
-        <v>3</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="H31" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="I31" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J31" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="K31" s="9">
-        <v>31700.25</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="M31" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="N31" s="7">
-        <v>1</v>
-      </c>
-      <c r="O31" s="9">
-        <v>3</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q31" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="R31" s="7">
-        <v>8000</v>
-      </c>
-      <c r="S31" s="9">
-        <v>8002</v>
-      </c>
+      <c r="C31" s="7"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="7"/>
+      <c r="O31" s="9"/>
+      <c r="P31" s="7"/>
+      <c r="Q31" s="9"/>
+      <c r="R31" s="7"/>
+      <c r="S31" s="9"/>
       <c r="T31" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="U31" s="9"/>
+        <v>54</v>
+      </c>
+      <c r="U31" s="9" t="s">
+        <v>34</v>
+      </c>
       <c r="V31" s="7"/>
       <c r="W31" s="7"/>
       <c r="X31" s="3" t="b">
@@ -2681,7 +2594,7 @@
     </row>
     <row r="32" spans="1:24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A32" s="5" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="B32" s="7" t="s">
         <v>26</v>
@@ -2690,13 +2603,13 @@
         <v>27</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="E32" s="7">
         <v>1</v>
       </c>
       <c r="F32" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>66</v>
@@ -2711,7 +2624,7 @@
         <v>66</v>
       </c>
       <c r="K32" s="9">
-        <v>31700.25</v>
+        <v>31638.25</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>67</v>
@@ -2723,7 +2636,7 @@
         <v>1</v>
       </c>
       <c r="O32" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>69</v>
@@ -2738,7 +2651,7 @@
         <v>8002</v>
       </c>
       <c r="T32" s="7" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="U32" s="9"/>
       <c r="V32" s="7"/>
@@ -2747,22 +2660,522 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="34" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="35" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="36" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="37" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="38" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="39" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="40" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="41" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="42" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="43" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="44" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="45" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="46" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="47" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="48" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="33" spans="1:24" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E33" s="7">
+        <v>1</v>
+      </c>
+      <c r="F33" s="9">
+        <v>3</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H33" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="J33" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="K33" s="9">
+        <v>31700.25</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="M33" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="N33" s="7">
+        <v>1</v>
+      </c>
+      <c r="O33" s="9">
+        <v>3</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q33" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="R33" s="7">
+        <v>8000</v>
+      </c>
+      <c r="S33" s="9">
+        <v>8002</v>
+      </c>
+      <c r="T33" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="U33" s="9"/>
+      <c r="V33" s="7"/>
+      <c r="W33" s="7"/>
+      <c r="X33" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E34" s="7">
+        <v>1</v>
+      </c>
+      <c r="F34" s="9">
+        <v>3</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H34" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="I34" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="J34" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="K34" s="9">
+        <v>31700.25</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="M34" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="N34" s="7">
+        <v>1</v>
+      </c>
+      <c r="O34" s="9">
+        <v>3</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q34" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="R34" s="7">
+        <v>8000</v>
+      </c>
+      <c r="S34" s="9">
+        <v>8002</v>
+      </c>
+      <c r="T34" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="U34" s="9"/>
+      <c r="V34" s="7"/>
+      <c r="W34" s="7"/>
+      <c r="X34" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E35" s="7">
+        <v>1</v>
+      </c>
+      <c r="F35" s="9">
+        <v>3</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H35" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="J35" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="K35" s="9">
+        <v>31700.25</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="M35" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="N35" s="7">
+        <v>1</v>
+      </c>
+      <c r="O35" s="9">
+        <v>3</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q35" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="R35" s="7">
+        <v>8000</v>
+      </c>
+      <c r="S35" s="9">
+        <v>8002</v>
+      </c>
+      <c r="T35" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="U35" s="9"/>
+      <c r="V35" s="7"/>
+      <c r="W35" s="7"/>
+      <c r="X35" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="10"/>
+      <c r="M36" s="10"/>
+      <c r="N36" s="10"/>
+      <c r="O36" s="10"/>
+      <c r="P36" s="10"/>
+      <c r="Q36" s="10"/>
+      <c r="R36" s="10"/>
+      <c r="S36" s="10"/>
+      <c r="T36" s="10"/>
+      <c r="U36" s="10"/>
+      <c r="V36" s="10"/>
+      <c r="W36" s="10"/>
+      <c r="X36" s="10"/>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="10"/>
+      <c r="M37" s="10"/>
+      <c r="N37" s="10"/>
+      <c r="O37" s="10"/>
+      <c r="P37" s="10"/>
+      <c r="Q37" s="10"/>
+      <c r="R37" s="10"/>
+      <c r="S37" s="10"/>
+      <c r="T37" s="10"/>
+      <c r="U37" s="10"/>
+      <c r="V37" s="10"/>
+      <c r="W37" s="10"/>
+      <c r="X37" s="10"/>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="10"/>
+      <c r="M38" s="10"/>
+      <c r="N38" s="10"/>
+      <c r="O38" s="10"/>
+      <c r="P38" s="10"/>
+      <c r="Q38" s="10"/>
+      <c r="R38" s="10"/>
+      <c r="S38" s="10"/>
+      <c r="T38" s="10"/>
+      <c r="U38" s="10"/>
+      <c r="V38" s="10"/>
+      <c r="W38" s="10"/>
+      <c r="X38" s="10"/>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="10"/>
+      <c r="M39" s="10"/>
+      <c r="N39" s="10"/>
+      <c r="O39" s="10"/>
+      <c r="P39" s="10"/>
+      <c r="Q39" s="10"/>
+      <c r="R39" s="10"/>
+      <c r="S39" s="10"/>
+      <c r="T39" s="10"/>
+      <c r="U39" s="10"/>
+      <c r="V39" s="10"/>
+      <c r="W39" s="10"/>
+      <c r="X39" s="10"/>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
+      <c r="L40" s="10"/>
+      <c r="M40" s="10"/>
+      <c r="N40" s="10"/>
+      <c r="O40" s="10"/>
+      <c r="P40" s="10"/>
+      <c r="Q40" s="10"/>
+      <c r="R40" s="10"/>
+      <c r="S40" s="10"/>
+      <c r="T40" s="10"/>
+      <c r="U40" s="10"/>
+      <c r="V40" s="10"/>
+      <c r="W40" s="10"/>
+      <c r="X40" s="10"/>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="10"/>
+      <c r="L41" s="10"/>
+      <c r="M41" s="10"/>
+      <c r="N41" s="10"/>
+      <c r="O41" s="10"/>
+      <c r="P41" s="10"/>
+      <c r="Q41" s="10"/>
+      <c r="R41" s="10"/>
+      <c r="S41" s="10"/>
+      <c r="T41" s="10"/>
+      <c r="U41" s="10"/>
+      <c r="V41" s="10"/>
+      <c r="W41" s="10"/>
+      <c r="X41" s="10"/>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="10"/>
+      <c r="L42" s="10"/>
+      <c r="M42" s="10"/>
+      <c r="N42" s="10"/>
+      <c r="O42" s="10"/>
+      <c r="P42" s="10"/>
+      <c r="Q42" s="10"/>
+      <c r="R42" s="10"/>
+      <c r="S42" s="10"/>
+      <c r="T42" s="10"/>
+      <c r="U42" s="10"/>
+      <c r="V42" s="10"/>
+      <c r="W42" s="10"/>
+      <c r="X42" s="10"/>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="10"/>
+      <c r="K43" s="10"/>
+      <c r="L43" s="10"/>
+      <c r="M43" s="10"/>
+      <c r="N43" s="10"/>
+      <c r="O43" s="10"/>
+      <c r="P43" s="10"/>
+      <c r="Q43" s="10"/>
+      <c r="R43" s="10"/>
+      <c r="S43" s="10"/>
+      <c r="T43" s="10"/>
+      <c r="U43" s="10"/>
+      <c r="V43" s="10"/>
+      <c r="W43" s="10"/>
+      <c r="X43" s="10"/>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="10"/>
+      <c r="K44" s="10"/>
+      <c r="L44" s="10"/>
+      <c r="M44" s="10"/>
+      <c r="N44" s="10"/>
+      <c r="O44" s="10"/>
+      <c r="P44" s="10"/>
+      <c r="Q44" s="10"/>
+      <c r="R44" s="10"/>
+      <c r="S44" s="10"/>
+      <c r="T44" s="10"/>
+      <c r="U44" s="10"/>
+      <c r="V44" s="10"/>
+      <c r="W44" s="10"/>
+      <c r="X44" s="10"/>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="10"/>
+      <c r="K45" s="10"/>
+      <c r="L45" s="10"/>
+      <c r="M45" s="10"/>
+      <c r="N45" s="10"/>
+      <c r="O45" s="10"/>
+      <c r="P45" s="10"/>
+      <c r="Q45" s="10"/>
+      <c r="R45" s="10"/>
+      <c r="S45" s="10"/>
+      <c r="T45" s="10"/>
+      <c r="U45" s="10"/>
+      <c r="V45" s="10"/>
+      <c r="W45" s="10"/>
+      <c r="X45" s="10"/>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="10"/>
+      <c r="K46" s="10"/>
+      <c r="L46" s="10"/>
+      <c r="M46" s="10"/>
+      <c r="N46" s="10"/>
+      <c r="O46" s="10"/>
+      <c r="P46" s="10"/>
+      <c r="Q46" s="10"/>
+      <c r="R46" s="10"/>
+      <c r="S46" s="10"/>
+      <c r="T46" s="10"/>
+      <c r="U46" s="10"/>
+      <c r="V46" s="10"/>
+      <c r="W46" s="10"/>
+      <c r="X46" s="10"/>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="10"/>
+      <c r="K47" s="10"/>
+      <c r="L47" s="10"/>
+      <c r="M47" s="10"/>
+      <c r="N47" s="10"/>
+      <c r="O47" s="10"/>
+      <c r="P47" s="10"/>
+      <c r="Q47" s="10"/>
+      <c r="R47" s="10"/>
+      <c r="S47" s="10"/>
+      <c r="T47" s="10"/>
+      <c r="U47" s="10"/>
+      <c r="V47" s="10"/>
+      <c r="W47" s="10"/>
+      <c r="X47" s="10"/>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="10"/>
+      <c r="J48" s="10"/>
+      <c r="K48" s="10"/>
+      <c r="L48" s="10"/>
+      <c r="M48" s="10"/>
+      <c r="N48" s="10"/>
+      <c r="O48" s="10"/>
+      <c r="P48" s="10"/>
+      <c r="Q48" s="10"/>
+      <c r="R48" s="10"/>
+      <c r="S48" s="10"/>
+      <c r="T48" s="10"/>
+      <c r="U48" s="10"/>
+      <c r="V48" s="10"/>
+      <c r="W48" s="10"/>
+      <c r="X48" s="10"/>
+    </row>
     <row r="49" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="50" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="51" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
@@ -3522,11 +3935,14 @@
     <row r="805" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="806" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="807" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="1048569" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D1048569" s="13"/>
-    </row>
+    <row r="808" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="809" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="810" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="1048572" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D1048572" s="13"/>
+    </row>
+    <row r="1048575" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1048575" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/src/test/resources/testData/XAlpha.xlsx
+++ b/src/test/resources/testData/XAlpha.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9CF1A9A-129B-40D4-BEDD-27244BF6BB10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2E5600C-5516-4F07-9EE6-6ED5D3DB4C85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="644" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="644" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="XAlphaLogin" sheetId="9" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="120">
   <si>
     <t>Username</t>
   </si>
@@ -365,6 +365,18 @@
   </si>
   <si>
     <t>QA_TestCase_Auto_XAlpha_033</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_XAlpha_040</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_XAlpha_041</t>
+  </si>
+  <si>
+    <t>Execution deal is settled, but incoming is not settled</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_XAlpha_042</t>
   </si>
 </sst>
 </file>
@@ -997,9 +1009,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E763A6C0-A0DE-42F1-A4CC-B0EEDE6F7213}">
   <dimension ref="A1:X1048575"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="S1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="U31" sqref="U31"/>
+      <selection pane="topRight" activeCell="V7" sqref="V7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3953,11 +3965,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45AAE02B-1ED2-44CD-BC76-39A59421CF46}">
-  <dimension ref="A1:Q773"/>
+  <dimension ref="A1:R776"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N11" sqref="N11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3975,12 +3987,13 @@
     <col min="13" max="13" width="16.26953125" style="11" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="16" style="11" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="21" style="11" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17" style="11" customWidth="1"/>
-    <col min="17" max="17" width="8.7265625" style="11"/>
-    <col min="18" max="16384" width="8.7265625" style="10"/>
+    <col min="16" max="16" width="44.7265625" style="11" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17" style="11" customWidth="1"/>
+    <col min="18" max="18" width="8.7265625" style="11"/>
+    <col min="19" max="16384" width="8.7265625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
         <v>2</v>
       </c>
@@ -4027,13 +4040,16 @@
         <v>38</v>
       </c>
       <c r="P1" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="15" t="s">
+      <c r="R1" s="15" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
         <v>76</v>
       </c>
@@ -4076,11 +4092,12 @@
       </c>
       <c r="O2" s="20"/>
       <c r="P2" s="7"/>
-      <c r="Q2" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="Q2" s="7"/>
+      <c r="R2" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="14" t="s">
         <v>84</v>
       </c>
@@ -4123,106 +4140,164 @@
       </c>
       <c r="O3" s="20"/>
       <c r="P3" s="7"/>
-      <c r="Q3" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="Q3" s="7"/>
+      <c r="R3" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="14" t="s">
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="B4" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
+      <c r="C4" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="17">
+        <v>1</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" s="17">
+        <v>2000</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="H4" s="17">
+        <v>1</v>
+      </c>
+      <c r="I4" s="17">
+        <v>20</v>
+      </c>
+      <c r="J4" s="17">
+        <v>1</v>
+      </c>
+      <c r="K4" s="21"/>
+      <c r="L4" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="M4" s="7">
+        <v>8000</v>
+      </c>
       <c r="N4" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="O4" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="O4" s="20"/>
+      <c r="P4" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="14" t="s">
-        <v>88</v>
+        <v>117</v>
       </c>
       <c r="B5" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
+      <c r="C5" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="17">
+        <v>1</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="F5" s="17">
+        <v>2000</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="H5" s="17">
+        <v>1</v>
+      </c>
+      <c r="I5" s="17">
+        <v>20</v>
+      </c>
+      <c r="J5" s="17">
+        <v>1</v>
+      </c>
+      <c r="K5" s="21"/>
+      <c r="L5" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="M5" s="7">
+        <v>8000</v>
+      </c>
       <c r="N5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="O5" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="O5" s="20"/>
+      <c r="P5" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="14" t="s">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="B6" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
+      <c r="C6" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="17">
+        <v>1</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="F6" s="17">
+        <v>2000</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="H6" s="17">
+        <v>1</v>
+      </c>
+      <c r="I6" s="17">
+        <v>20</v>
+      </c>
+      <c r="J6" s="17">
+        <v>1</v>
+      </c>
+      <c r="K6" s="21"/>
+      <c r="L6" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="M6" s="7">
+        <v>8000</v>
+      </c>
       <c r="N6" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="O6" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.35">
+        <v>54</v>
+      </c>
+      <c r="O6" s="20"/>
+      <c r="P6" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="14" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B7" s="17" t="s">
         <v>77</v>
@@ -4241,19 +4316,20 @@
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
       <c r="N7" s="7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="O7" s="20" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="P7" s="7"/>
-      <c r="Q7" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="Q7" s="7"/>
+      <c r="R7" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="14" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B8" s="17" t="s">
         <v>77</v>
@@ -4272,19 +4348,20 @@
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
       <c r="N8" s="7" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="O8" s="20" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="P8" s="7"/>
-      <c r="Q8" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="Q8" s="7"/>
+      <c r="R8" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="14" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B9" s="17" t="s">
         <v>77</v>
@@ -4303,19 +4380,20 @@
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
       <c r="N9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="O9" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="O9" s="20" t="s">
-        <v>28</v>
-      </c>
       <c r="P9" s="7"/>
-      <c r="Q9" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="Q9" s="7"/>
+      <c r="R9" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="14" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B10" s="17" t="s">
         <v>77</v>
@@ -4334,19 +4412,20 @@
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
       <c r="N10" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="O10" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="O10" s="20" t="s">
-        <v>24</v>
-      </c>
       <c r="P10" s="7"/>
-      <c r="Q10" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="Q10" s="7"/>
+      <c r="R10" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="14" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B11" s="17" t="s">
         <v>77</v>
@@ -4365,19 +4444,20 @@
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
       <c r="N11" s="7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="O11" s="20" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="P11" s="7"/>
-      <c r="Q11" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="Q11" s="7"/>
+      <c r="R11" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="14" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B12" s="17" t="s">
         <v>77</v>
@@ -4396,19 +4476,20 @@
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
       <c r="N12" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="O12" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="O12" s="20" t="s">
-        <v>54</v>
-      </c>
       <c r="P12" s="7"/>
-      <c r="Q12" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="Q12" s="7"/>
+      <c r="R12" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="14" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B13" s="17" t="s">
         <v>77</v>
@@ -4427,19 +4508,20 @@
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
       <c r="N13" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="O13" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="O13" s="20" t="s">
-        <v>54</v>
-      </c>
       <c r="P13" s="7"/>
-      <c r="Q13" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="Q13" s="7"/>
+      <c r="R13" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B14" s="17" t="s">
         <v>77</v>
@@ -4458,19 +4540,20 @@
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
       <c r="N14" s="7" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="O14" s="20" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="P14" s="7"/>
-      <c r="Q14" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="Q14" s="7"/>
+      <c r="R14" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B15" s="17" t="s">
         <v>77</v>
@@ -4489,19 +4572,20 @@
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
       <c r="N15" s="7" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="O15" s="20" t="s">
         <v>54</v>
       </c>
       <c r="P15" s="7"/>
-      <c r="Q15" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="Q15" s="7"/>
+      <c r="R15" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B16" s="17" t="s">
         <v>77</v>
@@ -4520,19 +4604,20 @@
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
       <c r="N16" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="O16" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="O16" s="20" t="s">
-        <v>28</v>
-      </c>
       <c r="P16" s="7"/>
-      <c r="Q16" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="Q16" s="7"/>
+      <c r="R16" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="14" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B17" s="17" t="s">
         <v>77</v>
@@ -4551,19 +4636,20 @@
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
       <c r="N17" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="O17" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="O17" s="20" t="s">
-        <v>24</v>
-      </c>
       <c r="P17" s="7"/>
-      <c r="Q17" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="Q17" s="7"/>
+      <c r="R17" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B18" s="17" t="s">
         <v>77</v>
@@ -4582,19 +4668,20 @@
       <c r="L18" s="7"/>
       <c r="M18" s="7"/>
       <c r="N18" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="O18" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="O18" s="20" t="s">
-        <v>29</v>
-      </c>
       <c r="P18" s="7"/>
-      <c r="Q18" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="Q18" s="7"/>
+      <c r="R18" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="14" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B19" s="17" t="s">
         <v>77</v>
@@ -4616,68 +4703,111 @@
         <v>54</v>
       </c>
       <c r="O19" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="O20" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="O21" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="O22" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="P19" s="7"/>
-      <c r="Q19" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="10"/>
-      <c r="P20" s="10"/>
-      <c r="Q20" s="10"/>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="10"/>
-      <c r="P21" s="10"/>
-      <c r="Q21" s="10"/>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="10"/>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="10"/>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A23" s="10"/>
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
@@ -4694,8 +4824,9 @@
       <c r="O23" s="10"/>
       <c r="P23" s="10"/>
       <c r="Q23" s="10"/>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R23" s="10"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A24" s="10"/>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
@@ -4712,8 +4843,9 @@
       <c r="O24" s="10"/>
       <c r="P24" s="10"/>
       <c r="Q24" s="10"/>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R24" s="10"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A25" s="10"/>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
@@ -4730,8 +4862,9 @@
       <c r="O25" s="10"/>
       <c r="P25" s="10"/>
       <c r="Q25" s="10"/>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R25" s="10"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A26" s="10"/>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
@@ -4748,8 +4881,9 @@
       <c r="O26" s="10"/>
       <c r="P26" s="10"/>
       <c r="Q26" s="10"/>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R26" s="10"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A27" s="10"/>
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
@@ -4766,8 +4900,9 @@
       <c r="O27" s="10"/>
       <c r="P27" s="10"/>
       <c r="Q27" s="10"/>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R27" s="10"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A28" s="10"/>
       <c r="C28" s="10"/>
       <c r="D28" s="10"/>
@@ -4784,8 +4919,9 @@
       <c r="O28" s="10"/>
       <c r="P28" s="10"/>
       <c r="Q28" s="10"/>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R28" s="10"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A29" s="10"/>
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
@@ -4802,8 +4938,9 @@
       <c r="O29" s="10"/>
       <c r="P29" s="10"/>
       <c r="Q29" s="10"/>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R29" s="10"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A30" s="10"/>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
@@ -4820,8 +4957,9 @@
       <c r="O30" s="10"/>
       <c r="P30" s="10"/>
       <c r="Q30" s="10"/>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R30" s="10"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A31" s="10"/>
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
@@ -4838,8 +4976,9 @@
       <c r="O31" s="10"/>
       <c r="P31" s="10"/>
       <c r="Q31" s="10"/>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R31" s="10"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A32" s="10"/>
       <c r="C32" s="10"/>
       <c r="D32" s="10"/>
@@ -4856,6 +4995,7 @@
       <c r="O32" s="10"/>
       <c r="P32" s="10"/>
       <c r="Q32" s="10"/>
+      <c r="R32" s="10"/>
     </row>
     <row r="33" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="34" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
@@ -5598,6 +5738,9 @@
     <row r="771" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="772" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="773" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="774" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="775" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="776" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/test/resources/testData/XAlpha.xlsx
+++ b/src/test/resources/testData/XAlpha.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2E5600C-5516-4F07-9EE6-6ED5D3DB4C85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B6AC84F-00F5-43EE-B365-2800B0E395A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="644" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="130">
   <si>
     <t>Username</t>
   </si>
@@ -377,6 +377,36 @@
   </si>
   <si>
     <t>QA_TestCase_Auto_XAlpha_042</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_XAlpha_063</t>
+  </si>
+  <si>
+    <t>StartAsset_updated</t>
+  </si>
+  <si>
+    <t>StartAssetAmount_updated</t>
+  </si>
+  <si>
+    <t>EndAsset_updated</t>
+  </si>
+  <si>
+    <t>EndAssetAmount_updated</t>
+  </si>
+  <si>
+    <t>FeeProportion_updated</t>
+  </si>
+  <si>
+    <t>FeeAdjustment_updated</t>
+  </si>
+  <si>
+    <t>ValueDate_updated</t>
+  </si>
+  <si>
+    <t>2022-06-16 17:06:31</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_XAlpha_064</t>
   </si>
 </sst>
 </file>
@@ -489,7 +519,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -532,6 +562,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1010,8 +1044,8 @@
   <dimension ref="A1:X1048575"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="S1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="V7" sqref="V7"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3965,11 +3999,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45AAE02B-1ED2-44CD-BC76-39A59421CF46}">
-  <dimension ref="A1:R776"/>
+  <dimension ref="A1:AC776"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N7" sqref="N7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3977,23 +4011,36 @@
     <col min="1" max="1" width="29.81640625" style="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.7265625" style="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.453125" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" style="11" customWidth="1"/>
-    <col min="5" max="5" width="13.7265625" style="11" customWidth="1"/>
-    <col min="6" max="6" width="15.453125" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="16.453125" style="11" customWidth="1"/>
-    <col min="9" max="9" width="11.453125" style="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="24.453125" style="11" customWidth="1"/>
-    <col min="12" max="12" width="22.26953125" style="11" customWidth="1"/>
-    <col min="13" max="13" width="16.26953125" style="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16" style="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21" style="11" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="44.7265625" style="11" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17" style="11" customWidth="1"/>
-    <col min="18" max="18" width="8.7265625" style="11"/>
-    <col min="19" max="16384" width="8.7265625" style="10"/>
+    <col min="4" max="4" width="17.453125" style="11" customWidth="1"/>
+    <col min="5" max="5" width="17" style="11" customWidth="1"/>
+    <col min="6" max="6" width="24.6328125" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" style="11" customWidth="1"/>
+    <col min="8" max="8" width="17.453125" style="11" customWidth="1"/>
+    <col min="9" max="9" width="15.453125" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.7265625" style="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.453125" style="11" customWidth="1"/>
+    <col min="12" max="12" width="16.453125" style="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.453125" style="11" customWidth="1"/>
+    <col min="14" max="14" width="21.26953125" style="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.453125" style="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.81640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.7265625" style="11" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="22" style="11" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="24.453125" style="11" customWidth="1"/>
+    <col min="20" max="20" width="29.36328125" style="11" customWidth="1"/>
+    <col min="21" max="21" width="22.26953125" style="11" customWidth="1"/>
+    <col min="22" max="22" width="25.453125" style="11" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16.26953125" style="11" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="23.36328125" style="11" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16" style="11" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="21" style="11" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="44.7265625" style="11" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="17" style="11" customWidth="1"/>
+    <col min="29" max="29" width="8.7265625" style="11"/>
+    <col min="30" max="16384" width="8.7265625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
         <v>2</v>
       </c>
@@ -4003,53 +4050,86 @@
       <c r="C1" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="E1" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="F1" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="G1" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="H1" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="I1" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="J1" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="K1" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="L1" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="M1" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="N1" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="O1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="P1" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q1" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="R1" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="S1" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="T1" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="U1" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="V1" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="W1" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="X1" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y1" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="19" t="s">
+      <c r="Z1" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="P1" s="14" t="s">
+      <c r="AA1" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="Q1" s="14" t="s">
+      <c r="AB1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="R1" s="15" t="s">
+      <c r="AC1" s="15" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:29" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
         <v>76</v>
       </c>
@@ -4059,45 +4139,56 @@
       <c r="C2" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="D2" s="17">
-        <v>1</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="F2" s="17">
+      <c r="D2" s="9"/>
+      <c r="E2" s="17">
+        <v>1</v>
+      </c>
+      <c r="F2" s="9"/>
+      <c r="G2" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="H2" s="9"/>
+      <c r="I2" s="17">
         <v>2000</v>
       </c>
-      <c r="G2" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="H2" s="17">
-        <v>1</v>
-      </c>
-      <c r="I2" s="17">
+      <c r="J2" s="9"/>
+      <c r="K2" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="L2" s="9"/>
+      <c r="M2" s="17">
+        <v>1</v>
+      </c>
+      <c r="N2" s="9"/>
+      <c r="O2" s="17">
         <v>20</v>
       </c>
-      <c r="J2" s="17">
-        <v>1</v>
-      </c>
-      <c r="K2" s="21"/>
-      <c r="L2" s="7" t="s">
+      <c r="P2" s="9"/>
+      <c r="Q2" s="17">
+        <v>1</v>
+      </c>
+      <c r="R2" s="9"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="22"/>
+      <c r="U2" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="M2" s="7">
+      <c r="V2" s="9"/>
+      <c r="W2" s="7">
         <v>8000</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="X2" s="9"/>
+      <c r="Y2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="O2" s="20"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="3" t="b">
+      <c r="Z2" s="20"/>
+      <c r="AA2" s="7"/>
+      <c r="AB2" s="7"/>
+      <c r="AC2" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:29" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="14" t="s">
         <v>84</v>
       </c>
@@ -4107,45 +4198,56 @@
       <c r="C3" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="D3" s="17">
-        <v>1</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="F3" s="17">
+      <c r="D3" s="9"/>
+      <c r="E3" s="17">
+        <v>1</v>
+      </c>
+      <c r="F3" s="9"/>
+      <c r="G3" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="H3" s="9"/>
+      <c r="I3" s="17">
         <v>2000</v>
       </c>
-      <c r="G3" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="H3" s="17">
-        <v>1</v>
-      </c>
-      <c r="I3" s="17">
+      <c r="J3" s="9"/>
+      <c r="K3" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="L3" s="9"/>
+      <c r="M3" s="17">
+        <v>1</v>
+      </c>
+      <c r="N3" s="9"/>
+      <c r="O3" s="17">
         <v>20</v>
       </c>
-      <c r="J3" s="17">
-        <v>1</v>
-      </c>
-      <c r="K3" s="21"/>
-      <c r="L3" s="7" t="s">
+      <c r="P3" s="9"/>
+      <c r="Q3" s="17">
+        <v>1</v>
+      </c>
+      <c r="R3" s="9"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="22"/>
+      <c r="U3" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="M3" s="7">
+      <c r="V3" s="9"/>
+      <c r="W3" s="7">
         <v>8000</v>
       </c>
-      <c r="N3" s="7" t="s">
+      <c r="X3" s="9"/>
+      <c r="Y3" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="O3" s="20"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="3" t="b">
+      <c r="Z3" s="20"/>
+      <c r="AA3" s="7"/>
+      <c r="AB3" s="7"/>
+      <c r="AC3" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:29" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="14" t="s">
         <v>116</v>
       </c>
@@ -4155,47 +4257,58 @@
       <c r="C4" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="D4" s="17">
-        <v>1</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="F4" s="17">
+      <c r="D4" s="9"/>
+      <c r="E4" s="17">
+        <v>1</v>
+      </c>
+      <c r="F4" s="9"/>
+      <c r="G4" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="H4" s="9"/>
+      <c r="I4" s="17">
         <v>2000</v>
       </c>
-      <c r="G4" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="H4" s="17">
-        <v>1</v>
-      </c>
-      <c r="I4" s="17">
+      <c r="J4" s="9"/>
+      <c r="K4" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" s="9"/>
+      <c r="M4" s="17">
+        <v>1</v>
+      </c>
+      <c r="N4" s="9"/>
+      <c r="O4" s="17">
         <v>20</v>
       </c>
-      <c r="J4" s="17">
-        <v>1</v>
-      </c>
-      <c r="K4" s="21"/>
-      <c r="L4" s="7" t="s">
+      <c r="P4" s="9"/>
+      <c r="Q4" s="17">
+        <v>1</v>
+      </c>
+      <c r="R4" s="9"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="22"/>
+      <c r="U4" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="M4" s="7">
+      <c r="V4" s="9"/>
+      <c r="W4" s="7">
         <v>8000</v>
       </c>
-      <c r="N4" s="7" t="s">
+      <c r="X4" s="9"/>
+      <c r="Y4" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="O4" s="20"/>
-      <c r="P4" s="7" t="s">
+      <c r="Z4" s="20"/>
+      <c r="AA4" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="3" t="b">
+      <c r="AB4" s="7"/>
+      <c r="AC4" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:29" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="14" t="s">
         <v>117</v>
       </c>
@@ -4205,47 +4318,58 @@
       <c r="C5" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="D5" s="17">
-        <v>1</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="F5" s="17">
+      <c r="D5" s="9"/>
+      <c r="E5" s="17">
+        <v>1</v>
+      </c>
+      <c r="F5" s="9"/>
+      <c r="G5" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="H5" s="9"/>
+      <c r="I5" s="17">
         <v>2000</v>
       </c>
-      <c r="G5" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="H5" s="17">
-        <v>1</v>
-      </c>
-      <c r="I5" s="17">
+      <c r="J5" s="9"/>
+      <c r="K5" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="L5" s="9"/>
+      <c r="M5" s="17">
+        <v>1</v>
+      </c>
+      <c r="N5" s="9"/>
+      <c r="O5" s="17">
         <v>20</v>
       </c>
-      <c r="J5" s="17">
-        <v>1</v>
-      </c>
-      <c r="K5" s="21"/>
-      <c r="L5" s="7" t="s">
+      <c r="P5" s="9"/>
+      <c r="Q5" s="17">
+        <v>1</v>
+      </c>
+      <c r="R5" s="9"/>
+      <c r="S5" s="21"/>
+      <c r="T5" s="22"/>
+      <c r="U5" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="M5" s="7">
+      <c r="V5" s="9"/>
+      <c r="W5" s="7">
         <v>8000</v>
       </c>
-      <c r="N5" s="7" t="s">
+      <c r="X5" s="9"/>
+      <c r="Y5" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="O5" s="20"/>
-      <c r="P5" s="7" t="s">
+      <c r="Z5" s="20"/>
+      <c r="AA5" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="3" t="b">
+      <c r="AB5" s="7"/>
+      <c r="AC5" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:29" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="14" t="s">
         <v>119</v>
       </c>
@@ -4255,47 +4379,58 @@
       <c r="C6" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="D6" s="17">
-        <v>1</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="F6" s="17">
+      <c r="D6" s="9"/>
+      <c r="E6" s="17">
+        <v>1</v>
+      </c>
+      <c r="F6" s="9"/>
+      <c r="G6" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="H6" s="9"/>
+      <c r="I6" s="17">
         <v>2000</v>
       </c>
-      <c r="G6" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="H6" s="17">
-        <v>1</v>
-      </c>
-      <c r="I6" s="17">
+      <c r="J6" s="9"/>
+      <c r="K6" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="L6" s="9"/>
+      <c r="M6" s="17">
+        <v>1</v>
+      </c>
+      <c r="N6" s="9"/>
+      <c r="O6" s="17">
         <v>20</v>
       </c>
-      <c r="J6" s="17">
-        <v>1</v>
-      </c>
-      <c r="K6" s="21"/>
-      <c r="L6" s="7" t="s">
+      <c r="P6" s="9"/>
+      <c r="Q6" s="17">
+        <v>1</v>
+      </c>
+      <c r="R6" s="9"/>
+      <c r="S6" s="21"/>
+      <c r="T6" s="22"/>
+      <c r="U6" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="M6" s="7">
+      <c r="V6" s="9"/>
+      <c r="W6" s="7">
         <v>8000</v>
       </c>
-      <c r="N6" s="7" t="s">
+      <c r="X6" s="9"/>
+      <c r="Y6" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="O6" s="20"/>
-      <c r="P6" s="7" t="s">
+      <c r="Z6" s="20"/>
+      <c r="AA6" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="3" t="b">
+      <c r="AB6" s="7"/>
+      <c r="AC6" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:29" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="14" t="s">
         <v>87</v>
       </c>
@@ -4303,31 +4438,42 @@
         <v>77</v>
       </c>
       <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
+      <c r="D7" s="9"/>
       <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
+      <c r="F7" s="9"/>
       <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
+      <c r="H7" s="9"/>
       <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="21" t="s">
+      <c r="J7" s="9"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7" t="s">
+      <c r="T7" s="22"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="9"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="9"/>
+      <c r="Y7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="O7" s="20" t="s">
+      <c r="Z7" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="3" t="b">
+      <c r="AA7" s="7"/>
+      <c r="AB7" s="7"/>
+      <c r="AC7" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:29" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="14" t="s">
         <v>88</v>
       </c>
@@ -4335,31 +4481,42 @@
         <v>77</v>
       </c>
       <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
+      <c r="D8" s="9"/>
       <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
+      <c r="F8" s="9"/>
       <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
+      <c r="H8" s="9"/>
       <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="21" t="s">
+      <c r="J8" s="9"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7" t="s">
+      <c r="T8" s="22"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="9"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="9"/>
+      <c r="Y8" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="O8" s="20" t="s">
+      <c r="Z8" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="3" t="b">
+      <c r="AA8" s="7"/>
+      <c r="AB8" s="7"/>
+      <c r="AC8" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:29" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="14" t="s">
         <v>91</v>
       </c>
@@ -4367,31 +4524,42 @@
         <v>77</v>
       </c>
       <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
+      <c r="D9" s="9"/>
       <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
+      <c r="F9" s="9"/>
       <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
+      <c r="H9" s="9"/>
       <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="21" t="s">
+      <c r="J9" s="9"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="17"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7" t="s">
+      <c r="T9" s="22"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="9"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="9"/>
+      <c r="Y9" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="O9" s="20" t="s">
+      <c r="Z9" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="3" t="b">
+      <c r="AA9" s="7"/>
+      <c r="AB9" s="7"/>
+      <c r="AC9" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:29" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="14" t="s">
         <v>92</v>
       </c>
@@ -4399,31 +4567,42 @@
         <v>77</v>
       </c>
       <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
+      <c r="D10" s="9"/>
       <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
+      <c r="F10" s="9"/>
       <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
+      <c r="H10" s="9"/>
       <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="21" t="s">
+      <c r="J10" s="9"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7" t="s">
+      <c r="T10" s="22"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="9"/>
+      <c r="W10" s="7"/>
+      <c r="X10" s="9"/>
+      <c r="Y10" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="O10" s="20" t="s">
+      <c r="Z10" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="3" t="b">
+      <c r="AA10" s="7"/>
+      <c r="AB10" s="7"/>
+      <c r="AC10" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:29" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="14" t="s">
         <v>93</v>
       </c>
@@ -4431,31 +4610,42 @@
         <v>77</v>
       </c>
       <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
+      <c r="D11" s="9"/>
       <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
+      <c r="F11" s="9"/>
       <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
+      <c r="H11" s="9"/>
       <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="21" t="s">
+      <c r="J11" s="9"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="9"/>
+      <c r="S11" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7" t="s">
+      <c r="T11" s="22"/>
+      <c r="U11" s="7"/>
+      <c r="V11" s="9"/>
+      <c r="W11" s="7"/>
+      <c r="X11" s="9"/>
+      <c r="Y11" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="O11" s="20" t="s">
+      <c r="Z11" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="3" t="b">
+      <c r="AA11" s="7"/>
+      <c r="AB11" s="7"/>
+      <c r="AC11" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:29" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="14" t="s">
         <v>94</v>
       </c>
@@ -4463,31 +4653,42 @@
         <v>77</v>
       </c>
       <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
+      <c r="D12" s="9"/>
       <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
+      <c r="F12" s="9"/>
       <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
+      <c r="H12" s="9"/>
       <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="21" t="s">
+      <c r="J12" s="9"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7" t="s">
+      <c r="T12" s="22"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="9"/>
+      <c r="W12" s="7"/>
+      <c r="X12" s="9"/>
+      <c r="Y12" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="O12" s="20" t="s">
+      <c r="Z12" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="3" t="b">
+      <c r="AA12" s="7"/>
+      <c r="AB12" s="7"/>
+      <c r="AC12" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:29" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="14" t="s">
         <v>95</v>
       </c>
@@ -4495,31 +4696,42 @@
         <v>77</v>
       </c>
       <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
+      <c r="D13" s="9"/>
       <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
+      <c r="F13" s="9"/>
       <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
+      <c r="H13" s="9"/>
       <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="21" t="s">
+      <c r="J13" s="9"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7" t="s">
+      <c r="T13" s="22"/>
+      <c r="U13" s="7"/>
+      <c r="V13" s="9"/>
+      <c r="W13" s="7"/>
+      <c r="X13" s="9"/>
+      <c r="Y13" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="O13" s="20" t="s">
+      <c r="Z13" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="3" t="b">
+      <c r="AA13" s="7"/>
+      <c r="AB13" s="7"/>
+      <c r="AC13" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:29" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="14" t="s">
         <v>96</v>
       </c>
@@ -4527,31 +4739,42 @@
         <v>77</v>
       </c>
       <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
+      <c r="D14" s="9"/>
       <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
+      <c r="F14" s="9"/>
       <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
+      <c r="H14" s="9"/>
       <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="21" t="s">
+      <c r="J14" s="9"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="17"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7" t="s">
+      <c r="T14" s="22"/>
+      <c r="U14" s="7"/>
+      <c r="V14" s="9"/>
+      <c r="W14" s="7"/>
+      <c r="X14" s="9"/>
+      <c r="Y14" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="O14" s="20" t="s">
+      <c r="Z14" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="3" t="b">
+      <c r="AA14" s="7"/>
+      <c r="AB14" s="7"/>
+      <c r="AC14" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:29" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="14" t="s">
         <v>98</v>
       </c>
@@ -4559,31 +4782,42 @@
         <v>77</v>
       </c>
       <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
+      <c r="D15" s="9"/>
       <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
+      <c r="F15" s="9"/>
       <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
+      <c r="H15" s="9"/>
       <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="21" t="s">
+      <c r="J15" s="9"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="17"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7" t="s">
+      <c r="T15" s="22"/>
+      <c r="U15" s="7"/>
+      <c r="V15" s="9"/>
+      <c r="W15" s="7"/>
+      <c r="X15" s="9"/>
+      <c r="Y15" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="O15" s="20" t="s">
+      <c r="Z15" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="3" t="b">
+      <c r="AA15" s="7"/>
+      <c r="AB15" s="7"/>
+      <c r="AC15" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:29" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="14" t="s">
         <v>99</v>
       </c>
@@ -4591,31 +4825,42 @@
         <v>77</v>
       </c>
       <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
+      <c r="D16" s="9"/>
       <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
+      <c r="F16" s="9"/>
       <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
+      <c r="H16" s="9"/>
       <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="21" t="s">
+      <c r="J16" s="9"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="17"/>
+      <c r="R16" s="9"/>
+      <c r="S16" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7" t="s">
+      <c r="T16" s="22"/>
+      <c r="U16" s="7"/>
+      <c r="V16" s="9"/>
+      <c r="W16" s="7"/>
+      <c r="X16" s="9"/>
+      <c r="Y16" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="O16" s="20" t="s">
+      <c r="Z16" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="3" t="b">
+      <c r="AA16" s="7"/>
+      <c r="AB16" s="7"/>
+      <c r="AC16" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:29" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="14" t="s">
         <v>97</v>
       </c>
@@ -4623,31 +4868,42 @@
         <v>77</v>
       </c>
       <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
+      <c r="D17" s="9"/>
       <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
+      <c r="F17" s="9"/>
       <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
+      <c r="H17" s="9"/>
       <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="21" t="s">
+      <c r="J17" s="9"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="17"/>
+      <c r="R17" s="9"/>
+      <c r="S17" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7" t="s">
+      <c r="T17" s="22"/>
+      <c r="U17" s="7"/>
+      <c r="V17" s="9"/>
+      <c r="W17" s="7"/>
+      <c r="X17" s="9"/>
+      <c r="Y17" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="O17" s="20" t="s">
+      <c r="Z17" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="7"/>
-      <c r="R17" s="3" t="b">
+      <c r="AA17" s="7"/>
+      <c r="AB17" s="7"/>
+      <c r="AC17" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:29" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="14" t="s">
         <v>100</v>
       </c>
@@ -4655,31 +4911,42 @@
         <v>77</v>
       </c>
       <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
+      <c r="D18" s="9"/>
       <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
+      <c r="F18" s="9"/>
       <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
+      <c r="H18" s="9"/>
       <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="21" t="s">
+      <c r="J18" s="9"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="17"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7" t="s">
+      <c r="T18" s="22"/>
+      <c r="U18" s="7"/>
+      <c r="V18" s="9"/>
+      <c r="W18" s="7"/>
+      <c r="X18" s="9"/>
+      <c r="Y18" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="O18" s="20" t="s">
+      <c r="Z18" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="P18" s="7"/>
-      <c r="Q18" s="7"/>
-      <c r="R18" s="3" t="b">
+      <c r="AA18" s="7"/>
+      <c r="AB18" s="7"/>
+      <c r="AC18" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:29" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="14" t="s">
         <v>101</v>
       </c>
@@ -4687,31 +4954,42 @@
         <v>77</v>
       </c>
       <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
+      <c r="D19" s="9"/>
       <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
+      <c r="F19" s="9"/>
       <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
+      <c r="H19" s="9"/>
       <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="21" t="s">
+      <c r="J19" s="9"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="17"/>
+      <c r="R19" s="9"/>
+      <c r="S19" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7" t="s">
+      <c r="T19" s="22"/>
+      <c r="U19" s="7"/>
+      <c r="V19" s="9"/>
+      <c r="W19" s="7"/>
+      <c r="X19" s="9"/>
+      <c r="Y19" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="O19" s="20" t="s">
+      <c r="Z19" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="P19" s="7"/>
-      <c r="Q19" s="7"/>
-      <c r="R19" s="3" t="b">
+      <c r="AA19" s="7"/>
+      <c r="AB19" s="7"/>
+      <c r="AC19" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:29" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="14" t="s">
         <v>102</v>
       </c>
@@ -4719,31 +4997,42 @@
         <v>77</v>
       </c>
       <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
+      <c r="D20" s="9"/>
       <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
+      <c r="F20" s="9"/>
       <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
+      <c r="H20" s="9"/>
       <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="21" t="s">
+      <c r="J20" s="9"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="17"/>
+      <c r="R20" s="9"/>
+      <c r="S20" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="7" t="s">
+      <c r="T20" s="22"/>
+      <c r="U20" s="7"/>
+      <c r="V20" s="9"/>
+      <c r="W20" s="7"/>
+      <c r="X20" s="9"/>
+      <c r="Y20" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="O20" s="20" t="s">
+      <c r="Z20" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="P20" s="7"/>
-      <c r="Q20" s="7"/>
-      <c r="R20" s="3" t="b">
+      <c r="AA20" s="7"/>
+      <c r="AB20" s="7"/>
+      <c r="AC20" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:29" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="14" t="s">
         <v>103</v>
       </c>
@@ -4751,31 +5040,42 @@
         <v>77</v>
       </c>
       <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
+      <c r="D21" s="9"/>
       <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
+      <c r="F21" s="9"/>
       <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
+      <c r="H21" s="9"/>
       <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="21" t="s">
+      <c r="J21" s="9"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="17"/>
+      <c r="R21" s="9"/>
+      <c r="S21" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7" t="s">
+      <c r="T21" s="22"/>
+      <c r="U21" s="7"/>
+      <c r="V21" s="9"/>
+      <c r="W21" s="7"/>
+      <c r="X21" s="9"/>
+      <c r="Y21" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="O21" s="20" t="s">
+      <c r="Z21" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="P21" s="7"/>
-      <c r="Q21" s="7"/>
-      <c r="R21" s="3" t="b">
+      <c r="AA21" s="7"/>
+      <c r="AB21" s="7"/>
+      <c r="AC21" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:29" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="14" t="s">
         <v>104</v>
       </c>
@@ -4783,69 +5083,172 @@
         <v>77</v>
       </c>
       <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
+      <c r="D22" s="9"/>
       <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
+      <c r="F22" s="9"/>
       <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
+      <c r="H22" s="9"/>
       <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="21" t="s">
+      <c r="J22" s="9"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="17"/>
+      <c r="R22" s="9"/>
+      <c r="S22" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="7" t="s">
+      <c r="T22" s="22"/>
+      <c r="U22" s="7"/>
+      <c r="V22" s="9"/>
+      <c r="W22" s="7"/>
+      <c r="X22" s="9"/>
+      <c r="Y22" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="O22" s="20" t="s">
+      <c r="Z22" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="P22" s="7"/>
-      <c r="Q22" s="7"/>
-      <c r="R22" s="3" t="b">
+      <c r="AA22" s="7"/>
+      <c r="AB22" s="7"/>
+      <c r="AC22" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="10"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="10"/>
-      <c r="R23" s="10"/>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="10"/>
-      <c r="P24" s="10"/>
-      <c r="Q24" s="10"/>
-      <c r="R24" s="10"/>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:29" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" s="17"/>
+      <c r="D23" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E23" s="17"/>
+      <c r="F23" s="9">
+        <v>2</v>
+      </c>
+      <c r="G23" s="17"/>
+      <c r="H23" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="I23" s="17"/>
+      <c r="J23" s="9">
+        <v>2100</v>
+      </c>
+      <c r="K23" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="L23" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="M23" s="17"/>
+      <c r="N23" s="9">
+        <v>2</v>
+      </c>
+      <c r="O23" s="17"/>
+      <c r="P23" s="9">
+        <v>22</v>
+      </c>
+      <c r="Q23" s="17"/>
+      <c r="R23" s="9">
+        <v>2</v>
+      </c>
+      <c r="S23" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="T23" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="U23" s="7"/>
+      <c r="V23" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="W23" s="7"/>
+      <c r="X23" s="9">
+        <v>8000</v>
+      </c>
+      <c r="Y23" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z23" s="20"/>
+      <c r="AA23" s="7"/>
+      <c r="AB23" s="7"/>
+      <c r="AC23" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" s="17"/>
+      <c r="D24" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E24" s="17"/>
+      <c r="F24" s="9">
+        <v>3</v>
+      </c>
+      <c r="G24" s="17"/>
+      <c r="H24" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="I24" s="17"/>
+      <c r="J24" s="9">
+        <v>2100</v>
+      </c>
+      <c r="K24" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="L24" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="M24" s="17"/>
+      <c r="N24" s="9">
+        <v>2</v>
+      </c>
+      <c r="O24" s="17"/>
+      <c r="P24" s="9">
+        <v>22</v>
+      </c>
+      <c r="Q24" s="17"/>
+      <c r="R24" s="9">
+        <v>2</v>
+      </c>
+      <c r="S24" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="T24" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="U24" s="7"/>
+      <c r="V24" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="W24" s="7"/>
+      <c r="X24" s="9">
+        <v>8000</v>
+      </c>
+      <c r="Y24" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z24" s="20"/>
+      <c r="AA24" s="7"/>
+      <c r="AB24" s="7"/>
+      <c r="AC24" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A25" s="10"/>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
@@ -4863,8 +5266,19 @@
       <c r="P25" s="10"/>
       <c r="Q25" s="10"/>
       <c r="R25" s="10"/>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S25" s="10"/>
+      <c r="T25" s="10"/>
+      <c r="U25" s="10"/>
+      <c r="V25" s="10"/>
+      <c r="W25" s="10"/>
+      <c r="X25" s="10"/>
+      <c r="Y25" s="10"/>
+      <c r="Z25" s="10"/>
+      <c r="AA25" s="10"/>
+      <c r="AB25" s="10"/>
+      <c r="AC25" s="10"/>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A26" s="10"/>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
@@ -4882,8 +5296,19 @@
       <c r="P26" s="10"/>
       <c r="Q26" s="10"/>
       <c r="R26" s="10"/>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S26" s="10"/>
+      <c r="T26" s="10"/>
+      <c r="U26" s="10"/>
+      <c r="V26" s="10"/>
+      <c r="W26" s="10"/>
+      <c r="X26" s="10"/>
+      <c r="Y26" s="10"/>
+      <c r="Z26" s="10"/>
+      <c r="AA26" s="10"/>
+      <c r="AB26" s="10"/>
+      <c r="AC26" s="10"/>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A27" s="10"/>
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
@@ -4901,8 +5326,19 @@
       <c r="P27" s="10"/>
       <c r="Q27" s="10"/>
       <c r="R27" s="10"/>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S27" s="10"/>
+      <c r="T27" s="10"/>
+      <c r="U27" s="10"/>
+      <c r="V27" s="10"/>
+      <c r="W27" s="10"/>
+      <c r="X27" s="10"/>
+      <c r="Y27" s="10"/>
+      <c r="Z27" s="10"/>
+      <c r="AA27" s="10"/>
+      <c r="AB27" s="10"/>
+      <c r="AC27" s="10"/>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A28" s="10"/>
       <c r="C28" s="10"/>
       <c r="D28" s="10"/>
@@ -4920,8 +5356,19 @@
       <c r="P28" s="10"/>
       <c r="Q28" s="10"/>
       <c r="R28" s="10"/>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S28" s="10"/>
+      <c r="T28" s="10"/>
+      <c r="U28" s="10"/>
+      <c r="V28" s="10"/>
+      <c r="W28" s="10"/>
+      <c r="X28" s="10"/>
+      <c r="Y28" s="10"/>
+      <c r="Z28" s="10"/>
+      <c r="AA28" s="10"/>
+      <c r="AB28" s="10"/>
+      <c r="AC28" s="10"/>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A29" s="10"/>
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
@@ -4939,8 +5386,19 @@
       <c r="P29" s="10"/>
       <c r="Q29" s="10"/>
       <c r="R29" s="10"/>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S29" s="10"/>
+      <c r="T29" s="10"/>
+      <c r="U29" s="10"/>
+      <c r="V29" s="10"/>
+      <c r="W29" s="10"/>
+      <c r="X29" s="10"/>
+      <c r="Y29" s="10"/>
+      <c r="Z29" s="10"/>
+      <c r="AA29" s="10"/>
+      <c r="AB29" s="10"/>
+      <c r="AC29" s="10"/>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A30" s="10"/>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
@@ -4958,8 +5416,19 @@
       <c r="P30" s="10"/>
       <c r="Q30" s="10"/>
       <c r="R30" s="10"/>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S30" s="10"/>
+      <c r="T30" s="10"/>
+      <c r="U30" s="10"/>
+      <c r="V30" s="10"/>
+      <c r="W30" s="10"/>
+      <c r="X30" s="10"/>
+      <c r="Y30" s="10"/>
+      <c r="Z30" s="10"/>
+      <c r="AA30" s="10"/>
+      <c r="AB30" s="10"/>
+      <c r="AC30" s="10"/>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A31" s="10"/>
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
@@ -4977,8 +5446,19 @@
       <c r="P31" s="10"/>
       <c r="Q31" s="10"/>
       <c r="R31" s="10"/>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S31" s="10"/>
+      <c r="T31" s="10"/>
+      <c r="U31" s="10"/>
+      <c r="V31" s="10"/>
+      <c r="W31" s="10"/>
+      <c r="X31" s="10"/>
+      <c r="Y31" s="10"/>
+      <c r="Z31" s="10"/>
+      <c r="AA31" s="10"/>
+      <c r="AB31" s="10"/>
+      <c r="AC31" s="10"/>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A32" s="10"/>
       <c r="C32" s="10"/>
       <c r="D32" s="10"/>
@@ -4996,6 +5476,17 @@
       <c r="P32" s="10"/>
       <c r="Q32" s="10"/>
       <c r="R32" s="10"/>
+      <c r="S32" s="10"/>
+      <c r="T32" s="10"/>
+      <c r="U32" s="10"/>
+      <c r="V32" s="10"/>
+      <c r="W32" s="10"/>
+      <c r="X32" s="10"/>
+      <c r="Y32" s="10"/>
+      <c r="Z32" s="10"/>
+      <c r="AA32" s="10"/>
+      <c r="AB32" s="10"/>
+      <c r="AC32" s="10"/>
     </row>
     <row r="33" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="34" s="10" customFormat="1" x14ac:dyDescent="0.35"/>

--- a/src/test/resources/testData/XAlpha.xlsx
+++ b/src/test/resources/testData/XAlpha.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B6AC84F-00F5-43EE-B365-2800B0E395A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DC160BB-9A21-4B04-B525-36B57B83100B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="644" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="644" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="XAlphaLogin" sheetId="9" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="132">
   <si>
     <t>Username</t>
   </si>
@@ -407,6 +407,12 @@
   </si>
   <si>
     <t>QA_TestCase_Auto_XAlpha_064</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_XAlpha_065</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_XAlpha_066</t>
   </si>
 </sst>
 </file>
@@ -910,17 +916,17 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.54296875" customWidth="1"/>
-    <col min="2" max="2" width="14.1796875" customWidth="1"/>
-    <col min="3" max="3" width="21.26953125" customWidth="1"/>
-    <col min="4" max="4" width="18.453125" customWidth="1"/>
-    <col min="5" max="5" width="16.1796875" customWidth="1"/>
-    <col min="6" max="6" width="15.453125" customWidth="1"/>
+    <col min="1" max="1" width="29.5546875" customWidth="1"/>
+    <col min="2" max="2" width="14.21875" customWidth="1"/>
+    <col min="3" max="3" width="21.21875" customWidth="1"/>
+    <col min="4" max="4" width="18.44140625" customWidth="1"/>
+    <col min="5" max="5" width="16.21875" customWidth="1"/>
+    <col min="6" max="6" width="15.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -940,7 +946,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -958,7 +964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -976,7 +982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -994,7 +1000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>42</v>
       </c>
@@ -1012,7 +1018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>43</v>
       </c>
@@ -1043,40 +1049,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E763A6C0-A0DE-42F1-A4CC-B0EEDE6F7213}">
   <dimension ref="A1:X1048575"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.81640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7265625" style="10"/>
-    <col min="3" max="3" width="9.1796875" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.81640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.453125" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.1796875" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.77734375" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.77734375" style="10"/>
+    <col min="3" max="3" width="9.21875" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.77734375" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.21875" style="11" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17" style="11" customWidth="1"/>
-    <col min="8" max="8" width="18.81640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7265625" style="11" customWidth="1"/>
-    <col min="10" max="11" width="18.81640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.453125" style="11" customWidth="1"/>
-    <col min="13" max="13" width="18.81640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.453125" style="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.1796875" style="11" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="22.26953125" style="11" customWidth="1"/>
+    <col min="8" max="8" width="18.77734375" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.77734375" style="11" customWidth="1"/>
+    <col min="10" max="11" width="18.77734375" style="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.44140625" style="11" customWidth="1"/>
+    <col min="13" max="13" width="18.77734375" style="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.44140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.21875" style="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.21875" style="11" customWidth="1"/>
     <col min="17" max="17" width="27" style="11" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.81640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.77734375" style="11" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="25" style="11" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7265625" style="11" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="23.453125" style="11" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="44.7265625" style="11" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.77734375" style="11" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="23.44140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="44.77734375" style="11" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="17" style="11" customWidth="1"/>
-    <col min="24" max="24" width="8.7265625" style="11"/>
-    <col min="25" max="16384" width="8.7265625" style="10"/>
+    <col min="24" max="24" width="8.77734375" style="11"/>
+    <col min="25" max="16384" width="8.77734375" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
@@ -1150,7 +1156,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:24" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>30</v>
       </c>
@@ -1200,7 +1206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:24" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>31</v>
       </c>
@@ -1250,7 +1256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:24" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>32</v>
       </c>
@@ -1302,7 +1308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:24" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>33</v>
       </c>
@@ -1354,7 +1360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>105</v>
       </c>
@@ -1406,7 +1412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:24" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>35</v>
       </c>
@@ -1456,7 +1462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:24" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>75</v>
       </c>
@@ -1506,7 +1512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:24" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>109</v>
       </c>
@@ -1558,7 +1564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:24" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>110</v>
       </c>
@@ -1610,7 +1616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:24" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>111</v>
       </c>
@@ -1662,7 +1668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:24" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>37</v>
       </c>
@@ -1714,7 +1720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:24" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>39</v>
       </c>
@@ -1766,7 +1772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:24" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>40</v>
       </c>
@@ -1818,7 +1824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:24" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>41</v>
       </c>
@@ -1870,7 +1876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:24" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>44</v>
       </c>
@@ -1922,7 +1928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:24" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>45</v>
       </c>
@@ -1974,7 +1980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:24" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>46</v>
       </c>
@@ -2026,7 +2032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:24" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>47</v>
       </c>
@@ -2078,7 +2084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:24" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>48</v>
       </c>
@@ -2130,7 +2136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:24" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>49</v>
       </c>
@@ -2182,7 +2188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:24" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>50</v>
       </c>
@@ -2234,7 +2240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:24" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>51</v>
       </c>
@@ -2286,7 +2292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:24" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>52</v>
       </c>
@@ -2338,7 +2344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:24" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>53</v>
       </c>
@@ -2390,7 +2396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:24" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>70</v>
       </c>
@@ -2442,7 +2448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:24" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>71</v>
       </c>
@@ -2494,7 +2500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:24" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>112</v>
       </c>
@@ -2530,7 +2536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:24" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>113</v>
       </c>
@@ -2566,7 +2572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:24" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>114</v>
       </c>
@@ -2602,7 +2608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:24" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>115</v>
       </c>
@@ -2638,7 +2644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:24" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
         <v>55</v>
       </c>
@@ -2706,7 +2712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:24" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>72</v>
       </c>
@@ -2774,7 +2780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:24" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>73</v>
       </c>
@@ -2842,7 +2848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:24" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>74</v>
       </c>
@@ -2910,7 +2916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A36" s="10"/>
       <c r="D36" s="10"/>
       <c r="E36" s="10"/>
@@ -2934,7 +2940,7 @@
       <c r="W36" s="10"/>
       <c r="X36" s="10"/>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A37" s="10"/>
       <c r="D37" s="10"/>
       <c r="E37" s="10"/>
@@ -2958,7 +2964,7 @@
       <c r="W37" s="10"/>
       <c r="X37" s="10"/>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A38" s="10"/>
       <c r="D38" s="10"/>
       <c r="E38" s="10"/>
@@ -2982,7 +2988,7 @@
       <c r="W38" s="10"/>
       <c r="X38" s="10"/>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A39" s="10"/>
       <c r="D39" s="10"/>
       <c r="E39" s="10"/>
@@ -3006,7 +3012,7 @@
       <c r="W39" s="10"/>
       <c r="X39" s="10"/>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A40" s="10"/>
       <c r="D40" s="10"/>
       <c r="E40" s="10"/>
@@ -3030,7 +3036,7 @@
       <c r="W40" s="10"/>
       <c r="X40" s="10"/>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A41" s="10"/>
       <c r="D41" s="10"/>
       <c r="E41" s="10"/>
@@ -3054,7 +3060,7 @@
       <c r="W41" s="10"/>
       <c r="X41" s="10"/>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A42" s="10"/>
       <c r="D42" s="10"/>
       <c r="E42" s="10"/>
@@ -3078,7 +3084,7 @@
       <c r="W42" s="10"/>
       <c r="X42" s="10"/>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A43" s="10"/>
       <c r="D43" s="10"/>
       <c r="E43" s="10"/>
@@ -3102,7 +3108,7 @@
       <c r="W43" s="10"/>
       <c r="X43" s="10"/>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A44" s="10"/>
       <c r="D44" s="10"/>
       <c r="E44" s="10"/>
@@ -3126,7 +3132,7 @@
       <c r="W44" s="10"/>
       <c r="X44" s="10"/>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A45" s="10"/>
       <c r="D45" s="10"/>
       <c r="E45" s="10"/>
@@ -3150,7 +3156,7 @@
       <c r="W45" s="10"/>
       <c r="X45" s="10"/>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A46" s="10"/>
       <c r="D46" s="10"/>
       <c r="E46" s="10"/>
@@ -3174,7 +3180,7 @@
       <c r="W46" s="10"/>
       <c r="X46" s="10"/>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A47" s="10"/>
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
@@ -3198,7 +3204,7 @@
       <c r="W47" s="10"/>
       <c r="X47" s="10"/>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A48" s="10"/>
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
@@ -3222,772 +3228,772 @@
       <c r="W48" s="10"/>
       <c r="X48" s="10"/>
     </row>
-    <row r="49" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="50" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="51" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="52" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="53" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="54" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="55" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="56" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="57" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="58" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="59" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="60" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="61" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="62" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="63" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="64" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="65" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="66" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="67" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="68" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="69" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="70" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="71" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="72" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="73" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="74" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="75" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="76" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="77" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="78" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="79" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="80" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="81" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="82" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="83" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="84" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="85" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="86" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="87" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="88" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="89" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="90" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="91" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="92" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="93" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="94" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="95" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="96" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="97" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="98" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="99" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="100" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="101" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="102" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="103" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="104" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="105" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="106" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="107" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="108" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="109" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="110" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="111" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="112" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="113" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="114" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="115" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="116" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="117" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="118" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="119" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="120" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="121" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="122" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="123" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="124" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="125" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="126" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="127" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="128" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="129" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="130" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="131" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="132" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="133" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="134" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="135" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="136" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="137" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="138" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="139" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="140" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="141" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="142" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="143" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="144" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="145" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="146" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="147" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="148" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="149" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="150" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="151" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="152" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="153" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="154" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="155" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="156" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="157" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="158" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="159" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="160" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="161" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="162" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="163" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="164" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="165" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="166" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="167" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="168" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="169" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="170" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="171" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="172" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="173" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="174" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="175" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="176" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="177" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="178" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="179" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="180" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="181" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="182" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="183" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="184" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="185" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="186" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="187" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="188" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="189" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="190" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="191" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="192" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="193" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="194" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="195" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="196" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="197" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="198" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="199" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="200" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="201" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="202" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="203" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="204" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="205" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="206" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="207" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="208" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="209" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="210" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="211" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="212" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="213" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="214" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="215" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="216" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="217" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="218" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="219" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="220" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="221" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="222" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="223" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="224" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="225" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="226" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="227" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="228" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="229" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="230" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="231" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="232" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="233" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="234" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="235" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="236" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="237" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="238" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="239" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="240" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="241" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="242" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="243" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="244" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="245" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="246" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="247" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="248" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="249" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="250" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="251" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="252" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="253" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="254" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="255" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="256" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="257" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="258" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="259" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="260" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="261" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="262" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="263" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="264" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="265" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="266" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="267" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="268" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="269" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="270" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="271" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="272" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="273" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="274" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="275" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="276" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="277" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="278" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="279" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="280" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="281" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="282" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="283" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="284" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="285" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="286" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="287" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="288" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="289" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="290" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="291" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="292" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="293" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="294" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="295" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="296" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="297" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="298" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="299" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="300" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="301" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="302" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="303" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="304" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="305" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="306" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="307" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="308" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="309" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="310" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="311" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="312" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="313" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="314" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="315" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="316" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="317" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="318" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="319" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="320" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="321" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="322" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="323" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="324" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="325" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="326" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="327" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="328" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="329" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="330" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="331" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="332" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="333" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="334" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="335" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="336" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="337" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="338" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="339" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="340" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="341" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="342" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="343" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="344" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="345" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="346" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="347" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="348" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="349" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="350" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="351" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="352" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="353" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="354" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="355" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="356" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="357" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="358" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="359" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="360" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="361" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="362" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="363" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="364" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="365" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="366" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="367" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="368" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="369" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="370" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="371" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="372" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="373" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="374" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="375" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="376" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="377" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="378" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="379" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="380" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="381" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="382" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="383" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="384" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="385" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="386" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="387" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="388" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="389" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="390" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="391" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="392" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="393" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="394" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="395" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="396" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="397" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="398" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="399" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="400" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="401" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="402" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="403" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="404" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="405" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="406" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="407" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="408" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="409" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="410" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="411" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="412" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="413" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="414" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="415" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="416" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="417" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="418" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="419" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="420" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="421" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="422" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="423" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="424" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="425" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="426" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="427" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="428" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="429" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="430" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="431" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="432" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="433" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="434" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="435" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="436" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="437" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="438" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="439" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="440" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="441" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="442" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="443" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="444" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="445" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="446" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="447" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="448" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="449" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="450" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="451" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="452" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="453" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="454" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="455" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="456" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="457" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="458" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="459" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="460" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="461" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="462" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="463" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="464" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="465" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="466" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="467" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="468" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="469" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="470" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="471" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="472" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="473" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="474" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="475" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="476" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="477" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="478" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="479" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="480" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="481" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="482" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="483" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="484" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="485" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="486" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="487" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="488" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="489" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="490" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="491" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="492" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="493" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="494" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="495" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="496" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="497" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="498" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="499" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="500" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="501" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="502" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="503" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="504" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="505" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="506" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="507" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="508" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="509" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="510" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="511" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="512" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="513" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="514" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="515" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="516" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="517" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="518" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="519" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="520" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="521" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="522" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="523" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="524" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="525" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="526" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="527" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="528" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="529" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="530" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="531" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="532" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="533" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="534" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="535" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="536" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="537" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="538" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="539" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="540" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="541" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="542" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="543" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="544" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="545" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="546" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="547" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="548" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="549" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="550" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="551" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="552" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="553" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="554" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="555" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="556" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="557" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="558" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="559" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="560" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="561" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="562" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="563" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="564" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="565" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="566" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="567" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="568" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="569" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="570" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="571" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="572" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="573" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="574" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="575" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="576" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="577" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="578" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="579" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="580" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="581" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="582" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="583" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="584" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="585" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="586" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="587" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="588" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="589" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="590" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="591" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="592" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="593" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="594" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="595" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="596" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="597" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="598" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="599" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="600" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="601" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="602" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="603" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="604" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="605" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="606" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="607" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="608" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="609" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="610" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="611" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="612" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="613" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="614" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="615" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="616" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="617" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="618" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="619" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="620" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="621" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="622" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="623" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="624" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="625" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="626" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="627" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="628" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="629" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="630" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="631" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="632" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="633" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="634" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="635" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="636" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="637" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="638" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="639" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="640" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="641" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="642" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="643" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="644" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="645" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="646" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="647" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="648" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="649" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="650" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="651" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="652" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="653" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="654" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="655" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="656" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="657" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="658" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="659" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="660" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="661" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="662" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="663" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="664" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="665" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="666" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="667" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="668" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="669" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="670" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="671" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="672" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="673" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="674" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="675" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="676" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="677" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="678" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="679" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="680" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="681" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="682" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="683" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="684" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="685" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="686" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="687" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="688" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="689" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="690" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="691" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="692" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="693" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="694" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="695" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="696" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="697" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="698" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="699" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="700" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="701" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="702" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="703" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="704" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="705" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="706" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="707" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="708" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="709" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="710" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="711" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="712" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="713" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="714" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="715" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="716" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="717" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="718" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="719" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="720" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="721" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="722" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="723" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="724" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="725" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="726" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="727" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="728" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="729" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="730" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="731" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="732" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="733" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="734" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="735" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="736" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="737" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="738" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="739" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="740" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="741" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="742" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="743" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="744" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="745" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="746" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="747" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="748" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="749" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="750" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="751" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="752" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="753" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="754" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="755" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="756" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="757" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="758" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="759" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="760" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="761" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="762" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="763" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="764" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="765" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="766" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="767" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="768" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="769" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="770" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="771" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="772" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="773" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="774" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="775" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="776" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="777" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="778" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="779" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="780" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="781" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="782" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="783" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="784" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="785" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="786" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="787" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="788" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="789" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="790" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="791" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="792" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="793" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="794" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="795" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="796" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="797" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="798" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="799" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="800" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="801" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="802" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="803" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="804" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="805" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="806" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="807" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="808" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="809" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="810" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="1048572" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="49" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="50" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="51" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="52" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="53" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="54" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="55" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="56" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="57" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="58" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="59" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="60" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="61" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="62" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="63" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="64" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="65" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="66" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="67" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="68" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="69" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="70" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="71" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="72" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="73" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="74" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="75" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="76" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="77" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="78" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="79" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="80" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="81" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="82" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="83" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="84" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="85" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="86" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="87" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="88" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="89" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="90" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="91" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="92" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="93" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="94" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="95" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="96" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="97" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="98" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="99" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="100" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="101" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="102" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="103" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="104" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="105" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="106" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="107" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="108" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="109" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="110" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="111" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="112" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="113" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="114" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="115" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="116" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="117" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="118" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="119" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="120" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="121" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="122" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="123" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="124" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="125" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="126" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="127" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="128" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="129" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="130" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="131" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="132" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="133" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="134" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="135" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="136" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="137" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="138" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="139" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="140" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="141" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="142" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="143" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="144" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="145" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="146" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="147" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="148" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="149" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="150" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="151" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="152" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="153" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="154" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="155" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="156" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="157" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="158" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="159" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="160" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="161" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="162" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="163" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="164" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="165" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="166" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="167" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="168" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="169" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="170" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="171" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="172" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="173" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="174" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="175" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="176" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="177" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="178" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="179" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="180" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="181" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="182" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="183" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="184" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="185" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="186" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="187" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="188" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="189" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="190" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="191" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="192" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="193" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="194" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="195" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="196" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="197" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="198" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="199" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="200" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="201" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="202" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="203" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="204" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="205" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="206" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="207" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="208" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="209" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="210" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="211" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="212" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="213" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="214" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="215" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="216" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="217" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="218" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="219" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="220" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="221" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="222" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="223" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="224" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="225" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="226" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="227" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="228" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="229" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="230" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="231" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="232" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="233" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="234" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="235" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="236" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="237" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="238" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="239" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="240" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="241" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="242" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="243" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="244" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="245" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="246" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="247" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="248" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="249" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="250" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="251" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="252" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="253" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="254" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="255" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="256" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="257" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="258" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="259" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="260" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="261" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="262" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="263" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="264" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="265" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="266" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="267" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="268" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="269" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="270" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="271" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="272" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="273" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="274" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="275" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="276" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="277" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="278" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="279" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="280" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="281" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="282" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="283" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="284" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="285" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="286" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="287" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="288" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="289" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="290" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="291" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="292" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="293" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="294" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="295" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="296" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="297" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="298" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="299" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="300" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="301" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="302" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="303" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="304" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="305" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="306" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="307" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="308" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="309" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="310" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="311" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="312" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="313" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="314" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="315" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="316" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="317" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="318" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="319" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="320" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="321" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="322" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="323" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="324" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="325" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="326" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="327" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="328" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="329" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="330" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="331" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="332" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="333" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="334" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="335" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="336" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="337" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="338" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="339" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="340" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="341" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="342" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="343" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="344" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="345" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="346" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="347" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="348" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="349" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="350" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="351" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="352" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="353" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="354" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="355" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="356" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="357" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="358" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="359" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="360" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="361" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="362" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="363" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="364" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="365" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="366" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="367" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="368" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="369" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="370" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="371" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="372" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="373" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="374" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="375" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="376" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="377" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="378" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="379" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="380" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="381" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="382" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="383" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="384" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="385" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="386" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="387" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="388" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="389" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="390" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="391" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="392" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="393" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="394" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="395" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="396" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="397" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="398" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="399" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="400" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="401" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="402" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="403" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="404" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="405" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="406" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="407" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="408" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="409" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="410" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="411" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="412" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="413" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="414" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="415" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="416" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="417" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="418" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="419" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="420" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="421" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="422" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="423" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="424" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="425" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="426" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="427" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="428" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="429" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="430" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="431" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="432" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="433" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="434" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="435" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="436" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="437" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="438" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="439" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="440" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="441" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="442" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="443" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="444" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="445" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="446" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="447" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="448" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="449" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="450" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="451" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="452" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="453" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="454" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="455" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="456" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="457" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="458" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="459" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="460" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="461" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="462" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="463" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="464" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="465" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="466" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="467" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="468" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="469" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="470" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="471" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="472" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="473" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="474" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="475" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="476" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="477" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="478" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="479" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="480" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="481" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="482" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="483" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="484" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="485" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="486" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="487" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="488" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="489" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="490" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="491" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="492" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="493" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="494" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="495" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="496" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="497" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="498" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="499" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="500" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="501" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="502" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="503" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="504" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="505" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="506" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="507" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="508" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="509" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="510" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="511" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="512" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="513" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="514" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="515" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="516" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="517" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="518" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="519" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="520" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="521" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="522" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="523" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="524" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="525" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="526" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="527" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="528" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="529" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="530" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="531" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="532" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="533" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="534" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="535" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="536" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="537" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="538" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="539" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="540" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="541" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="542" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="543" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="544" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="545" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="546" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="547" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="548" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="549" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="550" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="551" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="552" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="553" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="554" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="555" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="556" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="557" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="558" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="559" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="560" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="561" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="562" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="563" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="564" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="565" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="566" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="567" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="568" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="569" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="570" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="571" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="572" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="573" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="574" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="575" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="576" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="577" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="578" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="579" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="580" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="581" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="582" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="583" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="584" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="585" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="586" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="587" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="588" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="589" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="590" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="591" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="592" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="593" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="594" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="595" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="596" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="597" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="598" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="599" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="600" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="601" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="602" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="603" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="604" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="605" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="606" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="607" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="608" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="609" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="610" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="611" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="612" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="613" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="614" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="615" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="616" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="617" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="618" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="619" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="620" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="621" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="622" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="623" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="624" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="625" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="626" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="627" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="628" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="629" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="630" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="631" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="632" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="633" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="634" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="635" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="636" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="637" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="638" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="639" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="640" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="641" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="642" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="643" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="644" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="645" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="646" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="647" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="648" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="649" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="650" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="651" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="652" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="653" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="654" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="655" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="656" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="657" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="658" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="659" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="660" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="661" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="662" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="663" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="664" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="665" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="666" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="667" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="668" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="669" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="670" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="671" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="672" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="673" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="674" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="675" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="676" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="677" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="678" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="679" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="680" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="681" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="682" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="683" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="684" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="685" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="686" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="687" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="688" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="689" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="690" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="691" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="692" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="693" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="694" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="695" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="696" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="697" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="698" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="699" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="700" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="701" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="702" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="703" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="704" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="705" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="706" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="707" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="708" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="709" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="710" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="711" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="712" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="713" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="714" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="715" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="716" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="717" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="718" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="719" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="720" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="721" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="722" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="723" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="724" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="725" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="726" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="727" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="728" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="729" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="730" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="731" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="732" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="733" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="734" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="735" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="736" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="737" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="738" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="739" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="740" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="741" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="742" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="743" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="744" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="745" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="746" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="747" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="748" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="749" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="750" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="751" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="752" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="753" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="754" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="755" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="756" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="757" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="758" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="759" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="760" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="761" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="762" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="763" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="764" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="765" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="766" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="767" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="768" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="769" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="770" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="771" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="772" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="773" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="774" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="775" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="776" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="777" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="778" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="779" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="780" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="781" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="782" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="783" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="784" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="785" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="786" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="787" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="788" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="789" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="790" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="791" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="792" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="793" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="794" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="795" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="796" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="797" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="798" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="799" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="800" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="801" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="802" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="803" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="804" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="805" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="806" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="807" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="808" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="809" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="810" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="1048572" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D1048572" s="13"/>
     </row>
-    <row r="1048575" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="1048575" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D1048575" s="13"/>
     </row>
   </sheetData>
@@ -4001,46 +4007,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45AAE02B-1ED2-44CD-BC76-39A59421CF46}">
   <dimension ref="A1:AC776"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Z18" sqref="Z18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.81640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7265625" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.453125" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.453125" style="11" customWidth="1"/>
+    <col min="1" max="1" width="29.77734375" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.77734375" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" style="11" customWidth="1"/>
     <col min="5" max="5" width="17" style="11" customWidth="1"/>
-    <col min="6" max="6" width="24.6328125" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="11" customWidth="1"/>
-    <col min="8" max="8" width="17.453125" style="11" customWidth="1"/>
-    <col min="9" max="9" width="15.453125" style="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.7265625" style="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.453125" style="11" customWidth="1"/>
-    <col min="12" max="12" width="16.453125" style="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.453125" style="11" customWidth="1"/>
-    <col min="14" max="14" width="21.26953125" style="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.453125" style="11" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.81640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.7265625" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.77734375" style="11" customWidth="1"/>
+    <col min="8" max="8" width="17.44140625" style="11" customWidth="1"/>
+    <col min="9" max="9" width="15.44140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.77734375" style="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.44140625" style="11" customWidth="1"/>
+    <col min="12" max="12" width="16.44140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.44140625" style="11" customWidth="1"/>
+    <col min="14" max="14" width="21.21875" style="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.44140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.77734375" style="11" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.77734375" style="11" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="22" style="11" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="24.453125" style="11" customWidth="1"/>
-    <col min="20" max="20" width="29.36328125" style="11" customWidth="1"/>
-    <col min="21" max="21" width="22.26953125" style="11" customWidth="1"/>
-    <col min="22" max="22" width="25.453125" style="11" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16.26953125" style="11" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="23.36328125" style="11" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="24.44140625" style="11" customWidth="1"/>
+    <col min="20" max="20" width="29.33203125" style="11" customWidth="1"/>
+    <col min="21" max="21" width="22.21875" style="11" customWidth="1"/>
+    <col min="22" max="22" width="25.44140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16.21875" style="11" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="23.33203125" style="11" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="16" style="11" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="21" style="11" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="44.7265625" style="11" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="44.77734375" style="11" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="17" style="11" customWidth="1"/>
-    <col min="29" max="29" width="8.7265625" style="11"/>
-    <col min="30" max="16384" width="8.7265625" style="10"/>
+    <col min="29" max="29" width="8.77734375" style="11"/>
+    <col min="30" max="16384" width="8.77734375" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>2</v>
       </c>
@@ -4129,7 +4135,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:29" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:29" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
         <v>76</v>
       </c>
@@ -4188,7 +4194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:29" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:29" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>84</v>
       </c>
@@ -4247,7 +4253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:29" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:29" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
         <v>116</v>
       </c>
@@ -4308,7 +4314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:29" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
         <v>117</v>
       </c>
@@ -4369,7 +4375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:29" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>119</v>
       </c>
@@ -4430,7 +4436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:29" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:29" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>87</v>
       </c>
@@ -4473,7 +4479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:29" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
         <v>88</v>
       </c>
@@ -4516,7 +4522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:29" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:29" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
         <v>91</v>
       </c>
@@ -4559,7 +4565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:29" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:29" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
         <v>92</v>
       </c>
@@ -4602,7 +4608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:29" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:29" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
         <v>93</v>
       </c>
@@ -4645,7 +4651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:29" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:29" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
         <v>94</v>
       </c>
@@ -4688,7 +4694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:29" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:29" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
         <v>95</v>
       </c>
@@ -4731,7 +4737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:29" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:29" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
         <v>96</v>
       </c>
@@ -4774,7 +4780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:29" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:29" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
         <v>98</v>
       </c>
@@ -4817,7 +4823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:29" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:29" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
         <v>99</v>
       </c>
@@ -4860,7 +4866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:29" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:29" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
         <v>97</v>
       </c>
@@ -4903,7 +4909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:29" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:29" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="14" t="s">
         <v>100</v>
       </c>
@@ -4946,7 +4952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:29" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:29" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="14" t="s">
         <v>101</v>
       </c>
@@ -4989,7 +4995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:29" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:29" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="14" t="s">
         <v>102</v>
       </c>
@@ -5032,7 +5038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:29" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:29" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="s">
         <v>103</v>
       </c>
@@ -5075,7 +5081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:29" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:29" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="14" t="s">
         <v>104</v>
       </c>
@@ -5118,7 +5124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:29" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:29" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="14" t="s">
         <v>120</v>
       </c>
@@ -5183,7 +5189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:29" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:29" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="14" t="s">
         <v>129</v>
       </c>
@@ -5248,67 +5254,137 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="10"/>
-      <c r="O25" s="10"/>
-      <c r="P25" s="10"/>
-      <c r="Q25" s="10"/>
-      <c r="R25" s="10"/>
-      <c r="S25" s="10"/>
-      <c r="T25" s="10"/>
-      <c r="U25" s="10"/>
-      <c r="V25" s="10"/>
-      <c r="W25" s="10"/>
-      <c r="X25" s="10"/>
-      <c r="Y25" s="10"/>
-      <c r="Z25" s="10"/>
-      <c r="AA25" s="10"/>
-      <c r="AB25" s="10"/>
-      <c r="AC25" s="10"/>
-    </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="10"/>
-      <c r="O26" s="10"/>
-      <c r="P26" s="10"/>
-      <c r="Q26" s="10"/>
-      <c r="R26" s="10"/>
-      <c r="S26" s="10"/>
-      <c r="T26" s="10"/>
-      <c r="U26" s="10"/>
-      <c r="V26" s="10"/>
-      <c r="W26" s="10"/>
-      <c r="X26" s="10"/>
-      <c r="Y26" s="10"/>
-      <c r="Z26" s="10"/>
-      <c r="AA26" s="10"/>
-      <c r="AB26" s="10"/>
-      <c r="AC26" s="10"/>
-    </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:29" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" s="17"/>
+      <c r="D25" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E25" s="17"/>
+      <c r="F25" s="9">
+        <v>3</v>
+      </c>
+      <c r="G25" s="17"/>
+      <c r="H25" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="I25" s="17"/>
+      <c r="J25" s="9">
+        <v>2100</v>
+      </c>
+      <c r="K25" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="L25" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="M25" s="17"/>
+      <c r="N25" s="9">
+        <v>2</v>
+      </c>
+      <c r="O25" s="17"/>
+      <c r="P25" s="9">
+        <v>22</v>
+      </c>
+      <c r="Q25" s="17"/>
+      <c r="R25" s="9">
+        <v>2</v>
+      </c>
+      <c r="S25" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="T25" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="U25" s="7"/>
+      <c r="V25" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="W25" s="7"/>
+      <c r="X25" s="9">
+        <v>8000</v>
+      </c>
+      <c r="Y25" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z25" s="20"/>
+      <c r="AA25" s="7"/>
+      <c r="AB25" s="7"/>
+      <c r="AC25" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C26" s="17"/>
+      <c r="D26" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E26" s="17"/>
+      <c r="F26" s="9">
+        <v>3</v>
+      </c>
+      <c r="G26" s="17"/>
+      <c r="H26" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="I26" s="17"/>
+      <c r="J26" s="9">
+        <v>2100</v>
+      </c>
+      <c r="K26" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="L26" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="M26" s="17"/>
+      <c r="N26" s="9">
+        <v>2</v>
+      </c>
+      <c r="O26" s="17"/>
+      <c r="P26" s="9">
+        <v>22</v>
+      </c>
+      <c r="Q26" s="17"/>
+      <c r="R26" s="9">
+        <v>2</v>
+      </c>
+      <c r="S26" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="T26" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="U26" s="7"/>
+      <c r="V26" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="W26" s="7"/>
+      <c r="X26" s="9">
+        <v>8000</v>
+      </c>
+      <c r="Y26" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z26" s="20"/>
+      <c r="AA26" s="7"/>
+      <c r="AB26" s="7"/>
+      <c r="AC26" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A27" s="10"/>
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
@@ -5338,7 +5414,7 @@
       <c r="AB27" s="10"/>
       <c r="AC27" s="10"/>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A28" s="10"/>
       <c r="C28" s="10"/>
       <c r="D28" s="10"/>
@@ -5368,7 +5444,7 @@
       <c r="AB28" s="10"/>
       <c r="AC28" s="10"/>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A29" s="10"/>
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
@@ -5398,7 +5474,7 @@
       <c r="AB29" s="10"/>
       <c r="AC29" s="10"/>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A30" s="10"/>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
@@ -5428,7 +5504,7 @@
       <c r="AB30" s="10"/>
       <c r="AC30" s="10"/>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A31" s="10"/>
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
@@ -5458,7 +5534,7 @@
       <c r="AB31" s="10"/>
       <c r="AC31" s="10"/>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A32" s="10"/>
       <c r="C32" s="10"/>
       <c r="D32" s="10"/>
@@ -5488,750 +5564,750 @@
       <c r="AB32" s="10"/>
       <c r="AC32" s="10"/>
     </row>
-    <row r="33" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="34" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="35" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="36" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="37" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="38" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="39" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="40" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="41" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="42" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="43" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="44" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="45" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="46" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="47" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="48" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="49" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="50" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="51" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="52" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="53" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="54" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="55" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="56" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="57" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="58" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="59" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="60" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="61" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="62" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="63" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="64" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="65" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="66" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="67" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="68" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="69" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="70" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="71" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="72" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="73" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="74" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="75" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="76" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="77" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="78" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="79" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="80" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="81" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="82" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="83" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="84" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="85" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="86" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="87" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="88" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="89" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="90" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="91" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="92" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="93" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="94" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="95" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="96" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="97" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="98" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="99" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="100" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="101" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="102" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="103" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="104" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="105" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="106" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="107" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="108" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="109" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="110" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="111" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="112" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="113" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="114" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="115" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="116" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="117" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="118" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="119" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="120" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="121" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="122" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="123" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="124" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="125" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="126" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="127" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="128" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="129" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="130" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="131" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="132" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="133" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="134" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="135" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="136" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="137" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="138" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="139" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="140" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="141" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="142" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="143" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="144" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="145" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="146" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="147" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="148" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="149" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="150" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="151" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="152" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="153" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="154" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="155" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="156" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="157" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="158" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="159" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="160" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="161" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="162" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="163" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="164" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="165" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="166" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="167" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="168" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="169" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="170" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="171" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="172" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="173" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="174" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="175" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="176" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="177" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="178" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="179" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="180" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="181" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="182" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="183" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="184" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="185" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="186" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="187" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="188" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="189" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="190" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="191" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="192" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="193" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="194" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="195" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="196" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="197" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="198" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="199" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="200" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="201" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="202" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="203" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="204" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="205" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="206" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="207" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="208" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="209" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="210" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="211" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="212" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="213" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="214" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="215" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="216" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="217" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="218" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="219" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="220" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="221" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="222" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="223" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="224" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="225" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="226" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="227" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="228" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="229" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="230" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="231" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="232" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="233" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="234" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="235" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="236" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="237" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="238" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="239" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="240" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="241" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="242" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="243" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="244" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="245" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="246" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="247" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="248" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="249" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="250" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="251" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="252" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="253" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="254" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="255" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="256" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="257" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="258" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="259" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="260" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="261" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="262" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="263" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="264" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="265" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="266" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="267" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="268" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="269" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="270" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="271" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="272" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="273" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="274" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="275" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="276" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="277" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="278" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="279" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="280" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="281" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="282" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="283" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="284" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="285" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="286" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="287" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="288" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="289" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="290" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="291" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="292" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="293" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="294" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="295" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="296" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="297" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="298" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="299" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="300" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="301" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="302" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="303" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="304" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="305" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="306" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="307" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="308" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="309" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="310" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="311" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="312" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="313" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="314" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="315" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="316" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="317" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="318" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="319" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="320" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="321" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="322" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="323" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="324" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="325" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="326" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="327" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="328" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="329" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="330" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="331" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="332" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="333" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="334" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="335" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="336" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="337" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="338" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="339" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="340" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="341" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="342" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="343" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="344" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="345" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="346" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="347" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="348" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="349" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="350" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="351" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="352" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="353" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="354" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="355" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="356" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="357" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="358" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="359" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="360" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="361" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="362" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="363" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="364" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="365" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="366" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="367" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="368" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="369" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="370" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="371" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="372" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="373" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="374" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="375" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="376" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="377" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="378" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="379" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="380" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="381" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="382" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="383" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="384" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="385" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="386" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="387" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="388" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="389" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="390" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="391" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="392" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="393" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="394" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="395" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="396" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="397" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="398" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="399" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="400" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="401" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="402" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="403" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="404" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="405" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="406" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="407" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="408" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="409" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="410" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="411" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="412" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="413" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="414" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="415" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="416" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="417" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="418" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="419" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="420" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="421" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="422" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="423" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="424" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="425" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="426" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="427" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="428" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="429" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="430" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="431" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="432" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="433" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="434" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="435" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="436" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="437" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="438" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="439" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="440" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="441" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="442" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="443" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="444" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="445" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="446" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="447" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="448" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="449" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="450" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="451" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="452" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="453" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="454" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="455" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="456" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="457" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="458" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="459" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="460" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="461" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="462" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="463" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="464" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="465" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="466" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="467" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="468" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="469" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="470" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="471" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="472" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="473" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="474" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="475" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="476" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="477" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="478" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="479" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="480" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="481" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="482" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="483" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="484" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="485" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="486" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="487" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="488" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="489" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="490" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="491" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="492" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="493" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="494" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="495" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="496" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="497" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="498" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="499" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="500" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="501" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="502" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="503" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="504" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="505" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="506" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="507" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="508" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="509" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="510" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="511" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="512" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="513" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="514" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="515" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="516" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="517" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="518" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="519" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="520" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="521" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="522" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="523" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="524" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="525" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="526" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="527" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="528" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="529" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="530" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="531" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="532" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="533" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="534" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="535" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="536" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="537" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="538" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="539" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="540" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="541" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="542" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="543" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="544" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="545" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="546" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="547" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="548" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="549" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="550" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="551" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="552" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="553" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="554" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="555" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="556" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="557" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="558" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="559" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="560" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="561" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="562" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="563" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="564" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="565" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="566" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="567" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="568" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="569" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="570" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="571" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="572" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="573" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="574" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="575" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="576" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="577" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="578" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="579" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="580" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="581" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="582" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="583" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="584" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="585" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="586" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="587" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="588" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="589" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="590" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="591" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="592" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="593" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="594" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="595" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="596" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="597" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="598" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="599" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="600" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="601" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="602" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="603" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="604" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="605" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="606" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="607" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="608" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="609" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="610" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="611" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="612" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="613" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="614" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="615" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="616" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="617" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="618" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="619" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="620" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="621" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="622" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="623" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="624" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="625" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="626" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="627" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="628" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="629" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="630" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="631" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="632" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="633" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="634" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="635" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="636" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="637" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="638" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="639" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="640" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="641" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="642" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="643" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="644" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="645" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="646" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="647" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="648" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="649" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="650" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="651" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="652" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="653" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="654" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="655" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="656" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="657" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="658" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="659" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="660" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="661" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="662" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="663" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="664" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="665" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="666" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="667" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="668" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="669" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="670" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="671" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="672" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="673" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="674" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="675" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="676" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="677" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="678" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="679" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="680" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="681" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="682" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="683" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="684" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="685" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="686" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="687" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="688" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="689" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="690" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="691" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="692" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="693" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="694" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="695" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="696" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="697" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="698" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="699" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="700" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="701" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="702" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="703" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="704" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="705" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="706" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="707" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="708" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="709" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="710" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="711" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="712" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="713" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="714" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="715" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="716" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="717" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="718" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="719" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="720" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="721" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="722" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="723" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="724" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="725" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="726" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="727" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="728" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="729" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="730" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="731" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="732" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="733" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="734" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="735" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="736" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="737" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="738" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="739" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="740" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="741" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="742" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="743" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="744" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="745" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="746" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="747" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="748" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="749" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="750" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="751" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="752" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="753" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="754" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="755" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="756" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="757" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="758" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="759" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="760" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="761" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="762" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="763" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="764" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="765" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="766" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="767" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="768" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="769" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="770" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="771" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="772" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="773" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="774" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="775" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="776" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="33" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="34" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="35" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="36" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="37" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="38" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="39" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="40" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="41" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="42" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="43" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="44" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="45" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="46" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="47" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="48" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="49" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="50" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="51" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="52" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="53" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="54" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="55" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="56" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="57" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="58" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="59" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="60" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="61" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="62" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="63" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="64" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="65" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="66" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="67" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="68" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="69" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="70" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="71" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="72" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="73" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="74" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="75" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="76" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="77" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="78" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="79" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="80" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="81" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="82" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="83" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="84" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="85" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="86" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="87" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="88" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="89" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="90" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="91" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="92" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="93" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="94" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="95" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="96" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="97" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="98" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="99" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="100" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="101" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="102" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="103" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="104" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="105" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="106" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="107" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="108" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="109" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="110" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="111" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="112" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="113" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="114" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="115" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="116" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="117" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="118" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="119" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="120" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="121" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="122" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="123" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="124" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="125" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="126" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="127" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="128" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="129" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="130" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="131" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="132" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="133" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="134" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="135" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="136" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="137" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="138" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="139" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="140" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="141" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="142" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="143" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="144" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="145" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="146" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="147" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="148" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="149" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="150" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="151" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="152" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="153" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="154" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="155" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="156" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="157" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="158" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="159" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="160" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="161" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="162" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="163" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="164" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="165" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="166" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="167" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="168" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="169" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="170" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="171" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="172" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="173" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="174" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="175" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="176" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="177" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="178" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="179" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="180" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="181" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="182" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="183" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="184" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="185" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="186" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="187" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="188" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="189" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="190" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="191" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="192" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="193" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="194" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="195" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="196" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="197" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="198" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="199" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="200" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="201" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="202" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="203" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="204" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="205" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="206" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="207" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="208" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="209" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="210" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="211" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="212" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="213" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="214" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="215" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="216" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="217" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="218" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="219" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="220" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="221" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="222" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="223" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="224" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="225" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="226" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="227" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="228" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="229" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="230" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="231" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="232" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="233" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="234" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="235" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="236" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="237" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="238" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="239" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="240" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="241" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="242" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="243" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="244" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="245" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="246" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="247" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="248" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="249" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="250" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="251" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="252" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="253" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="254" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="255" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="256" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="257" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="258" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="259" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="260" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="261" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="262" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="263" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="264" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="265" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="266" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="267" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="268" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="269" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="270" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="271" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="272" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="273" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="274" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="275" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="276" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="277" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="278" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="279" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="280" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="281" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="282" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="283" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="284" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="285" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="286" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="287" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="288" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="289" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="290" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="291" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="292" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="293" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="294" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="295" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="296" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="297" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="298" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="299" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="300" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="301" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="302" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="303" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="304" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="305" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="306" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="307" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="308" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="309" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="310" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="311" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="312" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="313" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="314" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="315" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="316" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="317" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="318" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="319" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="320" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="321" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="322" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="323" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="324" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="325" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="326" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="327" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="328" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="329" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="330" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="331" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="332" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="333" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="334" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="335" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="336" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="337" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="338" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="339" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="340" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="341" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="342" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="343" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="344" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="345" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="346" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="347" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="348" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="349" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="350" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="351" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="352" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="353" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="354" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="355" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="356" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="357" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="358" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="359" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="360" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="361" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="362" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="363" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="364" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="365" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="366" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="367" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="368" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="369" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="370" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="371" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="372" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="373" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="374" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="375" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="376" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="377" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="378" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="379" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="380" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="381" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="382" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="383" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="384" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="385" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="386" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="387" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="388" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="389" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="390" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="391" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="392" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="393" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="394" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="395" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="396" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="397" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="398" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="399" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="400" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="401" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="402" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="403" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="404" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="405" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="406" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="407" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="408" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="409" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="410" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="411" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="412" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="413" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="414" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="415" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="416" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="417" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="418" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="419" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="420" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="421" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="422" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="423" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="424" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="425" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="426" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="427" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="428" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="429" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="430" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="431" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="432" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="433" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="434" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="435" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="436" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="437" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="438" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="439" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="440" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="441" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="442" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="443" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="444" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="445" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="446" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="447" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="448" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="449" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="450" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="451" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="452" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="453" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="454" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="455" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="456" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="457" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="458" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="459" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="460" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="461" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="462" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="463" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="464" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="465" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="466" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="467" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="468" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="469" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="470" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="471" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="472" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="473" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="474" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="475" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="476" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="477" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="478" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="479" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="480" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="481" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="482" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="483" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="484" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="485" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="486" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="487" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="488" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="489" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="490" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="491" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="492" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="493" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="494" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="495" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="496" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="497" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="498" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="499" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="500" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="501" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="502" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="503" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="504" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="505" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="506" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="507" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="508" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="509" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="510" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="511" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="512" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="513" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="514" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="515" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="516" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="517" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="518" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="519" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="520" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="521" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="522" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="523" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="524" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="525" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="526" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="527" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="528" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="529" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="530" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="531" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="532" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="533" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="534" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="535" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="536" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="537" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="538" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="539" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="540" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="541" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="542" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="543" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="544" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="545" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="546" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="547" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="548" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="549" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="550" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="551" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="552" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="553" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="554" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="555" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="556" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="557" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="558" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="559" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="560" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="561" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="562" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="563" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="564" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="565" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="566" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="567" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="568" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="569" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="570" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="571" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="572" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="573" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="574" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="575" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="576" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="577" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="578" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="579" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="580" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="581" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="582" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="583" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="584" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="585" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="586" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="587" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="588" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="589" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="590" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="591" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="592" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="593" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="594" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="595" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="596" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="597" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="598" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="599" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="600" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="601" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="602" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="603" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="604" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="605" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="606" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="607" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="608" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="609" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="610" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="611" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="612" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="613" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="614" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="615" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="616" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="617" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="618" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="619" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="620" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="621" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="622" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="623" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="624" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="625" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="626" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="627" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="628" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="629" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="630" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="631" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="632" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="633" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="634" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="635" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="636" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="637" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="638" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="639" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="640" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="641" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="642" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="643" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="644" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="645" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="646" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="647" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="648" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="649" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="650" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="651" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="652" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="653" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="654" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="655" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="656" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="657" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="658" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="659" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="660" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="661" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="662" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="663" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="664" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="665" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="666" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="667" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="668" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="669" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="670" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="671" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="672" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="673" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="674" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="675" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="676" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="677" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="678" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="679" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="680" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="681" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="682" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="683" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="684" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="685" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="686" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="687" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="688" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="689" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="690" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="691" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="692" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="693" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="694" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="695" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="696" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="697" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="698" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="699" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="700" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="701" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="702" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="703" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="704" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="705" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="706" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="707" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="708" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="709" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="710" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="711" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="712" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="713" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="714" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="715" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="716" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="717" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="718" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="719" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="720" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="721" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="722" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="723" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="724" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="725" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="726" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="727" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="728" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="729" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="730" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="731" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="732" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="733" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="734" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="735" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="736" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="737" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="738" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="739" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="740" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="741" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="742" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="743" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="744" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="745" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="746" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="747" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="748" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="749" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="750" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="751" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="752" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="753" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="754" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="755" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="756" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="757" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="758" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="759" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="760" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="761" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="762" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="763" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="764" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="765" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="766" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="767" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="768" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="769" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="770" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="771" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="772" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="773" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="774" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="775" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="776" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/test/resources/testData/XAlpha.xlsx
+++ b/src/test/resources/testData/XAlpha.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DC160BB-9A21-4B04-B525-36B57B83100B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3868F856-AEB3-46ED-914D-83E7736FE517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="644" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="136">
   <si>
     <t>Username</t>
   </si>
@@ -413,6 +413,18 @@
   </si>
   <si>
     <t>QA_TestCase_Auto_XAlpha_066</t>
+  </si>
+  <si>
+    <t>StartDate</t>
+  </si>
+  <si>
+    <t>EndDate</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_XAlpha_047</t>
+  </si>
+  <si>
+    <t>2022-06-20 22:22:30</t>
   </si>
 </sst>
 </file>
@@ -4005,48 +4017,49 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45AAE02B-1ED2-44CD-BC76-39A59421CF46}">
-  <dimension ref="A1:AC776"/>
+  <dimension ref="A1:AE777"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Z18" sqref="Z18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="29.77734375" style="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.77734375" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.44140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.44140625" style="11" customWidth="1"/>
-    <col min="5" max="5" width="17" style="11" customWidth="1"/>
-    <col min="6" max="6" width="24.6640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.77734375" style="11" customWidth="1"/>
-    <col min="8" max="8" width="17.44140625" style="11" customWidth="1"/>
-    <col min="9" max="9" width="15.44140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.77734375" style="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.44140625" style="11" customWidth="1"/>
-    <col min="12" max="12" width="16.44140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="18.109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.44140625" style="11" customWidth="1"/>
+    <col min="7" max="7" width="17" style="11" customWidth="1"/>
+    <col min="8" max="8" width="24.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.77734375" style="11" customWidth="1"/>
+    <col min="10" max="10" width="17.44140625" style="11" customWidth="1"/>
+    <col min="11" max="11" width="15.44140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.77734375" style="11" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="16.44140625" style="11" customWidth="1"/>
-    <col min="14" max="14" width="21.21875" style="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.44140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.77734375" style="11" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.77734375" style="11" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="22" style="11" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="24.44140625" style="11" customWidth="1"/>
-    <col min="20" max="20" width="29.33203125" style="11" customWidth="1"/>
-    <col min="21" max="21" width="22.21875" style="11" customWidth="1"/>
-    <col min="22" max="22" width="25.44140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16.21875" style="11" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="23.33203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="16" style="11" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="21" style="11" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="44.77734375" style="11" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="17" style="11" customWidth="1"/>
-    <col min="29" max="29" width="8.77734375" style="11"/>
-    <col min="30" max="16384" width="8.77734375" style="10"/>
+    <col min="14" max="14" width="16.44140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.44140625" style="11" customWidth="1"/>
+    <col min="16" max="16" width="21.21875" style="11" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.44140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.77734375" style="11" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.77734375" style="11" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="22" style="11" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="24.44140625" style="11" customWidth="1"/>
+    <col min="22" max="22" width="29.33203125" style="11" customWidth="1"/>
+    <col min="23" max="23" width="22.21875" style="11" customWidth="1"/>
+    <col min="24" max="24" width="25.77734375" style="11" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="23.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.21875" style="11" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="19.88671875" style="11" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="43.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="17" style="11" customWidth="1"/>
+    <col min="31" max="31" width="8.77734375" style="11"/>
+    <col min="32" max="16384" width="8.77734375" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>2</v>
       </c>
@@ -4054,389 +4067,405 @@
         <v>25</v>
       </c>
       <c r="C1" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="E1" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="G1" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="I1" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="K1" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="L1" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="M1" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="N1" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="O1" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="P1" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="O1" s="14" t="s">
+      <c r="Q1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="R1" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="Q1" s="14" t="s">
+      <c r="S1" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="T1" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="S1" s="14" t="s">
+      <c r="U1" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="T1" s="8" t="s">
+      <c r="V1" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="U1" s="14" t="s">
+      <c r="W1" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="V1" s="23" t="s">
+      <c r="X1" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="W1" s="14" t="s">
+      <c r="Y1" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="X1" s="23" t="s">
+      <c r="Z1" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="Y1" s="14" t="s">
+      <c r="AA1" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="Z1" s="19" t="s">
+      <c r="AB1" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="AA1" s="14" t="s">
+      <c r="AC1" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="AB1" s="14" t="s">
+      <c r="AD1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="AC1" s="15" t="s">
+      <c r="AE1" s="15" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:29" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:31" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
         <v>76</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="17">
-        <v>1</v>
-      </c>
       <c r="F2" s="9"/>
-      <c r="G2" s="17" t="s">
-        <v>67</v>
+      <c r="G2" s="17">
+        <v>1</v>
       </c>
       <c r="H2" s="9"/>
-      <c r="I2" s="17">
+      <c r="I2" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="J2" s="9"/>
+      <c r="K2" s="17">
         <v>2000</v>
       </c>
-      <c r="J2" s="9"/>
-      <c r="K2" s="17" t="s">
-        <v>67</v>
-      </c>
       <c r="L2" s="9"/>
-      <c r="M2" s="17">
-        <v>1</v>
+      <c r="M2" s="17" t="s">
+        <v>67</v>
       </c>
       <c r="N2" s="9"/>
       <c r="O2" s="17">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="P2" s="9"/>
       <c r="Q2" s="17">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="R2" s="9"/>
-      <c r="S2" s="21"/>
-      <c r="T2" s="22"/>
-      <c r="U2" s="7" t="s">
+      <c r="S2" s="17">
+        <v>1</v>
+      </c>
+      <c r="T2" s="9"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="22"/>
+      <c r="W2" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="V2" s="9"/>
-      <c r="W2" s="7">
+      <c r="X2" s="9"/>
+      <c r="Y2" s="7">
         <v>8000</v>
       </c>
-      <c r="X2" s="9"/>
-      <c r="Y2" s="7" t="s">
+      <c r="Z2" s="9"/>
+      <c r="AA2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="Z2" s="20"/>
-      <c r="AA2" s="7"/>
-      <c r="AB2" s="7"/>
-      <c r="AC2" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AB2" s="20"/>
+      <c r="AC2" s="7"/>
+      <c r="AD2" s="7"/>
+      <c r="AE2" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>84</v>
       </c>
       <c r="B3" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="17">
-        <v>1</v>
-      </c>
       <c r="F3" s="9"/>
-      <c r="G3" s="17" t="s">
-        <v>67</v>
+      <c r="G3" s="17">
+        <v>1</v>
       </c>
       <c r="H3" s="9"/>
-      <c r="I3" s="17">
+      <c r="I3" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="J3" s="9"/>
+      <c r="K3" s="17">
         <v>2000</v>
       </c>
-      <c r="J3" s="9"/>
-      <c r="K3" s="17" t="s">
-        <v>67</v>
-      </c>
       <c r="L3" s="9"/>
-      <c r="M3" s="17">
-        <v>1</v>
+      <c r="M3" s="17" t="s">
+        <v>67</v>
       </c>
       <c r="N3" s="9"/>
       <c r="O3" s="17">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="P3" s="9"/>
       <c r="Q3" s="17">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="R3" s="9"/>
-      <c r="S3" s="21"/>
-      <c r="T3" s="22"/>
-      <c r="U3" s="7" t="s">
+      <c r="S3" s="17">
+        <v>1</v>
+      </c>
+      <c r="T3" s="9"/>
+      <c r="U3" s="21"/>
+      <c r="V3" s="22"/>
+      <c r="W3" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="V3" s="9"/>
-      <c r="W3" s="7">
+      <c r="X3" s="9"/>
+      <c r="Y3" s="7">
         <v>8000</v>
       </c>
-      <c r="X3" s="9"/>
-      <c r="Y3" s="7" t="s">
+      <c r="Z3" s="9"/>
+      <c r="AA3" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="Z3" s="20"/>
-      <c r="AA3" s="7"/>
-      <c r="AB3" s="7"/>
-      <c r="AC3" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AB3" s="20"/>
+      <c r="AC3" s="7"/>
+      <c r="AD3" s="7"/>
+      <c r="AE3" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
         <v>116</v>
       </c>
       <c r="B4" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="17">
-        <v>1</v>
-      </c>
       <c r="F4" s="9"/>
-      <c r="G4" s="17" t="s">
-        <v>67</v>
+      <c r="G4" s="17">
+        <v>1</v>
       </c>
       <c r="H4" s="9"/>
-      <c r="I4" s="17">
+      <c r="I4" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" s="9"/>
+      <c r="K4" s="17">
         <v>2000</v>
       </c>
-      <c r="J4" s="9"/>
-      <c r="K4" s="17" t="s">
-        <v>67</v>
-      </c>
       <c r="L4" s="9"/>
-      <c r="M4" s="17">
-        <v>1</v>
+      <c r="M4" s="17" t="s">
+        <v>67</v>
       </c>
       <c r="N4" s="9"/>
       <c r="O4" s="17">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="P4" s="9"/>
       <c r="Q4" s="17">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="R4" s="9"/>
-      <c r="S4" s="21"/>
-      <c r="T4" s="22"/>
-      <c r="U4" s="7" t="s">
+      <c r="S4" s="17">
+        <v>1</v>
+      </c>
+      <c r="T4" s="9"/>
+      <c r="U4" s="21"/>
+      <c r="V4" s="22"/>
+      <c r="W4" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="V4" s="9"/>
-      <c r="W4" s="7">
+      <c r="X4" s="9"/>
+      <c r="Y4" s="7">
         <v>8000</v>
       </c>
-      <c r="X4" s="9"/>
-      <c r="Y4" s="7" t="s">
+      <c r="Z4" s="9"/>
+      <c r="AA4" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="Z4" s="20"/>
-      <c r="AA4" s="7" t="s">
+      <c r="AB4" s="20"/>
+      <c r="AC4" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="AB4" s="7"/>
-      <c r="AC4" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AD4" s="7"/>
+      <c r="AE4" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
         <v>117</v>
       </c>
       <c r="B5" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="17">
-        <v>1</v>
-      </c>
       <c r="F5" s="9"/>
-      <c r="G5" s="17" t="s">
-        <v>67</v>
+      <c r="G5" s="17">
+        <v>1</v>
       </c>
       <c r="H5" s="9"/>
-      <c r="I5" s="17">
+      <c r="I5" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="J5" s="9"/>
+      <c r="K5" s="17">
         <v>2000</v>
       </c>
-      <c r="J5" s="9"/>
-      <c r="K5" s="17" t="s">
-        <v>67</v>
-      </c>
       <c r="L5" s="9"/>
-      <c r="M5" s="17">
-        <v>1</v>
+      <c r="M5" s="17" t="s">
+        <v>67</v>
       </c>
       <c r="N5" s="9"/>
       <c r="O5" s="17">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="P5" s="9"/>
       <c r="Q5" s="17">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="R5" s="9"/>
-      <c r="S5" s="21"/>
-      <c r="T5" s="22"/>
-      <c r="U5" s="7" t="s">
+      <c r="S5" s="17">
+        <v>1</v>
+      </c>
+      <c r="T5" s="9"/>
+      <c r="U5" s="21"/>
+      <c r="V5" s="22"/>
+      <c r="W5" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="V5" s="9"/>
-      <c r="W5" s="7">
+      <c r="X5" s="9"/>
+      <c r="Y5" s="7">
         <v>8000</v>
       </c>
-      <c r="X5" s="9"/>
-      <c r="Y5" s="7" t="s">
+      <c r="Z5" s="9"/>
+      <c r="AA5" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="Z5" s="20"/>
-      <c r="AA5" s="7" t="s">
+      <c r="AB5" s="20"/>
+      <c r="AC5" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="AB5" s="7"/>
-      <c r="AC5" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AD5" s="7"/>
+      <c r="AE5" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>119</v>
       </c>
       <c r="B6" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="17">
-        <v>1</v>
-      </c>
       <c r="F6" s="9"/>
-      <c r="G6" s="17" t="s">
-        <v>67</v>
+      <c r="G6" s="17">
+        <v>1</v>
       </c>
       <c r="H6" s="9"/>
-      <c r="I6" s="17">
+      <c r="I6" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="J6" s="9"/>
+      <c r="K6" s="17">
         <v>2000</v>
       </c>
-      <c r="J6" s="9"/>
-      <c r="K6" s="17" t="s">
-        <v>67</v>
-      </c>
       <c r="L6" s="9"/>
-      <c r="M6" s="17">
-        <v>1</v>
+      <c r="M6" s="17" t="s">
+        <v>67</v>
       </c>
       <c r="N6" s="9"/>
       <c r="O6" s="17">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="P6" s="9"/>
       <c r="Q6" s="17">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="R6" s="9"/>
-      <c r="S6" s="21"/>
-      <c r="T6" s="22"/>
-      <c r="U6" s="7" t="s">
+      <c r="S6" s="17">
+        <v>1</v>
+      </c>
+      <c r="T6" s="9"/>
+      <c r="U6" s="21"/>
+      <c r="V6" s="22"/>
+      <c r="W6" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="V6" s="9"/>
-      <c r="W6" s="7">
+      <c r="X6" s="9"/>
+      <c r="Y6" s="7">
         <v>8000</v>
       </c>
-      <c r="X6" s="9"/>
-      <c r="Y6" s="7" t="s">
+      <c r="Z6" s="9"/>
+      <c r="AA6" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="Z6" s="20"/>
-      <c r="AA6" s="7" t="s">
+      <c r="AB6" s="20"/>
+      <c r="AC6" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="AB6" s="7"/>
-      <c r="AC6" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AD6" s="7"/>
+      <c r="AE6" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>87</v>
       </c>
@@ -4444,7 +4473,7 @@
         <v>77</v>
       </c>
       <c r="C7" s="17"/>
-      <c r="D7" s="9"/>
+      <c r="D7" s="17"/>
       <c r="E7" s="17"/>
       <c r="F7" s="9"/>
       <c r="G7" s="17"/>
@@ -4459,27 +4488,29 @@
       <c r="P7" s="9"/>
       <c r="Q7" s="17"/>
       <c r="R7" s="9"/>
-      <c r="S7" s="21" t="s">
+      <c r="S7" s="17"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="T7" s="22"/>
-      <c r="U7" s="7"/>
-      <c r="V7" s="9"/>
+      <c r="V7" s="22"/>
       <c r="W7" s="7"/>
       <c r="X7" s="9"/>
-      <c r="Y7" s="7" t="s">
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="9"/>
+      <c r="AA7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="Z7" s="20" t="s">
+      <c r="AB7" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="AA7" s="7"/>
-      <c r="AB7" s="7"/>
-      <c r="AC7" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AC7" s="7"/>
+      <c r="AD7" s="7"/>
+      <c r="AE7" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
         <v>88</v>
       </c>
@@ -4487,7 +4518,7 @@
         <v>77</v>
       </c>
       <c r="C8" s="17"/>
-      <c r="D8" s="9"/>
+      <c r="D8" s="17"/>
       <c r="E8" s="17"/>
       <c r="F8" s="9"/>
       <c r="G8" s="17"/>
@@ -4502,27 +4533,29 @@
       <c r="P8" s="9"/>
       <c r="Q8" s="17"/>
       <c r="R8" s="9"/>
-      <c r="S8" s="21" t="s">
+      <c r="S8" s="17"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="T8" s="22"/>
-      <c r="U8" s="7"/>
-      <c r="V8" s="9"/>
+      <c r="V8" s="22"/>
       <c r="W8" s="7"/>
       <c r="X8" s="9"/>
-      <c r="Y8" s="7" t="s">
+      <c r="Y8" s="7"/>
+      <c r="Z8" s="9"/>
+      <c r="AA8" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="Z8" s="20" t="s">
+      <c r="AB8" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="AA8" s="7"/>
-      <c r="AB8" s="7"/>
-      <c r="AC8" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AC8" s="7"/>
+      <c r="AD8" s="7"/>
+      <c r="AE8" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
         <v>91</v>
       </c>
@@ -4530,7 +4563,7 @@
         <v>77</v>
       </c>
       <c r="C9" s="17"/>
-      <c r="D9" s="9"/>
+      <c r="D9" s="17"/>
       <c r="E9" s="17"/>
       <c r="F9" s="9"/>
       <c r="G9" s="17"/>
@@ -4545,27 +4578,29 @@
       <c r="P9" s="9"/>
       <c r="Q9" s="17"/>
       <c r="R9" s="9"/>
-      <c r="S9" s="21" t="s">
+      <c r="S9" s="17"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="T9" s="22"/>
-      <c r="U9" s="7"/>
-      <c r="V9" s="9"/>
+      <c r="V9" s="22"/>
       <c r="W9" s="7"/>
       <c r="X9" s="9"/>
-      <c r="Y9" s="7" t="s">
+      <c r="Y9" s="7"/>
+      <c r="Z9" s="9"/>
+      <c r="AA9" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="Z9" s="20" t="s">
+      <c r="AB9" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="AA9" s="7"/>
-      <c r="AB9" s="7"/>
-      <c r="AC9" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AC9" s="7"/>
+      <c r="AD9" s="7"/>
+      <c r="AE9" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
         <v>92</v>
       </c>
@@ -4573,7 +4608,7 @@
         <v>77</v>
       </c>
       <c r="C10" s="17"/>
-      <c r="D10" s="9"/>
+      <c r="D10" s="17"/>
       <c r="E10" s="17"/>
       <c r="F10" s="9"/>
       <c r="G10" s="17"/>
@@ -4588,35 +4623,41 @@
       <c r="P10" s="9"/>
       <c r="Q10" s="17"/>
       <c r="R10" s="9"/>
-      <c r="S10" s="21" t="s">
+      <c r="S10" s="17"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="T10" s="22"/>
-      <c r="U10" s="7"/>
-      <c r="V10" s="9"/>
+      <c r="V10" s="22"/>
       <c r="W10" s="7"/>
       <c r="X10" s="9"/>
-      <c r="Y10" s="7" t="s">
+      <c r="Y10" s="7"/>
+      <c r="Z10" s="9"/>
+      <c r="AA10" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="Z10" s="20" t="s">
+      <c r="AB10" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="AA10" s="7"/>
-      <c r="AB10" s="7"/>
-      <c r="AC10" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AC10" s="7"/>
+      <c r="AD10" s="7"/>
+      <c r="AE10" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
-        <v>93</v>
+        <v>134</v>
       </c>
       <c r="B11" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="9"/>
+      <c r="C11" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>135</v>
+      </c>
       <c r="E11" s="17"/>
       <c r="F11" s="9"/>
       <c r="G11" s="17"/>
@@ -4631,35 +4672,35 @@
       <c r="P11" s="9"/>
       <c r="Q11" s="17"/>
       <c r="R11" s="9"/>
-      <c r="S11" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="T11" s="22"/>
-      <c r="U11" s="7"/>
-      <c r="V11" s="9"/>
+      <c r="S11" s="17"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="21"/>
+      <c r="V11" s="22"/>
       <c r="W11" s="7"/>
       <c r="X11" s="9"/>
-      <c r="Y11" s="7" t="s">
+      <c r="Y11" s="7"/>
+      <c r="Z11" s="9"/>
+      <c r="AA11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB11" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="Z11" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA11" s="7"/>
-      <c r="AB11" s="7"/>
-      <c r="AC11" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:29" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AC11" s="7"/>
+      <c r="AD11" s="7"/>
+      <c r="AE11" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B12" s="17" t="s">
         <v>77</v>
       </c>
       <c r="C12" s="17"/>
-      <c r="D12" s="9"/>
+      <c r="D12" s="17"/>
       <c r="E12" s="17"/>
       <c r="F12" s="9"/>
       <c r="G12" s="17"/>
@@ -4674,35 +4715,37 @@
       <c r="P12" s="9"/>
       <c r="Q12" s="17"/>
       <c r="R12" s="9"/>
-      <c r="S12" s="21" t="s">
+      <c r="S12" s="17"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="T12" s="22"/>
-      <c r="U12" s="7"/>
-      <c r="V12" s="9"/>
+      <c r="V12" s="22"/>
       <c r="W12" s="7"/>
       <c r="X12" s="9"/>
-      <c r="Y12" s="7" t="s">
+      <c r="Y12" s="7"/>
+      <c r="Z12" s="9"/>
+      <c r="AA12" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="Z12" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA12" s="7"/>
-      <c r="AB12" s="7"/>
-      <c r="AC12" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:29" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AB12" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC12" s="7"/>
+      <c r="AD12" s="7"/>
+      <c r="AE12" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B13" s="17" t="s">
         <v>77</v>
       </c>
       <c r="C13" s="17"/>
-      <c r="D13" s="9"/>
+      <c r="D13" s="17"/>
       <c r="E13" s="17"/>
       <c r="F13" s="9"/>
       <c r="G13" s="17"/>
@@ -4717,35 +4760,37 @@
       <c r="P13" s="9"/>
       <c r="Q13" s="17"/>
       <c r="R13" s="9"/>
-      <c r="S13" s="21" t="s">
+      <c r="S13" s="17"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="T13" s="22"/>
-      <c r="U13" s="7"/>
-      <c r="V13" s="9"/>
+      <c r="V13" s="22"/>
       <c r="W13" s="7"/>
       <c r="X13" s="9"/>
-      <c r="Y13" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z13" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA13" s="7"/>
-      <c r="AB13" s="7"/>
-      <c r="AC13" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:29" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Y13" s="7"/>
+      <c r="Z13" s="9"/>
+      <c r="AA13" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB13" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC13" s="7"/>
+      <c r="AD13" s="7"/>
+      <c r="AE13" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B14" s="17" t="s">
         <v>77</v>
       </c>
       <c r="C14" s="17"/>
-      <c r="D14" s="9"/>
+      <c r="D14" s="17"/>
       <c r="E14" s="17"/>
       <c r="F14" s="9"/>
       <c r="G14" s="17"/>
@@ -4760,35 +4805,37 @@
       <c r="P14" s="9"/>
       <c r="Q14" s="17"/>
       <c r="R14" s="9"/>
-      <c r="S14" s="21" t="s">
+      <c r="S14" s="17"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="T14" s="22"/>
-      <c r="U14" s="7"/>
-      <c r="V14" s="9"/>
+      <c r="V14" s="22"/>
       <c r="W14" s="7"/>
       <c r="X14" s="9"/>
-      <c r="Y14" s="7" t="s">
+      <c r="Y14" s="7"/>
+      <c r="Z14" s="9"/>
+      <c r="AA14" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="Z14" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA14" s="7"/>
-      <c r="AB14" s="7"/>
-      <c r="AC14" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AB14" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC14" s="7"/>
+      <c r="AD14" s="7"/>
+      <c r="AE14" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B15" s="17" t="s">
         <v>77</v>
       </c>
       <c r="C15" s="17"/>
-      <c r="D15" s="9"/>
+      <c r="D15" s="17"/>
       <c r="E15" s="17"/>
       <c r="F15" s="9"/>
       <c r="G15" s="17"/>
@@ -4803,35 +4850,37 @@
       <c r="P15" s="9"/>
       <c r="Q15" s="17"/>
       <c r="R15" s="9"/>
-      <c r="S15" s="21" t="s">
+      <c r="S15" s="17"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="T15" s="22"/>
-      <c r="U15" s="7"/>
-      <c r="V15" s="9"/>
+      <c r="V15" s="22"/>
       <c r="W15" s="7"/>
       <c r="X15" s="9"/>
-      <c r="Y15" s="7" t="s">
+      <c r="Y15" s="7"/>
+      <c r="Z15" s="9"/>
+      <c r="AA15" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB15" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="Z15" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="AA15" s="7"/>
-      <c r="AB15" s="7"/>
-      <c r="AC15" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:29" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AC15" s="7"/>
+      <c r="AD15" s="7"/>
+      <c r="AE15" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B16" s="17" t="s">
         <v>77</v>
       </c>
       <c r="C16" s="17"/>
-      <c r="D16" s="9"/>
+      <c r="D16" s="17"/>
       <c r="E16" s="17"/>
       <c r="F16" s="9"/>
       <c r="G16" s="17"/>
@@ -4846,35 +4895,37 @@
       <c r="P16" s="9"/>
       <c r="Q16" s="17"/>
       <c r="R16" s="9"/>
-      <c r="S16" s="21" t="s">
+      <c r="S16" s="17"/>
+      <c r="T16" s="9"/>
+      <c r="U16" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="T16" s="22"/>
-      <c r="U16" s="7"/>
-      <c r="V16" s="9"/>
+      <c r="V16" s="22"/>
       <c r="W16" s="7"/>
       <c r="X16" s="9"/>
-      <c r="Y16" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z16" s="20" t="s">
+      <c r="Y16" s="7"/>
+      <c r="Z16" s="9"/>
+      <c r="AA16" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB16" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="AA16" s="7"/>
-      <c r="AB16" s="7"/>
-      <c r="AC16" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:29" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AC16" s="7"/>
+      <c r="AD16" s="7"/>
+      <c r="AE16" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B17" s="17" t="s">
         <v>77</v>
       </c>
       <c r="C17" s="17"/>
-      <c r="D17" s="9"/>
+      <c r="D17" s="17"/>
       <c r="E17" s="17"/>
       <c r="F17" s="9"/>
       <c r="G17" s="17"/>
@@ -4889,35 +4940,37 @@
       <c r="P17" s="9"/>
       <c r="Q17" s="17"/>
       <c r="R17" s="9"/>
-      <c r="S17" s="21" t="s">
+      <c r="S17" s="17"/>
+      <c r="T17" s="9"/>
+      <c r="U17" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="T17" s="22"/>
-      <c r="U17" s="7"/>
-      <c r="V17" s="9"/>
+      <c r="V17" s="22"/>
       <c r="W17" s="7"/>
       <c r="X17" s="9"/>
-      <c r="Y17" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z17" s="20" t="s">
+      <c r="Y17" s="7"/>
+      <c r="Z17" s="9"/>
+      <c r="AA17" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB17" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="AA17" s="7"/>
-      <c r="AB17" s="7"/>
-      <c r="AC17" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:29" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AC17" s="7"/>
+      <c r="AD17" s="7"/>
+      <c r="AE17" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="14" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B18" s="17" t="s">
         <v>77</v>
       </c>
       <c r="C18" s="17"/>
-      <c r="D18" s="9"/>
+      <c r="D18" s="17"/>
       <c r="E18" s="17"/>
       <c r="F18" s="9"/>
       <c r="G18" s="17"/>
@@ -4932,35 +4985,37 @@
       <c r="P18" s="9"/>
       <c r="Q18" s="17"/>
       <c r="R18" s="9"/>
-      <c r="S18" s="21" t="s">
+      <c r="S18" s="17"/>
+      <c r="T18" s="9"/>
+      <c r="U18" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="T18" s="22"/>
-      <c r="U18" s="7"/>
-      <c r="V18" s="9"/>
+      <c r="V18" s="22"/>
       <c r="W18" s="7"/>
       <c r="X18" s="9"/>
-      <c r="Y18" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z18" s="20" t="s">
+      <c r="Y18" s="7"/>
+      <c r="Z18" s="9"/>
+      <c r="AA18" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB18" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="AA18" s="7"/>
-      <c r="AB18" s="7"/>
-      <c r="AC18" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:29" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AC18" s="7"/>
+      <c r="AD18" s="7"/>
+      <c r="AE18" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B19" s="17" t="s">
         <v>77</v>
       </c>
       <c r="C19" s="17"/>
-      <c r="D19" s="9"/>
+      <c r="D19" s="17"/>
       <c r="E19" s="17"/>
       <c r="F19" s="9"/>
       <c r="G19" s="17"/>
@@ -4975,35 +5030,37 @@
       <c r="P19" s="9"/>
       <c r="Q19" s="17"/>
       <c r="R19" s="9"/>
-      <c r="S19" s="21" t="s">
+      <c r="S19" s="17"/>
+      <c r="T19" s="9"/>
+      <c r="U19" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="T19" s="22"/>
-      <c r="U19" s="7"/>
-      <c r="V19" s="9"/>
+      <c r="V19" s="22"/>
       <c r="W19" s="7"/>
       <c r="X19" s="9"/>
-      <c r="Y19" s="7" t="s">
+      <c r="Y19" s="7"/>
+      <c r="Z19" s="9"/>
+      <c r="AA19" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB19" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="Z19" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA19" s="7"/>
-      <c r="AB19" s="7"/>
-      <c r="AC19" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:29" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AC19" s="7"/>
+      <c r="AD19" s="7"/>
+      <c r="AE19" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B20" s="17" t="s">
         <v>77</v>
       </c>
       <c r="C20" s="17"/>
-      <c r="D20" s="9"/>
+      <c r="D20" s="17"/>
       <c r="E20" s="17"/>
       <c r="F20" s="9"/>
       <c r="G20" s="17"/>
@@ -5018,35 +5075,37 @@
       <c r="P20" s="9"/>
       <c r="Q20" s="17"/>
       <c r="R20" s="9"/>
-      <c r="S20" s="21" t="s">
+      <c r="S20" s="17"/>
+      <c r="T20" s="9"/>
+      <c r="U20" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="T20" s="22"/>
-      <c r="U20" s="7"/>
-      <c r="V20" s="9"/>
+      <c r="V20" s="22"/>
       <c r="W20" s="7"/>
       <c r="X20" s="9"/>
-      <c r="Y20" s="7" t="s">
+      <c r="Y20" s="7"/>
+      <c r="Z20" s="9"/>
+      <c r="AA20" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="Z20" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA20" s="7"/>
-      <c r="AB20" s="7"/>
-      <c r="AC20" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:29" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AB20" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC20" s="7"/>
+      <c r="AD20" s="7"/>
+      <c r="AE20" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B21" s="17" t="s">
         <v>77</v>
       </c>
       <c r="C21" s="17"/>
-      <c r="D21" s="9"/>
+      <c r="D21" s="17"/>
       <c r="E21" s="17"/>
       <c r="F21" s="9"/>
       <c r="G21" s="17"/>
@@ -5061,35 +5120,37 @@
       <c r="P21" s="9"/>
       <c r="Q21" s="17"/>
       <c r="R21" s="9"/>
-      <c r="S21" s="21" t="s">
+      <c r="S21" s="17"/>
+      <c r="T21" s="9"/>
+      <c r="U21" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="T21" s="22"/>
-      <c r="U21" s="7"/>
-      <c r="V21" s="9"/>
+      <c r="V21" s="22"/>
       <c r="W21" s="7"/>
       <c r="X21" s="9"/>
-      <c r="Y21" s="7" t="s">
+      <c r="Y21" s="7"/>
+      <c r="Z21" s="9"/>
+      <c r="AA21" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="Z21" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA21" s="7"/>
-      <c r="AB21" s="7"/>
-      <c r="AC21" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:29" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AB21" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC21" s="7"/>
+      <c r="AD21" s="7"/>
+      <c r="AE21" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B22" s="17" t="s">
         <v>77</v>
       </c>
       <c r="C22" s="17"/>
-      <c r="D22" s="9"/>
+      <c r="D22" s="17"/>
       <c r="E22" s="17"/>
       <c r="F22" s="9"/>
       <c r="G22" s="17"/>
@@ -5104,320 +5165,343 @@
       <c r="P22" s="9"/>
       <c r="Q22" s="17"/>
       <c r="R22" s="9"/>
-      <c r="S22" s="21" t="s">
+      <c r="S22" s="17"/>
+      <c r="T22" s="9"/>
+      <c r="U22" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="T22" s="22"/>
-      <c r="U22" s="7"/>
-      <c r="V22" s="9"/>
+      <c r="V22" s="22"/>
       <c r="W22" s="7"/>
       <c r="X22" s="9"/>
-      <c r="Y22" s="7" t="s">
+      <c r="Y22" s="7"/>
+      <c r="Z22" s="9"/>
+      <c r="AA22" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="Z22" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="AA22" s="7"/>
-      <c r="AB22" s="7"/>
-      <c r="AC22" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:29" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AB22" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC22" s="7"/>
+      <c r="AD22" s="7"/>
+      <c r="AE22" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="14" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="B23" s="17" t="s">
         <v>77</v>
       </c>
       <c r="C23" s="17"/>
-      <c r="D23" s="9" t="s">
-        <v>66</v>
-      </c>
+      <c r="D23" s="17"/>
       <c r="E23" s="17"/>
-      <c r="F23" s="9">
-        <v>2</v>
-      </c>
+      <c r="F23" s="9"/>
       <c r="G23" s="17"/>
-      <c r="H23" s="9" t="s">
-        <v>65</v>
-      </c>
+      <c r="H23" s="9"/>
       <c r="I23" s="17"/>
-      <c r="J23" s="9">
-        <v>2100</v>
-      </c>
-      <c r="K23" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="L23" s="9" t="s">
-        <v>67</v>
-      </c>
+      <c r="J23" s="9"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="9"/>
       <c r="M23" s="17"/>
-      <c r="N23" s="9">
-        <v>2</v>
-      </c>
+      <c r="N23" s="9"/>
       <c r="O23" s="17"/>
-      <c r="P23" s="9">
-        <v>22</v>
-      </c>
+      <c r="P23" s="9"/>
       <c r="Q23" s="17"/>
-      <c r="R23" s="9">
-        <v>2</v>
-      </c>
-      <c r="S23" s="21" t="s">
+      <c r="R23" s="9"/>
+      <c r="S23" s="17"/>
+      <c r="T23" s="9"/>
+      <c r="U23" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="T23" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="U23" s="7"/>
-      <c r="V23" s="9" t="s">
-        <v>69</v>
-      </c>
+      <c r="V23" s="22"/>
       <c r="W23" s="7"/>
-      <c r="X23" s="9">
-        <v>8000</v>
-      </c>
-      <c r="Y23" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z23" s="20"/>
-      <c r="AA23" s="7"/>
-      <c r="AB23" s="7"/>
-      <c r="AC23" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:29" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X23" s="9"/>
+      <c r="Y23" s="7"/>
+      <c r="Z23" s="9"/>
+      <c r="AA23" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB23" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC23" s="7"/>
+      <c r="AD23" s="7"/>
+      <c r="AE23" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="14" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="B24" s="17" t="s">
         <v>77</v>
       </c>
       <c r="C24" s="17"/>
-      <c r="D24" s="9" t="s">
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="E24" s="17"/>
-      <c r="F24" s="9">
-        <v>3</v>
-      </c>
       <c r="G24" s="17"/>
-      <c r="H24" s="9" t="s">
+      <c r="H24" s="9">
+        <v>2</v>
+      </c>
+      <c r="I24" s="17"/>
+      <c r="J24" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="I24" s="17"/>
-      <c r="J24" s="9">
+      <c r="K24" s="17"/>
+      <c r="L24" s="9">
         <v>2100</v>
       </c>
-      <c r="K24" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="L24" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="M24" s="17"/>
-      <c r="N24" s="9">
-        <v>2</v>
+      <c r="M24" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="N24" s="9" t="s">
+        <v>67</v>
       </c>
       <c r="O24" s="17"/>
       <c r="P24" s="9">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="Q24" s="17"/>
       <c r="R24" s="9">
+        <v>22</v>
+      </c>
+      <c r="S24" s="17"/>
+      <c r="T24" s="9">
         <v>2</v>
       </c>
-      <c r="S24" s="21" t="s">
+      <c r="U24" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="T24" s="22" t="s">
+      <c r="V24" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="U24" s="7"/>
-      <c r="V24" s="9" t="s">
+      <c r="W24" s="7"/>
+      <c r="X24" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="W24" s="7"/>
-      <c r="X24" s="9">
+      <c r="Y24" s="7"/>
+      <c r="Z24" s="9">
         <v>8000</v>
       </c>
-      <c r="Y24" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z24" s="20"/>
-      <c r="AA24" s="7"/>
-      <c r="AB24" s="7"/>
-      <c r="AC24" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:29" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB24" s="20"/>
+      <c r="AC24" s="7"/>
+      <c r="AD24" s="7"/>
+      <c r="AE24" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B25" s="17" t="s">
         <v>77</v>
       </c>
       <c r="C25" s="17"/>
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="E25" s="17"/>
-      <c r="F25" s="9">
+      <c r="G25" s="17"/>
+      <c r="H25" s="9">
         <v>3</v>
       </c>
-      <c r="G25" s="17"/>
-      <c r="H25" s="9" t="s">
+      <c r="I25" s="17"/>
+      <c r="J25" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="I25" s="17"/>
-      <c r="J25" s="9">
+      <c r="K25" s="17"/>
+      <c r="L25" s="9">
         <v>2100</v>
       </c>
-      <c r="K25" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="L25" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="M25" s="17"/>
-      <c r="N25" s="9">
-        <v>2</v>
+      <c r="M25" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="N25" s="9" t="s">
+        <v>67</v>
       </c>
       <c r="O25" s="17"/>
       <c r="P25" s="9">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="Q25" s="17"/>
       <c r="R25" s="9">
+        <v>22</v>
+      </c>
+      <c r="S25" s="17"/>
+      <c r="T25" s="9">
         <v>2</v>
       </c>
-      <c r="S25" s="21" t="s">
+      <c r="U25" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="T25" s="22" t="s">
+      <c r="V25" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="U25" s="7"/>
-      <c r="V25" s="9" t="s">
+      <c r="W25" s="7"/>
+      <c r="X25" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="W25" s="7"/>
-      <c r="X25" s="9">
+      <c r="Y25" s="7"/>
+      <c r="Z25" s="9">
         <v>8000</v>
       </c>
-      <c r="Y25" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z25" s="20"/>
-      <c r="AA25" s="7"/>
-      <c r="AB25" s="7"/>
-      <c r="AC25" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:29" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA25" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB25" s="20"/>
+      <c r="AC25" s="7"/>
+      <c r="AD25" s="7"/>
+      <c r="AE25" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B26" s="17" t="s">
         <v>77</v>
       </c>
       <c r="C26" s="17"/>
-      <c r="D26" s="9" t="s">
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="E26" s="17"/>
-      <c r="F26" s="9">
+      <c r="G26" s="17"/>
+      <c r="H26" s="9">
         <v>3</v>
       </c>
-      <c r="G26" s="17"/>
-      <c r="H26" s="9" t="s">
+      <c r="I26" s="17"/>
+      <c r="J26" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="I26" s="17"/>
-      <c r="J26" s="9">
+      <c r="K26" s="17"/>
+      <c r="L26" s="9">
         <v>2100</v>
       </c>
-      <c r="K26" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="L26" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="M26" s="17"/>
-      <c r="N26" s="9">
-        <v>2</v>
+      <c r="M26" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="N26" s="9" t="s">
+        <v>67</v>
       </c>
       <c r="O26" s="17"/>
       <c r="P26" s="9">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="Q26" s="17"/>
       <c r="R26" s="9">
+        <v>22</v>
+      </c>
+      <c r="S26" s="17"/>
+      <c r="T26" s="9">
         <v>2</v>
       </c>
-      <c r="S26" s="21" t="s">
+      <c r="U26" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="T26" s="22" t="s">
+      <c r="V26" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="U26" s="7"/>
-      <c r="V26" s="9" t="s">
+      <c r="W26" s="7"/>
+      <c r="X26" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="W26" s="7"/>
-      <c r="X26" s="9">
+      <c r="Y26" s="7"/>
+      <c r="Z26" s="9">
         <v>8000</v>
       </c>
-      <c r="Y26" s="7" t="s">
+      <c r="AA26" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB26" s="20"/>
+      <c r="AC26" s="7"/>
+      <c r="AD26" s="7"/>
+      <c r="AE26" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="G27" s="17"/>
+      <c r="H27" s="9">
+        <v>3</v>
+      </c>
+      <c r="I27" s="17"/>
+      <c r="J27" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="K27" s="17"/>
+      <c r="L27" s="9">
+        <v>2100</v>
+      </c>
+      <c r="M27" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="N27" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="O27" s="17"/>
+      <c r="P27" s="9">
+        <v>2</v>
+      </c>
+      <c r="Q27" s="17"/>
+      <c r="R27" s="9">
+        <v>22</v>
+      </c>
+      <c r="S27" s="17"/>
+      <c r="T27" s="9">
+        <v>2</v>
+      </c>
+      <c r="U27" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="V27" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="W27" s="7"/>
+      <c r="X27" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y27" s="7"/>
+      <c r="Z27" s="9">
+        <v>8000</v>
+      </c>
+      <c r="AA27" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="Z26" s="20"/>
-      <c r="AA26" s="7"/>
-      <c r="AB26" s="7"/>
-      <c r="AC26" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="10"/>
-      <c r="O27" s="10"/>
-      <c r="P27" s="10"/>
-      <c r="Q27" s="10"/>
-      <c r="R27" s="10"/>
-      <c r="S27" s="10"/>
-      <c r="T27" s="10"/>
-      <c r="U27" s="10"/>
-      <c r="V27" s="10"/>
-      <c r="W27" s="10"/>
-      <c r="X27" s="10"/>
-      <c r="Y27" s="10"/>
-      <c r="Z27" s="10"/>
-      <c r="AA27" s="10"/>
-      <c r="AB27" s="10"/>
-      <c r="AC27" s="10"/>
-    </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AB27" s="20"/>
+      <c r="AC27" s="7"/>
+      <c r="AD27" s="7"/>
+      <c r="AE27" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
       <c r="E28" s="10"/>
       <c r="F28" s="10"/>
       <c r="G28" s="10"/>
@@ -5443,11 +5527,11 @@
       <c r="AA28" s="10"/>
       <c r="AB28" s="10"/>
       <c r="AC28" s="10"/>
-    </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AD28" s="10"/>
+      <c r="AE28" s="10"/>
+    </row>
+    <row r="29" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
       <c r="E29" s="10"/>
       <c r="F29" s="10"/>
       <c r="G29" s="10"/>
@@ -5473,11 +5557,11 @@
       <c r="AA29" s="10"/>
       <c r="AB29" s="10"/>
       <c r="AC29" s="10"/>
-    </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AD29" s="10"/>
+      <c r="AE29" s="10"/>
+    </row>
+    <row r="30" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
       <c r="E30" s="10"/>
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
@@ -5503,11 +5587,11 @@
       <c r="AA30" s="10"/>
       <c r="AB30" s="10"/>
       <c r="AC30" s="10"/>
-    </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AD30" s="10"/>
+      <c r="AE30" s="10"/>
+    </row>
+    <row r="31" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
       <c r="E31" s="10"/>
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
@@ -5533,11 +5617,11 @@
       <c r="AA31" s="10"/>
       <c r="AB31" s="10"/>
       <c r="AC31" s="10"/>
-    </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AD31" s="10"/>
+      <c r="AE31" s="10"/>
+    </row>
+    <row r="32" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
       <c r="E32" s="10"/>
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
@@ -5563,6 +5647,8 @@
       <c r="AA32" s="10"/>
       <c r="AB32" s="10"/>
       <c r="AC32" s="10"/>
+      <c r="AD32" s="10"/>
+      <c r="AE32" s="10"/>
     </row>
     <row r="33" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="34" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
@@ -6308,6 +6394,7 @@
     <row r="774" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="775" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="776" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="777" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/test/resources/testData/XAlpha.xlsx
+++ b/src/test/resources/testData/XAlpha.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3868F856-AEB3-46ED-914D-83E7736FE517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0547DB01-0839-409C-A414-D7011FCFC9F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="644" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="137">
   <si>
     <t>Username</t>
   </si>
@@ -425,6 +425,9 @@
   </si>
   <si>
     <t>2022-06-20 22:22:30</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_XAlpha_048</t>
   </si>
 </sst>
 </file>
@@ -4017,11 +4020,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45AAE02B-1ED2-44CD-BC76-39A59421CF46}">
-  <dimension ref="A1:AE777"/>
+  <dimension ref="A1:AE778"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
+      <selection pane="bottomLeft" activeCell="AC20" sqref="AC20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4694,13 +4697,17 @@
     </row>
     <row r="12" spans="1:31" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
-        <v>93</v>
+        <v>136</v>
       </c>
       <c r="B12" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
+      <c r="C12" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>135</v>
+      </c>
       <c r="E12" s="17"/>
       <c r="F12" s="9"/>
       <c r="G12" s="17"/>
@@ -4717,19 +4724,17 @@
       <c r="R12" s="9"/>
       <c r="S12" s="17"/>
       <c r="T12" s="9"/>
-      <c r="U12" s="21" t="s">
-        <v>86</v>
-      </c>
+      <c r="U12" s="21"/>
       <c r="V12" s="22"/>
       <c r="W12" s="7"/>
       <c r="X12" s="9"/>
       <c r="Y12" s="7"/>
       <c r="Z12" s="9"/>
       <c r="AA12" s="7" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="AB12" s="20" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="AC12" s="7"/>
       <c r="AD12" s="7"/>
@@ -4739,7 +4744,7 @@
     </row>
     <row r="13" spans="1:31" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B13" s="17" t="s">
         <v>77</v>
@@ -4774,7 +4779,7 @@
         <v>29</v>
       </c>
       <c r="AB13" s="20" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AC13" s="7"/>
       <c r="AD13" s="7"/>
@@ -4784,7 +4789,7 @@
     </row>
     <row r="14" spans="1:31" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B14" s="17" t="s">
         <v>77</v>
@@ -4816,10 +4821,10 @@
       <c r="Y14" s="7"/>
       <c r="Z14" s="9"/>
       <c r="AA14" s="7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AB14" s="20" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AC14" s="7"/>
       <c r="AD14" s="7"/>
@@ -4829,7 +4834,7 @@
     </row>
     <row r="15" spans="1:31" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B15" s="17" t="s">
         <v>77</v>
@@ -4864,7 +4869,7 @@
         <v>34</v>
       </c>
       <c r="AB15" s="20" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AC15" s="7"/>
       <c r="AD15" s="7"/>
@@ -4874,7 +4879,7 @@
     </row>
     <row r="16" spans="1:31" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B16" s="17" t="s">
         <v>77</v>
@@ -4906,10 +4911,10 @@
       <c r="Y16" s="7"/>
       <c r="Z16" s="9"/>
       <c r="AA16" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB16" s="20" t="s">
         <v>28</v>
-      </c>
-      <c r="AB16" s="20" t="s">
-        <v>54</v>
       </c>
       <c r="AC16" s="7"/>
       <c r="AD16" s="7"/>
@@ -4919,7 +4924,7 @@
     </row>
     <row r="17" spans="1:31" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B17" s="17" t="s">
         <v>77</v>
@@ -4951,7 +4956,7 @@
       <c r="Y17" s="7"/>
       <c r="Z17" s="9"/>
       <c r="AA17" s="7" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AB17" s="20" t="s">
         <v>54</v>
@@ -4964,7 +4969,7 @@
     </row>
     <row r="18" spans="1:31" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="14" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B18" s="17" t="s">
         <v>77</v>
@@ -4996,7 +5001,7 @@
       <c r="Y18" s="7"/>
       <c r="Z18" s="9"/>
       <c r="AA18" s="7" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="AB18" s="20" t="s">
         <v>54</v>
@@ -5009,7 +5014,7 @@
     </row>
     <row r="19" spans="1:31" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="14" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B19" s="17" t="s">
         <v>77</v>
@@ -5041,7 +5046,7 @@
       <c r="Y19" s="7"/>
       <c r="Z19" s="9"/>
       <c r="AA19" s="7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AB19" s="20" t="s">
         <v>54</v>
@@ -5054,7 +5059,7 @@
     </row>
     <row r="20" spans="1:31" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B20" s="17" t="s">
         <v>77</v>
@@ -5086,10 +5091,10 @@
       <c r="Y20" s="7"/>
       <c r="Z20" s="9"/>
       <c r="AA20" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB20" s="20" t="s">
         <v>54</v>
-      </c>
-      <c r="AB20" s="20" t="s">
-        <v>28</v>
       </c>
       <c r="AC20" s="7"/>
       <c r="AD20" s="7"/>
@@ -5099,7 +5104,7 @@
     </row>
     <row r="21" spans="1:31" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B21" s="17" t="s">
         <v>77</v>
@@ -5134,7 +5139,7 @@
         <v>54</v>
       </c>
       <c r="AB21" s="20" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AC21" s="7"/>
       <c r="AD21" s="7"/>
@@ -5144,7 +5149,7 @@
     </row>
     <row r="22" spans="1:31" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B22" s="17" t="s">
         <v>77</v>
@@ -5179,7 +5184,7 @@
         <v>54</v>
       </c>
       <c r="AB22" s="20" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="AC22" s="7"/>
       <c r="AD22" s="7"/>
@@ -5189,7 +5194,7 @@
     </row>
     <row r="23" spans="1:31" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B23" s="17" t="s">
         <v>77</v>
@@ -5224,7 +5229,7 @@
         <v>54</v>
       </c>
       <c r="AB23" s="20" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC23" s="7"/>
       <c r="AD23" s="7"/>
@@ -5234,7 +5239,7 @@
     </row>
     <row r="24" spans="1:31" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="14" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="B24" s="17" t="s">
         <v>77</v>
@@ -5242,57 +5247,35 @@
       <c r="C24" s="17"/>
       <c r="D24" s="17"/>
       <c r="E24" s="17"/>
-      <c r="F24" s="9" t="s">
-        <v>66</v>
-      </c>
+      <c r="F24" s="9"/>
       <c r="G24" s="17"/>
-      <c r="H24" s="9">
-        <v>2</v>
-      </c>
+      <c r="H24" s="9"/>
       <c r="I24" s="17"/>
-      <c r="J24" s="9" t="s">
-        <v>65</v>
-      </c>
+      <c r="J24" s="9"/>
       <c r="K24" s="17"/>
-      <c r="L24" s="9">
-        <v>2100</v>
-      </c>
-      <c r="M24" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="N24" s="9" t="s">
-        <v>67</v>
-      </c>
+      <c r="L24" s="9"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="9"/>
       <c r="O24" s="17"/>
-      <c r="P24" s="9">
-        <v>2</v>
-      </c>
+      <c r="P24" s="9"/>
       <c r="Q24" s="17"/>
-      <c r="R24" s="9">
-        <v>22</v>
-      </c>
+      <c r="R24" s="9"/>
       <c r="S24" s="17"/>
-      <c r="T24" s="9">
-        <v>2</v>
-      </c>
+      <c r="T24" s="9"/>
       <c r="U24" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="V24" s="22" t="s">
-        <v>128</v>
-      </c>
+      <c r="V24" s="22"/>
       <c r="W24" s="7"/>
-      <c r="X24" s="9" t="s">
-        <v>69</v>
-      </c>
+      <c r="X24" s="9"/>
       <c r="Y24" s="7"/>
-      <c r="Z24" s="9">
-        <v>8000</v>
-      </c>
+      <c r="Z24" s="9"/>
       <c r="AA24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB24" s="20"/>
+        <v>54</v>
+      </c>
+      <c r="AB24" s="20" t="s">
+        <v>34</v>
+      </c>
       <c r="AC24" s="7"/>
       <c r="AD24" s="7"/>
       <c r="AE24" s="3" t="b">
@@ -5301,7 +5284,7 @@
     </row>
     <row r="25" spans="1:31" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="14" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="B25" s="17" t="s">
         <v>77</v>
@@ -5314,7 +5297,7 @@
       </c>
       <c r="G25" s="17"/>
       <c r="H25" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I25" s="17"/>
       <c r="J25" s="9" t="s">
@@ -5357,7 +5340,7 @@
         <v>8000</v>
       </c>
       <c r="AA25" s="7" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AB25" s="20"/>
       <c r="AC25" s="7"/>
@@ -5368,7 +5351,7 @@
     </row>
     <row r="26" spans="1:31" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B26" s="17" t="s">
         <v>77</v>
@@ -5424,7 +5407,7 @@
         <v>8000</v>
       </c>
       <c r="AA26" s="7" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="AB26" s="20"/>
       <c r="AC26" s="7"/>
@@ -5435,7 +5418,7 @@
     </row>
     <row r="27" spans="1:31" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B27" s="17" t="s">
         <v>77</v>
@@ -5491,7 +5474,7 @@
         <v>8000</v>
       </c>
       <c r="AA27" s="7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AB27" s="20"/>
       <c r="AC27" s="7"/>
@@ -5500,35 +5483,72 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="10"/>
-      <c r="O28" s="10"/>
-      <c r="P28" s="10"/>
-      <c r="Q28" s="10"/>
-      <c r="R28" s="10"/>
-      <c r="S28" s="10"/>
-      <c r="T28" s="10"/>
-      <c r="U28" s="10"/>
-      <c r="V28" s="10"/>
-      <c r="W28" s="10"/>
-      <c r="X28" s="10"/>
-      <c r="Y28" s="10"/>
-      <c r="Z28" s="10"/>
-      <c r="AA28" s="10"/>
-      <c r="AB28" s="10"/>
-      <c r="AC28" s="10"/>
-      <c r="AD28" s="10"/>
-      <c r="AE28" s="10"/>
+    <row r="28" spans="1:31" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="G28" s="17"/>
+      <c r="H28" s="9">
+        <v>3</v>
+      </c>
+      <c r="I28" s="17"/>
+      <c r="J28" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="K28" s="17"/>
+      <c r="L28" s="9">
+        <v>2100</v>
+      </c>
+      <c r="M28" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="N28" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="O28" s="17"/>
+      <c r="P28" s="9">
+        <v>2</v>
+      </c>
+      <c r="Q28" s="17"/>
+      <c r="R28" s="9">
+        <v>22</v>
+      </c>
+      <c r="S28" s="17"/>
+      <c r="T28" s="9">
+        <v>2</v>
+      </c>
+      <c r="U28" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="V28" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="W28" s="7"/>
+      <c r="X28" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y28" s="7"/>
+      <c r="Z28" s="9">
+        <v>8000</v>
+      </c>
+      <c r="AA28" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB28" s="20"/>
+      <c r="AC28" s="7"/>
+      <c r="AD28" s="7"/>
+      <c r="AE28" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A29" s="10"/>
@@ -6395,6 +6415,7 @@
     <row r="775" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="776" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="777" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="778" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/test/resources/testData/XAlpha.xlsx
+++ b/src/test/resources/testData/XAlpha.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0547DB01-0839-409C-A414-D7011FCFC9F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{417362FC-1DC9-476B-ACDB-66C64FAD85F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="644" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="138">
   <si>
     <t>Username</t>
   </si>
@@ -428,6 +428,9 @@
   </si>
   <si>
     <t>QA_TestCase_Auto_XAlpha_048</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_XAlpha_049</t>
   </si>
 </sst>
 </file>
@@ -4020,11 +4023,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45AAE02B-1ED2-44CD-BC76-39A59421CF46}">
-  <dimension ref="A1:AE778"/>
+  <dimension ref="A1:AE779"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AC20" sqref="AC20"/>
+      <selection pane="bottomLeft" activeCell="Z15" sqref="Z15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4744,13 +4747,17 @@
     </row>
     <row r="13" spans="1:31" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
-        <v>93</v>
+        <v>137</v>
       </c>
       <c r="B13" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
+      <c r="C13" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>135</v>
+      </c>
       <c r="E13" s="17"/>
       <c r="F13" s="9"/>
       <c r="G13" s="17"/>
@@ -4767,19 +4774,17 @@
       <c r="R13" s="9"/>
       <c r="S13" s="17"/>
       <c r="T13" s="9"/>
-      <c r="U13" s="21" t="s">
-        <v>86</v>
-      </c>
+      <c r="U13" s="21"/>
       <c r="V13" s="22"/>
       <c r="W13" s="7"/>
       <c r="X13" s="9"/>
       <c r="Y13" s="7"/>
       <c r="Z13" s="9"/>
       <c r="AA13" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB13" s="20" t="s">
         <v>29</v>
-      </c>
-      <c r="AB13" s="20" t="s">
-        <v>24</v>
       </c>
       <c r="AC13" s="7"/>
       <c r="AD13" s="7"/>
@@ -4789,7 +4794,7 @@
     </row>
     <row r="14" spans="1:31" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B14" s="17" t="s">
         <v>77</v>
@@ -4824,7 +4829,7 @@
         <v>29</v>
       </c>
       <c r="AB14" s="20" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AC14" s="7"/>
       <c r="AD14" s="7"/>
@@ -4834,7 +4839,7 @@
     </row>
     <row r="15" spans="1:31" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B15" s="17" t="s">
         <v>77</v>
@@ -4866,10 +4871,10 @@
       <c r="Y15" s="7"/>
       <c r="Z15" s="9"/>
       <c r="AA15" s="7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AB15" s="20" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AC15" s="7"/>
       <c r="AD15" s="7"/>
@@ -4879,7 +4884,7 @@
     </row>
     <row r="16" spans="1:31" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B16" s="17" t="s">
         <v>77</v>
@@ -4914,7 +4919,7 @@
         <v>34</v>
       </c>
       <c r="AB16" s="20" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AC16" s="7"/>
       <c r="AD16" s="7"/>
@@ -4924,7 +4929,7 @@
     </row>
     <row r="17" spans="1:31" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B17" s="17" t="s">
         <v>77</v>
@@ -4956,10 +4961,10 @@
       <c r="Y17" s="7"/>
       <c r="Z17" s="9"/>
       <c r="AA17" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB17" s="20" t="s">
         <v>28</v>
-      </c>
-      <c r="AB17" s="20" t="s">
-        <v>54</v>
       </c>
       <c r="AC17" s="7"/>
       <c r="AD17" s="7"/>
@@ -4969,7 +4974,7 @@
     </row>
     <row r="18" spans="1:31" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B18" s="17" t="s">
         <v>77</v>
@@ -5001,7 +5006,7 @@
       <c r="Y18" s="7"/>
       <c r="Z18" s="9"/>
       <c r="AA18" s="7" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AB18" s="20" t="s">
         <v>54</v>
@@ -5014,7 +5019,7 @@
     </row>
     <row r="19" spans="1:31" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="14" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B19" s="17" t="s">
         <v>77</v>
@@ -5046,7 +5051,7 @@
       <c r="Y19" s="7"/>
       <c r="Z19" s="9"/>
       <c r="AA19" s="7" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="AB19" s="20" t="s">
         <v>54</v>
@@ -5059,7 +5064,7 @@
     </row>
     <row r="20" spans="1:31" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="14" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B20" s="17" t="s">
         <v>77</v>
@@ -5091,7 +5096,7 @@
       <c r="Y20" s="7"/>
       <c r="Z20" s="9"/>
       <c r="AA20" s="7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AB20" s="20" t="s">
         <v>54</v>
@@ -5104,7 +5109,7 @@
     </row>
     <row r="21" spans="1:31" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B21" s="17" t="s">
         <v>77</v>
@@ -5136,10 +5141,10 @@
       <c r="Y21" s="7"/>
       <c r="Z21" s="9"/>
       <c r="AA21" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB21" s="20" t="s">
         <v>54</v>
-      </c>
-      <c r="AB21" s="20" t="s">
-        <v>28</v>
       </c>
       <c r="AC21" s="7"/>
       <c r="AD21" s="7"/>
@@ -5149,7 +5154,7 @@
     </row>
     <row r="22" spans="1:31" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B22" s="17" t="s">
         <v>77</v>
@@ -5184,7 +5189,7 @@
         <v>54</v>
       </c>
       <c r="AB22" s="20" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AC22" s="7"/>
       <c r="AD22" s="7"/>
@@ -5194,7 +5199,7 @@
     </row>
     <row r="23" spans="1:31" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B23" s="17" t="s">
         <v>77</v>
@@ -5229,7 +5234,7 @@
         <v>54</v>
       </c>
       <c r="AB23" s="20" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="AC23" s="7"/>
       <c r="AD23" s="7"/>
@@ -5239,7 +5244,7 @@
     </row>
     <row r="24" spans="1:31" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B24" s="17" t="s">
         <v>77</v>
@@ -5274,7 +5279,7 @@
         <v>54</v>
       </c>
       <c r="AB24" s="20" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC24" s="7"/>
       <c r="AD24" s="7"/>
@@ -5284,7 +5289,7 @@
     </row>
     <row r="25" spans="1:31" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="14" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="B25" s="17" t="s">
         <v>77</v>
@@ -5292,57 +5297,35 @@
       <c r="C25" s="17"/>
       <c r="D25" s="17"/>
       <c r="E25" s="17"/>
-      <c r="F25" s="9" t="s">
-        <v>66</v>
-      </c>
+      <c r="F25" s="9"/>
       <c r="G25" s="17"/>
-      <c r="H25" s="9">
-        <v>2</v>
-      </c>
+      <c r="H25" s="9"/>
       <c r="I25" s="17"/>
-      <c r="J25" s="9" t="s">
-        <v>65</v>
-      </c>
+      <c r="J25" s="9"/>
       <c r="K25" s="17"/>
-      <c r="L25" s="9">
-        <v>2100</v>
-      </c>
-      <c r="M25" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="N25" s="9" t="s">
-        <v>67</v>
-      </c>
+      <c r="L25" s="9"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="9"/>
       <c r="O25" s="17"/>
-      <c r="P25" s="9">
-        <v>2</v>
-      </c>
+      <c r="P25" s="9"/>
       <c r="Q25" s="17"/>
-      <c r="R25" s="9">
-        <v>22</v>
-      </c>
+      <c r="R25" s="9"/>
       <c r="S25" s="17"/>
-      <c r="T25" s="9">
-        <v>2</v>
-      </c>
+      <c r="T25" s="9"/>
       <c r="U25" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="V25" s="22" t="s">
-        <v>128</v>
-      </c>
+      <c r="V25" s="22"/>
       <c r="W25" s="7"/>
-      <c r="X25" s="9" t="s">
-        <v>69</v>
-      </c>
+      <c r="X25" s="9"/>
       <c r="Y25" s="7"/>
-      <c r="Z25" s="9">
-        <v>8000</v>
-      </c>
+      <c r="Z25" s="9"/>
       <c r="AA25" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB25" s="20"/>
+        <v>54</v>
+      </c>
+      <c r="AB25" s="20" t="s">
+        <v>34</v>
+      </c>
       <c r="AC25" s="7"/>
       <c r="AD25" s="7"/>
       <c r="AE25" s="3" t="b">
@@ -5351,7 +5334,7 @@
     </row>
     <row r="26" spans="1:31" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="14" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="B26" s="17" t="s">
         <v>77</v>
@@ -5364,7 +5347,7 @@
       </c>
       <c r="G26" s="17"/>
       <c r="H26" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I26" s="17"/>
       <c r="J26" s="9" t="s">
@@ -5407,7 +5390,7 @@
         <v>8000</v>
       </c>
       <c r="AA26" s="7" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AB26" s="20"/>
       <c r="AC26" s="7"/>
@@ -5418,7 +5401,7 @@
     </row>
     <row r="27" spans="1:31" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B27" s="17" t="s">
         <v>77</v>
@@ -5474,7 +5457,7 @@
         <v>8000</v>
       </c>
       <c r="AA27" s="7" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="AB27" s="20"/>
       <c r="AC27" s="7"/>
@@ -5485,7 +5468,7 @@
     </row>
     <row r="28" spans="1:31" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B28" s="17" t="s">
         <v>77</v>
@@ -5541,7 +5524,7 @@
         <v>8000</v>
       </c>
       <c r="AA28" s="7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AB28" s="20"/>
       <c r="AC28" s="7"/>
@@ -5550,35 +5533,72 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="10"/>
-      <c r="M29" s="10"/>
-      <c r="N29" s="10"/>
-      <c r="O29" s="10"/>
-      <c r="P29" s="10"/>
-      <c r="Q29" s="10"/>
-      <c r="R29" s="10"/>
-      <c r="S29" s="10"/>
-      <c r="T29" s="10"/>
-      <c r="U29" s="10"/>
-      <c r="V29" s="10"/>
-      <c r="W29" s="10"/>
-      <c r="X29" s="10"/>
-      <c r="Y29" s="10"/>
-      <c r="Z29" s="10"/>
-      <c r="AA29" s="10"/>
-      <c r="AB29" s="10"/>
-      <c r="AC29" s="10"/>
-      <c r="AD29" s="10"/>
-      <c r="AE29" s="10"/>
+    <row r="29" spans="1:31" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="G29" s="17"/>
+      <c r="H29" s="9">
+        <v>3</v>
+      </c>
+      <c r="I29" s="17"/>
+      <c r="J29" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="K29" s="17"/>
+      <c r="L29" s="9">
+        <v>2100</v>
+      </c>
+      <c r="M29" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="N29" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="O29" s="17"/>
+      <c r="P29" s="9">
+        <v>2</v>
+      </c>
+      <c r="Q29" s="17"/>
+      <c r="R29" s="9">
+        <v>22</v>
+      </c>
+      <c r="S29" s="17"/>
+      <c r="T29" s="9">
+        <v>2</v>
+      </c>
+      <c r="U29" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="V29" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="W29" s="7"/>
+      <c r="X29" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y29" s="7"/>
+      <c r="Z29" s="9">
+        <v>8000</v>
+      </c>
+      <c r="AA29" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB29" s="20"/>
+      <c r="AC29" s="7"/>
+      <c r="AD29" s="7"/>
+      <c r="AE29" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A30" s="10"/>
@@ -6416,6 +6436,7 @@
     <row r="776" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="777" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="778" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="779" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/test/resources/testData/XAlpha.xlsx
+++ b/src/test/resources/testData/XAlpha.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{417362FC-1DC9-476B-ACDB-66C64FAD85F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD660A5D-599F-460B-A0E6-576C2F588D23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="644" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="139">
   <si>
     <t>Username</t>
   </si>
@@ -431,6 +431,9 @@
   </si>
   <si>
     <t>QA_TestCase_Auto_XAlpha_049</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_XAlpha_050</t>
   </si>
 </sst>
 </file>
@@ -4023,11 +4026,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45AAE02B-1ED2-44CD-BC76-39A59421CF46}">
-  <dimension ref="A1:AE779"/>
+  <dimension ref="A1:AE780"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Z15" sqref="Z15"/>
+      <selection pane="bottomLeft" activeCell="AB14" sqref="AB14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4784,7 +4787,7 @@
         <v>28</v>
       </c>
       <c r="AB13" s="20" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC13" s="7"/>
       <c r="AD13" s="7"/>
@@ -4794,13 +4797,17 @@
     </row>
     <row r="14" spans="1:31" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
-        <v>93</v>
+        <v>138</v>
       </c>
       <c r="B14" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
+      <c r="C14" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>135</v>
+      </c>
       <c r="E14" s="17"/>
       <c r="F14" s="9"/>
       <c r="G14" s="17"/>
@@ -4817,19 +4824,17 @@
       <c r="R14" s="9"/>
       <c r="S14" s="17"/>
       <c r="T14" s="9"/>
-      <c r="U14" s="21" t="s">
-        <v>86</v>
-      </c>
+      <c r="U14" s="21"/>
       <c r="V14" s="22"/>
       <c r="W14" s="7"/>
       <c r="X14" s="9"/>
       <c r="Y14" s="7"/>
       <c r="Z14" s="9"/>
       <c r="AA14" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB14" s="20" t="s">
         <v>29</v>
-      </c>
-      <c r="AB14" s="20" t="s">
-        <v>24</v>
       </c>
       <c r="AC14" s="7"/>
       <c r="AD14" s="7"/>
@@ -4839,7 +4844,7 @@
     </row>
     <row r="15" spans="1:31" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B15" s="17" t="s">
         <v>77</v>
@@ -4874,7 +4879,7 @@
         <v>29</v>
       </c>
       <c r="AB15" s="20" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AC15" s="7"/>
       <c r="AD15" s="7"/>
@@ -4884,7 +4889,7 @@
     </row>
     <row r="16" spans="1:31" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B16" s="17" t="s">
         <v>77</v>
@@ -4916,10 +4921,10 @@
       <c r="Y16" s="7"/>
       <c r="Z16" s="9"/>
       <c r="AA16" s="7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AB16" s="20" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AC16" s="7"/>
       <c r="AD16" s="7"/>
@@ -4929,7 +4934,7 @@
     </row>
     <row r="17" spans="1:31" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B17" s="17" t="s">
         <v>77</v>
@@ -4964,7 +4969,7 @@
         <v>34</v>
       </c>
       <c r="AB17" s="20" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AC17" s="7"/>
       <c r="AD17" s="7"/>
@@ -4974,7 +4979,7 @@
     </row>
     <row r="18" spans="1:31" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="14" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B18" s="17" t="s">
         <v>77</v>
@@ -5006,10 +5011,10 @@
       <c r="Y18" s="7"/>
       <c r="Z18" s="9"/>
       <c r="AA18" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB18" s="20" t="s">
         <v>28</v>
-      </c>
-      <c r="AB18" s="20" t="s">
-        <v>54</v>
       </c>
       <c r="AC18" s="7"/>
       <c r="AD18" s="7"/>
@@ -5019,7 +5024,7 @@
     </row>
     <row r="19" spans="1:31" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B19" s="17" t="s">
         <v>77</v>
@@ -5051,7 +5056,7 @@
       <c r="Y19" s="7"/>
       <c r="Z19" s="9"/>
       <c r="AA19" s="7" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AB19" s="20" t="s">
         <v>54</v>
@@ -5064,7 +5069,7 @@
     </row>
     <row r="20" spans="1:31" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="14" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B20" s="17" t="s">
         <v>77</v>
@@ -5096,7 +5101,7 @@
       <c r="Y20" s="7"/>
       <c r="Z20" s="9"/>
       <c r="AA20" s="7" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="AB20" s="20" t="s">
         <v>54</v>
@@ -5109,7 +5114,7 @@
     </row>
     <row r="21" spans="1:31" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B21" s="17" t="s">
         <v>77</v>
@@ -5141,7 +5146,7 @@
       <c r="Y21" s="7"/>
       <c r="Z21" s="9"/>
       <c r="AA21" s="7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AB21" s="20" t="s">
         <v>54</v>
@@ -5154,7 +5159,7 @@
     </row>
     <row r="22" spans="1:31" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B22" s="17" t="s">
         <v>77</v>
@@ -5186,10 +5191,10 @@
       <c r="Y22" s="7"/>
       <c r="Z22" s="9"/>
       <c r="AA22" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB22" s="20" t="s">
         <v>54</v>
-      </c>
-      <c r="AB22" s="20" t="s">
-        <v>28</v>
       </c>
       <c r="AC22" s="7"/>
       <c r="AD22" s="7"/>
@@ -5199,7 +5204,7 @@
     </row>
     <row r="23" spans="1:31" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B23" s="17" t="s">
         <v>77</v>
@@ -5234,7 +5239,7 @@
         <v>54</v>
       </c>
       <c r="AB23" s="20" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AC23" s="7"/>
       <c r="AD23" s="7"/>
@@ -5244,7 +5249,7 @@
     </row>
     <row r="24" spans="1:31" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B24" s="17" t="s">
         <v>77</v>
@@ -5279,7 +5284,7 @@
         <v>54</v>
       </c>
       <c r="AB24" s="20" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="AC24" s="7"/>
       <c r="AD24" s="7"/>
@@ -5289,7 +5294,7 @@
     </row>
     <row r="25" spans="1:31" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B25" s="17" t="s">
         <v>77</v>
@@ -5324,7 +5329,7 @@
         <v>54</v>
       </c>
       <c r="AB25" s="20" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC25" s="7"/>
       <c r="AD25" s="7"/>
@@ -5334,7 +5339,7 @@
     </row>
     <row r="26" spans="1:31" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="14" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="B26" s="17" t="s">
         <v>77</v>
@@ -5342,57 +5347,35 @@
       <c r="C26" s="17"/>
       <c r="D26" s="17"/>
       <c r="E26" s="17"/>
-      <c r="F26" s="9" t="s">
-        <v>66</v>
-      </c>
+      <c r="F26" s="9"/>
       <c r="G26" s="17"/>
-      <c r="H26" s="9">
-        <v>2</v>
-      </c>
+      <c r="H26" s="9"/>
       <c r="I26" s="17"/>
-      <c r="J26" s="9" t="s">
-        <v>65</v>
-      </c>
+      <c r="J26" s="9"/>
       <c r="K26" s="17"/>
-      <c r="L26" s="9">
-        <v>2100</v>
-      </c>
-      <c r="M26" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="N26" s="9" t="s">
-        <v>67</v>
-      </c>
+      <c r="L26" s="9"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="9"/>
       <c r="O26" s="17"/>
-      <c r="P26" s="9">
-        <v>2</v>
-      </c>
+      <c r="P26" s="9"/>
       <c r="Q26" s="17"/>
-      <c r="R26" s="9">
-        <v>22</v>
-      </c>
+      <c r="R26" s="9"/>
       <c r="S26" s="17"/>
-      <c r="T26" s="9">
-        <v>2</v>
-      </c>
+      <c r="T26" s="9"/>
       <c r="U26" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="V26" s="22" t="s">
-        <v>128</v>
-      </c>
+      <c r="V26" s="22"/>
       <c r="W26" s="7"/>
-      <c r="X26" s="9" t="s">
-        <v>69</v>
-      </c>
+      <c r="X26" s="9"/>
       <c r="Y26" s="7"/>
-      <c r="Z26" s="9">
-        <v>8000</v>
-      </c>
+      <c r="Z26" s="9"/>
       <c r="AA26" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB26" s="20"/>
+        <v>54</v>
+      </c>
+      <c r="AB26" s="20" t="s">
+        <v>34</v>
+      </c>
       <c r="AC26" s="7"/>
       <c r="AD26" s="7"/>
       <c r="AE26" s="3" t="b">
@@ -5401,7 +5384,7 @@
     </row>
     <row r="27" spans="1:31" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="14" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="B27" s="17" t="s">
         <v>77</v>
@@ -5414,7 +5397,7 @@
       </c>
       <c r="G27" s="17"/>
       <c r="H27" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I27" s="17"/>
       <c r="J27" s="9" t="s">
@@ -5457,7 +5440,7 @@
         <v>8000</v>
       </c>
       <c r="AA27" s="7" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AB27" s="20"/>
       <c r="AC27" s="7"/>
@@ -5468,7 +5451,7 @@
     </row>
     <row r="28" spans="1:31" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B28" s="17" t="s">
         <v>77</v>
@@ -5524,7 +5507,7 @@
         <v>8000</v>
       </c>
       <c r="AA28" s="7" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="AB28" s="20"/>
       <c r="AC28" s="7"/>
@@ -5535,7 +5518,7 @@
     </row>
     <row r="29" spans="1:31" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B29" s="17" t="s">
         <v>77</v>
@@ -5591,7 +5574,7 @@
         <v>8000</v>
       </c>
       <c r="AA29" s="7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AB29" s="20"/>
       <c r="AC29" s="7"/>
@@ -5600,35 +5583,72 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="10"/>
-      <c r="L30" s="10"/>
-      <c r="M30" s="10"/>
-      <c r="N30" s="10"/>
-      <c r="O30" s="10"/>
-      <c r="P30" s="10"/>
-      <c r="Q30" s="10"/>
-      <c r="R30" s="10"/>
-      <c r="S30" s="10"/>
-      <c r="T30" s="10"/>
-      <c r="U30" s="10"/>
-      <c r="V30" s="10"/>
-      <c r="W30" s="10"/>
-      <c r="X30" s="10"/>
-      <c r="Y30" s="10"/>
-      <c r="Z30" s="10"/>
-      <c r="AA30" s="10"/>
-      <c r="AB30" s="10"/>
-      <c r="AC30" s="10"/>
-      <c r="AD30" s="10"/>
-      <c r="AE30" s="10"/>
+    <row r="30" spans="1:31" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="G30" s="17"/>
+      <c r="H30" s="9">
+        <v>3</v>
+      </c>
+      <c r="I30" s="17"/>
+      <c r="J30" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="K30" s="17"/>
+      <c r="L30" s="9">
+        <v>2100</v>
+      </c>
+      <c r="M30" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="N30" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="O30" s="17"/>
+      <c r="P30" s="9">
+        <v>2</v>
+      </c>
+      <c r="Q30" s="17"/>
+      <c r="R30" s="9">
+        <v>22</v>
+      </c>
+      <c r="S30" s="17"/>
+      <c r="T30" s="9">
+        <v>2</v>
+      </c>
+      <c r="U30" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="V30" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="W30" s="7"/>
+      <c r="X30" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y30" s="7"/>
+      <c r="Z30" s="9">
+        <v>8000</v>
+      </c>
+      <c r="AA30" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB30" s="20"/>
+      <c r="AC30" s="7"/>
+      <c r="AD30" s="7"/>
+      <c r="AE30" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A31" s="10"/>
@@ -6437,6 +6457,7 @@
     <row r="777" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="778" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="779" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="780" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/test/resources/testData/XAlpha.xlsx
+++ b/src/test/resources/testData/XAlpha.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD660A5D-599F-460B-A0E6-576C2F588D23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{118905A1-4933-4B43-A329-E05FBB506ADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="644" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="644" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="XAlphaLogin" sheetId="9" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="140">
   <si>
     <t>Username</t>
   </si>
@@ -434,6 +434,9 @@
   </si>
   <si>
     <t>QA_TestCase_Auto_XAlpha_050</t>
+  </si>
+  <si>
+    <t>MarketPrice</t>
   </si>
 </sst>
 </file>
@@ -1068,11 +1071,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E763A6C0-A0DE-42F1-A4CC-B0EEDE6F7213}">
-  <dimension ref="A1:X1048575"/>
+  <dimension ref="A1:Y1048575"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D1" sqref="D1:D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1091,19 +1094,20 @@
     <col min="13" max="13" width="18.77734375" style="11" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11.44140625" style="11" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="20.21875" style="11" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="22.21875" style="11" customWidth="1"/>
-    <col min="17" max="17" width="27" style="11" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.77734375" style="11" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="25" style="11" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.77734375" style="11" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="23.44140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="44.77734375" style="11" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="17" style="11" customWidth="1"/>
-    <col min="24" max="24" width="8.77734375" style="11"/>
-    <col min="25" max="16384" width="8.77734375" style="10"/>
+    <col min="16" max="16" width="11.44140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="22.21875" style="11" customWidth="1"/>
+    <col min="18" max="18" width="27" style="11" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.77734375" style="11" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="25" style="11" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.77734375" style="11" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="23.44140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="44.77734375" style="11" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17" style="11" customWidth="1"/>
+    <col min="25" max="25" width="8.77734375" style="11"/>
+    <col min="26" max="16384" width="8.77734375" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
@@ -1150,34 +1154,37 @@
         <v>62</v>
       </c>
       <c r="P1" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="R1" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="S1" s="8" t="s">
+      <c r="T1" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="U1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="U1" s="8" t="s">
+      <c r="V1" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="W1" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="X1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="X1" s="6" t="s">
+      <c r="Y1" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:24" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>30</v>
       </c>
@@ -1209,25 +1216,26 @@
         <v>1</v>
       </c>
       <c r="O2" s="9"/>
-      <c r="P2" s="7" t="s">
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="7">
+      <c r="R2" s="9"/>
+      <c r="S2" s="7">
         <v>8000</v>
       </c>
-      <c r="S2" s="9"/>
-      <c r="T2" s="7" t="s">
+      <c r="T2" s="9"/>
+      <c r="U2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="U2" s="9"/>
-      <c r="V2" s="7"/>
+      <c r="V2" s="9"/>
       <c r="W2" s="7"/>
-      <c r="X2" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X2" s="7"/>
+      <c r="Y2" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>31</v>
       </c>
@@ -1259,25 +1267,26 @@
         <v>1</v>
       </c>
       <c r="O3" s="9"/>
-      <c r="P3" s="7" t="s">
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="7">
+      <c r="R3" s="9"/>
+      <c r="S3" s="7">
         <v>8000</v>
       </c>
-      <c r="S3" s="9"/>
-      <c r="T3" s="7" t="s">
+      <c r="T3" s="9"/>
+      <c r="U3" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="U3" s="9"/>
-      <c r="V3" s="7"/>
+      <c r="V3" s="9"/>
       <c r="W3" s="7"/>
-      <c r="X3" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X3" s="7"/>
+      <c r="Y3" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>32</v>
       </c>
@@ -1309,27 +1318,28 @@
         <v>1</v>
       </c>
       <c r="O4" s="9"/>
-      <c r="P4" s="7" t="s">
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="7">
+      <c r="R4" s="9"/>
+      <c r="S4" s="7">
         <v>8000</v>
       </c>
-      <c r="S4" s="9"/>
-      <c r="T4" s="7" t="s">
+      <c r="T4" s="9"/>
+      <c r="U4" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="U4" s="9"/>
-      <c r="V4" s="7" t="s">
+      <c r="V4" s="9"/>
+      <c r="W4" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="W4" s="7"/>
-      <c r="X4" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X4" s="7"/>
+      <c r="Y4" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>33</v>
       </c>
@@ -1361,27 +1371,28 @@
         <v>1</v>
       </c>
       <c r="O5" s="9"/>
-      <c r="P5" s="7" t="s">
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="7">
+      <c r="R5" s="9"/>
+      <c r="S5" s="7">
         <v>8000</v>
       </c>
-      <c r="S5" s="9"/>
-      <c r="T5" s="7" t="s">
+      <c r="T5" s="9"/>
+      <c r="U5" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="U5" s="9"/>
-      <c r="V5" s="7" t="s">
+      <c r="V5" s="9"/>
+      <c r="W5" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="W5" s="7"/>
-      <c r="X5" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X5" s="7"/>
+      <c r="Y5" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>105</v>
       </c>
@@ -1413,27 +1424,28 @@
         <v>1</v>
       </c>
       <c r="O6" s="9"/>
-      <c r="P6" s="7" t="s">
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="7">
+      <c r="R6" s="9"/>
+      <c r="S6" s="7">
         <v>8000</v>
       </c>
-      <c r="S6" s="9"/>
-      <c r="T6" s="7" t="s">
+      <c r="T6" s="9"/>
+      <c r="U6" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="U6" s="9"/>
-      <c r="V6" s="7" t="s">
+      <c r="V6" s="9"/>
+      <c r="W6" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="W6" s="7"/>
-      <c r="X6" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X6" s="7"/>
+      <c r="Y6" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>35</v>
       </c>
@@ -1465,25 +1477,26 @@
         <v>1</v>
       </c>
       <c r="O7" s="9"/>
-      <c r="P7" s="7" t="s">
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="7">
+      <c r="R7" s="9"/>
+      <c r="S7" s="7">
         <v>8000</v>
       </c>
-      <c r="S7" s="9"/>
-      <c r="T7" s="7" t="s">
+      <c r="T7" s="9"/>
+      <c r="U7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="U7" s="9"/>
-      <c r="V7" s="7"/>
+      <c r="V7" s="9"/>
       <c r="W7" s="7"/>
-      <c r="X7" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X7" s="7"/>
+      <c r="Y7" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>75</v>
       </c>
@@ -1515,25 +1528,26 @@
         <v>1</v>
       </c>
       <c r="O8" s="9"/>
-      <c r="P8" s="7" t="s">
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="Q8" s="9"/>
-      <c r="R8" s="7">
+      <c r="R8" s="9"/>
+      <c r="S8" s="7">
         <v>8000</v>
       </c>
-      <c r="S8" s="9"/>
-      <c r="T8" s="7" t="s">
+      <c r="T8" s="9"/>
+      <c r="U8" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="U8" s="9"/>
-      <c r="V8" s="7"/>
+      <c r="V8" s="9"/>
       <c r="W8" s="7"/>
-      <c r="X8" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X8" s="7"/>
+      <c r="Y8" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>109</v>
       </c>
@@ -1565,27 +1579,28 @@
         <v>1</v>
       </c>
       <c r="O9" s="9"/>
-      <c r="P9" s="7" t="s">
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="7">
+      <c r="R9" s="9"/>
+      <c r="S9" s="7">
         <v>8000</v>
       </c>
-      <c r="S9" s="9"/>
-      <c r="T9" s="7" t="s">
+      <c r="T9" s="9"/>
+      <c r="U9" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="U9" s="9"/>
-      <c r="V9" s="7" t="s">
+      <c r="V9" s="9"/>
+      <c r="W9" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="W9" s="7"/>
-      <c r="X9" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X9" s="7"/>
+      <c r="Y9" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>110</v>
       </c>
@@ -1617,27 +1632,28 @@
         <v>1</v>
       </c>
       <c r="O10" s="9"/>
-      <c r="P10" s="7" t="s">
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="Q10" s="9"/>
-      <c r="R10" s="7">
+      <c r="R10" s="9"/>
+      <c r="S10" s="7">
         <v>8000</v>
       </c>
-      <c r="S10" s="9"/>
-      <c r="T10" s="7" t="s">
+      <c r="T10" s="9"/>
+      <c r="U10" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="U10" s="9"/>
-      <c r="V10" s="7" t="s">
+      <c r="V10" s="9"/>
+      <c r="W10" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="W10" s="7"/>
-      <c r="X10" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X10" s="7"/>
+      <c r="Y10" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>111</v>
       </c>
@@ -1669,27 +1685,28 @@
         <v>1</v>
       </c>
       <c r="O11" s="9"/>
-      <c r="P11" s="7" t="s">
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="7">
+      <c r="R11" s="9"/>
+      <c r="S11" s="7">
         <v>8000</v>
       </c>
-      <c r="S11" s="9"/>
-      <c r="T11" s="7" t="s">
+      <c r="T11" s="9"/>
+      <c r="U11" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="U11" s="9"/>
-      <c r="V11" s="7" t="s">
+      <c r="V11" s="9"/>
+      <c r="W11" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="W11" s="7"/>
-      <c r="X11" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X11" s="7"/>
+      <c r="Y11" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>37</v>
       </c>
@@ -1721,27 +1738,28 @@
         <v>1</v>
       </c>
       <c r="O12" s="9"/>
-      <c r="P12" s="7" t="s">
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="7">
+      <c r="R12" s="9"/>
+      <c r="S12" s="7">
         <v>8000</v>
       </c>
-      <c r="S12" s="9"/>
-      <c r="T12" s="7" t="s">
+      <c r="T12" s="9"/>
+      <c r="U12" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="U12" s="9" t="s">
+      <c r="V12" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="V12" s="7"/>
       <c r="W12" s="7"/>
-      <c r="X12" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X12" s="7"/>
+      <c r="Y12" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>39</v>
       </c>
@@ -1773,27 +1791,28 @@
         <v>1</v>
       </c>
       <c r="O13" s="9"/>
-      <c r="P13" s="7" t="s">
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="7">
+      <c r="R13" s="9"/>
+      <c r="S13" s="7">
         <v>8000</v>
       </c>
-      <c r="S13" s="9"/>
-      <c r="T13" s="7" t="s">
+      <c r="T13" s="9"/>
+      <c r="U13" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="U13" s="9" t="s">
+      <c r="V13" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="V13" s="7"/>
       <c r="W13" s="7"/>
-      <c r="X13" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X13" s="7"/>
+      <c r="Y13" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>40</v>
       </c>
@@ -1825,27 +1844,28 @@
         <v>1</v>
       </c>
       <c r="O14" s="9"/>
-      <c r="P14" s="7" t="s">
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="7">
+      <c r="R14" s="9"/>
+      <c r="S14" s="7">
         <v>8000</v>
       </c>
-      <c r="S14" s="9"/>
-      <c r="T14" s="7" t="s">
+      <c r="T14" s="9"/>
+      <c r="U14" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="U14" s="9" t="s">
+      <c r="V14" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="V14" s="7"/>
       <c r="W14" s="7"/>
-      <c r="X14" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X14" s="7"/>
+      <c r="Y14" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>41</v>
       </c>
@@ -1877,27 +1897,28 @@
         <v>1</v>
       </c>
       <c r="O15" s="9"/>
-      <c r="P15" s="7" t="s">
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="Q15" s="9"/>
-      <c r="R15" s="7">
+      <c r="R15" s="9"/>
+      <c r="S15" s="7">
         <v>8000</v>
       </c>
-      <c r="S15" s="9"/>
-      <c r="T15" s="7" t="s">
+      <c r="T15" s="9"/>
+      <c r="U15" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="U15" s="9" t="s">
+      <c r="V15" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="V15" s="7"/>
       <c r="W15" s="7"/>
-      <c r="X15" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X15" s="7"/>
+      <c r="Y15" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>44</v>
       </c>
@@ -1929,27 +1950,28 @@
         <v>1</v>
       </c>
       <c r="O16" s="9"/>
-      <c r="P16" s="7" t="s">
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="Q16" s="9"/>
-      <c r="R16" s="7">
+      <c r="R16" s="9"/>
+      <c r="S16" s="7">
         <v>8000</v>
       </c>
-      <c r="S16" s="9"/>
-      <c r="T16" s="7" t="s">
+      <c r="T16" s="9"/>
+      <c r="U16" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="U16" s="9" t="s">
+      <c r="V16" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="V16" s="7"/>
       <c r="W16" s="7"/>
-      <c r="X16" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X16" s="7"/>
+      <c r="Y16" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>45</v>
       </c>
@@ -1981,27 +2003,28 @@
         <v>1</v>
       </c>
       <c r="O17" s="9"/>
-      <c r="P17" s="7" t="s">
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="7">
+      <c r="R17" s="9"/>
+      <c r="S17" s="7">
         <v>8000</v>
       </c>
-      <c r="S17" s="9"/>
-      <c r="T17" s="7" t="s">
+      <c r="T17" s="9"/>
+      <c r="U17" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="U17" s="9" t="s">
+      <c r="V17" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="V17" s="7"/>
       <c r="W17" s="7"/>
-      <c r="X17" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X17" s="7"/>
+      <c r="Y17" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>46</v>
       </c>
@@ -2033,27 +2056,28 @@
         <v>1</v>
       </c>
       <c r="O18" s="9"/>
-      <c r="P18" s="7" t="s">
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="Q18" s="9"/>
-      <c r="R18" s="7">
+      <c r="R18" s="9"/>
+      <c r="S18" s="7">
         <v>8000</v>
       </c>
-      <c r="S18" s="9"/>
-      <c r="T18" s="7" t="s">
+      <c r="T18" s="9"/>
+      <c r="U18" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="U18" s="9" t="s">
+      <c r="V18" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="V18" s="7"/>
       <c r="W18" s="7"/>
-      <c r="X18" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X18" s="7"/>
+      <c r="Y18" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>47</v>
       </c>
@@ -2085,27 +2109,28 @@
         <v>1</v>
       </c>
       <c r="O19" s="9"/>
-      <c r="P19" s="7" t="s">
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="Q19" s="9"/>
-      <c r="R19" s="7">
+      <c r="R19" s="9"/>
+      <c r="S19" s="7">
         <v>8000</v>
       </c>
-      <c r="S19" s="9"/>
-      <c r="T19" s="7" t="s">
+      <c r="T19" s="9"/>
+      <c r="U19" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="U19" s="9" t="s">
+      <c r="V19" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="V19" s="7"/>
       <c r="W19" s="7"/>
-      <c r="X19" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X19" s="7"/>
+      <c r="Y19" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>48</v>
       </c>
@@ -2137,27 +2162,28 @@
         <v>1</v>
       </c>
       <c r="O20" s="9"/>
-      <c r="P20" s="7" t="s">
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="Q20" s="9"/>
-      <c r="R20" s="7">
+      <c r="R20" s="9"/>
+      <c r="S20" s="7">
         <v>8000</v>
       </c>
-      <c r="S20" s="9"/>
-      <c r="T20" s="7" t="s">
+      <c r="T20" s="9"/>
+      <c r="U20" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="U20" s="9" t="s">
+      <c r="V20" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="V20" s="7"/>
       <c r="W20" s="7"/>
-      <c r="X20" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X20" s="7"/>
+      <c r="Y20" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>49</v>
       </c>
@@ -2189,27 +2215,28 @@
         <v>1</v>
       </c>
       <c r="O21" s="9"/>
-      <c r="P21" s="7" t="s">
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="Q21" s="9"/>
-      <c r="R21" s="7">
+      <c r="R21" s="9"/>
+      <c r="S21" s="7">
         <v>8000</v>
       </c>
-      <c r="S21" s="9"/>
-      <c r="T21" s="7" t="s">
+      <c r="T21" s="9"/>
+      <c r="U21" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="U21" s="9" t="s">
+      <c r="V21" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="V21" s="7"/>
       <c r="W21" s="7"/>
-      <c r="X21" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X21" s="7"/>
+      <c r="Y21" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>50</v>
       </c>
@@ -2241,27 +2268,28 @@
         <v>1</v>
       </c>
       <c r="O22" s="9"/>
-      <c r="P22" s="7" t="s">
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="Q22" s="9"/>
-      <c r="R22" s="7">
+      <c r="R22" s="9"/>
+      <c r="S22" s="7">
         <v>8000</v>
       </c>
-      <c r="S22" s="9"/>
-      <c r="T22" s="7" t="s">
+      <c r="T22" s="9"/>
+      <c r="U22" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="U22" s="9" t="s">
+      <c r="V22" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="V22" s="7"/>
       <c r="W22" s="7"/>
-      <c r="X22" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X22" s="7"/>
+      <c r="Y22" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>51</v>
       </c>
@@ -2293,27 +2321,28 @@
         <v>1</v>
       </c>
       <c r="O23" s="9"/>
-      <c r="P23" s="7" t="s">
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="Q23" s="9"/>
-      <c r="R23" s="7">
+      <c r="R23" s="9"/>
+      <c r="S23" s="7">
         <v>8000</v>
       </c>
-      <c r="S23" s="9"/>
-      <c r="T23" s="7" t="s">
+      <c r="T23" s="9"/>
+      <c r="U23" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="U23" s="9" t="s">
+      <c r="V23" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="V23" s="7"/>
       <c r="W23" s="7"/>
-      <c r="X23" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X23" s="7"/>
+      <c r="Y23" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>52</v>
       </c>
@@ -2345,27 +2374,28 @@
         <v>1</v>
       </c>
       <c r="O24" s="9"/>
-      <c r="P24" s="7" t="s">
+      <c r="P24" s="7"/>
+      <c r="Q24" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="Q24" s="9"/>
-      <c r="R24" s="7">
+      <c r="R24" s="9"/>
+      <c r="S24" s="7">
         <v>8000</v>
       </c>
-      <c r="S24" s="9"/>
-      <c r="T24" s="7" t="s">
+      <c r="T24" s="9"/>
+      <c r="U24" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="U24" s="9" t="s">
+      <c r="V24" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="V24" s="7"/>
       <c r="W24" s="7"/>
-      <c r="X24" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X24" s="7"/>
+      <c r="Y24" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>53</v>
       </c>
@@ -2397,27 +2427,28 @@
         <v>1</v>
       </c>
       <c r="O25" s="9"/>
-      <c r="P25" s="7" t="s">
+      <c r="P25" s="7"/>
+      <c r="Q25" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="Q25" s="9"/>
-      <c r="R25" s="7">
+      <c r="R25" s="9"/>
+      <c r="S25" s="7">
         <v>8000</v>
       </c>
-      <c r="S25" s="9"/>
-      <c r="T25" s="7" t="s">
+      <c r="T25" s="9"/>
+      <c r="U25" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="U25" s="9" t="s">
+      <c r="V25" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="V25" s="7"/>
       <c r="W25" s="7"/>
-      <c r="X25" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X25" s="7"/>
+      <c r="Y25" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>70</v>
       </c>
@@ -2449,27 +2480,28 @@
         <v>1</v>
       </c>
       <c r="O26" s="9"/>
-      <c r="P26" s="7" t="s">
+      <c r="P26" s="7"/>
+      <c r="Q26" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="Q26" s="9"/>
-      <c r="R26" s="7">
+      <c r="R26" s="9"/>
+      <c r="S26" s="7">
         <v>8000</v>
       </c>
-      <c r="S26" s="9"/>
-      <c r="T26" s="7" t="s">
+      <c r="T26" s="9"/>
+      <c r="U26" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="U26" s="9" t="s">
+      <c r="V26" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="V26" s="7"/>
       <c r="W26" s="7"/>
-      <c r="X26" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X26" s="7"/>
+      <c r="Y26" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>71</v>
       </c>
@@ -2501,27 +2533,28 @@
         <v>1</v>
       </c>
       <c r="O27" s="9"/>
-      <c r="P27" s="7" t="s">
+      <c r="P27" s="7"/>
+      <c r="Q27" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="Q27" s="9"/>
-      <c r="R27" s="7">
+      <c r="R27" s="9"/>
+      <c r="S27" s="7">
         <v>8000</v>
       </c>
-      <c r="S27" s="9"/>
-      <c r="T27" s="7" t="s">
+      <c r="T27" s="9"/>
+      <c r="U27" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="U27" s="9" t="s">
+      <c r="V27" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="V27" s="7"/>
       <c r="W27" s="7"/>
-      <c r="X27" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X27" s="7"/>
+      <c r="Y27" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>112</v>
       </c>
@@ -2542,22 +2575,23 @@
       <c r="N28" s="7"/>
       <c r="O28" s="9"/>
       <c r="P28" s="7"/>
-      <c r="Q28" s="9"/>
-      <c r="R28" s="7"/>
-      <c r="S28" s="9"/>
-      <c r="T28" s="7" t="s">
+      <c r="Q28" s="7"/>
+      <c r="R28" s="9"/>
+      <c r="S28" s="7"/>
+      <c r="T28" s="9"/>
+      <c r="U28" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="U28" s="9" t="s">
+      <c r="V28" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="V28" s="7"/>
       <c r="W28" s="7"/>
-      <c r="X28" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X28" s="7"/>
+      <c r="Y28" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>113</v>
       </c>
@@ -2578,22 +2612,23 @@
       <c r="N29" s="7"/>
       <c r="O29" s="9"/>
       <c r="P29" s="7"/>
-      <c r="Q29" s="9"/>
-      <c r="R29" s="7"/>
-      <c r="S29" s="9"/>
-      <c r="T29" s="7" t="s">
+      <c r="Q29" s="7"/>
+      <c r="R29" s="9"/>
+      <c r="S29" s="7"/>
+      <c r="T29" s="9"/>
+      <c r="U29" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="U29" s="9" t="s">
+      <c r="V29" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="V29" s="7"/>
       <c r="W29" s="7"/>
-      <c r="X29" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X29" s="7"/>
+      <c r="Y29" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>114</v>
       </c>
@@ -2614,22 +2649,23 @@
       <c r="N30" s="7"/>
       <c r="O30" s="9"/>
       <c r="P30" s="7"/>
-      <c r="Q30" s="9"/>
-      <c r="R30" s="7"/>
-      <c r="S30" s="9"/>
-      <c r="T30" s="7" t="s">
+      <c r="Q30" s="7"/>
+      <c r="R30" s="9"/>
+      <c r="S30" s="7"/>
+      <c r="T30" s="9"/>
+      <c r="U30" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="U30" s="9" t="s">
+      <c r="V30" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="V30" s="7"/>
       <c r="W30" s="7"/>
-      <c r="X30" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X30" s="7"/>
+      <c r="Y30" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>115</v>
       </c>
@@ -2650,22 +2686,23 @@
       <c r="N31" s="7"/>
       <c r="O31" s="9"/>
       <c r="P31" s="7"/>
-      <c r="Q31" s="9"/>
-      <c r="R31" s="7"/>
-      <c r="S31" s="9"/>
-      <c r="T31" s="7" t="s">
+      <c r="Q31" s="7"/>
+      <c r="R31" s="9"/>
+      <c r="S31" s="7"/>
+      <c r="T31" s="9"/>
+      <c r="U31" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="U31" s="9" t="s">
+      <c r="V31" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="V31" s="7"/>
       <c r="W31" s="7"/>
-      <c r="X31" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X31" s="7"/>
+      <c r="Y31" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
         <v>55</v>
       </c>
@@ -2711,29 +2748,30 @@
       <c r="O32" s="9">
         <v>2</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="P32" s="7"/>
+      <c r="Q32" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="Q32" s="9" t="s">
+      <c r="R32" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="R32" s="7">
+      <c r="S32" s="7">
         <v>8000</v>
       </c>
-      <c r="S32" s="9">
+      <c r="T32" s="9">
         <v>8002</v>
       </c>
-      <c r="T32" s="7" t="s">
+      <c r="U32" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="U32" s="9"/>
-      <c r="V32" s="7"/>
+      <c r="V32" s="9"/>
       <c r="W32" s="7"/>
-      <c r="X32" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X32" s="7"/>
+      <c r="Y32" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>72</v>
       </c>
@@ -2779,29 +2817,30 @@
       <c r="O33" s="9">
         <v>3</v>
       </c>
-      <c r="P33" s="7" t="s">
+      <c r="P33" s="7"/>
+      <c r="Q33" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="Q33" s="9" t="s">
+      <c r="R33" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="R33" s="7">
+      <c r="S33" s="7">
         <v>8000</v>
       </c>
-      <c r="S33" s="9">
+      <c r="T33" s="9">
         <v>8002</v>
       </c>
-      <c r="T33" s="7" t="s">
+      <c r="U33" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="U33" s="9"/>
-      <c r="V33" s="7"/>
+      <c r="V33" s="9"/>
       <c r="W33" s="7"/>
-      <c r="X33" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X33" s="7"/>
+      <c r="Y33" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>73</v>
       </c>
@@ -2847,29 +2886,30 @@
       <c r="O34" s="9">
         <v>3</v>
       </c>
-      <c r="P34" s="7" t="s">
+      <c r="P34" s="7"/>
+      <c r="Q34" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="Q34" s="9" t="s">
+      <c r="R34" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="R34" s="7">
+      <c r="S34" s="7">
         <v>8000</v>
       </c>
-      <c r="S34" s="9">
+      <c r="T34" s="9">
         <v>8002</v>
       </c>
-      <c r="T34" s="7" t="s">
+      <c r="U34" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="U34" s="9"/>
-      <c r="V34" s="7"/>
+      <c r="V34" s="9"/>
       <c r="W34" s="7"/>
-      <c r="X34" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X34" s="7"/>
+      <c r="Y34" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>74</v>
       </c>
@@ -2915,29 +2955,30 @@
       <c r="O35" s="9">
         <v>3</v>
       </c>
-      <c r="P35" s="7" t="s">
+      <c r="P35" s="7"/>
+      <c r="Q35" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="Q35" s="9" t="s">
+      <c r="R35" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="R35" s="7">
+      <c r="S35" s="7">
         <v>8000</v>
       </c>
-      <c r="S35" s="9">
+      <c r="T35" s="9">
         <v>8002</v>
       </c>
-      <c r="T35" s="7" t="s">
+      <c r="U35" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="U35" s="9"/>
-      <c r="V35" s="7"/>
+      <c r="V35" s="9"/>
       <c r="W35" s="7"/>
-      <c r="X35" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X35" s="7"/>
+      <c r="Y35" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A36" s="10"/>
       <c r="D36" s="10"/>
       <c r="E36" s="10"/>
@@ -2960,8 +3001,9 @@
       <c r="V36" s="10"/>
       <c r="W36" s="10"/>
       <c r="X36" s="10"/>
-    </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y36" s="10"/>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A37" s="10"/>
       <c r="D37" s="10"/>
       <c r="E37" s="10"/>
@@ -2984,8 +3026,9 @@
       <c r="V37" s="10"/>
       <c r="W37" s="10"/>
       <c r="X37" s="10"/>
-    </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y37" s="10"/>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A38" s="10"/>
       <c r="D38" s="10"/>
       <c r="E38" s="10"/>
@@ -3008,8 +3051,9 @@
       <c r="V38" s="10"/>
       <c r="W38" s="10"/>
       <c r="X38" s="10"/>
-    </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y38" s="10"/>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A39" s="10"/>
       <c r="D39" s="10"/>
       <c r="E39" s="10"/>
@@ -3032,8 +3076,9 @@
       <c r="V39" s="10"/>
       <c r="W39" s="10"/>
       <c r="X39" s="10"/>
-    </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y39" s="10"/>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A40" s="10"/>
       <c r="D40" s="10"/>
       <c r="E40" s="10"/>
@@ -3056,8 +3101,9 @@
       <c r="V40" s="10"/>
       <c r="W40" s="10"/>
       <c r="X40" s="10"/>
-    </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y40" s="10"/>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A41" s="10"/>
       <c r="D41" s="10"/>
       <c r="E41" s="10"/>
@@ -3080,8 +3126,9 @@
       <c r="V41" s="10"/>
       <c r="W41" s="10"/>
       <c r="X41" s="10"/>
-    </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y41" s="10"/>
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A42" s="10"/>
       <c r="D42" s="10"/>
       <c r="E42" s="10"/>
@@ -3104,8 +3151,9 @@
       <c r="V42" s="10"/>
       <c r="W42" s="10"/>
       <c r="X42" s="10"/>
-    </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y42" s="10"/>
+    </row>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A43" s="10"/>
       <c r="D43" s="10"/>
       <c r="E43" s="10"/>
@@ -3128,8 +3176,9 @@
       <c r="V43" s="10"/>
       <c r="W43" s="10"/>
       <c r="X43" s="10"/>
-    </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y43" s="10"/>
+    </row>
+    <row r="44" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A44" s="10"/>
       <c r="D44" s="10"/>
       <c r="E44" s="10"/>
@@ -3152,8 +3201,9 @@
       <c r="V44" s="10"/>
       <c r="W44" s="10"/>
       <c r="X44" s="10"/>
-    </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y44" s="10"/>
+    </row>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A45" s="10"/>
       <c r="D45" s="10"/>
       <c r="E45" s="10"/>
@@ -3176,8 +3226,9 @@
       <c r="V45" s="10"/>
       <c r="W45" s="10"/>
       <c r="X45" s="10"/>
-    </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y45" s="10"/>
+    </row>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A46" s="10"/>
       <c r="D46" s="10"/>
       <c r="E46" s="10"/>
@@ -3200,8 +3251,9 @@
       <c r="V46" s="10"/>
       <c r="W46" s="10"/>
       <c r="X46" s="10"/>
-    </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y46" s="10"/>
+    </row>
+    <row r="47" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A47" s="10"/>
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
@@ -3224,8 +3276,9 @@
       <c r="V47" s="10"/>
       <c r="W47" s="10"/>
       <c r="X47" s="10"/>
-    </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y47" s="10"/>
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A48" s="10"/>
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
@@ -3248,6 +3301,7 @@
       <c r="V48" s="10"/>
       <c r="W48" s="10"/>
       <c r="X48" s="10"/>
+      <c r="Y48" s="10"/>
     </row>
     <row r="49" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="50" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
@@ -4028,7 +4082,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45AAE02B-1ED2-44CD-BC76-39A59421CF46}">
   <dimension ref="A1:AE780"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+    <sheetView topLeftCell="W1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="AB14" sqref="AB14"/>
     </sheetView>

--- a/src/test/resources/testData/XAlpha.xlsx
+++ b/src/test/resources/testData/XAlpha.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{118905A1-4933-4B43-A329-E05FBB506ADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD3EAF28-199A-4EEF-A43C-4E2F580B878E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="644" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-100" yWindow="-100" windowWidth="21467" windowHeight="11443" tabRatio="644" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="XAlphaLogin" sheetId="9" r:id="rId1"/>
@@ -942,15 +942,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.5546875" customWidth="1"/>
-    <col min="2" max="2" width="14.21875" customWidth="1"/>
-    <col min="3" max="3" width="21.21875" customWidth="1"/>
-    <col min="4" max="4" width="18.44140625" customWidth="1"/>
-    <col min="5" max="5" width="16.21875" customWidth="1"/>
-    <col min="6" max="6" width="15.44140625" customWidth="1"/>
+    <col min="1" max="1" width="29.59765625" customWidth="1"/>
+    <col min="2" max="2" width="14.19921875" customWidth="1"/>
+    <col min="3" max="3" width="21.19921875" customWidth="1"/>
+    <col min="4" max="4" width="18.3984375" customWidth="1"/>
+    <col min="5" max="5" width="16.19921875" customWidth="1"/>
+    <col min="6" max="6" width="15.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="14.95" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -970,7 +970,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="14.95" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -988,7 +988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="14.95" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1006,7 +1006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="14.95" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="14.95" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>42</v>
       </c>
@@ -1042,7 +1042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="14.95" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>43</v>
       </c>
@@ -1073,38 +1073,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E763A6C0-A0DE-42F1-A4CC-B0EEDE6F7213}">
   <dimension ref="A1:Y1048575"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.77734375" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.77734375" style="10"/>
-    <col min="3" max="3" width="9.21875" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.77734375" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.44140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.21875" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.796875" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.796875" style="10"/>
+    <col min="3" max="3" width="9.19921875" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.796875" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.3984375" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.19921875" style="11" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17" style="11" customWidth="1"/>
-    <col min="8" max="8" width="18.77734375" style="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.77734375" style="11" customWidth="1"/>
-    <col min="10" max="11" width="18.77734375" style="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.44140625" style="11" customWidth="1"/>
-    <col min="13" max="13" width="18.77734375" style="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.44140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.21875" style="11" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.44140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="22.21875" style="11" customWidth="1"/>
+    <col min="8" max="8" width="18.796875" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.796875" style="11" customWidth="1"/>
+    <col min="10" max="11" width="18.796875" style="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.3984375" style="11" customWidth="1"/>
+    <col min="13" max="13" width="18.796875" style="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.3984375" style="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.3984375" style="11" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="22.19921875" style="11" customWidth="1"/>
     <col min="18" max="18" width="27" style="11" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.77734375" style="11" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.796875" style="11" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="25" style="11" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.77734375" style="11" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="23.44140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="44.77734375" style="11" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.796875" style="11" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="23.3984375" style="11" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="44.796875" style="11" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="17" style="11" customWidth="1"/>
-    <col min="25" max="25" width="8.77734375" style="11"/>
-    <col min="26" max="16384" width="8.77734375" style="10"/>
+    <col min="25" max="25" width="8.796875" style="11"/>
+    <col min="26" max="16384" width="8.796875" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -4082,44 +4082,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45AAE02B-1ED2-44CD-BC76-39A59421CF46}">
   <dimension ref="A1:AE780"/>
   <sheetViews>
-    <sheetView topLeftCell="W1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AB14" sqref="AB14"/>
+      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.77734375" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.77734375" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="18.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.44140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.44140625" style="11" customWidth="1"/>
+    <col min="1" max="1" width="29.796875" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.796875" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="18.09765625" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.3984375" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.3984375" style="11" customWidth="1"/>
     <col min="7" max="7" width="17" style="11" customWidth="1"/>
-    <col min="8" max="8" width="24.6640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.77734375" style="11" customWidth="1"/>
-    <col min="10" max="10" width="17.44140625" style="11" customWidth="1"/>
-    <col min="11" max="11" width="15.44140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.77734375" style="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.44140625" style="11" customWidth="1"/>
-    <col min="14" max="14" width="16.44140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.44140625" style="11" customWidth="1"/>
-    <col min="16" max="16" width="21.21875" style="11" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.44140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.77734375" style="11" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.77734375" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.796875" style="11" customWidth="1"/>
+    <col min="10" max="10" width="17.3984375" style="11" customWidth="1"/>
+    <col min="11" max="11" width="15.3984375" style="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.796875" style="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.3984375" style="11" customWidth="1"/>
+    <col min="14" max="14" width="16.3984375" style="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.3984375" style="11" customWidth="1"/>
+    <col min="16" max="16" width="21.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.3984375" style="11" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.796875" style="11" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.796875" style="11" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="22" style="11" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="24.44140625" style="11" customWidth="1"/>
-    <col min="22" max="22" width="29.33203125" style="11" customWidth="1"/>
-    <col min="23" max="23" width="22.21875" style="11" customWidth="1"/>
-    <col min="24" max="24" width="25.77734375" style="11" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.33203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="23.6640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="15.21875" style="11" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="19.88671875" style="11" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="43.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="24.3984375" style="11" customWidth="1"/>
+    <col min="22" max="22" width="29.296875" style="11" customWidth="1"/>
+    <col min="23" max="23" width="22.19921875" style="11" customWidth="1"/>
+    <col min="24" max="24" width="25.796875" style="11" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.296875" style="11" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="23.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="19.8984375" style="11" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="43.69921875" style="11" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="17" style="11" customWidth="1"/>
-    <col min="31" max="31" width="8.77734375" style="11"/>
-    <col min="32" max="16384" width="8.77734375" style="10"/>
+    <col min="31" max="31" width="8.796875" style="11"/>
+    <col min="32" max="16384" width="8.796875" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.3">

--- a/src/test/resources/testData/XAlpha.xlsx
+++ b/src/test/resources/testData/XAlpha.xlsx
@@ -3,21 +3,22 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD3EAF28-199A-4EEF-A43C-4E2F580B878E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68748F56-D773-4D4E-A048-0D81201C6CF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-100" yWindow="-100" windowWidth="21467" windowHeight="11443" tabRatio="644" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-100" yWindow="-100" windowWidth="21467" windowHeight="11443" tabRatio="644" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="XAlphaLogin" sheetId="9" r:id="rId1"/>
     <sheet name="XAlphaDeals" sheetId="11" r:id="rId2"/>
     <sheet name="ExecutionDeal" sheetId="13" r:id="rId3"/>
+    <sheet name="CashFlow" sheetId="14" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="148">
   <si>
     <t>Username</t>
   </si>
@@ -437,6 +438,30 @@
   </si>
   <si>
     <t>MarketPrice</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_XAlpha_067</t>
+  </si>
+  <si>
+    <t>pay</t>
+  </si>
+  <si>
+    <t>Asset</t>
+  </si>
+  <si>
+    <t>CashflowPurpose</t>
+  </si>
+  <si>
+    <t>transfer</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Cash Flow</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_XAlpha_068</t>
   </si>
 </sst>
 </file>
@@ -4082,9 +4107,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45AAE02B-1ED2-44CD-BC76-39A59421CF46}">
   <dimension ref="A1:AE780"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6517,4 +6542,143 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21695F8F-FC0D-4216-9C70-4A42E90CA651}">
+  <dimension ref="A1:M3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="28.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="14.296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.59765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.69921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.69921875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.19921875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.09765625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.09765625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.69921875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="17">
+        <v>1</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="G2" s="21"/>
+      <c r="H2" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="I2" s="7">
+        <v>8000</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="17">
+        <v>2</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="G3" s="21"/>
+      <c r="H3" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="I3" s="7">
+        <v>8000</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/resources/testData/XAlpha.xlsx
+++ b/src/test/resources/testData/XAlpha.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68748F56-D773-4D4E-A048-0D81201C6CF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DD31062-9F01-4F8C-ACAB-1BBFE7018E83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-100" yWindow="-100" windowWidth="21467" windowHeight="11443" tabRatio="644" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-100" yWindow="-100" windowWidth="21467" windowHeight="11443" tabRatio="644" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="XAlphaLogin" sheetId="9" r:id="rId1"/>
@@ -1098,9 +1098,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E763A6C0-A0DE-42F1-A4CC-B0EEDE6F7213}">
   <dimension ref="A1:Y1048575"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
       <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="P2" sqref="P2"/>
+      <selection pane="topRight" activeCell="Q31" sqref="Q31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6548,7 +6548,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21695F8F-FC0D-4216-9C70-4A42E90CA651}">
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>

--- a/src/test/resources/testData/XAlpha.xlsx
+++ b/src/test/resources/testData/XAlpha.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DD31062-9F01-4F8C-ACAB-1BBFE7018E83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34EE8FBB-A058-473C-AC5A-E0907D8D72D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-100" yWindow="-100" windowWidth="21467" windowHeight="11443" tabRatio="644" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21367" yWindow="-100" windowWidth="21467" windowHeight="11443" tabRatio="644" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="XAlphaLogin" sheetId="9" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="151">
   <si>
     <t>Username</t>
   </si>
@@ -462,6 +462,15 @@
   </si>
   <si>
     <t>QA_TestCase_Auto_XAlpha_068</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_XAlpha_069</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_XAlpha_070</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_XAlpha_071</t>
   </si>
 </sst>
 </file>
@@ -1098,7 +1107,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E763A6C0-A0DE-42F1-A4CC-B0EEDE6F7213}">
   <dimension ref="A1:Y1048575"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="Q31" sqref="Q31"/>
     </sheetView>
@@ -6546,10 +6555,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21695F8F-FC0D-4216-9C70-4A42E90CA651}">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6562,7 +6571,7 @@
     <col min="8" max="8" width="20.69921875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.19921875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.09765625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="45.09765625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.09765625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="5.69921875" bestFit="1" customWidth="1"/>
   </cols>
@@ -6678,7 +6687,119 @@
         <v>0</v>
       </c>
     </row>
+    <row r="4" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="17">
+        <v>2</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="G4" s="21"/>
+      <c r="H4" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="I4" s="7">
+        <v>8000</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L4" s="7"/>
+      <c r="M4" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" s="17">
+        <v>4</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="G5" s="21"/>
+      <c r="H5" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="I5" s="7">
+        <v>8000</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L5" s="7"/>
+      <c r="M5" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="17">
+        <v>3</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="G6" s="21"/>
+      <c r="H6" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="I6" s="7">
+        <v>8000</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L6" s="7"/>
+      <c r="M6" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/test/resources/testData/XAlpha.xlsx
+++ b/src/test/resources/testData/XAlpha.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34EE8FBB-A058-473C-AC5A-E0907D8D72D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CA3E691-BA90-4E34-B0F5-CB696F6F0B5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21367" yWindow="-100" windowWidth="21467" windowHeight="11443" tabRatio="644" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-100" yWindow="-100" windowWidth="21467" windowHeight="11443" tabRatio="644" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="XAlphaLogin" sheetId="9" r:id="rId1"/>
@@ -4116,9 +4116,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45AAE02B-1ED2-44CD-BC76-39A59421CF46}">
   <dimension ref="A1:AE780"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5615,19 +5615,19 @@
       <c r="D29" s="17"/>
       <c r="E29" s="17"/>
       <c r="F29" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G29" s="17"/>
       <c r="H29" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I29" s="17"/>
       <c r="J29" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K29" s="17"/>
       <c r="L29" s="9">
-        <v>2100</v>
+        <v>1900</v>
       </c>
       <c r="M29" s="17" t="s">
         <v>67</v>
@@ -5637,7 +5637,7 @@
       </c>
       <c r="O29" s="17"/>
       <c r="P29" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q29" s="17"/>
       <c r="R29" s="9">
@@ -6557,7 +6557,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21695F8F-FC0D-4216-9C70-4A42E90CA651}">
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>

--- a/src/test/resources/testData/XAlpha.xlsx
+++ b/src/test/resources/testData/XAlpha.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CA3E691-BA90-4E34-B0F5-CB696F6F0B5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B8CE752-4619-401F-B742-3AC03E74A95A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-100" yWindow="-100" windowWidth="21467" windowHeight="11443" tabRatio="644" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21367" yWindow="-100" windowWidth="21467" windowHeight="11443" tabRatio="644" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="XAlphaLogin" sheetId="9" r:id="rId1"/>
@@ -4116,9 +4116,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45AAE02B-1ED2-44CD-BC76-39A59421CF46}">
   <dimension ref="A1:AE780"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G28" sqref="G28"/>
+      <selection pane="bottomLeft" activeCell="AB26" sqref="AB26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/src/test/resources/testData/XAlpha.xlsx
+++ b/src/test/resources/testData/XAlpha.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B8CE752-4619-401F-B742-3AC03E74A95A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{623D0A1D-780C-4CB1-BF7B-81BECE3D367E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-21367" yWindow="-100" windowWidth="21467" windowHeight="11443" tabRatio="644" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="154">
   <si>
     <t>Username</t>
   </si>
@@ -471,6 +471,15 @@
   </si>
   <si>
     <t>QA_TestCase_Auto_XAlpha_071</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_XAlpha_072</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_XAlpha_073</t>
+  </si>
+  <si>
+    <t>receive</t>
   </si>
 </sst>
 </file>
@@ -4116,9 +4125,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45AAE02B-1ED2-44CD-BC76-39A59421CF46}">
   <dimension ref="A1:AE780"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AB26" sqref="AB26"/>
+      <selection pane="bottomLeft" activeCell="AD14" sqref="AD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4142,9 +4151,9 @@
     <col min="18" max="18" width="18.796875" style="11" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="13.796875" style="11" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="22" style="11" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="24.3984375" style="11" customWidth="1"/>
-    <col min="22" max="22" width="29.296875" style="11" customWidth="1"/>
-    <col min="23" max="23" width="22.19921875" style="11" customWidth="1"/>
+    <col min="21" max="21" width="17.796875" style="11" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18" style="11" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="20.69921875" style="11" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="25.796875" style="11" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="15.296875" style="11" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="23.69921875" style="11" bestFit="1" customWidth="1"/>
@@ -6555,10 +6564,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21695F8F-FC0D-4216-9C70-4A42E90CA651}">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6798,6 +6807,76 @@
         <v>0</v>
       </c>
     </row>
+    <row r="7" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="17">
+        <v>1</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="G7" s="21"/>
+      <c r="H7" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="I7" s="7">
+        <v>8000</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="17">
+        <v>2</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="G8" s="21"/>
+      <c r="H8" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="I8" s="7">
+        <v>8000</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/test/resources/testData/XAlpha.xlsx
+++ b/src/test/resources/testData/XAlpha.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{623D0A1D-780C-4CB1-BF7B-81BECE3D367E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91C9AAF2-8B68-4D63-B0B8-ACFF89E010A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21367" yWindow="-100" windowWidth="21467" windowHeight="11443" tabRatio="644" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-100" yWindow="-100" windowWidth="21467" windowHeight="11443" tabRatio="644" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="XAlphaLogin" sheetId="9" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="157">
   <si>
     <t>Username</t>
   </si>
@@ -480,6 +480,15 @@
   </si>
   <si>
     <t>receive</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_XAlpha_074</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_XAlpha_075</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_XAlpha_076</t>
   </si>
 </sst>
 </file>
@@ -4125,7 +4134,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45AAE02B-1ED2-44CD-BC76-39A59421CF46}">
   <dimension ref="A1:AE780"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="AD14" sqref="AD14"/>
     </sheetView>
@@ -6564,10 +6573,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21695F8F-FC0D-4216-9C70-4A42E90CA651}">
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6877,8 +6886,120 @@
         <v>0</v>
       </c>
     </row>
+    <row r="9" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="17">
+        <v>3</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="G9" s="21"/>
+      <c r="H9" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="I9" s="7">
+        <v>8000</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L9" s="7"/>
+      <c r="M9" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="17">
+        <v>4</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="G10" s="21"/>
+      <c r="H10" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="I10" s="7">
+        <v>8000</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L10" s="7"/>
+      <c r="M10" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" s="17">
+        <v>5</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="G11" s="21"/>
+      <c r="H11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="I11" s="7">
+        <v>8000</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L11" s="7"/>
+      <c r="M11" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/test/resources/testData/XAlpha.xlsx
+++ b/src/test/resources/testData/XAlpha.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25330"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91C9AAF2-8B68-4D63-B0B8-ACFF89E010A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA215510-52F2-4CB0-B7EE-025AC0A3640A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-100" yWindow="-100" windowWidth="21467" windowHeight="11443" tabRatio="644" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="644" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="XAlphaLogin" sheetId="9" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="158">
   <si>
     <t>Username</t>
   </si>
@@ -489,6 +489,9 @@
   </si>
   <si>
     <t>QA_TestCase_Auto_XAlpha_076</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_XAlpha_077</t>
   </si>
 </sst>
 </file>
@@ -989,20 +992,20 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.59765625" customWidth="1"/>
-    <col min="2" max="2" width="14.19921875" customWidth="1"/>
-    <col min="3" max="3" width="21.19921875" customWidth="1"/>
-    <col min="4" max="4" width="18.3984375" customWidth="1"/>
-    <col min="5" max="5" width="16.19921875" customWidth="1"/>
-    <col min="6" max="6" width="15.3984375" customWidth="1"/>
+    <col min="1" max="1" width="29.6328125" customWidth="1"/>
+    <col min="2" max="2" width="14.1796875" customWidth="1"/>
+    <col min="3" max="3" width="21.1796875" customWidth="1"/>
+    <col min="4" max="4" width="18.36328125" customWidth="1"/>
+    <col min="5" max="5" width="16.1796875" customWidth="1"/>
+    <col min="6" max="6" width="15.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.95" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1022,7 +1025,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="14.95" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1040,7 +1043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="14.95" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1058,7 +1061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="14.95" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1076,7 +1079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="14.95" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>42</v>
       </c>
@@ -1094,7 +1097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="14.95" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>43</v>
       </c>
@@ -1125,41 +1128,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E763A6C0-A0DE-42F1-A4CC-B0EEDE6F7213}">
   <dimension ref="A1:Y1048575"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Q31" sqref="Q31"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="N1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.796875" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.796875" style="10"/>
-    <col min="3" max="3" width="9.19921875" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.796875" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.3984375" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.81640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.81640625" style="10"/>
+    <col min="3" max="3" width="9.1796875" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.81640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.36328125" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.1796875" style="11" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17" style="11" customWidth="1"/>
-    <col min="8" max="8" width="18.796875" style="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.796875" style="11" customWidth="1"/>
-    <col min="10" max="11" width="18.796875" style="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.3984375" style="11" customWidth="1"/>
-    <col min="13" max="13" width="18.796875" style="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.3984375" style="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.19921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.3984375" style="11" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="22.19921875" style="11" customWidth="1"/>
+    <col min="8" max="8" width="18.81640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.81640625" style="11" customWidth="1"/>
+    <col min="10" max="11" width="18.81640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.36328125" style="11" customWidth="1"/>
+    <col min="13" max="13" width="18.81640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.36328125" style="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.1796875" style="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.36328125" style="11" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="22.1796875" style="11" customWidth="1"/>
     <col min="18" max="18" width="27" style="11" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.796875" style="11" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.81640625" style="11" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="25" style="11" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.796875" style="11" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="23.3984375" style="11" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="44.796875" style="11" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.81640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="23.36328125" style="11" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="44.81640625" style="11" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="17" style="11" customWidth="1"/>
-    <col min="25" max="25" width="8.796875" style="11"/>
-    <col min="26" max="16384" width="8.796875" style="10"/>
+    <col min="25" max="25" width="8.81640625" style="11"/>
+    <col min="26" max="16384" width="8.81640625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
@@ -1236,7 +1239,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>30</v>
       </c>
@@ -1287,7 +1290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>31</v>
       </c>
@@ -1338,7 +1341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>32</v>
       </c>
@@ -1391,7 +1394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>33</v>
       </c>
@@ -1444,7 +1447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>105</v>
       </c>
@@ -1497,7 +1500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>35</v>
       </c>
@@ -1548,7 +1551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>75</v>
       </c>
@@ -1599,7 +1602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>109</v>
       </c>
@@ -1652,7 +1655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>110</v>
       </c>
@@ -1705,7 +1708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>111</v>
       </c>
@@ -1758,7 +1761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>37</v>
       </c>
@@ -1811,7 +1814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>39</v>
       </c>
@@ -1864,7 +1867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>40</v>
       </c>
@@ -1917,7 +1920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>41</v>
       </c>
@@ -1970,7 +1973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>44</v>
       </c>
@@ -2023,7 +2026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>45</v>
       </c>
@@ -2076,7 +2079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>46</v>
       </c>
@@ -2129,7 +2132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>47</v>
       </c>
@@ -2182,7 +2185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>48</v>
       </c>
@@ -2235,7 +2238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
         <v>49</v>
       </c>
@@ -2288,7 +2291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
         <v>50</v>
       </c>
@@ -2341,7 +2344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
         <v>51</v>
       </c>
@@ -2394,7 +2397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
         <v>52</v>
       </c>
@@ -2447,7 +2450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
         <v>53</v>
       </c>
@@ -2500,7 +2503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
         <v>70</v>
       </c>
@@ -2553,7 +2556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
         <v>71</v>
       </c>
@@ -2606,7 +2609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
         <v>112</v>
       </c>
@@ -2643,7 +2646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
         <v>113</v>
       </c>
@@ -2680,7 +2683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
         <v>114</v>
       </c>
@@ -2717,7 +2720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A31" s="5" t="s">
         <v>115</v>
       </c>
@@ -2754,7 +2757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A32" s="5" t="s">
         <v>55</v>
       </c>
@@ -2823,7 +2826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="s">
         <v>72</v>
       </c>
@@ -2892,7 +2895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
         <v>73</v>
       </c>
@@ -2961,7 +2964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
         <v>74</v>
       </c>
@@ -3030,7 +3033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A36" s="10"/>
       <c r="D36" s="10"/>
       <c r="E36" s="10"/>
@@ -3055,7 +3058,7 @@
       <c r="X36" s="10"/>
       <c r="Y36" s="10"/>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A37" s="10"/>
       <c r="D37" s="10"/>
       <c r="E37" s="10"/>
@@ -3080,7 +3083,7 @@
       <c r="X37" s="10"/>
       <c r="Y37" s="10"/>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A38" s="10"/>
       <c r="D38" s="10"/>
       <c r="E38" s="10"/>
@@ -3105,7 +3108,7 @@
       <c r="X38" s="10"/>
       <c r="Y38" s="10"/>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A39" s="10"/>
       <c r="D39" s="10"/>
       <c r="E39" s="10"/>
@@ -3130,7 +3133,7 @@
       <c r="X39" s="10"/>
       <c r="Y39" s="10"/>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A40" s="10"/>
       <c r="D40" s="10"/>
       <c r="E40" s="10"/>
@@ -3155,7 +3158,7 @@
       <c r="X40" s="10"/>
       <c r="Y40" s="10"/>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A41" s="10"/>
       <c r="D41" s="10"/>
       <c r="E41" s="10"/>
@@ -3180,7 +3183,7 @@
       <c r="X41" s="10"/>
       <c r="Y41" s="10"/>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A42" s="10"/>
       <c r="D42" s="10"/>
       <c r="E42" s="10"/>
@@ -3205,7 +3208,7 @@
       <c r="X42" s="10"/>
       <c r="Y42" s="10"/>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A43" s="10"/>
       <c r="D43" s="10"/>
       <c r="E43" s="10"/>
@@ -3230,7 +3233,7 @@
       <c r="X43" s="10"/>
       <c r="Y43" s="10"/>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A44" s="10"/>
       <c r="D44" s="10"/>
       <c r="E44" s="10"/>
@@ -3255,7 +3258,7 @@
       <c r="X44" s="10"/>
       <c r="Y44" s="10"/>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A45" s="10"/>
       <c r="D45" s="10"/>
       <c r="E45" s="10"/>
@@ -3280,7 +3283,7 @@
       <c r="X45" s="10"/>
       <c r="Y45" s="10"/>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A46" s="10"/>
       <c r="D46" s="10"/>
       <c r="E46" s="10"/>
@@ -3305,7 +3308,7 @@
       <c r="X46" s="10"/>
       <c r="Y46" s="10"/>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A47" s="10"/>
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
@@ -3330,7 +3333,7 @@
       <c r="X47" s="10"/>
       <c r="Y47" s="10"/>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A48" s="10"/>
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
@@ -3355,772 +3358,772 @@
       <c r="X48" s="10"/>
       <c r="Y48" s="10"/>
     </row>
-    <row r="49" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="50" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="51" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="52" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="53" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="54" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="55" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="56" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="57" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="58" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="59" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="60" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="61" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="62" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="63" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="64" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="65" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="66" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="67" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="68" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="69" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="70" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="71" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="72" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="73" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="74" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="75" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="76" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="77" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="78" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="79" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="80" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="81" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="82" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="83" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="84" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="85" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="86" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="87" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="88" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="89" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="90" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="91" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="92" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="93" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="94" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="95" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="96" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="97" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="98" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="99" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="100" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="101" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="102" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="103" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="104" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="105" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="106" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="107" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="108" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="109" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="110" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="111" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="112" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="113" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="114" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="115" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="116" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="117" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="118" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="119" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="120" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="121" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="122" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="123" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="124" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="125" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="126" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="127" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="128" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="129" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="130" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="131" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="132" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="133" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="134" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="135" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="136" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="137" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="138" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="139" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="140" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="141" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="142" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="143" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="144" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="145" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="146" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="147" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="148" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="149" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="150" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="151" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="152" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="153" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="154" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="155" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="156" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="157" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="158" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="159" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="160" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="161" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="162" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="163" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="164" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="165" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="166" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="167" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="168" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="169" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="170" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="171" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="172" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="173" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="174" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="175" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="176" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="177" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="178" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="179" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="180" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="181" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="182" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="183" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="184" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="185" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="186" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="187" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="188" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="189" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="190" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="191" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="192" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="193" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="194" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="195" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="196" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="197" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="198" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="199" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="200" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="201" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="202" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="203" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="204" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="205" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="206" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="207" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="208" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="209" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="210" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="211" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="212" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="213" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="214" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="215" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="216" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="217" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="218" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="219" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="220" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="221" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="222" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="223" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="224" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="225" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="226" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="227" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="228" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="229" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="230" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="231" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="232" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="233" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="234" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="235" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="236" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="237" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="238" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="239" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="240" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="241" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="242" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="243" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="244" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="245" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="246" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="247" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="248" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="249" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="250" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="251" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="252" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="253" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="254" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="255" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="256" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="257" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="258" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="259" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="260" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="261" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="262" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="263" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="264" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="265" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="266" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="267" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="268" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="269" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="270" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="271" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="272" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="273" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="274" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="275" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="276" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="277" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="278" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="279" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="280" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="281" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="282" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="283" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="284" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="285" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="286" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="287" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="288" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="289" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="290" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="291" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="292" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="293" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="294" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="295" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="296" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="297" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="298" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="299" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="300" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="301" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="302" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="303" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="304" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="305" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="306" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="307" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="308" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="309" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="310" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="311" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="312" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="313" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="314" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="315" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="316" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="317" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="318" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="319" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="320" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="321" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="322" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="323" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="324" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="325" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="326" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="327" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="328" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="329" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="330" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="331" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="332" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="333" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="334" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="335" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="336" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="337" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="338" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="339" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="340" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="341" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="342" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="343" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="344" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="345" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="346" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="347" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="348" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="349" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="350" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="351" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="352" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="353" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="354" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="355" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="356" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="357" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="358" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="359" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="360" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="361" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="362" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="363" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="364" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="365" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="366" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="367" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="368" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="369" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="370" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="371" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="372" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="373" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="374" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="375" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="376" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="377" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="378" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="379" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="380" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="381" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="382" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="383" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="384" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="385" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="386" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="387" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="388" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="389" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="390" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="391" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="392" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="393" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="394" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="395" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="396" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="397" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="398" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="399" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="400" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="401" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="402" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="403" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="404" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="405" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="406" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="407" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="408" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="409" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="410" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="411" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="412" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="413" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="414" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="415" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="416" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="417" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="418" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="419" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="420" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="421" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="422" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="423" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="424" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="425" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="426" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="427" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="428" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="429" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="430" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="431" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="432" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="433" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="434" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="435" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="436" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="437" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="438" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="439" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="440" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="441" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="442" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="443" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="444" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="445" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="446" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="447" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="448" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="449" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="450" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="451" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="452" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="453" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="454" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="455" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="456" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="457" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="458" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="459" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="460" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="461" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="462" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="463" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="464" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="465" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="466" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="467" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="468" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="469" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="470" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="471" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="472" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="473" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="474" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="475" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="476" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="477" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="478" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="479" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="480" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="481" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="482" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="483" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="484" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="485" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="486" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="487" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="488" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="489" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="490" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="491" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="492" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="493" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="494" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="495" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="496" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="497" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="498" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="499" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="500" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="501" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="502" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="503" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="504" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="505" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="506" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="507" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="508" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="509" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="510" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="511" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="512" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="513" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="514" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="515" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="516" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="517" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="518" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="519" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="520" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="521" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="522" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="523" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="524" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="525" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="526" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="527" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="528" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="529" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="530" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="531" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="532" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="533" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="534" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="535" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="536" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="537" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="538" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="539" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="540" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="541" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="542" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="543" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="544" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="545" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="546" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="547" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="548" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="549" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="550" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="551" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="552" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="553" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="554" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="555" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="556" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="557" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="558" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="559" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="560" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="561" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="562" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="563" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="564" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="565" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="566" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="567" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="568" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="569" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="570" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="571" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="572" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="573" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="574" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="575" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="576" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="577" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="578" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="579" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="580" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="581" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="582" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="583" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="584" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="585" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="586" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="587" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="588" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="589" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="590" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="591" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="592" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="593" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="594" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="595" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="596" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="597" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="598" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="599" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="600" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="601" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="602" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="603" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="604" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="605" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="606" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="607" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="608" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="609" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="610" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="611" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="612" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="613" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="614" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="615" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="616" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="617" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="618" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="619" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="620" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="621" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="622" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="623" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="624" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="625" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="626" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="627" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="628" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="629" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="630" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="631" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="632" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="633" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="634" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="635" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="636" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="637" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="638" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="639" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="640" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="641" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="642" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="643" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="644" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="645" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="646" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="647" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="648" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="649" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="650" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="651" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="652" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="653" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="654" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="655" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="656" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="657" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="658" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="659" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="660" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="661" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="662" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="663" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="664" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="665" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="666" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="667" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="668" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="669" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="670" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="671" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="672" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="673" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="674" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="675" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="676" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="677" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="678" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="679" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="680" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="681" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="682" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="683" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="684" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="685" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="686" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="687" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="688" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="689" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="690" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="691" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="692" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="693" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="694" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="695" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="696" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="697" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="698" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="699" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="700" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="701" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="702" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="703" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="704" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="705" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="706" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="707" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="708" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="709" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="710" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="711" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="712" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="713" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="714" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="715" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="716" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="717" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="718" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="719" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="720" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="721" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="722" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="723" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="724" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="725" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="726" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="727" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="728" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="729" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="730" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="731" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="732" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="733" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="734" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="735" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="736" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="737" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="738" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="739" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="740" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="741" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="742" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="743" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="744" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="745" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="746" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="747" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="748" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="749" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="750" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="751" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="752" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="753" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="754" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="755" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="756" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="757" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="758" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="759" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="760" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="761" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="762" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="763" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="764" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="765" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="766" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="767" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="768" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="769" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="770" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="771" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="772" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="773" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="774" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="775" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="776" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="777" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="778" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="779" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="780" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="781" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="782" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="783" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="784" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="785" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="786" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="787" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="788" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="789" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="790" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="791" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="792" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="793" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="794" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="795" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="796" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="797" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="798" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="799" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="800" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="801" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="802" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="803" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="804" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="805" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="806" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="807" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="808" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="809" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="810" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="1048572" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="49" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="50" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="51" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="52" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="53" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="54" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="55" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="56" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="57" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="58" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="59" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="60" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="61" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="62" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="63" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="64" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="65" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="66" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="67" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="68" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="69" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="70" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="71" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="72" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="73" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="74" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="75" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="76" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="77" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="78" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="79" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="80" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="81" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="82" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="83" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="84" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="85" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="86" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="87" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="88" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="89" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="90" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="91" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="92" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="93" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="94" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="95" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="96" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="97" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="98" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="99" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="100" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="101" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="102" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="103" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="104" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="105" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="106" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="107" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="108" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="109" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="110" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="111" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="112" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="113" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="114" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="115" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="116" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="117" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="118" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="119" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="120" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="121" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="122" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="123" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="124" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="125" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="126" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="127" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="128" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="129" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="130" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="131" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="132" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="133" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="134" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="135" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="136" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="137" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="138" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="139" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="140" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="141" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="142" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="143" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="144" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="145" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="146" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="147" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="148" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="149" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="150" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="151" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="152" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="153" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="154" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="155" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="156" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="157" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="158" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="159" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="160" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="161" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="162" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="163" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="164" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="165" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="166" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="167" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="168" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="169" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="170" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="171" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="172" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="173" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="174" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="175" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="176" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="177" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="178" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="179" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="180" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="181" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="182" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="183" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="184" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="185" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="186" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="187" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="188" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="189" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="190" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="191" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="192" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="193" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="194" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="195" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="196" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="197" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="198" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="199" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="200" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="201" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="202" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="203" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="204" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="205" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="206" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="207" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="208" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="209" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="210" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="211" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="212" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="213" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="214" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="215" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="216" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="217" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="218" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="219" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="220" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="221" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="222" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="223" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="224" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="225" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="226" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="227" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="228" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="229" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="230" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="231" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="232" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="233" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="234" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="235" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="236" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="237" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="238" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="239" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="240" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="241" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="242" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="243" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="244" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="245" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="246" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="247" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="248" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="249" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="250" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="251" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="252" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="253" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="254" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="255" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="256" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="257" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="258" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="259" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="260" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="261" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="262" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="263" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="264" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="265" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="266" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="267" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="268" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="269" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="270" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="271" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="272" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="273" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="274" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="275" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="276" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="277" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="278" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="279" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="280" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="281" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="282" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="283" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="284" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="285" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="286" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="287" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="288" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="289" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="290" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="291" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="292" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="293" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="294" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="295" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="296" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="297" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="298" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="299" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="300" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="301" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="302" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="303" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="304" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="305" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="306" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="307" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="308" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="309" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="310" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="311" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="312" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="313" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="314" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="315" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="316" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="317" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="318" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="319" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="320" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="321" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="322" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="323" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="324" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="325" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="326" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="327" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="328" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="329" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="330" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="331" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="332" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="333" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="334" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="335" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="336" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="337" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="338" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="339" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="340" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="341" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="342" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="343" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="344" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="345" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="346" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="347" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="348" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="349" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="350" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="351" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="352" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="353" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="354" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="355" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="356" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="357" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="358" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="359" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="360" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="361" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="362" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="363" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="364" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="365" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="366" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="367" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="368" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="369" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="370" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="371" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="372" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="373" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="374" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="375" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="376" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="377" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="378" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="379" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="380" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="381" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="382" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="383" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="384" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="385" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="386" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="387" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="388" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="389" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="390" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="391" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="392" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="393" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="394" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="395" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="396" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="397" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="398" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="399" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="400" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="401" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="402" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="403" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="404" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="405" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="406" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="407" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="408" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="409" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="410" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="411" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="412" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="413" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="414" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="415" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="416" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="417" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="418" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="419" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="420" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="421" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="422" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="423" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="424" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="425" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="426" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="427" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="428" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="429" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="430" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="431" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="432" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="433" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="434" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="435" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="436" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="437" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="438" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="439" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="440" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="441" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="442" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="443" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="444" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="445" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="446" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="447" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="448" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="449" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="450" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="451" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="452" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="453" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="454" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="455" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="456" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="457" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="458" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="459" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="460" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="461" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="462" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="463" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="464" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="465" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="466" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="467" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="468" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="469" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="470" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="471" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="472" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="473" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="474" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="475" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="476" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="477" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="478" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="479" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="480" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="481" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="482" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="483" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="484" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="485" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="486" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="487" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="488" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="489" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="490" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="491" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="492" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="493" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="494" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="495" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="496" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="497" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="498" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="499" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="500" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="501" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="502" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="503" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="504" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="505" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="506" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="507" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="508" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="509" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="510" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="511" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="512" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="513" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="514" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="515" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="516" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="517" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="518" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="519" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="520" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="521" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="522" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="523" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="524" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="525" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="526" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="527" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="528" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="529" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="530" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="531" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="532" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="533" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="534" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="535" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="536" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="537" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="538" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="539" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="540" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="541" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="542" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="543" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="544" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="545" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="546" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="547" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="548" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="549" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="550" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="551" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="552" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="553" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="554" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="555" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="556" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="557" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="558" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="559" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="560" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="561" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="562" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="563" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="564" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="565" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="566" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="567" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="568" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="569" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="570" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="571" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="572" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="573" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="574" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="575" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="576" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="577" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="578" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="579" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="580" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="581" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="582" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="583" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="584" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="585" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="586" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="587" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="588" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="589" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="590" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="591" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="592" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="593" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="594" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="595" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="596" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="597" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="598" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="599" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="600" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="601" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="602" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="603" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="604" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="605" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="606" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="607" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="608" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="609" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="610" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="611" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="612" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="613" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="614" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="615" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="616" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="617" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="618" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="619" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="620" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="621" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="622" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="623" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="624" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="625" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="626" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="627" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="628" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="629" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="630" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="631" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="632" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="633" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="634" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="635" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="636" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="637" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="638" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="639" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="640" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="641" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="642" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="643" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="644" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="645" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="646" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="647" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="648" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="649" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="650" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="651" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="652" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="653" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="654" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="655" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="656" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="657" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="658" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="659" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="660" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="661" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="662" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="663" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="664" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="665" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="666" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="667" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="668" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="669" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="670" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="671" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="672" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="673" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="674" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="675" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="676" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="677" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="678" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="679" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="680" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="681" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="682" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="683" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="684" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="685" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="686" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="687" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="688" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="689" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="690" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="691" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="692" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="693" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="694" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="695" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="696" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="697" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="698" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="699" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="700" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="701" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="702" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="703" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="704" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="705" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="706" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="707" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="708" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="709" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="710" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="711" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="712" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="713" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="714" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="715" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="716" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="717" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="718" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="719" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="720" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="721" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="722" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="723" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="724" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="725" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="726" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="727" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="728" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="729" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="730" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="731" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="732" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="733" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="734" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="735" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="736" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="737" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="738" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="739" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="740" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="741" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="742" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="743" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="744" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="745" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="746" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="747" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="748" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="749" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="750" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="751" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="752" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="753" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="754" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="755" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="756" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="757" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="758" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="759" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="760" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="761" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="762" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="763" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="764" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="765" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="766" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="767" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="768" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="769" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="770" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="771" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="772" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="773" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="774" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="775" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="776" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="777" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="778" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="779" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="780" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="781" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="782" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="783" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="784" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="785" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="786" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="787" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="788" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="789" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="790" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="791" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="792" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="793" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="794" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="795" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="796" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="797" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="798" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="799" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="800" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="801" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="802" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="803" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="804" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="805" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="806" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="807" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="808" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="809" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="810" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="1048572" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D1048572" s="13"/>
     </row>
-    <row r="1048575" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="1048575" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D1048575" s="13"/>
     </row>
   </sheetData>
@@ -4134,47 +4137,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45AAE02B-1ED2-44CD-BC76-39A59421CF46}">
   <dimension ref="A1:AE780"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AD14" sqref="AD14"/>
+    <sheetView topLeftCell="V1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AA4" sqref="AA4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.796875" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.796875" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="18.09765625" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.3984375" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.3984375" style="11" customWidth="1"/>
+    <col min="1" max="1" width="29.81640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.81640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="18.08984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.36328125" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.36328125" style="11" customWidth="1"/>
     <col min="7" max="7" width="17" style="11" customWidth="1"/>
-    <col min="8" max="8" width="24.69921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.796875" style="11" customWidth="1"/>
-    <col min="10" max="10" width="17.3984375" style="11" customWidth="1"/>
-    <col min="11" max="11" width="15.3984375" style="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.796875" style="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.3984375" style="11" customWidth="1"/>
-    <col min="14" max="14" width="16.3984375" style="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.3984375" style="11" customWidth="1"/>
-    <col min="16" max="16" width="21.19921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.3984375" style="11" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.796875" style="11" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.796875" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.7265625" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.81640625" style="11" customWidth="1"/>
+    <col min="10" max="10" width="17.36328125" style="11" customWidth="1"/>
+    <col min="11" max="11" width="15.36328125" style="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.81640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.36328125" style="11" customWidth="1"/>
+    <col min="14" max="14" width="16.36328125" style="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.36328125" style="11" customWidth="1"/>
+    <col min="16" max="16" width="21.1796875" style="11" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.36328125" style="11" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.81640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.81640625" style="11" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="22" style="11" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="17.796875" style="11" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17.81640625" style="11" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="18" style="11" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="20.69921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="25.796875" style="11" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.296875" style="11" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="23.69921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="15.19921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="19.8984375" style="11" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="43.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="20.7265625" style="11" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="25.81640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.26953125" style="11" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="23.7265625" style="11" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.1796875" style="11" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="19.90625" style="11" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="43.7265625" style="11" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="17" style="11" customWidth="1"/>
-    <col min="31" max="31" width="8.796875" style="11"/>
-    <col min="32" max="16384" width="8.796875" style="10"/>
+    <col min="31" max="31" width="8.81640625" style="11"/>
+    <col min="32" max="16384" width="8.81640625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
         <v>2</v>
       </c>
@@ -4269,7 +4272,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:31" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:31" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
         <v>76</v>
       </c>
@@ -4330,7 +4333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:31" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:31" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="14" t="s">
         <v>84</v>
       </c>
@@ -4391,7 +4394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:31" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:31" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="14" t="s">
         <v>116</v>
       </c>
@@ -4454,7 +4457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:31" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:31" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="14" t="s">
         <v>117</v>
       </c>
@@ -4517,7 +4520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:31" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="14" t="s">
         <v>119</v>
       </c>
@@ -4580,7 +4583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:31" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:31" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="14" t="s">
         <v>87</v>
       </c>
@@ -4625,7 +4628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:31" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:31" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="14" t="s">
         <v>88</v>
       </c>
@@ -4670,7 +4673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:31" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:31" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="14" t="s">
         <v>91</v>
       </c>
@@ -4679,29 +4682,49 @@
       </c>
       <c r="C9" s="17"/>
       <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
+      <c r="E9" s="17" t="s">
+        <v>65</v>
+      </c>
       <c r="F9" s="9"/>
-      <c r="G9" s="17"/>
+      <c r="G9" s="17">
+        <v>1</v>
+      </c>
       <c r="H9" s="9"/>
-      <c r="I9" s="17"/>
+      <c r="I9" s="17" t="s">
+        <v>67</v>
+      </c>
       <c r="J9" s="9"/>
-      <c r="K9" s="17"/>
+      <c r="K9" s="17">
+        <v>2000</v>
+      </c>
       <c r="L9" s="9"/>
-      <c r="M9" s="17"/>
+      <c r="M9" s="17" t="s">
+        <v>67</v>
+      </c>
       <c r="N9" s="9"/>
-      <c r="O9" s="17"/>
+      <c r="O9" s="17">
+        <v>1</v>
+      </c>
       <c r="P9" s="9"/>
-      <c r="Q9" s="17"/>
+      <c r="Q9" s="17">
+        <v>20</v>
+      </c>
       <c r="R9" s="9"/>
-      <c r="S9" s="17"/>
+      <c r="S9" s="17">
+        <v>1</v>
+      </c>
       <c r="T9" s="9"/>
       <c r="U9" s="21" t="s">
         <v>86</v>
       </c>
       <c r="V9" s="22"/>
-      <c r="W9" s="7"/>
+      <c r="W9" s="7" t="s">
+        <v>69</v>
+      </c>
       <c r="X9" s="9"/>
-      <c r="Y9" s="7"/>
+      <c r="Y9" s="7">
+        <v>8000</v>
+      </c>
       <c r="Z9" s="9"/>
       <c r="AA9" s="7" t="s">
         <v>28</v>
@@ -4715,7 +4738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:31" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:31" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="14" t="s">
         <v>92</v>
       </c>
@@ -4724,29 +4747,49 @@
       </c>
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
+      <c r="E10" s="17" t="s">
+        <v>65</v>
+      </c>
       <c r="F10" s="9"/>
-      <c r="G10" s="17"/>
+      <c r="G10" s="17">
+        <v>1</v>
+      </c>
       <c r="H10" s="9"/>
-      <c r="I10" s="17"/>
+      <c r="I10" s="17" t="s">
+        <v>67</v>
+      </c>
       <c r="J10" s="9"/>
-      <c r="K10" s="17"/>
+      <c r="K10" s="17">
+        <v>2000</v>
+      </c>
       <c r="L10" s="9"/>
-      <c r="M10" s="17"/>
+      <c r="M10" s="17" t="s">
+        <v>67</v>
+      </c>
       <c r="N10" s="9"/>
-      <c r="O10" s="17"/>
+      <c r="O10" s="17">
+        <v>1</v>
+      </c>
       <c r="P10" s="9"/>
-      <c r="Q10" s="17"/>
+      <c r="Q10" s="17">
+        <v>20</v>
+      </c>
       <c r="R10" s="9"/>
-      <c r="S10" s="17"/>
+      <c r="S10" s="17">
+        <v>1</v>
+      </c>
       <c r="T10" s="9"/>
       <c r="U10" s="21" t="s">
         <v>86</v>
       </c>
       <c r="V10" s="22"/>
-      <c r="W10" s="7"/>
+      <c r="W10" s="7" t="s">
+        <v>69</v>
+      </c>
       <c r="X10" s="9"/>
-      <c r="Y10" s="7"/>
+      <c r="Y10" s="7">
+        <v>8000</v>
+      </c>
       <c r="Z10" s="9"/>
       <c r="AA10" s="7" t="s">
         <v>28</v>
@@ -4760,7 +4803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:31" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:31" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="14" t="s">
         <v>134</v>
       </c>
@@ -4807,7 +4850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:31" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:31" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="14" t="s">
         <v>136</v>
       </c>
@@ -4854,7 +4897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:31" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:31" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="14" t="s">
         <v>137</v>
       </c>
@@ -4901,7 +4944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:31" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:31" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="14" t="s">
         <v>138</v>
       </c>
@@ -4948,7 +4991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:31" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:31" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="14" t="s">
         <v>93</v>
       </c>
@@ -4993,7 +5036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:31" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:31" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="14" t="s">
         <v>94</v>
       </c>
@@ -5038,7 +5081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:31" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:31" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="14" t="s">
         <v>95</v>
       </c>
@@ -5083,7 +5126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:31" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:31" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="14" t="s">
         <v>96</v>
       </c>
@@ -5128,7 +5171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:31" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:31" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="14" t="s">
         <v>98</v>
       </c>
@@ -5173,7 +5216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:31" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:31" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="14" t="s">
         <v>99</v>
       </c>
@@ -5218,7 +5261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:31" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:31" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="14" t="s">
         <v>97</v>
       </c>
@@ -5263,7 +5306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:31" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:31" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="14" t="s">
         <v>100</v>
       </c>
@@ -5308,7 +5351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:31" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:31" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="14" t="s">
         <v>101</v>
       </c>
@@ -5353,7 +5396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:31" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:31" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="14" t="s">
         <v>102</v>
       </c>
@@ -5398,7 +5441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:31" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:31" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="14" t="s">
         <v>103</v>
       </c>
@@ -5443,7 +5486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:31" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:31" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="14" t="s">
         <v>104</v>
       </c>
@@ -5488,7 +5531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:31" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:31" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27" s="14" t="s">
         <v>120</v>
       </c>
@@ -5555,7 +5598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:31" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:31" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="14" t="s">
         <v>129</v>
       </c>
@@ -5622,7 +5665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:31" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:31" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A29" s="14" t="s">
         <v>130</v>
       </c>
@@ -5689,7 +5732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:31" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:31" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A30" s="14" t="s">
         <v>131</v>
       </c>
@@ -5756,7 +5799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A31" s="10"/>
       <c r="E31" s="10"/>
       <c r="F31" s="10"/>
@@ -5786,7 +5829,7 @@
       <c r="AD31" s="10"/>
       <c r="AE31" s="10"/>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A32" s="10"/>
       <c r="E32" s="10"/>
       <c r="F32" s="10"/>
@@ -5816,754 +5859,754 @@
       <c r="AD32" s="10"/>
       <c r="AE32" s="10"/>
     </row>
-    <row r="33" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="34" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="35" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="36" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="37" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="38" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="39" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="40" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="41" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="42" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="43" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="44" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="45" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="46" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="47" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="48" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="49" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="50" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="51" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="52" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="53" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="54" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="55" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="56" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="57" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="58" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="59" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="60" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="61" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="62" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="63" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="64" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="65" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="66" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="67" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="68" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="69" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="70" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="71" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="72" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="73" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="74" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="75" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="76" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="77" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="78" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="79" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="80" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="81" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="82" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="83" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="84" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="85" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="86" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="87" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="88" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="89" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="90" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="91" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="92" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="93" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="94" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="95" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="96" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="97" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="98" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="99" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="100" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="101" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="102" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="103" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="104" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="105" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="106" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="107" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="108" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="109" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="110" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="111" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="112" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="113" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="114" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="115" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="116" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="117" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="118" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="119" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="120" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="121" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="122" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="123" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="124" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="125" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="126" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="127" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="128" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="129" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="130" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="131" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="132" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="133" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="134" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="135" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="136" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="137" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="138" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="139" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="140" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="141" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="142" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="143" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="144" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="145" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="146" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="147" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="148" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="149" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="150" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="151" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="152" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="153" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="154" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="155" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="156" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="157" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="158" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="159" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="160" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="161" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="162" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="163" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="164" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="165" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="166" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="167" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="168" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="169" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="170" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="171" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="172" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="173" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="174" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="175" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="176" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="177" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="178" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="179" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="180" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="181" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="182" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="183" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="184" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="185" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="186" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="187" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="188" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="189" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="190" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="191" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="192" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="193" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="194" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="195" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="196" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="197" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="198" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="199" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="200" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="201" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="202" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="203" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="204" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="205" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="206" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="207" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="208" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="209" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="210" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="211" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="212" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="213" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="214" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="215" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="216" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="217" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="218" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="219" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="220" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="221" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="222" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="223" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="224" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="225" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="226" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="227" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="228" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="229" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="230" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="231" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="232" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="233" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="234" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="235" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="236" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="237" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="238" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="239" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="240" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="241" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="242" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="243" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="244" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="245" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="246" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="247" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="248" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="249" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="250" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="251" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="252" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="253" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="254" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="255" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="256" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="257" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="258" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="259" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="260" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="261" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="262" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="263" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="264" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="265" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="266" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="267" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="268" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="269" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="270" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="271" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="272" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="273" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="274" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="275" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="276" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="277" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="278" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="279" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="280" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="281" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="282" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="283" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="284" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="285" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="286" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="287" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="288" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="289" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="290" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="291" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="292" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="293" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="294" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="295" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="296" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="297" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="298" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="299" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="300" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="301" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="302" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="303" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="304" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="305" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="306" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="307" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="308" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="309" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="310" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="311" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="312" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="313" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="314" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="315" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="316" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="317" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="318" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="319" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="320" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="321" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="322" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="323" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="324" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="325" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="326" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="327" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="328" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="329" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="330" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="331" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="332" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="333" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="334" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="335" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="336" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="337" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="338" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="339" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="340" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="341" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="342" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="343" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="344" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="345" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="346" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="347" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="348" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="349" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="350" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="351" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="352" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="353" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="354" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="355" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="356" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="357" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="358" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="359" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="360" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="361" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="362" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="363" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="364" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="365" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="366" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="367" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="368" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="369" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="370" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="371" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="372" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="373" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="374" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="375" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="376" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="377" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="378" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="379" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="380" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="381" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="382" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="383" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="384" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="385" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="386" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="387" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="388" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="389" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="390" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="391" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="392" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="393" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="394" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="395" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="396" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="397" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="398" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="399" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="400" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="401" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="402" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="403" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="404" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="405" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="406" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="407" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="408" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="409" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="410" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="411" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="412" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="413" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="414" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="415" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="416" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="417" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="418" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="419" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="420" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="421" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="422" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="423" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="424" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="425" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="426" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="427" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="428" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="429" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="430" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="431" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="432" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="433" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="434" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="435" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="436" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="437" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="438" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="439" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="440" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="441" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="442" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="443" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="444" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="445" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="446" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="447" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="448" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="449" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="450" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="451" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="452" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="453" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="454" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="455" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="456" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="457" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="458" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="459" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="460" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="461" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="462" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="463" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="464" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="465" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="466" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="467" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="468" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="469" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="470" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="471" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="472" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="473" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="474" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="475" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="476" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="477" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="478" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="479" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="480" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="481" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="482" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="483" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="484" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="485" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="486" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="487" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="488" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="489" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="490" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="491" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="492" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="493" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="494" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="495" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="496" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="497" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="498" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="499" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="500" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="501" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="502" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="503" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="504" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="505" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="506" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="507" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="508" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="509" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="510" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="511" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="512" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="513" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="514" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="515" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="516" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="517" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="518" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="519" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="520" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="521" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="522" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="523" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="524" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="525" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="526" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="527" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="528" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="529" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="530" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="531" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="532" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="533" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="534" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="535" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="536" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="537" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="538" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="539" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="540" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="541" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="542" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="543" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="544" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="545" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="546" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="547" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="548" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="549" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="550" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="551" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="552" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="553" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="554" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="555" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="556" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="557" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="558" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="559" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="560" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="561" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="562" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="563" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="564" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="565" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="566" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="567" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="568" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="569" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="570" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="571" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="572" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="573" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="574" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="575" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="576" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="577" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="578" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="579" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="580" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="581" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="582" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="583" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="584" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="585" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="586" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="587" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="588" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="589" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="590" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="591" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="592" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="593" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="594" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="595" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="596" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="597" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="598" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="599" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="600" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="601" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="602" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="603" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="604" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="605" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="606" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="607" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="608" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="609" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="610" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="611" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="612" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="613" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="614" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="615" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="616" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="617" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="618" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="619" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="620" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="621" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="622" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="623" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="624" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="625" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="626" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="627" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="628" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="629" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="630" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="631" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="632" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="633" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="634" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="635" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="636" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="637" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="638" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="639" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="640" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="641" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="642" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="643" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="644" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="645" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="646" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="647" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="648" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="649" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="650" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="651" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="652" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="653" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="654" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="655" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="656" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="657" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="658" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="659" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="660" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="661" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="662" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="663" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="664" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="665" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="666" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="667" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="668" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="669" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="670" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="671" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="672" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="673" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="674" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="675" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="676" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="677" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="678" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="679" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="680" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="681" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="682" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="683" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="684" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="685" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="686" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="687" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="688" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="689" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="690" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="691" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="692" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="693" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="694" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="695" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="696" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="697" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="698" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="699" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="700" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="701" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="702" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="703" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="704" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="705" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="706" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="707" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="708" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="709" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="710" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="711" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="712" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="713" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="714" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="715" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="716" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="717" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="718" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="719" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="720" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="721" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="722" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="723" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="724" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="725" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="726" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="727" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="728" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="729" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="730" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="731" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="732" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="733" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="734" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="735" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="736" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="737" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="738" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="739" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="740" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="741" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="742" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="743" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="744" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="745" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="746" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="747" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="748" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="749" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="750" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="751" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="752" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="753" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="754" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="755" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="756" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="757" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="758" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="759" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="760" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="761" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="762" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="763" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="764" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="765" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="766" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="767" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="768" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="769" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="770" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="771" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="772" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="773" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="774" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="775" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="776" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="777" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="778" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="779" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="780" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="33" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="34" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="35" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="36" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="37" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="38" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="39" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="40" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="41" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="42" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="43" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="44" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="45" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="46" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="47" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="48" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="49" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="50" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="51" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="52" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="53" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="54" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="55" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="56" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="57" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="58" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="59" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="60" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="61" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="62" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="63" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="64" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="65" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="66" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="67" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="68" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="69" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="70" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="71" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="72" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="73" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="74" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="75" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="76" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="77" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="78" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="79" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="80" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="81" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="82" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="83" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="84" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="85" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="86" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="87" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="88" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="89" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="90" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="91" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="92" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="93" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="94" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="95" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="96" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="97" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="98" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="99" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="100" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="101" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="102" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="103" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="104" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="105" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="106" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="107" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="108" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="109" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="110" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="111" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="112" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="113" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="114" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="115" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="116" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="117" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="118" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="119" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="120" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="121" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="122" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="123" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="124" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="125" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="126" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="127" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="128" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="129" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="130" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="131" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="132" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="133" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="134" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="135" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="136" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="137" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="138" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="139" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="140" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="141" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="142" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="143" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="144" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="145" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="146" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="147" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="148" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="149" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="150" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="151" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="152" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="153" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="154" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="155" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="156" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="157" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="158" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="159" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="160" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="161" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="162" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="163" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="164" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="165" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="166" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="167" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="168" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="169" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="170" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="171" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="172" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="173" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="174" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="175" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="176" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="177" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="178" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="179" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="180" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="181" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="182" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="183" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="184" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="185" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="186" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="187" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="188" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="189" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="190" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="191" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="192" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="193" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="194" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="195" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="196" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="197" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="198" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="199" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="200" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="201" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="202" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="203" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="204" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="205" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="206" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="207" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="208" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="209" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="210" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="211" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="212" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="213" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="214" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="215" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="216" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="217" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="218" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="219" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="220" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="221" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="222" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="223" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="224" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="225" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="226" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="227" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="228" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="229" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="230" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="231" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="232" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="233" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="234" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="235" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="236" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="237" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="238" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="239" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="240" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="241" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="242" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="243" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="244" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="245" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="246" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="247" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="248" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="249" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="250" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="251" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="252" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="253" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="254" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="255" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="256" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="257" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="258" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="259" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="260" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="261" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="262" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="263" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="264" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="265" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="266" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="267" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="268" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="269" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="270" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="271" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="272" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="273" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="274" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="275" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="276" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="277" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="278" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="279" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="280" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="281" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="282" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="283" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="284" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="285" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="286" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="287" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="288" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="289" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="290" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="291" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="292" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="293" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="294" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="295" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="296" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="297" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="298" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="299" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="300" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="301" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="302" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="303" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="304" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="305" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="306" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="307" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="308" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="309" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="310" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="311" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="312" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="313" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="314" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="315" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="316" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="317" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="318" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="319" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="320" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="321" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="322" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="323" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="324" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="325" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="326" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="327" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="328" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="329" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="330" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="331" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="332" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="333" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="334" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="335" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="336" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="337" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="338" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="339" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="340" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="341" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="342" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="343" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="344" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="345" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="346" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="347" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="348" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="349" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="350" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="351" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="352" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="353" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="354" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="355" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="356" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="357" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="358" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="359" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="360" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="361" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="362" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="363" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="364" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="365" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="366" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="367" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="368" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="369" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="370" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="371" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="372" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="373" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="374" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="375" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="376" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="377" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="378" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="379" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="380" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="381" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="382" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="383" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="384" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="385" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="386" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="387" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="388" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="389" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="390" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="391" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="392" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="393" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="394" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="395" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="396" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="397" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="398" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="399" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="400" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="401" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="402" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="403" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="404" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="405" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="406" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="407" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="408" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="409" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="410" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="411" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="412" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="413" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="414" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="415" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="416" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="417" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="418" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="419" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="420" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="421" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="422" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="423" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="424" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="425" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="426" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="427" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="428" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="429" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="430" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="431" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="432" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="433" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="434" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="435" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="436" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="437" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="438" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="439" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="440" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="441" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="442" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="443" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="444" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="445" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="446" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="447" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="448" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="449" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="450" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="451" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="452" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="453" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="454" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="455" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="456" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="457" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="458" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="459" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="460" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="461" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="462" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="463" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="464" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="465" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="466" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="467" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="468" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="469" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="470" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="471" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="472" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="473" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="474" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="475" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="476" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="477" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="478" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="479" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="480" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="481" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="482" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="483" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="484" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="485" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="486" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="487" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="488" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="489" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="490" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="491" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="492" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="493" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="494" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="495" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="496" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="497" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="498" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="499" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="500" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="501" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="502" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="503" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="504" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="505" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="506" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="507" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="508" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="509" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="510" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="511" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="512" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="513" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="514" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="515" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="516" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="517" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="518" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="519" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="520" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="521" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="522" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="523" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="524" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="525" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="526" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="527" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="528" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="529" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="530" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="531" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="532" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="533" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="534" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="535" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="536" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="537" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="538" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="539" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="540" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="541" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="542" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="543" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="544" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="545" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="546" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="547" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="548" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="549" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="550" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="551" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="552" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="553" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="554" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="555" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="556" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="557" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="558" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="559" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="560" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="561" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="562" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="563" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="564" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="565" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="566" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="567" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="568" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="569" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="570" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="571" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="572" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="573" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="574" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="575" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="576" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="577" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="578" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="579" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="580" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="581" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="582" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="583" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="584" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="585" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="586" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="587" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="588" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="589" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="590" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="591" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="592" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="593" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="594" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="595" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="596" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="597" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="598" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="599" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="600" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="601" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="602" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="603" s="10" customF